--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1445,7 +1445,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.12 13:21:11</t>
+          <t>更新日期：2025.06.13 13:21:05</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -6924,7 +6924,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.12 13:21:11</t>
+          <t>更新日期：2025.06.13 13:21:05</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1445,7 +1445,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.13 13:21:05</t>
+          <t>更新日期：2025.06.14 13:21:08</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -5873,12 +5873,12 @@
       </c>
       <c r="G44" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>maa://29768, maa://27728</t>
+          <t>maa://29768, maa://27728, maa://56386</t>
         </is>
       </c>
       <c r="I44" s="13" t="n"/>
@@ -6924,7 +6924,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.13 13:21:05</t>
+          <t>更新日期：2025.06.14 13:21:08</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="D108" s="17" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://32653, maa://45194, maa://25161</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://32653, maa://25161</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -697,12 +697,12 @@
       </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L2" s="16" t="inlineStr">
         <is>
-          <t>maa://39402, *maa://30515, *maa://34787</t>
+          <t>maa://39402, *maa://34787</t>
         </is>
       </c>
       <c r="M2" s="13" t="n"/>
@@ -1445,7 +1445,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.14 13:21:08</t>
+          <t>更新日期：2025.06.17 13:22:20</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="P10" s="16" t="inlineStr">
         <is>
-          <t>maa://28977, maa://36669, *maa://23264</t>
+          <t>maa://28977, *maa://36669, *maa://23264</t>
         </is>
       </c>
       <c r="Q10" s="13" t="n"/>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>*maa://39601, maa://34494</t>
+          <t>maa://39601, maa://34494</t>
         </is>
       </c>
       <c r="I27" s="13" t="n"/>
@@ -6617,12 +6617,12 @@
       </c>
       <c r="G63" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>maa://59534, maa://59413</t>
+          <t>maa://59534, maa://59693, maa://59413</t>
         </is>
       </c>
       <c r="I63" s="13" t="n"/>
@@ -6924,7 +6924,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.14 13:21:08</t>
+          <t>更新日期：2025.06.17 13:22:20</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -14522,7 +14522,7 @@
       </c>
       <c r="D330" s="17" t="inlineStr">
         <is>
-          <t>maa://34205, **maa://39541</t>
+          <t>maa://34205, *maa://39541</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="D367" s="7" t="inlineStr">
         <is>
-          <t>maa://42333, maa://41977, maa://50518</t>
+          <t>maa://42333, maa://50518, maa://41977</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1445,7 +1445,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.17 13:22:20</t>
+          <t>更新日期：2025.06.18 13:21:34</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="P10" s="16" t="inlineStr">
         <is>
-          <t>maa://28977, *maa://36669, *maa://23264</t>
+          <t>maa://28977, maa://36669, *maa://23264</t>
         </is>
       </c>
       <c r="Q10" s="13" t="n"/>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="AE13" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF13" s="16" t="inlineStr">
         <is>
-          <t>**maa://22737, maa://39883, **maa://39885</t>
+          <t>maa://39883, **maa://39885</t>
         </is>
       </c>
       <c r="AG13" s="18" t="n"/>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="AA21" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB21" s="16" t="inlineStr">
         <is>
-          <t>maa://21443, ***maa://23820, **maa://52223</t>
+          <t>maa://21443</t>
         </is>
       </c>
       <c r="AC21" s="13" t="n"/>
@@ -5653,12 +5653,12 @@
       </c>
       <c r="O41" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P41" s="16" t="inlineStr">
         <is>
-          <t>**maa://35616, maa://43177</t>
+          <t>maa://43177</t>
         </is>
       </c>
       <c r="Q41" s="13" t="n"/>
@@ -6924,7 +6924,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.17 13:22:20</t>
+          <t>更新日期：2025.06.18 13:21:34</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="D219" s="17" t="inlineStr">
         <is>
-          <t>**maa://20995</t>
+          <t>*maa://20995</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1445,7 +1445,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.18 13:21:34</t>
+          <t>更新日期：2025.06.19 13:20:55</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -6924,7 +6924,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.18 13:21:34</t>
+          <t>更新日期：2025.06.19 13:20:55</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -13158,7 +13158,7 @@
       </c>
       <c r="D268" s="17" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>*maa://48265</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="D352" s="7" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758, *maa://52357, *maa://59402</t>
+          <t>maa://49696, maa://49695, maa://49758, *maa://59402, *maa://52357</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -697,12 +697,12 @@
       </c>
       <c r="K2" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L2" s="16" t="inlineStr">
         <is>
-          <t>maa://39402, *maa://34787</t>
+          <t>maa://39402, *maa://34787, *maa://58660</t>
         </is>
       </c>
       <c r="M2" s="13" t="n"/>
@@ -1445,7 +1445,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.19 13:20:55</t>
+          <t>更新日期：2025.06.21 13:21:26</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -6924,7 +6924,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.19 13:20:55</t>
+          <t>更新日期：2025.06.21 13:21:26</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="D39" s="17" t="inlineStr">
         <is>
-          <t>*maa://29012, maa://20928</t>
+          <t>maa://29012, maa://20928</t>
         </is>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
       </c>
       <c r="D148" s="17" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846, **maa://47286</t>
+          <t>maa://28828, maa://20846, *maa://47286</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="D179" s="17" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20911, maa://29012</t>
         </is>
       </c>
     </row>
@@ -15199,12 +15199,12 @@
       </c>
       <c r="C361" s="9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D361" s="7" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, maa://60251</t>
         </is>
       </c>
     </row>
@@ -15881,12 +15881,12 @@
       </c>
       <c r="C392" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D392" s="7" t="inlineStr">
         <is>
-          <t>maa://59493, maa://59603</t>
+          <t>maa://59493, maa://59603, maa://60449</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -134,6 +134,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +705,7 @@
       </c>
       <c r="L2" s="16" t="inlineStr">
         <is>
-          <t>maa://39402, *maa://34787, *maa://58660</t>
+          <t>maa://39402, *maa://34787, maa://58660</t>
         </is>
       </c>
       <c r="M2" s="13" t="n"/>
@@ -859,12 +862,12 @@
       </c>
       <c r="S3" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T3" s="16" t="inlineStr">
         <is>
-          <t>maa://24617, maa://45854</t>
+          <t>maa://24617, maa://45854, maa://60545</t>
         </is>
       </c>
       <c r="U3" s="13" t="n"/>
@@ -1445,7 +1448,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.21 13:21:26</t>
+          <t>更新日期：2025.06.23 13:23:39</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -3912,7 +3915,7 @@
       </c>
       <c r="AF26" s="16" t="inlineStr">
         <is>
-          <t>*maa://30511, *maa://29760</t>
+          <t>*maa://30511, **maa://29760</t>
         </is>
       </c>
       <c r="AG26" s="18" t="n"/>
@@ -6617,12 +6620,12 @@
       </c>
       <c r="G63" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>maa://59534, maa://59693, maa://59413</t>
+          <t>maa://59534, maa://59413</t>
         </is>
       </c>
       <c r="I63" s="13" t="n"/>
@@ -6878,7 +6881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB392"/>
+  <dimension ref="A1:AB394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -6924,7 +6927,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.21 13:21:26</t>
+          <t>更新日期：2025.06.23 13:23:39</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -15585,12 +15588,12 @@
     <row r="379">
       <c r="A379" s="9" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B379" s="9" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C379" s="9" t="inlineStr">
@@ -15600,19 +15603,19 @@
       </c>
       <c r="D379" s="7" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="9" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B380" s="9" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C380" s="9" t="inlineStr">
@@ -15622,19 +15625,19 @@
       </c>
       <c r="D380" s="7" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="9" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B381" s="9" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C381" s="9" t="inlineStr">
@@ -15644,19 +15647,19 @@
       </c>
       <c r="D381" s="7" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="9" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B382" s="9" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C382" s="9" t="inlineStr">
@@ -15666,41 +15669,41 @@
       </c>
       <c r="D382" s="7" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="9" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B383" s="9" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C383" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D383" s="7" t="inlineStr">
         <is>
-          <t>*maa://47175, maa://47174</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="9" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B384" s="9" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C384" s="9" t="inlineStr">
@@ -15710,107 +15713,107 @@
       </c>
       <c r="D384" s="7" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="9" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B385" s="9" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C385" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D385" s="7" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>*maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="9" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B386" s="9" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C386" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D386" s="7" t="inlineStr">
         <is>
-          <t>maa://59533, maa://59577</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="9" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B387" s="9" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C387" s="9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D387" s="7" t="inlineStr">
         <is>
-          <t>maa://51907, maa://51908</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="9" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B388" s="9" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C388" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D388" s="7" t="inlineStr">
         <is>
-          <t>maa://59691</t>
+          <t>maa://59533, maa://59577</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="9" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B389" s="9" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C389" s="9" t="inlineStr">
@@ -15820,71 +15823,115 @@
       </c>
       <c r="D389" s="7" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>maa://51907, maa://51908</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="9" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B390" s="9" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C390" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D390" s="7" t="inlineStr">
         <is>
-          <t>maa://51880, maa://51878, maa://56651</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="9" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B391" s="9" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C391" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D391" s="7" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, maa://51873</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="9" t="inlineStr">
         <is>
+          <t>蕾缪安</t>
+        </is>
+      </c>
+      <c r="B392" s="9" t="inlineStr">
+        <is>
+          <t>13-13</t>
+        </is>
+      </c>
+      <c r="C392" s="9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D392" s="7" t="inlineStr">
+        <is>
+          <t>maa://51880, maa://51878, maa://56651</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="19" t="inlineStr">
+        <is>
+          <t>新约能天使</t>
+        </is>
+      </c>
+      <c r="B393" s="19" t="inlineStr">
+        <is>
+          <t>GA-EX-5</t>
+        </is>
+      </c>
+      <c r="C393" s="19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>maa://51872, maa://51876, maa://51873</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="19" t="inlineStr">
+        <is>
           <t>酒神</t>
         </is>
       </c>
-      <c r="B392" s="9" t="inlineStr">
+      <c r="B394" s="19" t="inlineStr">
         <is>
           <t>9-6</t>
         </is>
       </c>
-      <c r="C392" s="9" t="inlineStr">
+      <c r="C394" s="19" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D392" s="7" t="inlineStr">
+      <c r="D394" t="inlineStr">
         <is>
           <t>maa://59493, maa://59603, maa://60449</t>
         </is>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1448,7 +1448,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.23 13:23:39</t>
+          <t>更新日期：2025.06.24 13:22:20</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -6927,7 +6927,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.23 13:23:39</t>
+          <t>更新日期：2025.06.24 13:22:20</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -12782,12 +12782,12 @@
       </c>
       <c r="C251" s="9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D251" s="17" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://20923, maa://60577</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1448,7 +1448,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.24 13:22:20</t>
+          <t>更新日期：2025.06.25 13:22:19</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -6927,7 +6927,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.24 13:22:20</t>
+          <t>更新日期：2025.06.25 13:22:19</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1448,7 +1448,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.25 13:22:19</t>
+          <t>更新日期：2025.06.27 13:21:40</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="P10" s="16" t="inlineStr">
         <is>
-          <t>maa://28977, maa://36669, *maa://23264</t>
+          <t>maa://28977, *maa://36669, *maa://23264</t>
         </is>
       </c>
       <c r="Q10" s="13" t="n"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="X12" s="16" t="inlineStr">
         <is>
-          <t>maa://22753, *maa://21485, maa://37962</t>
+          <t>maa://22753, maa://37962, *maa://21485</t>
         </is>
       </c>
       <c r="Y12" s="13" t="n"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="T16" s="16" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, maa://36674</t>
+          <t>maa://22729, *maa://28648, *maa://36674</t>
         </is>
       </c>
       <c r="U16" s="13" t="n"/>
@@ -6927,7 +6927,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.25 13:22:19</t>
+          <t>更新日期：2025.06.27 13:21:40</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -10758,12 +10758,12 @@
       </c>
       <c r="C159" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D159" s="17" t="inlineStr">
         <is>
-          <t>maa://44232, maa://45603, maa://44305</t>
+          <t>maa://44232, maa://45603</t>
         </is>
       </c>
     </row>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="D361" s="7" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, maa://60251</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, *maa://60251</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1448,7 +1448,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.25 13:22:19</t>
+          <t>更新日期：2025.06.28 13:21:19</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="P10" s="16" t="inlineStr">
         <is>
-          <t>maa://28977, maa://36669, *maa://23264</t>
+          <t>maa://28977, *maa://36669, *maa://23264</t>
         </is>
       </c>
       <c r="Q10" s="13" t="n"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="X12" s="16" t="inlineStr">
         <is>
-          <t>maa://22753, *maa://21485, maa://37962</t>
+          <t>maa://22753, maa://37962, *maa://21485</t>
         </is>
       </c>
       <c r="Y12" s="13" t="n"/>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="T16" s="16" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, maa://36674</t>
+          <t>maa://22729, *maa://28648, *maa://36674</t>
         </is>
       </c>
       <c r="U16" s="13" t="n"/>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="AF18" s="16" t="inlineStr">
         <is>
-          <t>*maa://24313, **maa://29784, maa://47854</t>
+          <t>*maa://24313, **maa://29784, *maa://47854</t>
         </is>
       </c>
       <c r="AG18" s="18" t="n"/>
@@ -6927,7 +6927,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.25 13:22:19</t>
+          <t>更新日期：2025.06.28 13:21:19</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="D104" s="17" t="inlineStr">
         <is>
-          <t>*maa://20966</t>
+          <t>maa://20966</t>
         </is>
       </c>
     </row>
@@ -10758,12 +10758,12 @@
       </c>
       <c r="C159" s="9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D159" s="17" t="inlineStr">
         <is>
-          <t>maa://44232, maa://45603, maa://44305</t>
+          <t>maa://44232, maa://45603</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="D166" s="17" t="inlineStr">
         <is>
-          <t>maa://20975, maa://30806, *maa://47950</t>
+          <t>maa://20975, *maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="D357" s="7" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489, *maa://56268</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, *maa://56268, maa://40489</t>
         </is>
       </c>
     </row>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="D361" s="7" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, maa://60251</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, *maa://60251</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1448,7 +1448,7 @@
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.27 13:21:40</t>
+          <t>更新日期：2025.06.29 13:23:12</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="AF18" s="16" t="inlineStr">
         <is>
-          <t>*maa://24313, **maa://29784, maa://47854</t>
+          <t>*maa://24313, **maa://29784, *maa://47854</t>
         </is>
       </c>
       <c r="AG18" s="18" t="n"/>
@@ -5424,12 +5424,12 @@
       </c>
       <c r="G39" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>maa://36670, maa://25199, maa://30434, *maa://45059</t>
+          <t>maa://36670, maa://25199, maa://30434, *maa://45059, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="13" t="n"/>
@@ -6927,7 +6927,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="15" t="inlineStr">
         <is>
-          <t>更新日期：2025.06.27 13:21:40</t>
+          <t>更新日期：2025.06.29 13:23:12</t>
         </is>
       </c>
       <c r="E1" s="14" t="inlineStr">
@@ -9553,7 +9553,7 @@
       </c>
       <c r="D104" s="17" t="inlineStr">
         <is>
-          <t>*maa://20966</t>
+          <t>maa://20966</t>
         </is>
       </c>
     </row>
@@ -9636,12 +9636,12 @@
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D108" s="17" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://32653, maa://25161</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://32653, maa://25161, maa://60902</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="D166" s="17" t="inlineStr">
         <is>
-          <t>maa://20975, maa://30806, *maa://47950</t>
+          <t>maa://20975, *maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
@@ -13244,12 +13244,12 @@
       </c>
       <c r="C272" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D272" s="17" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://56588, *maa://55171, maa://51893</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://55171, maa://51893, maa://60902</t>
         </is>
       </c>
     </row>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="D357" s="7" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, maa://40489, *maa://56268</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, *maa://56268, maa://40489</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -849,12 +849,12 @@
       </c>
       <c r="O3" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>maa://21249, maa://26254</t>
+          <t>maa://21249, maa://26254, *maa://22738</t>
         </is>
       </c>
       <c r="Q3" s="15" t="n"/>
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.11 13:25:31</t>
+          <t>更新日期：2025.07.12 13:21:48</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -6965,7 +6965,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.11 13:25:31</t>
+          <t>更新日期：2025.07.12 13:21:48</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -15692,12 +15692,12 @@
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
@@ -15707,19 +15707,19 @@
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
@@ -15729,19 +15729,19 @@
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
@@ -15751,19 +15751,19 @@
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
@@ -15773,63 +15773,63 @@
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>*maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B387" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C387" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D387" s="5" t="inlineStr">
         <is>
-          <t>*maa://47175, maa://47174</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B388" s="6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C388" s="7" t="inlineStr">
@@ -15839,41 +15839,41 @@
       </c>
       <c r="D388" s="5" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>**maa://48618</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B389" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C389" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D389" s="5" t="inlineStr">
         <is>
-          <t>**maa://48618</t>
+          <t>maa://59533, maa://59577</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B390" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C390" s="7" t="inlineStr">
@@ -15883,161 +15883,161 @@
       </c>
       <c r="D390" s="5" t="inlineStr">
         <is>
-          <t>maa://59533, maa://59577</t>
+          <t>maa://51907, maa://51908</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B391" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C391" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D391" s="5" t="inlineStr">
         <is>
-          <t>maa://51907, maa://51908</t>
+          <t>**maa://59691</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B392" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C392" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D392" s="5" t="inlineStr">
         <is>
-          <t>**maa://59691</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="13" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B393" s="20" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C393" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>maa://51880, maa://56651, maa://51878</t>
         </is>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="13" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B394" s="20" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C394" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51880, maa://56651, maa://51878</t>
+          <t>maa://51872, maa://51876, maa://51873, maa://62047</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="13" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B395" s="13" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C395" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, maa://51873, maa://62047</t>
+          <t>maa://59493, maa://60449, maa://59603</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="13" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>录武官</t>
         </is>
       </c>
       <c r="B396" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>HS-5</t>
         </is>
       </c>
       <c r="C396" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>maa://59493, maa://60449, maa://59603</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="13" t="inlineStr">
         <is>
-          <t>录武官</t>
+          <t>司霆惊蛰</t>
         </is>
       </c>
       <c r="B397" s="13" t="inlineStr">
         <is>
-          <t>HS-5</t>
+          <t>DV-7</t>
         </is>
       </c>
       <c r="C397" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://62756</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.12 13:21:48</t>
+          <t>更新日期：2025.07.13 13:23:12</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -5523,12 +5523,12 @@
       </c>
       <c r="AE39" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF39" s="18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>**maa://62953</t>
         </is>
       </c>
       <c r="AG39" s="12" t="n"/>
@@ -6965,7 +6965,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.12 13:21:48</t>
+          <t>更新日期：2025.07.13 13:23:12</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="D46" s="19" t="inlineStr">
         <is>
-          <t>maa://39025</t>
+          <t>*maa://39025</t>
         </is>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://32653, maa://25161</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://25161, maa://32653</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>**maa://62755</t>
+          <t>*maa://62755</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.13 13:23:12</t>
+          <t>更新日期：2025.07.15 13:26:28</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="AF39" s="18" t="inlineStr">
         <is>
-          <t>**maa://62953</t>
+          <t>*maa://62953</t>
         </is>
       </c>
       <c r="AG39" s="12" t="n"/>
@@ -6965,7 +6965,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.13 13:23:12</t>
+          <t>更新日期：2025.07.15 13:26:28</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7674,12 +7674,12 @@
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
         <is>
-          <t>maa://20948, maa://30844</t>
+          <t>maa://20948, maa://30844, maa://58691</t>
         </is>
       </c>
       <c r="F22" s="18" t="n"/>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893, maa://62759</t>
+          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://20960, maa://20843, **maa://24483, maa://20862, maa://62759, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="D111" s="19" t="inlineStr">
         <is>
-          <t>*maa://28554</t>
+          <t>maa://28554</t>
         </is>
       </c>
     </row>
@@ -14299,7 +14299,7 @@
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>*maa://62755</t>
+          <t>**maa://62755</t>
         </is>
       </c>
     </row>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493, maa://60449, maa://59603</t>
+          <t>maa://59493, maa://60449, *maa://59603</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.15 13:26:28</t>
+          <t>更新日期：2025.07.16 13:27:18</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -5700,6 +5700,22 @@
         </is>
       </c>
       <c r="U41" s="15" t="n"/>
+      <c r="Z41" s="12" t="inlineStr">
+        <is>
+          <t>电弧</t>
+        </is>
+      </c>
+      <c r="AA41" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB41" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC41" s="12" t="n"/>
       <c r="AD41" s="15" t="inlineStr">
         <is>
           <t>裁度</t>
@@ -6965,7 +6981,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.15 13:26:28</t>
+          <t>更新日期：2025.07.16 13:27:18</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8007,7 +8023,7 @@
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://20960, maa://20843, **maa://24483, maa://20862, maa://62759, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://20960, maa://20843, **maa://24483, maa://62759, maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -9674,12 +9690,12 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://25161, maa://32653</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://25161, maa://32653, maa://61839</t>
         </is>
       </c>
     </row>
@@ -12600,12 +12616,12 @@
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://62759</t>
+          <t>maa://62759, maa://62764</t>
         </is>
       </c>
     </row>
@@ -14294,12 +14310,12 @@
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>**maa://62755</t>
+          <t>maa://62761, **maa://62755</t>
         </is>
       </c>
     </row>
@@ -14888,12 +14904,12 @@
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, maa://61839</t>
         </is>
       </c>
     </row>
@@ -15988,12 +16004,12 @@
       </c>
       <c r="C395" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493, maa://60449, *maa://59603</t>
+          <t>maa://59493, maa://60449</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -865,12 +865,12 @@
       </c>
       <c r="S3" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T3" s="18" t="inlineStr">
         <is>
-          <t>maa://45854, maa://24617</t>
+          <t>maa://45854, maa://24617, *maa://60545</t>
         </is>
       </c>
       <c r="U3" s="15" t="n"/>
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.16 13:27:18</t>
+          <t>更新日期：2025.07.23 13:29:43</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="AF8" s="18" t="inlineStr">
         <is>
-          <t>*maa://24479, *maa://21990</t>
+          <t>*maa://24479, **maa://21990</t>
         </is>
       </c>
       <c r="AG8" s="12" t="n"/>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="P13" s="18" t="inlineStr">
         <is>
-          <t>maa://22676, *maa://22583, maa://48321</t>
+          <t>maa://22676, *maa://22583, *maa://48321</t>
         </is>
       </c>
       <c r="Q13" s="15" t="n"/>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="T16" s="18" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, *maa://36674</t>
+          <t>maa://22729, *maa://28648, maa://36674</t>
         </is>
       </c>
       <c r="U16" s="15" t="n"/>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="C25" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" s="18" t="inlineStr">
         <is>
-          <t>maa://29753</t>
+          <t>maa://29753, maa://63016</t>
         </is>
       </c>
       <c r="E25" s="15" t="n"/>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="AF39" s="18" t="inlineStr">
         <is>
-          <t>*maa://62953</t>
+          <t>maa://62953</t>
         </is>
       </c>
       <c r="AG39" s="12" t="n"/>
@@ -6981,7 +6981,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.16 13:27:18</t>
+          <t>更新日期：2025.07.23 13:29:43</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://20960, maa://20843, **maa://24483, maa://62759, maa://20862, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://62759, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -9228,12 +9228,12 @@
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" s="19" t="inlineStr">
         <is>
-          <t>maa://20886</t>
+          <t>maa://20886, maa://60772</t>
         </is>
       </c>
     </row>
@@ -10208,56 +10208,56 @@
     <row r="132">
       <c r="A132" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
-          <t>maa://20837, maa://37666</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>maa://29023, maa://39515</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
@@ -10267,19 +10267,19 @@
       </c>
       <c r="D134" s="19" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
@@ -10289,19 +10289,19 @@
       </c>
       <c r="D135" s="19" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
@@ -10311,41 +10311,41 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://29025</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>maa://41856</t>
+          <t>**maa://30679, maa://45258</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -10355,129 +10355,129 @@
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
-          <t>maa://29025</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
-          <t>**maa://30679, maa://45258</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D140" s="19" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>maa://28484, maa://31185, maa://30306</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>maa://30670, maa://31470, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B142" s="6" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>maa://28484, maa://31185, maa://30306</t>
+          <t>maa://20971</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, *maa://45066</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
@@ -10487,19 +10487,19 @@
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
@@ -10509,129 +10509,129 @@
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://28828, maa://20846, *maa://47286</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, maa://41128, maa://42918, maa://44119, maa://46108, maa://37300, maa://42917</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846, *maa://47286</t>
+          <t>maa://51549, maa://51923</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, maa://41128, maa://42918, maa://44119, maa://46108, maa://37300, maa://42917</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://51549, maa://51923</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
@@ -10641,41 +10641,41 @@
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
@@ -10685,41 +10685,41 @@
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B154" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
@@ -10729,19 +10729,19 @@
       </c>
       <c r="D155" s="19" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>*maa://39149</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
@@ -10751,41 +10751,41 @@
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>*maa://39149</t>
+          <t>maa://44232, maa://45603</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B158" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
@@ -10795,41 +10795,41 @@
       </c>
       <c r="D158" s="19" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, maa://45603</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B160" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
@@ -10839,41 +10839,41 @@
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
@@ -10883,63 +10883,63 @@
       </c>
       <c r="D162" s="19" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C163" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>*maa://32845, maa://29054</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B164" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C164" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D164" s="19" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>maa://20975, *maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C165" s="7" t="inlineStr">
@@ -10949,107 +10949,107 @@
       </c>
       <c r="D165" s="19" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D166" s="19" t="inlineStr">
         <is>
-          <t>maa://20975, *maa://47950, maa://30806</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B167" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://49074, **maa://30679, maa://29861, maa://42343</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B168" s="6" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D168" s="19" t="inlineStr">
         <is>
-          <t>maa://49867, maa://49655</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B169" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D169" s="19" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>*maa://20905, *maa://52268</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B170" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
@@ -11059,41 +11059,41 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://59681</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B171" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D171" s="19" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://32418, maa://51440, maa://63320</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B172" s="6" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
@@ -11103,41 +11103,41 @@
       </c>
       <c r="D172" s="19" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B173" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D173" s="19" t="inlineStr">
         <is>
-          <t>*maa://20905, *maa://52268</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
@@ -11147,19 +11147,19 @@
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://59681</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B175" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
@@ -11169,19 +11169,19 @@
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440</t>
+          <t>maa://20911, maa://29012</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B176" s="6" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
@@ -11191,19 +11191,19 @@
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B177" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
@@ -11213,63 +11213,63 @@
       </c>
       <c r="D177" s="19" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B178" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D178" s="19" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://31560, *maa://20968</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B179" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D179" s="19" t="inlineStr">
         <is>
-          <t>maa://20911, maa://29012</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B180" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
@@ -11279,19 +11279,19 @@
       </c>
       <c r="D180" s="19" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B181" s="6" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
@@ -11301,19 +11301,19 @@
       </c>
       <c r="D181" s="19" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B182" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
@@ -11323,19 +11323,19 @@
       </c>
       <c r="D182" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20968</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B183" s="6" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C183" s="7" t="inlineStr">
@@ -11345,19 +11345,19 @@
       </c>
       <c r="D183" s="19" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B184" s="6" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C184" s="7" t="inlineStr">
@@ -11367,19 +11367,19 @@
       </c>
       <c r="D184" s="19" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B185" s="6" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C185" s="7" t="inlineStr">
@@ -11389,19 +11389,19 @@
       </c>
       <c r="D185" s="19" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B186" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
@@ -11411,41 +11411,41 @@
       </c>
       <c r="D186" s="19" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B187" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D187" s="19" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
@@ -11455,19 +11455,19 @@
       </c>
       <c r="D188" s="19" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B189" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
@@ -11477,41 +11477,41 @@
       </c>
       <c r="D189" s="19" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B190" s="6" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D190" s="19" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B191" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
@@ -11521,19 +11521,19 @@
       </c>
       <c r="D191" s="19" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B192" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
@@ -11543,85 +11543,85 @@
       </c>
       <c r="D192" s="19" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B193" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D193" s="19" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://20872, maa://51066, maa://63024</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B194" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D194" s="19" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://39156, *maa://39550, *maa://53417</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B195" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D195" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://42223, maa://49077, maa://42292, maa://42402</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B196" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
@@ -11631,129 +11631,129 @@
       </c>
       <c r="D196" s="19" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B197" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://20872, maa://51066</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B198" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550, *maa://53417</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B199" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D199" s="19" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B200" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D200" s="19" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B201" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, maa://42402</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
@@ -11763,19 +11763,19 @@
       </c>
       <c r="D202" s="19" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B203" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
@@ -11785,107 +11785,107 @@
       </c>
       <c r="D203" s="19" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D204" s="19" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D205" s="19" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D206" s="8" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://20955</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D207" s="19" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
@@ -11895,19 +11895,19 @@
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
@@ -11917,19 +11917,19 @@
       </c>
       <c r="D209" s="19" t="inlineStr">
         <is>
-          <t>maa://53354</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B210" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C210" s="7" t="inlineStr">
@@ -11939,41 +11939,41 @@
       </c>
       <c r="D210" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D211" s="19" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B212" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
@@ -11983,19 +11983,19 @@
       </c>
       <c r="D212" s="19" t="inlineStr">
         <is>
-          <t>maa://20955</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
@@ -12005,19 +12005,19 @@
       </c>
       <c r="D213" s="19" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>*maa://20995</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B214" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C214" s="7" t="inlineStr">
@@ -12027,19 +12027,19 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B215" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C215" s="7" t="inlineStr">
@@ -12049,41 +12049,41 @@
       </c>
       <c r="D215" s="19" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B216" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D216" s="19" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B217" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
@@ -12093,19 +12093,19 @@
       </c>
       <c r="D217" s="19" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B218" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
@@ -12115,41 +12115,41 @@
       </c>
       <c r="D218" s="19" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B219" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D219" s="19" t="inlineStr">
         <is>
-          <t>*maa://20995</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B220" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
@@ -12159,63 +12159,63 @@
       </c>
       <c r="D220" s="19" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B221" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D221" s="19" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B222" s="6" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D222" s="19" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B223" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
@@ -12225,19 +12225,19 @@
       </c>
       <c r="D223" s="19" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B224" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
@@ -12247,19 +12247,19 @@
       </c>
       <c r="D224" s="19" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B225" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
@@ -12269,19 +12269,19 @@
       </c>
       <c r="D225" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, maa://43531, maa://39520</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B226" s="6" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
@@ -12291,63 +12291,63 @@
       </c>
       <c r="D226" s="19" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B227" s="6" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D227" s="19" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B228" s="6" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D228" s="19" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B229" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
@@ -12357,19 +12357,19 @@
       </c>
       <c r="D229" s="19" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B230" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
@@ -12379,63 +12379,63 @@
       </c>
       <c r="D230" s="19" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B231" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D231" s="19" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B232" s="6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C232" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D232" s="19" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>maa://20922, *maa://32623, maa://34242</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B233" s="6" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C233" s="7" t="inlineStr">
@@ -12445,63 +12445,63 @@
       </c>
       <c r="D233" s="19" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B234" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C234" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D234" s="19" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B235" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C235" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D235" s="19" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://62759, maa://62764</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B236" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C236" s="7" t="inlineStr">
@@ -12511,129 +12511,129 @@
       </c>
       <c r="D236" s="19" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B237" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D237" s="8" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B238" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D238" s="19" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, maa://34242</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B239" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D239" s="19" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B240" s="6" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D240" s="19" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B241" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://62759, maa://62764</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B242" s="6" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
@@ -12643,261 +12643,261 @@
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B243" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D243" s="19" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B244" s="6" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D244" s="8" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://42287, maa://45570, maa://42225, maa://60678</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B245" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D245" s="19" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B246" s="6" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D246" s="19" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://20923, *maa://60577</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B247" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D247" s="19" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://24093, maa://31559, maa://20924, **maa://49440</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B248" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D248" s="19" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B249" s="6" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D249" s="8" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B250" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D250" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://20877, *maa://45067, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B251" s="6" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B252" s="6" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D252" s="19" t="inlineStr">
         <is>
-          <t>maa://20923, *maa://60577</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B253" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D253" s="19" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924, **maa://49440</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B254" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
@@ -12907,19 +12907,19 @@
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B255" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
@@ -12929,63 +12929,63 @@
       </c>
       <c r="D255" s="19" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B256" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D256" s="19" t="inlineStr">
         <is>
-          <t>maa://20877, *maa://45067, maa://20836, maa://20632</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B257" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C257" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D257" s="19" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B258" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C258" s="7" t="inlineStr">
@@ -12995,19 +12995,19 @@
       </c>
       <c r="D258" s="19" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B259" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C259" s="7" t="inlineStr">
@@ -13017,41 +13017,41 @@
       </c>
       <c r="D259" s="19" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://59689</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B260" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C260" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D260" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B261" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C261" s="7" t="inlineStr">
@@ -13061,41 +13061,41 @@
       </c>
       <c r="D261" s="19" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B262" s="6" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D262" s="19" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B263" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
@@ -13105,41 +13105,41 @@
       </c>
       <c r="D263" s="19" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B264" s="6" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D264" s="19" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B265" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
@@ -13149,41 +13149,41 @@
       </c>
       <c r="D265" s="19" t="inlineStr">
         <is>
-          <t>maa://59682</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B266" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D266" s="19" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://55171, maa://51893</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B267" s="6" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
@@ -13193,19 +13193,19 @@
       </c>
       <c r="D267" s="19" t="inlineStr">
         <is>
-          <t>maa://59689</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B268" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
@@ -13215,19 +13215,19 @@
       </c>
       <c r="D268" s="19" t="inlineStr">
         <is>
-          <t>maa://49643</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B269" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
@@ -13237,85 +13237,85 @@
       </c>
       <c r="D269" s="19" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://20939</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B270" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="19" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B271" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D271" s="19" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B272" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D272" s="19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B273" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
@@ -13325,41 +13325,41 @@
       </c>
       <c r="D273" s="19" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B274" s="6" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://56588, *maa://55171, maa://51893</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B275" s="6" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
@@ -13369,19 +13369,19 @@
       </c>
       <c r="D275" s="19" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B276" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C276" s="7" t="inlineStr">
@@ -13391,41 +13391,41 @@
       </c>
       <c r="D276" s="19" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B277" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D277" s="19" t="inlineStr">
         <is>
-          <t>maa://20939</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B278" s="6" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
@@ -13435,63 +13435,63 @@
       </c>
       <c r="D278" s="19" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B279" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D279" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B280" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D280" s="19" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B281" s="6" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
@@ -13501,19 +13501,19 @@
       </c>
       <c r="D281" s="19" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://53353</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B282" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
@@ -13523,41 +13523,41 @@
       </c>
       <c r="D282" s="19" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B283" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D283" s="19" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B284" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C284" s="7" t="inlineStr">
@@ -13567,63 +13567,63 @@
       </c>
       <c r="D284" s="19" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B285" s="6" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D285" s="19" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B286" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C286" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D286" s="19" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B287" s="6" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C287" s="7" t="inlineStr">
@@ -13633,63 +13633,63 @@
       </c>
       <c r="D287" s="19" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B288" s="6" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C288" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D288" s="19" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B289" s="6" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C289" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D289" s="19" t="inlineStr">
         <is>
-          <t>maa://53353</t>
+          <t>maa://45799, maa://57199</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B290" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
@@ -13699,107 +13699,107 @@
       </c>
       <c r="D290" s="19" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B291" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D291" s="19" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B292" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D292" s="19" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B293" s="6" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D293" s="19" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B294" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D294" s="19" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B295" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
@@ -13809,63 +13809,63 @@
       </c>
       <c r="D295" s="19" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B296" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D296" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B297" s="6" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://45799, maa://57199</t>
+          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B298" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
@@ -13875,85 +13875,85 @@
       </c>
       <c r="D298" s="19" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B299" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D299" s="19" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B300" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D300" s="19" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://53352</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B301" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D301" s="19" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B302" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
@@ -13963,19 +13963,19 @@
       </c>
       <c r="D302" s="19" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B303" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
@@ -13985,19 +13985,19 @@
       </c>
       <c r="D303" s="19" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B304" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
@@ -14007,41 +14007,41 @@
       </c>
       <c r="D304" s="19" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://53348</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B305" s="6" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C305" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D305" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B306" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C306" s="7" t="inlineStr">
@@ -14051,41 +14051,41 @@
       </c>
       <c r="D306" s="19" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B307" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C307" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D307" s="19" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B308" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C308" s="7" t="inlineStr">
@@ -14095,19 +14095,19 @@
       </c>
       <c r="D308" s="19" t="inlineStr">
         <is>
-          <t>maa://53352</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B309" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C309" s="7" t="inlineStr">
@@ -14117,19 +14117,19 @@
       </c>
       <c r="D309" s="19" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B310" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
@@ -14139,19 +14139,19 @@
       </c>
       <c r="D310" s="19" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://62761</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B311" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
@@ -14161,19 +14161,19 @@
       </c>
       <c r="D311" s="19" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B312" s="6" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
@@ -14183,19 +14183,19 @@
       </c>
       <c r="D312" s="19" t="inlineStr">
         <is>
-          <t>maa://53348</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B313" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
@@ -14205,85 +14205,85 @@
       </c>
       <c r="D313" s="19" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B314" s="6" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D314" s="19" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B315" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D315" s="19" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B316" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D316" s="19" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B317" s="6" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
@@ -14293,58 +14293,58 @@
       </c>
       <c r="D317" s="19" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B318" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>maa://62761, **maa://62755</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B319" s="6" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B320" s="6" t="inlineStr">
@@ -14359,19 +14359,19 @@
       </c>
       <c r="D320" s="19" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B321" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
@@ -14381,19 +14381,19 @@
       </c>
       <c r="D321" s="19" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B322" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
@@ -14403,19 +14403,19 @@
       </c>
       <c r="D322" s="19" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://30680, maa://41360</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B323" s="6" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
@@ -14425,129 +14425,129 @@
       </c>
       <c r="D323" s="19" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B324" s="6" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D324" s="19" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B325" s="6" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D325" s="19" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://34205, *maa://39541</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B326" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D326" s="19" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B327" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D327" s="19" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B328" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D328" s="19" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B329" s="6" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
@@ -14557,19 +14557,19 @@
       </c>
       <c r="D329" s="19" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B330" s="6" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
@@ -14579,41 +14579,41 @@
       </c>
       <c r="D330" s="19" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B331" s="6" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D331" s="8" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://38295, maa://49332</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B332" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
@@ -14623,63 +14623,63 @@
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>maa://59688</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B333" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>maa://34205, *maa://39541</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B334" s="6" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B335" s="6" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C335" s="7" t="inlineStr">
@@ -14689,41 +14689,41 @@
       </c>
       <c r="D335" s="8" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B336" s="6" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C336" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, maa://61839</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C337" s="7" t="inlineStr">
@@ -14733,19 +14733,19 @@
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B338" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C338" s="7" t="inlineStr">
@@ -14755,85 +14755,85 @@
       </c>
       <c r="D338" s="5" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B339" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C339" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B340" s="6" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C340" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D340" s="5" t="inlineStr">
         <is>
-          <t>maa://38295, maa://49332</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B341" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C341" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D341" s="5" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B342" s="6" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
@@ -14843,41 +14843,41 @@
       </c>
       <c r="D342" s="5" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B343" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D343" s="5" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B344" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
@@ -14887,63 +14887,63 @@
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B345" s="6" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, maa://61839</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B346" s="6" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D346" s="5" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://49696, maa://49695, maa://49758, *maa://59402, *maa://52357</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B347" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
@@ -14953,63 +14953,63 @@
       </c>
       <c r="D347" s="5" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B348" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://42299, maa://42224</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B349" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D349" s="5" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B350" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
@@ -15019,63 +15019,63 @@
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B351" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D351" s="5" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, *maa://56268, maa://40489</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B352" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://42635, maa://50629, maa://48859</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B353" s="6" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
@@ -15085,63 +15085,63 @@
       </c>
       <c r="D353" s="5" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B354" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D354" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B355" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758, *maa://59402, *maa://52357</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, *maa://60251</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B356" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
@@ -15151,107 +15151,107 @@
       </c>
       <c r="D356" s="5" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B357" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C357" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, maa://42224</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B358" s="6" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C358" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D358" s="5" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B359" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C359" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D359" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B360" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, *maa://56268, maa://40489</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B361" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C361" s="7" t="inlineStr">
@@ -15261,85 +15261,85 @@
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://42635, maa://50629, maa://48859</t>
+          <t>maa://42333, maa://50518, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B362" s="6" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B363" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C363" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D363" s="5" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B364" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, *maa://60251</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B365" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
@@ -15349,41 +15349,41 @@
       </c>
       <c r="D365" s="5" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B366" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B367" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C367" s="7" t="inlineStr">
@@ -15393,19 +15393,19 @@
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B368" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
@@ -15415,107 +15415,107 @@
       </c>
       <c r="D368" s="5" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B369" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://42970, maa://44745, *maa://45952, *maa://44896</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B370" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, maa://50518, maa://41977</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B371" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C371" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B372" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C372" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B373" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C373" s="7" t="inlineStr">
@@ -15525,19 +15525,19 @@
       </c>
       <c r="D373" s="5" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B374" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C374" s="7" t="inlineStr">
@@ -15547,19 +15547,19 @@
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B375" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C375" s="7" t="inlineStr">
@@ -15569,19 +15569,19 @@
       </c>
       <c r="D375" s="5" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>*maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B376" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C376" s="7" t="inlineStr">
@@ -15591,19 +15591,19 @@
       </c>
       <c r="D376" s="5" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B377" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C377" s="7" t="inlineStr">
@@ -15613,14 +15613,14 @@
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>**maa://48618</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B378" s="6" t="inlineStr">
@@ -15630,188 +15630,188 @@
       </c>
       <c r="C378" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>*maa://53307</t>
+          <t>maa://59533, maa://59577</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B379" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C379" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D379" s="5" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://51907, maa://51908</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B380" s="6" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C380" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, *maa://45952, *maa://44896</t>
+          <t>**maa://59691</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B381" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D381" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://51880, maa://56651, maa://51878</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://51872, maa://51876, maa://51873, maa://62047, maa://63228</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://59493, maa://60449</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>录武官</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>HS-5</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>司霆惊蛰</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>DV-7</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>*maa://47175, maa://47174</t>
+          <t>maa://62756</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.23 13:29:43</t>
+          <t>更新日期：2025.07.25 13:29:06</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -6981,7 +6981,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.23 13:29:43</t>
+          <t>更新日期：2025.07.25 13:29:06</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
-          <t>*maa://20848</t>
+          <t>maa://20848</t>
         </is>
       </c>
       <c r="F17" s="18" t="n"/>
@@ -9690,12 +9690,12 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://25161, maa://32653, maa://61839</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://25161, maa://32653, maa://61275, maa://61839</t>
         </is>
       </c>
     </row>
@@ -14706,12 +14706,12 @@
       </c>
       <c r="C336" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, maa://61839</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, maa://61275, maa://61839</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.25 13:29:06</t>
+          <t>更新日期：2025.07.27 13:27:11</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="W22" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X22" s="18" t="inlineStr">
         <is>
-          <t>maa://21282, *maa://37649</t>
+          <t>maa://21282</t>
         </is>
       </c>
       <c r="Y22" s="15" t="n"/>
@@ -6981,7 +6981,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.25 13:29:06</t>
+          <t>更新日期：2025.07.27 13:27:11</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="D30" s="19" t="inlineStr">
         <is>
-          <t>*maa://20871</t>
+          <t>maa://20871</t>
         </is>
       </c>
       <c r="F30" s="18" t="n"/>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="D96" s="19" t="inlineStr">
         <is>
-          <t>*maa://20926</t>
+          <t>maa://20926</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://25161, maa://32653, maa://61275, maa://61839</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://32653, maa://25161, maa://61275, maa://61839</t>
         </is>
       </c>
     </row>
@@ -10208,56 +10208,56 @@
     <row r="132">
       <c r="A132" s="6" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://20837, maa://37666</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>maa://29023, maa://39515</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
@@ -10267,19 +10267,19 @@
       </c>
       <c r="D134" s="19" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
@@ -10289,19 +10289,19 @@
       </c>
       <c r="D135" s="19" t="inlineStr">
         <is>
-          <t>maa://41856</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
@@ -10311,41 +10311,41 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>maa://29025</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>**maa://30679, maa://45258</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -10355,129 +10355,129 @@
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>maa://29025</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>**maa://30679, maa://45258</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D140" s="19" t="inlineStr">
         <is>
-          <t>maa://28484, maa://31185, maa://30306</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, *maa://45066</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B142" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>maa://28484, maa://31185, maa://30306</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>maa://30670, maa://31470, *maa://45066, maa://61380</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
@@ -10487,19 +10487,19 @@
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://20971</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
@@ -10509,129 +10509,129 @@
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846, *maa://47286</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, maa://41128, maa://42918, maa://44119, maa://46108, maa://37300, maa://42917</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>maa://51549, maa://51923</t>
+          <t>maa://28828, maa://20846, *maa://47286</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, maa://41128, maa://42918, maa://44119, maa://46108, maa://37300, maa://42917</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://51549, maa://51923</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
@@ -10641,41 +10641,41 @@
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
@@ -10685,41 +10685,41 @@
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B154" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
@@ -10729,19 +10729,19 @@
       </c>
       <c r="D155" s="19" t="inlineStr">
         <is>
-          <t>*maa://39149</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
@@ -10751,41 +10751,41 @@
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, maa://45603</t>
+          <t>*maa://39149</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B158" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
@@ -10795,41 +10795,41 @@
       </c>
       <c r="D158" s="19" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://44232, maa://45603</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B160" s="6" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
@@ -10839,41 +10839,41 @@
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>*maa://32845, maa://29054</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
@@ -10883,63 +10883,63 @@
       </c>
       <c r="D162" s="19" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C163" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B164" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C164" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D164" s="19" t="inlineStr">
         <is>
-          <t>maa://20975, *maa://47950, maa://30806</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C165" s="7" t="inlineStr">
@@ -10949,107 +10949,107 @@
       </c>
       <c r="D165" s="19" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D166" s="19" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://20975, *maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B167" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://49074, **maa://30679, maa://29861, maa://42343</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B168" s="6" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D168" s="19" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://49867, maa://49655</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B169" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D169" s="19" t="inlineStr">
         <is>
-          <t>*maa://20905, *maa://52268</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B170" s="6" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
@@ -11059,41 +11059,41 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://59681</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B171" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D171" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440, maa://63320</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B172" s="6" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
@@ -11103,41 +11103,41 @@
       </c>
       <c r="D172" s="19" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B173" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D173" s="19" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>*maa://20905, *maa://52268</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
@@ -11147,41 +11147,41 @@
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://59681</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B175" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://20911, maa://29012</t>
+          <t>maa://32418, maa://51440, maa://63320</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B176" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
@@ -11191,19 +11191,19 @@
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B177" s="6" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
@@ -11213,63 +11213,63 @@
       </c>
       <c r="D177" s="19" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B178" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D178" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20968</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B179" s="6" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D179" s="19" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://20911, maa://29012</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B180" s="6" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
@@ -11279,19 +11279,19 @@
       </c>
       <c r="D180" s="19" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B181" s="6" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
@@ -11301,19 +11301,19 @@
       </c>
       <c r="D181" s="19" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B182" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
@@ -11323,19 +11323,19 @@
       </c>
       <c r="D182" s="19" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://31560, *maa://20968</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B183" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C183" s="7" t="inlineStr">
@@ -11345,19 +11345,19 @@
       </c>
       <c r="D183" s="19" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B184" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C184" s="7" t="inlineStr">
@@ -11367,19 +11367,19 @@
       </c>
       <c r="D184" s="19" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B185" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C185" s="7" t="inlineStr">
@@ -11389,19 +11389,19 @@
       </c>
       <c r="D185" s="19" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B186" s="6" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
@@ -11411,41 +11411,41 @@
       </c>
       <c r="D186" s="19" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B187" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D187" s="19" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
@@ -11455,19 +11455,19 @@
       </c>
       <c r="D188" s="19" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B189" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
@@ -11477,41 +11477,41 @@
       </c>
       <c r="D189" s="19" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B190" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D190" s="19" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B191" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
@@ -11521,19 +11521,19 @@
       </c>
       <c r="D191" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B192" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
@@ -11543,85 +11543,85 @@
       </c>
       <c r="D192" s="19" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B193" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D193" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://20872, maa://51066, maa://63024</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B194" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D194" s="19" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550, *maa://53417</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B195" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D195" s="19" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, maa://42402</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B196" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
@@ -11631,129 +11631,129 @@
       </c>
       <c r="D196" s="19" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B197" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://20872, maa://51066, maa://63024</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B198" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://39156, *maa://39550, *maa://53417</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B199" s="6" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D199" s="19" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B200" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D200" s="19" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B201" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://42223, maa://49077, maa://42292, maa://42402</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
@@ -11763,19 +11763,19 @@
       </c>
       <c r="D202" s="19" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B203" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
@@ -11785,107 +11785,107 @@
       </c>
       <c r="D203" s="19" t="inlineStr">
         <is>
-          <t>maa://53354</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D204" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D205" s="19" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D206" s="8" t="inlineStr">
         <is>
-          <t>maa://20955</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D207" s="19" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
@@ -11895,19 +11895,19 @@
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
@@ -11917,19 +11917,19 @@
       </c>
       <c r="D209" s="19" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B210" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C210" s="7" t="inlineStr">
@@ -11939,41 +11939,41 @@
       </c>
       <c r="D210" s="19" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D211" s="19" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://20956, *maa://20830, maa://44703</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B212" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
@@ -11983,19 +11983,19 @@
       </c>
       <c r="D212" s="19" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>maa://20955</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
@@ -12005,19 +12005,19 @@
       </c>
       <c r="D213" s="19" t="inlineStr">
         <is>
-          <t>*maa://20995</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B214" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C214" s="7" t="inlineStr">
@@ -12027,19 +12027,19 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B215" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C215" s="7" t="inlineStr">
@@ -12049,41 +12049,41 @@
       </c>
       <c r="D215" s="19" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B216" s="6" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D216" s="19" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B217" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
@@ -12093,19 +12093,19 @@
       </c>
       <c r="D217" s="19" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B218" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
@@ -12115,41 +12115,41 @@
       </c>
       <c r="D218" s="19" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>*maa://39157</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B219" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D219" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, maa://43531, maa://39520</t>
+          <t>*maa://20995</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B220" s="6" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
@@ -12159,63 +12159,63 @@
       </c>
       <c r="D220" s="19" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B221" s="6" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D221" s="19" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B222" s="6" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D222" s="19" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B223" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
@@ -12225,19 +12225,19 @@
       </c>
       <c r="D223" s="19" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B224" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
@@ -12247,19 +12247,19 @@
       </c>
       <c r="D224" s="19" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B225" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
@@ -12269,19 +12269,19 @@
       </c>
       <c r="D225" s="19" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://28187, maa://43531, maa://39520</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B226" s="6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
@@ -12291,63 +12291,63 @@
       </c>
       <c r="D226" s="19" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B227" s="6" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D227" s="19" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B228" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D228" s="19" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B229" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
@@ -12357,19 +12357,19 @@
       </c>
       <c r="D229" s="19" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B230" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
@@ -12379,63 +12379,63 @@
       </c>
       <c r="D230" s="19" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B231" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D231" s="19" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://29058, maa://39140, maa://38723</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B232" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C232" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D232" s="19" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, maa://34242</t>
+          <t>*maa://48263</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B233" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C233" s="7" t="inlineStr">
@@ -12445,63 +12445,63 @@
       </c>
       <c r="D233" s="19" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B234" s="6" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C234" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D234" s="19" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B235" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C235" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D235" s="19" t="inlineStr">
         <is>
-          <t>maa://62759, maa://62764</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B236" s="6" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C236" s="7" t="inlineStr">
@@ -12511,129 +12511,129 @@
       </c>
       <c r="D236" s="19" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B237" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D237" s="8" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B238" s="6" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D238" s="19" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://20922, *maa://32623, maa://34242</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B239" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D239" s="19" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B240" s="6" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D240" s="19" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B241" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://62759, maa://62764</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B242" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
@@ -12643,173 +12643,173 @@
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B243" s="6" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D243" s="19" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B244" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D244" s="8" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225, maa://60678</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B245" s="6" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D245" s="19" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://20867, maa://38485, *maa://32202</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B246" s="6" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D246" s="19" t="inlineStr">
         <is>
-          <t>maa://20923, *maa://60577</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B247" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D247" s="19" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924, **maa://49440</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B248" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D248" s="19" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B249" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D249" s="8" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B250" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
@@ -12819,85 +12819,85 @@
       </c>
       <c r="D250" s="19" t="inlineStr">
         <is>
-          <t>maa://20877, *maa://45067, maa://20836, maa://20632</t>
+          <t>maa://42287, maa://45570, maa://42225, maa://60678</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B251" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B252" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D252" s="19" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20923, *maa://60577</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B253" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D253" s="19" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://24093, maa://31559, maa://20924, **maa://49440</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B254" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
@@ -12907,19 +12907,19 @@
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B255" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
@@ -12929,63 +12929,63 @@
       </c>
       <c r="D255" s="19" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B256" s="6" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D256" s="19" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://20877, *maa://45067, maa://20836, maa://20632</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B257" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C257" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D257" s="19" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B258" s="6" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C258" s="7" t="inlineStr">
@@ -12995,19 +12995,19 @@
       </c>
       <c r="D258" s="19" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B259" s="6" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C259" s="7" t="inlineStr">
@@ -13017,41 +13017,41 @@
       </c>
       <c r="D259" s="19" t="inlineStr">
         <is>
-          <t>maa://59689</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B260" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C260" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D260" s="19" t="inlineStr">
         <is>
-          <t>maa://49643</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B261" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C261" s="7" t="inlineStr">
@@ -13061,41 +13061,41 @@
       </c>
       <c r="D261" s="19" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B262" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D262" s="19" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B263" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
@@ -13105,41 +13105,41 @@
       </c>
       <c r="D263" s="19" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B264" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D264" s="19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B265" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>MB-EX-1</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
@@ -13149,41 +13149,41 @@
       </c>
       <c r="D265" s="19" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>maa://59682</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B266" s="6" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D266" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://56588, *maa://55171, maa://51893</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B267" s="6" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
@@ -13193,19 +13193,19 @@
       </c>
       <c r="D267" s="19" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://59689</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B268" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
@@ -13215,19 +13215,19 @@
       </c>
       <c r="D268" s="19" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B269" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
@@ -13237,85 +13237,85 @@
       </c>
       <c r="D269" s="19" t="inlineStr">
         <is>
-          <t>maa://20939</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B270" s="6" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D270" s="19" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>*maa://20825, *maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B271" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D271" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B272" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D272" s="19" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B273" s="6" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
@@ -13325,41 +13325,41 @@
       </c>
       <c r="D273" s="19" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B274" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://55171, maa://51893</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B275" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
@@ -13369,19 +13369,19 @@
       </c>
       <c r="D275" s="19" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B276" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C276" s="7" t="inlineStr">
@@ -13391,41 +13391,41 @@
       </c>
       <c r="D276" s="19" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B277" s="6" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D277" s="19" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://20939</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B278" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
@@ -13435,63 +13435,63 @@
       </c>
       <c r="D278" s="19" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B279" s="6" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D279" s="19" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B280" s="6" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D280" s="19" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B281" s="6" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
@@ -13501,19 +13501,19 @@
       </c>
       <c r="D281" s="19" t="inlineStr">
         <is>
-          <t>maa://53353</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B282" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
@@ -13523,41 +13523,41 @@
       </c>
       <c r="D282" s="19" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B283" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D283" s="19" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B284" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C284" s="7" t="inlineStr">
@@ -13567,63 +13567,63 @@
       </c>
       <c r="D284" s="19" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>*maa://39165</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B285" s="6" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D285" s="19" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B286" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C286" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D286" s="19" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B287" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C287" s="7" t="inlineStr">
@@ -13633,63 +13633,63 @@
       </c>
       <c r="D287" s="19" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B288" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C288" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D288" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B289" s="6" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C289" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D289" s="19" t="inlineStr">
         <is>
-          <t>maa://45799, maa://57199</t>
+          <t>maa://53353</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B290" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
@@ -13699,107 +13699,107 @@
       </c>
       <c r="D290" s="19" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B291" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D291" s="19" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B292" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D292" s="19" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B293" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D293" s="19" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B294" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D294" s="19" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B295" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
@@ -13809,63 +13809,63 @@
       </c>
       <c r="D295" s="19" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B296" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D296" s="19" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://32414, maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="6" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B297" s="6" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
+          <t>maa://45799, maa://57199</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B298" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
@@ -13875,85 +13875,85 @@
       </c>
       <c r="D298" s="19" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B299" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D299" s="19" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B300" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D300" s="19" t="inlineStr">
         <is>
-          <t>maa://53352</t>
+          <t>**maa://39166, maa://39167</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B301" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D301" s="19" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://29005, maa://31560</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B302" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
@@ -13963,19 +13963,19 @@
       </c>
       <c r="D302" s="19" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B303" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
@@ -13985,19 +13985,19 @@
       </c>
       <c r="D303" s="19" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B304" s="6" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
@@ -14007,41 +14007,41 @@
       </c>
       <c r="D304" s="19" t="inlineStr">
         <is>
-          <t>maa://53348</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B305" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C305" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D305" s="19" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B306" s="6" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C306" s="7" t="inlineStr">
@@ -14051,41 +14051,41 @@
       </c>
       <c r="D306" s="19" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B307" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C307" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D307" s="19" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B308" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C308" s="7" t="inlineStr">
@@ -14095,19 +14095,19 @@
       </c>
       <c r="D308" s="19" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://53352</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B309" s="6" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C309" s="7" t="inlineStr">
@@ -14117,19 +14117,19 @@
       </c>
       <c r="D309" s="19" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B310" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
@@ -14139,19 +14139,19 @@
       </c>
       <c r="D310" s="19" t="inlineStr">
         <is>
-          <t>maa://62761</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B311" s="6" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
@@ -14161,19 +14161,19 @@
       </c>
       <c r="D311" s="19" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B312" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
@@ -14183,19 +14183,19 @@
       </c>
       <c r="D312" s="19" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://53348</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B313" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
@@ -14205,85 +14205,85 @@
       </c>
       <c r="D313" s="19" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>**maa://39172</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B314" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D314" s="19" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B315" s="6" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D315" s="19" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B316" s="6" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D316" s="19" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B317" s="6" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
@@ -14293,19 +14293,19 @@
       </c>
       <c r="D317" s="19" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B318" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
@@ -14315,36 +14315,36 @@
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://62761</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B319" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>*maa://43090</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B320" s="6" t="inlineStr">
@@ -14359,19 +14359,19 @@
       </c>
       <c r="D320" s="19" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B321" s="6" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
@@ -14381,19 +14381,19 @@
       </c>
       <c r="D321" s="19" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B322" s="6" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
@@ -14403,19 +14403,19 @@
       </c>
       <c r="D322" s="19" t="inlineStr">
         <is>
-          <t>maa://30680, maa://41360</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B323" s="6" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
@@ -14425,129 +14425,129 @@
       </c>
       <c r="D323" s="19" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B324" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D324" s="19" t="inlineStr">
         <is>
-          <t>maa://59688</t>
+          <t>maa://39692, maa://39810</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B325" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D325" s="19" t="inlineStr">
         <is>
-          <t>maa://34205, *maa://39541</t>
+          <t>*maa://39174</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B326" s="6" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D326" s="19" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B327" s="6" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D327" s="19" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B328" s="6" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="19" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B329" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
@@ -14557,63 +14557,63 @@
       </c>
       <c r="D329" s="19" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B330" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" s="19" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://30680, maa://41360</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B331" s="6" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D331" s="8" t="inlineStr">
         <is>
-          <t>maa://38295, maa://49332</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B332" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
@@ -14623,63 +14623,63 @@
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B333" s="6" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://34205, *maa://39541</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B334" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B335" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C335" s="7" t="inlineStr">
@@ -14689,41 +14689,41 @@
       </c>
       <c r="D335" s="8" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B336" s="6" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C336" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, maa://61275, maa://61839</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C337" s="7" t="inlineStr">
@@ -14733,19 +14733,19 @@
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>*maa://40162</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B338" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C338" s="7" t="inlineStr">
@@ -14755,85 +14755,85 @@
       </c>
       <c r="D338" s="5" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B339" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C339" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B340" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C340" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D340" s="5" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://38295, maa://49332</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B341" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C341" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B342" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
@@ -14843,41 +14843,41 @@
       </c>
       <c r="D342" s="5" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B343" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D343" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B344" s="6" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
@@ -14887,63 +14887,63 @@
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B345" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, maa://61275, maa://61839</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B346" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D346" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758, *maa://59402, *maa://52357</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B347" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
@@ -14953,63 +14953,63 @@
       </c>
       <c r="D347" s="5" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B348" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, maa://42224</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B349" s="6" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D349" s="5" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B350" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
@@ -15019,63 +15019,63 @@
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://34865, maa://34717, *maa://45066</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B351" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D351" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, *maa://56268, maa://40489</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B352" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://42635, maa://50629, maa://48859</t>
+          <t>maa://45834, maa://45833</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B353" s="6" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
@@ -15085,63 +15085,63 @@
       </c>
       <c r="D353" s="5" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B354" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D354" s="5" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B355" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, *maa://60251</t>
+          <t>maa://49696, maa://49695, maa://49758, *maa://59402, *maa://52357, **maa://63091</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B356" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
@@ -15151,107 +15151,107 @@
       </c>
       <c r="D356" s="5" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B357" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C357" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://42299, maa://42224</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B358" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C358" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D358" s="5" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B359" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C359" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D359" s="5" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B360" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858, *maa://56268, maa://40489</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B361" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C361" s="7" t="inlineStr">
@@ -15261,85 +15261,85 @@
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, maa://50518, maa://41977</t>
+          <t>maa://42635, maa://50629, maa://48859</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B362" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B363" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C363" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D363" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B364" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, *maa://60251</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B365" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
@@ -15349,41 +15349,41 @@
       </c>
       <c r="D365" s="5" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B366" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B367" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C367" s="7" t="inlineStr">
@@ -15393,19 +15393,19 @@
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B368" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
@@ -15415,107 +15415,107 @@
       </c>
       <c r="D368" s="5" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B369" s="6" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, *maa://45952, *maa://44896</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B370" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://42333, maa://50518, maa://41977</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B371" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C371" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://42338, maa://41976</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B372" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C372" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://41110, maa://45605</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B373" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C373" s="7" t="inlineStr">
@@ -15525,19 +15525,19 @@
       </c>
       <c r="D373" s="5" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B374" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C374" s="7" t="inlineStr">
@@ -15547,19 +15547,19 @@
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B375" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C375" s="7" t="inlineStr">
@@ -15569,19 +15569,19 @@
       </c>
       <c r="D375" s="5" t="inlineStr">
         <is>
-          <t>*maa://47175, maa://47174</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B376" s="6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C376" s="7" t="inlineStr">
@@ -15591,19 +15591,19 @@
       </c>
       <c r="D376" s="5" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B377" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C377" s="7" t="inlineStr">
@@ -15613,14 +15613,14 @@
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>**maa://48618</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B378" s="6" t="inlineStr">
@@ -15630,188 +15630,188 @@
       </c>
       <c r="C378" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>maa://59533, maa://59577</t>
+          <t>*maa://53307</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B379" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C379" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D379" s="5" t="inlineStr">
         <is>
-          <t>maa://51907, maa://51908</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B380" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C380" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>**maa://59691</t>
+          <t>maa://42970, maa://44745, *maa://45952, *maa://44896</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B381" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D381" s="5" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://51880, maa://56651, maa://51878</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, maa://51873, maa://62047, maa://63228</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://59493, maa://60449</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>录武官</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>HS-5</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>maa://62756</t>
+          <t>*maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
@@ -15982,12 +15982,12 @@
       </c>
       <c r="C394" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, maa://51873, maa://62047</t>
+          <t>maa://51872, maa://51876, maa://51873, maa://63228, maa://62047</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.27 13:27:11</t>
+          <t>更新日期：2025.07.29 13:34:35</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755</t>
+          <t>maa://27395, maa://22755, maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="W22" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X22" s="18" t="inlineStr">
         <is>
-          <t>maa://21282</t>
+          <t>maa://21282, *maa://37649</t>
         </is>
       </c>
       <c r="Y22" s="15" t="n"/>
@@ -6981,7 +6981,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.27 13:27:11</t>
+          <t>更新日期：2025.07.29 13:34:35</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7690,12 +7690,12 @@
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
         <is>
-          <t>maa://20948, maa://30844, maa://58691</t>
+          <t>maa://20948, maa://30844, maa://58691, maa://63387</t>
         </is>
       </c>
       <c r="F22" s="18" t="n"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="D64" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, maa://33504, maa://45144, maa://43531</t>
+          <t>maa://28187, maa://45144, maa://33504, maa://43531</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://32653, maa://25161, maa://61275, maa://61839</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://25161, maa://32653, maa://61275, maa://61839</t>
         </is>
       </c>
     </row>
@@ -12880,12 +12880,12 @@
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D253" s="19" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924, **maa://49440</t>
+          <t>maa://24093, maa://31559, maa://20924</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -806,7 +806,7 @@
       </c>
       <c r="D3" s="18" t="inlineStr">
         <is>
-          <t>maa://40192, maa://36987, maa://39849</t>
+          <t>maa://40192, maa://36987, *maa://39849</t>
         </is>
       </c>
       <c r="E3" s="15" t="n"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>maa://21249, maa://26254, *maa://22738</t>
+          <t>maa://21249, maa://26254, **maa://22738</t>
         </is>
       </c>
       <c r="Q3" s="15" t="n"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="X3" s="18" t="inlineStr">
         <is>
-          <t>maa://27396, maa://27484, maa://27480</t>
+          <t>maa://27396, maa://27484, *maa://27480</t>
         </is>
       </c>
       <c r="Y3" s="15" t="n"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="AF3" s="18" t="inlineStr">
         <is>
-          <t>*maa://21289</t>
+          <t>maa://21289</t>
         </is>
       </c>
       <c r="AG3" s="12" t="n"/>
@@ -936,7 +936,7 @@
       </c>
       <c r="D4" s="18" t="inlineStr">
         <is>
-          <t>maa://24632, maa://22499, maa://22746</t>
+          <t>maa://24632, *maa://22499, *maa://22746</t>
         </is>
       </c>
       <c r="E4" s="15" t="n"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="AB4" s="18" t="inlineStr">
         <is>
-          <t>*maa://32658</t>
+          <t>maa://32658</t>
         </is>
       </c>
       <c r="AC4" s="15" t="n"/>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="AF4" s="18" t="inlineStr">
         <is>
-          <t>*maa://30062, *maa://39394</t>
+          <t>maa://30062, maa://39394</t>
         </is>
       </c>
       <c r="AG4" s="12" t="n"/>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="AB5" s="18" t="inlineStr">
         <is>
-          <t>*maa://29863, **maa://26013</t>
+          <t>maa://29863, **maa://26013</t>
         </is>
       </c>
       <c r="AC5" s="15" t="n"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="AF6" s="18" t="inlineStr">
         <is>
-          <t>*maa://33152, ***maa://22770</t>
+          <t>maa://33152, ***maa://22770</t>
         </is>
       </c>
       <c r="AG6" s="12" t="n"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>*maa://22763</t>
+          <t>maa://22763</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.29 13:34:35</t>
+          <t>更新日期：2025.07.29 23:24:36</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D8" s="18" t="inlineStr">
         <is>
-          <t>*maa://21476, *maa://39431, **maa://37551</t>
+          <t>maa://21476, *maa://39431, **maa://37551</t>
         </is>
       </c>
       <c r="E8" s="15" t="n"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H8" s="18" t="inlineStr">
         <is>
-          <t>*maa://24371</t>
+          <t>maa://24371</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="AF8" s="18" t="inlineStr">
         <is>
-          <t>*maa://24479, **maa://21990</t>
+          <t>maa://24479, **maa://21990</t>
         </is>
       </c>
       <c r="AG8" s="12" t="n"/>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="L9" s="18" t="inlineStr">
         <is>
-          <t>maa://22762, maa://39552</t>
+          <t>maa://22762, *maa://39552</t>
         </is>
       </c>
       <c r="M9" s="15" t="n"/>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="AF9" s="18" t="inlineStr">
         <is>
-          <t>maa://26206, *maa://22865</t>
+          <t>maa://26206, **maa://22865</t>
         </is>
       </c>
       <c r="AG9" s="12" t="n"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D10" s="18" t="inlineStr">
         <is>
-          <t>***maa://34206, *maa://45271, ***maa://39243, **maa://54000</t>
+          <t>***maa://25695, ***maa://34206, maa://45271, ***maa://54000</t>
         </is>
       </c>
       <c r="E10" s="15" t="n"/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="L10" s="18" t="inlineStr">
         <is>
-          <t>**maa://24395</t>
+          <t>maa://24395</t>
         </is>
       </c>
       <c r="M10" s="15" t="n"/>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="P10" s="18" t="inlineStr">
         <is>
-          <t>maa://28977, *maa://36669, *maa://23264</t>
+          <t>maa://28977, maa://36669, *maa://23264</t>
         </is>
       </c>
       <c r="Q10" s="15" t="n"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, maa://63521</t>
+          <t>maa://27395, maa://22755, **maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -1833,12 +1833,12 @@
       </c>
       <c r="AE10" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF10" s="18" t="inlineStr">
         <is>
-          <t>*maa://25021, *maa://22733, **maa://22761</t>
+          <t>maa://25021, maa://22733</t>
         </is>
       </c>
       <c r="AG10" s="12" t="n"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D12" s="18" t="inlineStr">
         <is>
-          <t>maa://30766, maa://36678</t>
+          <t>maa://30766, *maa://36678</t>
         </is>
       </c>
       <c r="E12" s="15" t="n"/>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="H12" s="18" t="inlineStr">
         <is>
-          <t>maa://21867, maa://54294</t>
+          <t>maa://21867, **maa://54294</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="AF12" s="18" t="inlineStr">
         <is>
-          <t>*maa://28932, *maa://20106, *maa://22769</t>
+          <t>maa://28932, *maa://20106, *maa://22769</t>
         </is>
       </c>
       <c r="AG12" s="12" t="n"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H13" s="18" t="inlineStr">
         <is>
-          <t>*maa://21248, **maa://22728</t>
+          <t>maa://21248, **maa://22728</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="H14" s="18" t="inlineStr">
         <is>
-          <t>**maa://32656</t>
+          <t>maa://32656</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="P14" s="18" t="inlineStr">
         <is>
-          <t>maa://23250, maa://20107, maa://22772</t>
+          <t>maa://23250, *maa://20107, *maa://22772</t>
         </is>
       </c>
       <c r="Q14" s="15" t="n"/>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D15" s="18" t="inlineStr">
         <is>
-          <t>*maa://22743, maa://22734, *maa://30808, *maa://36048, maa://45058</t>
+          <t>maa://22743, maa://22734, *maa://30808, maa://36048, maa://45058</t>
         </is>
       </c>
       <c r="E15" s="15" t="n"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="L15" s="18" t="inlineStr">
         <is>
-          <t>*maa://21334</t>
+          <t>maa://21334</t>
         </is>
       </c>
       <c r="M15" s="15" t="n"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="P15" s="18" t="inlineStr">
         <is>
-          <t>maa://24762, *maa://22727</t>
+          <t>maa://24762, **maa://22727</t>
         </is>
       </c>
       <c r="Q15" s="15" t="n"/>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="X15" s="18" t="inlineStr">
         <is>
-          <t>*maa://38786, maa://56102</t>
+          <t>maa://38786, maa://56102</t>
         </is>
       </c>
       <c r="Y15" s="15" t="n"/>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="T16" s="18" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, maa://36674</t>
+          <t>maa://22729, *maa://28648, *maa://36674</t>
         </is>
       </c>
       <c r="U16" s="15" t="n"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D17" s="18" t="inlineStr">
         <is>
-          <t>maa://21624, maa://56358</t>
+          <t>maa://21624, **maa://56358</t>
         </is>
       </c>
       <c r="E17" s="15" t="n"/>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="L17" s="18" t="inlineStr">
         <is>
-          <t>*maa://21679</t>
+          <t>maa://21679</t>
         </is>
       </c>
       <c r="M17" s="15" t="n"/>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="T17" s="18" t="inlineStr">
         <is>
-          <t>*maa://42324</t>
+          <t>maa://42324</t>
         </is>
       </c>
       <c r="U17" s="15" t="n"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="P18" s="18" t="inlineStr">
         <is>
-          <t>maa://24379, maa://54153, maa://24380</t>
+          <t>maa://24379, *maa://54153, *maa://24380</t>
         </is>
       </c>
       <c r="Q18" s="15" t="n"/>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="X18" s="18" t="inlineStr">
         <is>
-          <t>maa://21917, maa://22741</t>
+          <t>maa://21917, *maa://22741</t>
         </is>
       </c>
       <c r="Y18" s="15" t="n"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="AF18" s="18" t="inlineStr">
         <is>
-          <t>*maa://24313, **maa://29784, *maa://47854</t>
+          <t>maa://24313, *maa://29784, maa://47854</t>
         </is>
       </c>
       <c r="AG18" s="12" t="n"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="AB19" s="18" t="inlineStr">
         <is>
-          <t>*maa://30709, *maa://36668</t>
+          <t>maa://30709, *maa://36668</t>
         </is>
       </c>
       <c r="AC19" s="15" t="n"/>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="X20" s="18" t="inlineStr">
         <is>
-          <t>maa://50085, maa://49976, maa://56241</t>
+          <t>maa://50085, maa://49976, *maa://56241</t>
         </is>
       </c>
       <c r="Y20" s="15" t="n"/>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>*maa://27127, *maa://22751</t>
+          <t>maa://27127, maa://22751</t>
         </is>
       </c>
       <c r="M22" s="15" t="n"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="D23" s="18" t="inlineStr">
         <is>
-          <t>***maa://28036, **maa://41753</t>
+          <t>*maa://28036, maa://41753</t>
         </is>
       </c>
       <c r="E23" s="15" t="n"/>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="X23" s="18" t="inlineStr">
         <is>
-          <t>*maa://28503</t>
+          <t>maa://28503</t>
         </is>
       </c>
       <c r="Y23" s="15" t="n"/>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D24" s="18" t="inlineStr">
         <is>
-          <t>*maa://24368, *maa://46650</t>
+          <t>maa://24368, *maa://46650</t>
         </is>
       </c>
       <c r="E24" s="15" t="n"/>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D25" s="18" t="inlineStr">
         <is>
-          <t>maa://29753, maa://63016</t>
+          <t>maa://29753, ***maa://63016</t>
         </is>
       </c>
       <c r="E25" s="15" t="n"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>*maa://29063, *maa://25311, *maa://45047</t>
+          <t>maa://29063, maa://25311, *maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="T25" s="18" t="inlineStr">
         <is>
-          <t>maa://20109, maa://22545, *maa://42915</t>
+          <t>maa://20109, maa://22545, **maa://42915</t>
         </is>
       </c>
       <c r="U25" s="15" t="n"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="AB25" s="18" t="inlineStr">
         <is>
-          <t>maa://31215, *maa://24516, maa://26001</t>
+          <t>maa://31215, maa://24516, maa://26001</t>
         </is>
       </c>
       <c r="AC25" s="15" t="n"/>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="AF25" s="18" t="inlineStr">
         <is>
-          <t>maa://20108, maa://24621, maa://36676, maa://22771, *maa://37772</t>
+          <t>maa://20108, maa://24621, maa://36676, *maa://22771, **maa://37772</t>
         </is>
       </c>
       <c r="AG25" s="12" t="n"/>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D26" s="18" t="inlineStr">
         <is>
-          <t>maa://41802, maa://56374</t>
+          <t>maa://41802, *maa://56374</t>
         </is>
       </c>
       <c r="E26" s="15" t="n"/>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="AF26" s="18" t="inlineStr">
         <is>
-          <t>*maa://30511, **maa://29760</t>
+          <t>maa://30511, **maa://29760</t>
         </is>
       </c>
       <c r="AG26" s="12" t="n"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="H27" s="18" t="inlineStr">
         <is>
-          <t>maa://39601, maa://34494</t>
+          <t>*maa://39601, maa://34494</t>
         </is>
       </c>
       <c r="I27" s="15" t="n"/>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="T27" s="18" t="inlineStr">
         <is>
-          <t>*maa://30624</t>
+          <t>maa://30624</t>
         </is>
       </c>
       <c r="U27" s="15" t="n"/>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="H29" s="18" t="inlineStr">
         <is>
-          <t>*maa://25175</t>
+          <t>maa://25175</t>
         </is>
       </c>
       <c r="I29" s="15" t="n"/>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="L29" s="18" t="inlineStr">
         <is>
-          <t>maa://28432, maa://31400, maa://28440, *maa://28650</t>
+          <t>maa://28432, maa://31400, maa://28440, **maa://28650</t>
         </is>
       </c>
       <c r="M29" s="15" t="n"/>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="AF29" s="18" t="inlineStr">
         <is>
-          <t>*maa://24080, maa://42865</t>
+          <t>maa://24080, maa://42865</t>
         </is>
       </c>
       <c r="AG29" s="12" t="n"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="AB30" s="18" t="inlineStr">
         <is>
-          <t>maa://42979, maa://45822, maa://45045</t>
+          <t>maa://42979, maa://45822, **maa://45045</t>
         </is>
       </c>
       <c r="AC30" s="15" t="n"/>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="T31" s="18" t="inlineStr">
         <is>
-          <t>maa://30711, maa://30768</t>
+          <t>maa://30711, **maa://30768</t>
         </is>
       </c>
       <c r="U31" s="15" t="n"/>
@@ -4547,10 +4547,14 @@
       </c>
       <c r="AA31" s="15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB31" s="12" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB31" s="12" t="inlineStr">
+        <is>
+          <t>maa://51420</t>
+        </is>
+      </c>
       <c r="AC31" s="15" t="n"/>
       <c r="AD31" s="15" t="inlineStr">
         <is>
@@ -4598,7 +4602,7 @@
       </c>
       <c r="H32" s="18" t="inlineStr">
         <is>
-          <t>maa://21895, maa://36667, maa://22760</t>
+          <t>maa://21895, maa://36667, **maa://22760</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -4646,7 +4650,7 @@
       </c>
       <c r="T32" s="18" t="inlineStr">
         <is>
-          <t>maa://42859, maa://41108, maa://41238, maa://45523</t>
+          <t>maa://42859, *maa://41108, maa://41238, maa://45523</t>
         </is>
       </c>
       <c r="U32" s="15" t="n"/>
@@ -4728,7 +4732,7 @@
       </c>
       <c r="H33" s="18" t="inlineStr">
         <is>
-          <t>**maa://39351</t>
+          <t>maa://39351</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -4890,7 +4894,7 @@
       </c>
       <c r="P34" s="18" t="inlineStr">
         <is>
-          <t>maa://48817, maa://56235</t>
+          <t>maa://48817, *maa://56235</t>
         </is>
       </c>
       <c r="Q34" s="15" t="n"/>
@@ -5248,7 +5252,7 @@
       </c>
       <c r="H37" s="18" t="inlineStr">
         <is>
-          <t>*maa://24374</t>
+          <t>maa://24374</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -5264,7 +5268,7 @@
       </c>
       <c r="L37" s="18" t="inlineStr">
         <is>
-          <t>maa://45718, maa://47069, maa://56336, maa://45789</t>
+          <t>maa://45718, *maa://47069, *maa://56336, *maa://45789</t>
         </is>
       </c>
       <c r="M37" s="15" t="n"/>
@@ -5296,7 +5300,7 @@
       </c>
       <c r="T37" s="18" t="inlineStr">
         <is>
-          <t>**maa://39354</t>
+          <t>maa://39354</t>
         </is>
       </c>
       <c r="U37" s="15" t="n"/>
@@ -5364,7 +5368,7 @@
       </c>
       <c r="L38" s="18" t="inlineStr">
         <is>
-          <t>maa://39384, maa://49735</t>
+          <t>maa://39384, *maa://49735</t>
         </is>
       </c>
       <c r="M38" s="15" t="n"/>
@@ -5380,7 +5384,7 @@
       </c>
       <c r="P38" s="18" t="inlineStr">
         <is>
-          <t>*maa://24383</t>
+          <t>maa://24383</t>
         </is>
       </c>
       <c r="Q38" s="15" t="n"/>
@@ -5448,7 +5452,7 @@
       </c>
       <c r="H39" s="18" t="inlineStr">
         <is>
-          <t>maa://36670, maa://25199, maa://30434, *maa://45059, *maa://44165</t>
+          <t>maa://36670, maa://25199, maa://30434, *maa://45059, **maa://44165</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -5496,7 +5500,7 @@
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45788, maa://45790</t>
+          <t>maa://47079, *maa://45788, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -5580,7 +5584,7 @@
       </c>
       <c r="P40" s="18" t="inlineStr">
         <is>
-          <t>maa://23278, maa://21386, maa://36664, maa://45550</t>
+          <t>maa://23278, maa://21386, maa://36664, *maa://45550</t>
         </is>
       </c>
       <c r="Q40" s="15" t="n"/>
@@ -5864,7 +5868,7 @@
       </c>
       <c r="P43" s="18" t="inlineStr">
         <is>
-          <t>*maa://47403</t>
+          <t>maa://47403</t>
         </is>
       </c>
       <c r="Q43" s="15" t="n"/>
@@ -5880,7 +5884,7 @@
       </c>
       <c r="T43" s="18" t="inlineStr">
         <is>
-          <t>maa://43198, maa://46286</t>
+          <t>maa://43198, *maa://46286</t>
         </is>
       </c>
       <c r="U43" s="15" t="n"/>
@@ -5916,7 +5920,7 @@
       </c>
       <c r="H44" s="18" t="inlineStr">
         <is>
-          <t>maa://29768, maa://27728, maa://56386</t>
+          <t>maa://29768, maa://27728, *maa://56386</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -6001,7 +6005,7 @@
       </c>
       <c r="P45" s="18" t="inlineStr">
         <is>
-          <t>*maa://36237</t>
+          <t>maa://36237</t>
         </is>
       </c>
       <c r="Q45" s="15" t="n"/>
@@ -6017,7 +6021,7 @@
       </c>
       <c r="T45" s="18" t="inlineStr">
         <is>
-          <t>**maa://39364</t>
+          <t>maa://39364</t>
         </is>
       </c>
       <c r="U45" s="15" t="n"/>
@@ -6123,7 +6127,7 @@
       </c>
       <c r="H47" s="18" t="inlineStr">
         <is>
-          <t>maa://27410, maa://29661, maa://28038, maa://56236</t>
+          <t>maa://27410, maa://29661, *maa://28038, *maa://56236</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -6245,7 +6249,7 @@
       </c>
       <c r="P49" s="18" t="inlineStr">
         <is>
-          <t>*maa://39643</t>
+          <t>maa://39643</t>
         </is>
       </c>
       <c r="Q49" s="15" t="n"/>
@@ -6298,7 +6302,7 @@
       </c>
       <c r="P50" s="18" t="inlineStr">
         <is>
-          <t>*maa://62852</t>
+          <t>maa://62852</t>
         </is>
       </c>
       <c r="Q50" s="15" t="n"/>
@@ -6552,7 +6556,7 @@
       </c>
       <c r="H57" s="18" t="inlineStr">
         <is>
-          <t>maa://25176, maa://56237</t>
+          <t>maa://25176, *maa://56237</t>
         </is>
       </c>
       <c r="I57" s="15" t="n"/>
@@ -6570,7 +6574,7 @@
       </c>
       <c r="H58" s="18" t="inlineStr">
         <is>
-          <t>*maa://37964</t>
+          <t>maa://37964</t>
         </is>
       </c>
       <c r="I58" s="15" t="n"/>
@@ -6606,7 +6610,7 @@
       </c>
       <c r="H60" s="18" t="inlineStr">
         <is>
-          <t>*maa://40438</t>
+          <t>maa://40438</t>
         </is>
       </c>
       <c r="I60" s="15" t="n"/>
@@ -6642,7 +6646,7 @@
       </c>
       <c r="H62" s="18" t="inlineStr">
         <is>
-          <t>maa://42981, maa://43903, maa://56228</t>
+          <t>maa://42981, maa://43903, **maa://56228</t>
         </is>
       </c>
       <c r="I62" s="15" t="n"/>
@@ -6660,7 +6664,7 @@
       </c>
       <c r="H63" s="18" t="inlineStr">
         <is>
-          <t>maa://59534, maa://59413</t>
+          <t>maa://59534, **maa://59413</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -6981,7 +6985,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.29 13:34:35</t>
+          <t>更新日期：2025.07.29 23:24:36</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7077,7 +7081,7 @@
       </c>
       <c r="D4" s="19" t="inlineStr">
         <is>
-          <t>*maa://20996</t>
+          <t>maa://20996</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -7149,7 +7153,7 @@
       </c>
       <c r="D6" s="19" t="inlineStr">
         <is>
-          <t>*maa://20925</t>
+          <t>maa://20925</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -7287,7 +7291,7 @@
       </c>
       <c r="D10" s="19" t="inlineStr">
         <is>
-          <t>*maa://20888</t>
+          <t>maa://20888</t>
         </is>
       </c>
       <c r="F10" s="18" t="n"/>
@@ -7355,7 +7359,7 @@
       </c>
       <c r="D12" s="19" t="inlineStr">
         <is>
-          <t>**maa://20857</t>
+          <t>maa://20857</t>
         </is>
       </c>
       <c r="F12" s="18" t="n"/>
@@ -7486,12 +7490,12 @@
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" s="19" t="inlineStr">
         <is>
-          <t>maa://20919, *maa://31611</t>
+          <t>maa://20919</t>
         </is>
       </c>
       <c r="F16" s="18" t="n"/>
@@ -7627,7 +7631,7 @@
       </c>
       <c r="D20" s="19" t="inlineStr">
         <is>
-          <t>maa://20865, maa://20826</t>
+          <t>maa://20865, *maa://20826</t>
         </is>
       </c>
       <c r="F20" s="18" t="n"/>
@@ -7690,12 +7694,12 @@
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
         <is>
-          <t>maa://20948, maa://30844, maa://58691, maa://63387</t>
+          <t>maa://20948, maa://30844</t>
         </is>
       </c>
       <c r="F22" s="18" t="n"/>
@@ -7933,7 +7937,7 @@
       </c>
       <c r="D29" s="19" t="inlineStr">
         <is>
-          <t>maa://20863, maa://20832, maa://20727</t>
+          <t>maa://20863, maa://20832, *maa://20727</t>
         </is>
       </c>
       <c r="F29" s="18" t="n"/>
@@ -8001,7 +8005,7 @@
       </c>
       <c r="D31" s="19" t="inlineStr">
         <is>
-          <t>*maa://39024</t>
+          <t>maa://39024</t>
         </is>
       </c>
     </row>
@@ -8018,12 +8022,12 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://45572, maa://27794, maa://62759, maa://20960, maa://20843, **maa://24483, maa://20862, *maa://20893</t>
+          <t>maa://36644, maa://36866, *maa://45572, *maa://27794, maa://62759, *maa://20960, **maa://20843, **maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -8128,12 +8132,12 @@
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" s="19" t="inlineStr">
         <is>
-          <t>maa://27376, maa://42635, *maa://20838</t>
+          <t>maa://27376, maa://42635</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8181,7 @@
       </c>
       <c r="D39" s="19" t="inlineStr">
         <is>
-          <t>maa://29012, maa://20928</t>
+          <t>*maa://29012, maa://20928</t>
         </is>
       </c>
     </row>
@@ -8331,7 +8335,7 @@
       </c>
       <c r="D46" s="19" t="inlineStr">
         <is>
-          <t>*maa://39025</t>
+          <t>maa://39025</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8401,7 @@
       </c>
       <c r="D49" s="19" t="inlineStr">
         <is>
-          <t>*maa://32845, *maa://20982</t>
+          <t>maa://32845, *maa://20982</t>
         </is>
       </c>
     </row>
@@ -8546,12 +8550,12 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" s="19" t="inlineStr">
         <is>
-          <t>maa://44235, maa://45604, maa://20961, maa://44220, maa://20910</t>
+          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
         </is>
       </c>
     </row>
@@ -8573,7 +8577,7 @@
       </c>
       <c r="D57" s="19" t="inlineStr">
         <is>
-          <t>*maa://20965</t>
+          <t>maa://20965</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8599,7 @@
       </c>
       <c r="D58" s="19" t="inlineStr">
         <is>
-          <t>maa://28900, maa://30126</t>
+          <t>maa://28900, *maa://30126</t>
         </is>
       </c>
     </row>
@@ -8617,7 +8621,7 @@
       </c>
       <c r="D59" s="19" t="inlineStr">
         <is>
-          <t>maa://27970, maa://41118</t>
+          <t>maa://27970, *maa://41118</t>
         </is>
       </c>
     </row>
@@ -8656,12 +8660,12 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://20924, maa://25777, maa://20631, maa://28241</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://20924, *maa://20631</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8709,7 @@
       </c>
       <c r="D63" s="19" t="inlineStr">
         <is>
-          <t>*maa://20845, maa://38727</t>
+          <t>maa://20845, maa://38727</t>
         </is>
       </c>
     </row>
@@ -8722,12 +8726,12 @@
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D64" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, maa://45144, maa://33504, maa://43531</t>
+          <t>maa://28187, maa://45144, maa://33504</t>
         </is>
       </c>
     </row>
@@ -8744,12 +8748,12 @@
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D65" s="19" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, maa://38735, *maa://28188, maa://30524</t>
+          <t>maa://28567, maa://30525, maa://38735</t>
         </is>
       </c>
     </row>
@@ -8766,12 +8770,12 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D66" s="19" t="inlineStr">
         <is>
-          <t>maa://20993, maa://45606, maa://20914, maa://20829, maa://20900, maa://40159</t>
+          <t>maa://20993, maa://45606, maa://20829, maa://20900</t>
         </is>
       </c>
     </row>
@@ -8788,12 +8792,12 @@
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>maa://39693, maa://49348</t>
+          <t>maa://39693</t>
         </is>
       </c>
     </row>
@@ -8832,12 +8836,12 @@
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, maa://29079, maa://29096, maa://29087, *maa://20823, maa://20855, maa://20904</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8885,7 @@
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, maa://30673, maa://30672, maa://20856</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
         </is>
       </c>
     </row>
@@ -9096,12 +9100,12 @@
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D81" s="19" t="inlineStr">
         <is>
-          <t>maa://30525, maa://20859, *maa://28188, maa://30524</t>
+          <t>maa://30525, maa://20859</t>
         </is>
       </c>
     </row>
@@ -9228,12 +9232,12 @@
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D87" s="19" t="inlineStr">
         <is>
-          <t>maa://20886, maa://60772</t>
+          <t>maa://20886</t>
         </is>
       </c>
     </row>
@@ -9250,12 +9254,12 @@
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D88" s="19" t="inlineStr">
         <is>
-          <t>maa://24472, *maa://35841</t>
+          <t>maa://24472</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9457,7 @@
       </c>
       <c r="D97" s="19" t="inlineStr">
         <is>
-          <t>maa://20991, maa://51015</t>
+          <t>maa://20991, *maa://51015</t>
         </is>
       </c>
     </row>
@@ -9558,12 +9562,12 @@
       </c>
       <c r="C102" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D102" s="19" t="inlineStr">
         <is>
-          <t>maa://40517, *maa://39240</t>
+          <t>maa://40517</t>
         </is>
       </c>
     </row>
@@ -9646,12 +9650,12 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D106" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, maa://20843, **maa://24483</t>
+          <t>maa://45572, maa://27794, *maa://20843</t>
         </is>
       </c>
     </row>
@@ -9690,12 +9694,12 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, maa://56588, maa://45194, maa://25161, maa://32653, maa://61275, maa://61839</t>
+          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, *maa://56588, *maa://45194, *maa://25161, *maa://32653</t>
         </is>
       </c>
     </row>
@@ -9844,12 +9848,12 @@
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D115" s="19" t="inlineStr">
         <is>
-          <t>maa://20908, maa://35723, *maa://23346, maa://38822, maa://58659</t>
+          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9941,7 @@
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20851</t>
+          <t>maa://31560, *maa://20851</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10051,7 @@
       </c>
       <c r="D124" s="19" t="inlineStr">
         <is>
-          <t>*maa://20909</t>
+          <t>maa://20909</t>
         </is>
       </c>
     </row>
@@ -10108,12 +10112,12 @@
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D127" s="19" t="inlineStr">
         <is>
-          <t>maa://20914, *maa://31937, maa://20829</t>
+          <t>*maa://20914, maa://20829</t>
         </is>
       </c>
     </row>
@@ -10157,7 +10161,7 @@
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
-          <t>maa://24491, maa://24493</t>
+          <t>maa://24491, *maa://24493</t>
         </is>
       </c>
     </row>
@@ -10223,7 +10227,7 @@
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
-          <t>maa://20837, maa://37666</t>
+          <t>maa://20837, *maa://37666</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10249,7 @@
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>maa://29023, maa://39515</t>
+          <t>maa://29023, *maa://39515</t>
         </is>
       </c>
     </row>
@@ -10372,12 +10376,12 @@
       </c>
       <c r="C139" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
-          <t>**maa://30679, maa://45258</t>
+          <t>maa://45258</t>
         </is>
       </c>
     </row>
@@ -10443,7 +10447,7 @@
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>maa://28484, maa://31185, maa://30306</t>
+          <t>maa://28484, *maa://31185, *maa://30306</t>
         </is>
       </c>
     </row>
@@ -10460,12 +10464,12 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, *maa://45066, maa://61380</t>
+          <t>maa://30670, maa://31470</t>
         </is>
       </c>
     </row>
@@ -10570,12 +10574,12 @@
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846, *maa://47286</t>
+          <t>maa://28828, maa://20846</t>
         </is>
       </c>
     </row>
@@ -10592,12 +10596,12 @@
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, maa://41128, maa://42918, maa://44119, maa://46108, maa://37300, maa://42917</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://44119, maa://46108, *maa://37300</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10777,7 @@
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>*maa://39149</t>
+          <t>maa://39149</t>
         </is>
       </c>
     </row>
@@ -10817,7 +10821,7 @@
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, maa://45603</t>
+          <t>maa://44232, *maa://45603</t>
         </is>
       </c>
     </row>
@@ -10988,12 +10992,12 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://49074, **maa://30679, maa://29861, maa://42343</t>
+          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
         </is>
       </c>
     </row>
@@ -11120,12 +11124,12 @@
       </c>
       <c r="C173" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D173" s="19" t="inlineStr">
         <is>
-          <t>*maa://20905, *maa://52268</t>
+          <t>maa://20905</t>
         </is>
       </c>
     </row>
@@ -11169,7 +11173,7 @@
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440, maa://63320</t>
+          <t>maa://32418, maa://51440, *maa://63320</t>
         </is>
       </c>
     </row>
@@ -11257,7 +11261,7 @@
       </c>
       <c r="D179" s="19" t="inlineStr">
         <is>
-          <t>maa://20911, maa://29012</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
@@ -11318,12 +11322,12 @@
       </c>
       <c r="C182" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D182" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20968</t>
+          <t>maa://31560</t>
         </is>
       </c>
     </row>
@@ -11648,12 +11652,12 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://20872, maa://51066, maa://63024</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, *maa://63024</t>
         </is>
       </c>
     </row>
@@ -11670,12 +11674,12 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://39550, *maa://53417</t>
+          <t>maa://39156</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11745,7 @@
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, maa://42402</t>
+          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11965,7 @@
       </c>
       <c r="D211" s="19" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, maa://44703</t>
+          <t>maa://20956, *maa://20830, *maa://44703</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12119,7 @@
       </c>
       <c r="D218" s="19" t="inlineStr">
         <is>
-          <t>*maa://39157</t>
+          <t>maa://39157</t>
         </is>
       </c>
     </row>
@@ -12137,7 +12141,7 @@
       </c>
       <c r="D219" s="19" t="inlineStr">
         <is>
-          <t>*maa://20995</t>
+          <t>maa://20995</t>
         </is>
       </c>
     </row>
@@ -12264,12 +12268,12 @@
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D225" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, maa://43531, maa://39520</t>
+          <t>maa://28187, *maa://39520</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12405,7 @@
       </c>
       <c r="D231" s="19" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, maa://38723</t>
+          <t>maa://29058, maa://39140, *maa://38723</t>
         </is>
       </c>
     </row>
@@ -12423,7 +12427,7 @@
       </c>
       <c r="D232" s="19" t="inlineStr">
         <is>
-          <t>*maa://48263</t>
+          <t>maa://48263</t>
         </is>
       </c>
     </row>
@@ -12555,7 +12559,7 @@
       </c>
       <c r="D238" s="19" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, maa://34242</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
@@ -12599,7 +12603,7 @@
       </c>
       <c r="D240" s="19" t="inlineStr">
         <is>
-          <t>*maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
@@ -12616,12 +12620,12 @@
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://62759, maa://62764</t>
+          <t>maa://62759</t>
         </is>
       </c>
     </row>
@@ -12704,12 +12708,12 @@
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D245" s="19" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485, *maa://32202</t>
+          <t>maa://20867, maa://38485</t>
         </is>
       </c>
     </row>
@@ -12814,12 +12818,12 @@
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D250" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225, maa://60678</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
@@ -12858,12 +12862,12 @@
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D252" s="19" t="inlineStr">
         <is>
-          <t>maa://20923, *maa://60577</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
@@ -12946,12 +12950,12 @@
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D256" s="19" t="inlineStr">
         <is>
-          <t>maa://20877, *maa://45067, maa://20836, maa://20632</t>
+          <t>maa://20877</t>
         </is>
       </c>
     </row>
@@ -13188,12 +13192,12 @@
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D267" s="19" t="inlineStr">
         <is>
-          <t>maa://59689</t>
+          <t>*maa://30678, maa://59689</t>
         </is>
       </c>
     </row>
@@ -13259,7 +13263,7 @@
       </c>
       <c r="D270" s="19" t="inlineStr">
         <is>
-          <t>*maa://20825, *maa://21445, *maa://35726</t>
+          <t>maa://20825, maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
@@ -13298,12 +13302,12 @@
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D272" s="19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://62757</t>
         </is>
       </c>
     </row>
@@ -13342,12 +13346,12 @@
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://56588, *maa://55171, maa://51893</t>
+          <t>maa://51881, maa://51630, *maa://56588, *maa://51893</t>
         </is>
       </c>
     </row>
@@ -13567,7 +13571,7 @@
       </c>
       <c r="D284" s="19" t="inlineStr">
         <is>
-          <t>*maa://39165</t>
+          <t>maa://39165</t>
         </is>
       </c>
     </row>
@@ -13721,7 +13725,7 @@
       </c>
       <c r="D291" s="19" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, maa://30668</t>
+          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
         </is>
       </c>
     </row>
@@ -13782,12 +13786,12 @@
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D294" s="19" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469, **maa://31349</t>
+          <t>maa://25774, maa://28133, maa://22469</t>
         </is>
       </c>
     </row>
@@ -13831,7 +13835,7 @@
       </c>
       <c r="D296" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, maa://32505, maa://39155</t>
+          <t>maa://32414, *maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
@@ -13914,12 +13918,12 @@
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D300" s="19" t="inlineStr">
         <is>
-          <t>**maa://39166, maa://39167</t>
+          <t>maa://39167</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13945,7 @@
       </c>
       <c r="D301" s="19" t="inlineStr">
         <is>
-          <t>maa://29005, maa://31560</t>
+          <t>maa://29005, *maa://31560</t>
         </is>
       </c>
     </row>
@@ -14024,12 +14028,12 @@
       </c>
       <c r="C305" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D305" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
+          <t>maa://50280, maa://49642, *maa://49660</t>
         </is>
       </c>
     </row>
@@ -14205,7 +14209,7 @@
       </c>
       <c r="D313" s="19" t="inlineStr">
         <is>
-          <t>**maa://39172</t>
+          <t>maa://39172</t>
         </is>
       </c>
     </row>
@@ -14337,7 +14341,7 @@
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>*maa://43090</t>
+          <t>maa://43090</t>
         </is>
       </c>
     </row>
@@ -14398,12 +14402,12 @@
       </c>
       <c r="C322" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D322" s="19" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://25773</t>
         </is>
       </c>
     </row>
@@ -14447,7 +14451,7 @@
       </c>
       <c r="D324" s="19" t="inlineStr">
         <is>
-          <t>maa://39692, maa://39810</t>
+          <t>maa://39692, *maa://39810</t>
         </is>
       </c>
     </row>
@@ -14469,7 +14473,7 @@
       </c>
       <c r="D325" s="19" t="inlineStr">
         <is>
-          <t>*maa://39174</t>
+          <t>maa://39174</t>
         </is>
       </c>
     </row>
@@ -14574,12 +14578,12 @@
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D330" s="19" t="inlineStr">
         <is>
-          <t>maa://30680, maa://41360</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
@@ -14645,7 +14649,7 @@
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>maa://34205, *maa://39541</t>
+          <t>maa://34205, **maa://39541</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14737,7 @@
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>*maa://40162</t>
+          <t>maa://40162</t>
         </is>
       </c>
     </row>
@@ -14772,12 +14776,12 @@
       </c>
       <c r="C339" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://30671, maa://30669, maa://37275, *maa://32410, maa://41605</t>
+          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
         </is>
       </c>
     </row>
@@ -14904,12 +14908,12 @@
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, maa://32653, maa://61275, maa://61839</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653</t>
         </is>
       </c>
     </row>
@@ -15014,12 +15018,12 @@
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717, *maa://45066</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
@@ -15063,7 +15067,7 @@
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, maa://45833</t>
+          <t>maa://45834, *maa://45833</t>
         </is>
       </c>
     </row>
@@ -15124,12 +15128,12 @@
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758, *maa://59402, *maa://52357, **maa://63091</t>
+          <t>maa://49696, maa://49695, maa://49758</t>
         </is>
       </c>
     </row>
@@ -15173,7 +15177,7 @@
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, maa://42224</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
@@ -15234,12 +15238,12 @@
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858, *maa://56268, maa://40489</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
@@ -15256,12 +15260,12 @@
       </c>
       <c r="C361" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://42635, maa://50629, maa://48859</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
@@ -15322,12 +15326,12 @@
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, maa://41128, *maa://60251</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, *maa://41128</t>
         </is>
       </c>
     </row>
@@ -15459,7 +15463,7 @@
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, maa://50518, maa://41977</t>
+          <t>maa://42333, *maa://50518, *maa://41977</t>
         </is>
       </c>
     </row>
@@ -15476,12 +15480,12 @@
       </c>
       <c r="C371" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://42338, maa://41976</t>
+          <t>maa://42338</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15507,7 @@
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, maa://45605</t>
+          <t>maa://41110, *maa://45605</t>
         </is>
       </c>
     </row>
@@ -15635,7 +15639,7 @@
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>*maa://53307</t>
+          <t>maa://53307</t>
         </is>
       </c>
     </row>
@@ -15674,12 +15678,12 @@
       </c>
       <c r="C380" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745, *maa://45952, *maa://44896</t>
+          <t>maa://42970, maa://44745</t>
         </is>
       </c>
     </row>
@@ -15811,7 +15815,7 @@
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>*maa://47175, maa://47174</t>
+          <t>maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
@@ -15855,7 +15859,7 @@
       </c>
       <c r="D388" s="5" t="inlineStr">
         <is>
-          <t>**maa://48618</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
@@ -15877,7 +15881,7 @@
       </c>
       <c r="D389" s="5" t="inlineStr">
         <is>
-          <t>maa://59533, maa://59577</t>
+          <t>maa://59533, *maa://59577</t>
         </is>
       </c>
     </row>
@@ -15921,7 +15925,7 @@
       </c>
       <c r="D391" s="5" t="inlineStr">
         <is>
-          <t>**maa://59691</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
@@ -15943,7 +15947,7 @@
       </c>
       <c r="D392" s="5" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>maa://51898, *maa://57241</t>
         </is>
       </c>
     </row>
@@ -15987,7 +15991,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, maa://51873, maa://63228, maa://62047</t>
+          <t>maa://51872, maa://51876, maa://51873, *maa://63228, *maa://62047</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1451,7 +1451,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.29 23:24:36</t>
+          <t>更新日期：2025.07.30 14:18:05</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -6985,7 +6985,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.29 23:24:36</t>
+          <t>更新日期：2025.07.30 14:18:05</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -16013,7 +16013,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59493, maa://60449</t>
+          <t>maa://60449, maa://59493</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -140,6 +140,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,7 +1074,7 @@
       </c>
       <c r="D5" s="18" t="inlineStr">
         <is>
-          <t>maa://21245, maa://22744, maa://54105</t>
+          <t>maa://21245, maa://54105, maa://22744</t>
         </is>
       </c>
       <c r="E5" s="15" t="n"/>
@@ -1451,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.30 14:18:05</t>
+          <t>更新日期：2025.08.03 13:42:21</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1726,7 +1729,7 @@
       </c>
       <c r="D10" s="18" t="inlineStr">
         <is>
-          <t>***maa://25695, ***maa://34206, maa://45271, ***maa://54000</t>
+          <t>***maa://25695, maa://45271, ***maa://34206, ***maa://54000</t>
         </is>
       </c>
       <c r="E10" s="15" t="n"/>
@@ -1790,7 +1793,7 @@
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, **maa://63521</t>
+          <t>maa://27395, maa://22755, *maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -2013,12 +2016,12 @@
       </c>
       <c r="K12" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://63896</t>
         </is>
       </c>
       <c r="M12" s="15" t="n"/>
@@ -4661,12 +4664,12 @@
       </c>
       <c r="W32" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X32" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="Y32" s="15" t="n"/>
@@ -5067,12 +5070,12 @@
       </c>
       <c r="AA35" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB35" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://63909</t>
         </is>
       </c>
       <c r="AC35" s="15" t="n"/>
@@ -5197,12 +5200,12 @@
       </c>
       <c r="AA36" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB36" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC36" s="15" t="n"/>
@@ -5338,8 +5341,22 @@
       <c r="AG37" s="12" t="n"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="1" t="n"/>
-      <c r="D38" s="1" t="n"/>
+      <c r="B38" s="12" t="inlineStr">
+        <is>
+          <t>松桐</t>
+        </is>
+      </c>
+      <c r="C38" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="n"/>
       <c r="F38" s="15" t="inlineStr">
         <is>
           <t>阿米娅(近卫)</t>
@@ -5495,12 +5512,12 @@
       </c>
       <c r="S39" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45788, *maa://45790</t>
+          <t>maa://47079, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -5627,12 +5644,12 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -5804,6 +5821,22 @@
         </is>
       </c>
       <c r="U42" s="15" t="n"/>
+      <c r="Z42" s="12" t="inlineStr">
+        <is>
+          <t>遥</t>
+        </is>
+      </c>
+      <c r="AA42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC42" s="12" t="n"/>
       <c r="AD42" s="15" t="inlineStr">
         <is>
           <t>弑君者</t>
@@ -5924,6 +5957,22 @@
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
+      <c r="J44" s="12" t="inlineStr">
+        <is>
+          <t>斩业星熊</t>
+        </is>
+      </c>
+      <c r="K44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44" s="12" t="n"/>
       <c r="N44" s="15" t="inlineStr">
         <is>
           <t>泰拉大陆调查团</t>
@@ -6524,6 +6573,22 @@
         </is>
       </c>
       <c r="I55" s="15" t="n"/>
+      <c r="N55" s="12" t="inlineStr">
+        <is>
+          <t>吉星</t>
+        </is>
+      </c>
+      <c r="O55" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P55" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q55" s="12" t="n"/>
     </row>
     <row r="56">
       <c r="F56" s="15" t="inlineStr">
@@ -6938,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB398"/>
+  <dimension ref="A1:AB404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -6985,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.07.30 14:18:05</t>
+          <t>更新日期：2025.08.03 13:42:21</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7514,12 +7579,12 @@
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>暗索</t>
+          <t>末药</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>3-3</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
@@ -7529,7 +7594,7 @@
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
-          <t>maa://20848</t>
+          <t>maa://20930</t>
         </is>
       </c>
       <c r="F17" s="18" t="n"/>
@@ -7548,12 +7613,12 @@
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>末药</t>
+          <t>嘉维尔</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>S4-5</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
@@ -7563,7 +7628,7 @@
       </c>
       <c r="D18" s="19" t="inlineStr">
         <is>
-          <t>maa://20930</t>
+          <t>maa://20897</t>
         </is>
       </c>
       <c r="F18" s="18" t="n"/>
@@ -7582,22 +7647,22 @@
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>嘉维尔</t>
+          <t>调香师</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>S4-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr">
         <is>
-          <t>maa://20897</t>
+          <t>maa://20865, *maa://20826</t>
         </is>
       </c>
       <c r="F19" s="18" t="n"/>
@@ -7616,22 +7681,22 @@
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>调香师</t>
+          <t>角峰</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" s="19" t="inlineStr">
         <is>
-          <t>maa://20865, *maa://20826</t>
+          <t>maa://20900</t>
         </is>
       </c>
       <c r="F20" s="18" t="n"/>
@@ -7650,22 +7715,22 @@
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>角峰</t>
+          <t>蛇屠箱</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D21" s="19" t="inlineStr">
         <is>
-          <t>maa://20900</t>
+          <t>maa://20948, maa://30844, *maa://63387</t>
         </is>
       </c>
       <c r="F21" s="18" t="n"/>
@@ -7684,22 +7749,22 @@
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>蛇屠箱</t>
+          <t>古米</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
         <is>
-          <t>maa://20948, maa://30844</t>
+          <t>maa://20876</t>
         </is>
       </c>
       <c r="F22" s="18" t="n"/>
@@ -7718,12 +7783,12 @@
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>古米</t>
+          <t>深海色</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
@@ -7733,7 +7798,7 @@
       </c>
       <c r="D23" s="19" t="inlineStr">
         <is>
-          <t>maa://20876</t>
+          <t>maa://45260</t>
         </is>
       </c>
       <c r="F23" s="18" t="n"/>
@@ -7752,12 +7817,12 @@
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>深海色</t>
+          <t>地灵</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -7767,7 +7832,7 @@
       </c>
       <c r="D24" s="19" t="inlineStr">
         <is>
-          <t>maa://45260</t>
+          <t>maa://20864</t>
         </is>
       </c>
       <c r="F24" s="18" t="n"/>
@@ -7786,12 +7851,12 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>地灵</t>
+          <t>阿消</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C25" s="7" t="inlineStr">
@@ -7801,7 +7866,7 @@
       </c>
       <c r="D25" s="19" t="inlineStr">
         <is>
-          <t>maa://20864</t>
+          <t>maa://44220</t>
         </is>
       </c>
       <c r="F25" s="18" t="n"/>
@@ -7820,22 +7885,22 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>阿消</t>
+          <t>白面鸮</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D26" s="19" t="inlineStr">
         <is>
-          <t>maa://44220</t>
+          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://30285</t>
         </is>
       </c>
       <c r="F26" s="18" t="n"/>
@@ -7854,22 +7919,22 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>白面鸮</t>
+          <t>凛冬</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://30285</t>
+          <t>maa://20920</t>
         </is>
       </c>
       <c r="F27" s="18" t="n"/>
@@ -7888,22 +7953,22 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>凛冬</t>
+          <t>德克萨斯</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>CB-3</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D28" s="19" t="inlineStr">
         <is>
-          <t>maa://20920</t>
+          <t>maa://20863, maa://20832, *maa://20727</t>
         </is>
       </c>
       <c r="F28" s="18" t="n"/>
@@ -7922,22 +7987,22 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>德克萨斯</t>
+          <t>芙兰卡</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>CB-3</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" s="19" t="inlineStr">
         <is>
-          <t>maa://20863, maa://20832, *maa://20727</t>
+          <t>maa://20871</t>
         </is>
       </c>
       <c r="F29" s="18" t="n"/>
@@ -7956,12 +8021,12 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>芙兰卡</t>
+          <t>因陀罗</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
@@ -7971,7 +8036,7 @@
       </c>
       <c r="D30" s="19" t="inlineStr">
         <is>
-          <t>maa://20871</t>
+          <t>maa://39024</t>
         </is>
       </c>
       <c r="F30" s="18" t="n"/>
@@ -7990,56 +8055,56 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>因陀罗</t>
+          <t>拉普兰德</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D31" s="19" t="inlineStr">
         <is>
-          <t>maa://39024</t>
+          <t>maa://36644, maa://36866, *maa://45572, *maa://27794, maa://62759, *maa://20960, **maa://20843, **maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>拉普兰德</t>
+          <t>幽灵鲨</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>SN-EX-1</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, *maa://45572, *maa://27794, maa://62759, *maa://20960, **maa://20843, **maa://20862, *maa://20893</t>
+          <t>maa://30500, *maa://27290</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>幽灵鲨</t>
+          <t>蓝毒</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
@@ -8049,41 +8114,41 @@
       </c>
       <c r="D33" s="19" t="inlineStr">
         <is>
-          <t>maa://30500, *maa://27290</t>
+          <t>maa://20916, maa://52658</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>蓝毒</t>
+          <t>白金</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D34" s="19" t="inlineStr">
         <is>
-          <t>maa://20916, maa://52658</t>
+          <t>maa://20847</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>白金</t>
+          <t>陨星</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
@@ -8093,107 +8158,107 @@
       </c>
       <c r="D35" s="19" t="inlineStr">
         <is>
-          <t>maa://20847</t>
+          <t>maa://20997</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>陨星</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D36" s="19" t="inlineStr">
         <is>
-          <t>maa://20997</t>
+          <t>maa://27376, maa://42635</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>天火</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" s="19" t="inlineStr">
         <is>
-          <t>maa://27376, maa://42635</t>
+          <t>maa://20962</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>天火</t>
+          <t>梅尔</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D38" s="19" t="inlineStr">
         <is>
-          <t>maa://20962</t>
+          <t>*maa://29012, maa://20928</t>
         </is>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>梅尔</t>
+          <t>赫默</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39" s="19" t="inlineStr">
         <is>
-          <t>*maa://29012, maa://20928</t>
+          <t>maa://20882</t>
         </is>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>赫默</t>
+          <t>华法琳</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
@@ -8203,63 +8268,63 @@
       </c>
       <c r="D40" s="19" t="inlineStr">
         <is>
-          <t>maa://20882</t>
+          <t>maa://20892</t>
         </is>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>华法琳</t>
+          <t>临光</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D41" s="19" t="inlineStr">
         <is>
-          <t>maa://20892</t>
+          <t>maa://20918, maa://34883, maa://20824</t>
         </is>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>临光</t>
+          <t>红</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>S4-5</t>
         </is>
       </c>
       <c r="C42" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D42" s="19" t="inlineStr">
         <is>
-          <t>maa://20918, maa://34883, maa://20824</t>
+          <t>maa://20889</t>
         </is>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>红</t>
+          <t>雷蛇</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>S4-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C43" s="7" t="inlineStr">
@@ -8269,19 +8334,19 @@
       </c>
       <c r="D43" s="19" t="inlineStr">
         <is>
-          <t>maa://20889</t>
+          <t>maa://34718</t>
         </is>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>雷蛇</t>
+          <t>可颂</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C44" s="7" t="inlineStr">
@@ -8291,19 +8356,19 @@
       </c>
       <c r="D44" s="19" t="inlineStr">
         <is>
-          <t>maa://34718</t>
+          <t>maa://20910</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>可颂</t>
+          <t>火神</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>S4-4</t>
         </is>
       </c>
       <c r="C45" s="7" t="inlineStr">
@@ -8313,19 +8378,19 @@
       </c>
       <c r="D45" s="19" t="inlineStr">
         <is>
-          <t>maa://20910</t>
+          <t>maa://39025</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>火神</t>
+          <t>普罗旺斯</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>S4-4</t>
+          <t>S5-1</t>
         </is>
       </c>
       <c r="C46" s="7" t="inlineStr">
@@ -8335,19 +8400,19 @@
       </c>
       <c r="D46" s="19" t="inlineStr">
         <is>
-          <t>maa://39025</t>
+          <t>maa://20938</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>普罗旺斯</t>
+          <t>守林人</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
-          <t>S5-1</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C47" s="7" t="inlineStr">
@@ -8357,58 +8422,58 @@
       </c>
       <c r="D47" s="19" t="inlineStr">
         <is>
-          <t>maa://20938</t>
+          <t>maa://20954</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>守林人</t>
+          <t>崖心</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C48" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D48" s="19" t="inlineStr">
         <is>
-          <t>maa://20954</t>
+          <t>maa://32845, *maa://20982</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>崖心</t>
+          <t>初雪</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49" s="19" t="inlineStr">
         <is>
-          <t>maa://32845, *maa://20982</t>
+          <t>maa://30503</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>初雪</t>
+          <t>真理</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
@@ -8423,19 +8488,19 @@
       </c>
       <c r="D50" s="19" t="inlineStr">
         <is>
-          <t>maa://30503</t>
+          <t>maa://21001</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>真理</t>
+          <t>空</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>CB-7</t>
         </is>
       </c>
       <c r="C51" s="7" t="inlineStr">
@@ -8445,73 +8510,73 @@
       </c>
       <c r="D51" s="19" t="inlineStr">
         <is>
-          <t>maa://21001</t>
+          <t>maa://42295</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>空</t>
+          <t>狮蝎</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>CB-7</t>
+          <t>1-9</t>
         </is>
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D52" s="19" t="inlineStr">
         <is>
-          <t>maa://42295</t>
+          <t>maa://20953, maa://31173</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>狮蝎</t>
+          <t>食铁兽</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>1-9</t>
+          <t>WR-7</t>
         </is>
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" s="19" t="inlineStr">
         <is>
-          <t>maa://20953, maa://31173</t>
+          <t>maa://30502</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
-          <t>食铁兽</t>
+          <t>能天使</t>
         </is>
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
-          <t>WR-7</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D54" s="19" t="inlineStr">
         <is>
-          <t>maa://30502</t>
+          <t>maa://20932, maa://42415, maa://40838</t>
         </is>
       </c>
     </row>
@@ -8523,39 +8588,39 @@
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" s="19" t="inlineStr">
         <is>
-          <t>maa://20932, maa://42415, maa://40838</t>
+          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>能天使</t>
+          <t>推进之王</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D56" s="19" t="inlineStr">
         <is>
-          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
+          <t>maa://20965</t>
         </is>
       </c>
     </row>
@@ -8567,29 +8632,29 @@
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>11-2</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D57" s="19" t="inlineStr">
         <is>
-          <t>maa://20965</t>
+          <t>maa://28900, *maa://30126</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>推进之王</t>
+          <t>伊芙利特</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>11-2</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C58" s="7" t="inlineStr">
@@ -8599,7 +8664,7 @@
       </c>
       <c r="D58" s="19" t="inlineStr">
         <is>
-          <t>maa://28900, *maa://30126</t>
+          <t>maa://27970, *maa://41118</t>
         </is>
       </c>
     </row>
@@ -8611,61 +8676,61 @@
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>CW-3</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D59" s="19" t="inlineStr">
         <is>
-          <t>maa://27970, *maa://41118</t>
+          <t>maa://38298</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>伊芙利特</t>
+          <t>艾雅法拉</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
-          <t>CW-3</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D60" s="19" t="inlineStr">
         <is>
-          <t>maa://38298</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://20924, *maa://20631</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>艾雅法拉</t>
+          <t>安洁莉娜</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://20924, *maa://20631</t>
+          <t>maa://20844</t>
         </is>
       </c>
     </row>
@@ -8677,39 +8742,39 @@
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D62" s="19" t="inlineStr">
         <is>
-          <t>maa://20844</t>
+          <t>maa://20845, maa://38727</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>安洁莉娜</t>
+          <t>闪灵</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D63" s="19" t="inlineStr">
         <is>
-          <t>maa://20845, maa://38727</t>
+          <t>maa://28187, maa://45144, maa://33504</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8786,7 @@
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
@@ -8731,29 +8796,29 @@
       </c>
       <c r="D64" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, maa://45144, maa://33504</t>
+          <t>maa://28567, maa://30525, maa://38735</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>闪灵</t>
+          <t>夜莺</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D65" s="19" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, maa://38735</t>
+          <t>maa://20993, maa://45606, maa://20829, maa://20900</t>
         </is>
       </c>
     </row>
@@ -8765,39 +8830,39 @@
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D66" s="19" t="inlineStr">
         <is>
-          <t>maa://20993, maa://45606, maa://20829, maa://20900</t>
+          <t>maa://39693</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>夜莺</t>
+          <t>星熊</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>6-4</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>maa://39693</t>
+          <t>maa://20976, maa://20815</t>
         </is>
       </c>
     </row>
@@ -8809,39 +8874,39 @@
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>6-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D68" s="19" t="inlineStr">
         <is>
-          <t>maa://20976, maa://20815</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>星熊</t>
+          <t>塞雷娅</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>MB-3</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, maa://20904</t>
+          <t>maa://20944, maa://35393</t>
         </is>
       </c>
     </row>
@@ -8853,73 +8918,73 @@
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>MB-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D70" s="19" t="inlineStr">
         <is>
-          <t>maa://20944, maa://35393</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>塞雷娅</t>
+          <t>银灰</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
+          <t>maa://36643, maa://36864, maa://39140</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>银灰</t>
+          <t>暴行</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D72" s="19" t="inlineStr">
         <is>
-          <t>maa://36643, maa://36864, maa://39140</t>
+          <t>maa://39139</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>暴行</t>
+          <t>猎蜂</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-4</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
@@ -8929,19 +8994,19 @@
       </c>
       <c r="D73" s="19" t="inlineStr">
         <is>
-          <t>maa://39139</t>
+          <t>maa://39142</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>猎蜂</t>
+          <t>夜魔</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>7-4</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
@@ -8951,19 +9016,19 @@
       </c>
       <c r="D74" s="19" t="inlineStr">
         <is>
-          <t>maa://39142</t>
+          <t>maa://20989</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>夜魔</t>
+          <t>格拉尼</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
@@ -8973,19 +9038,19 @@
       </c>
       <c r="D75" s="19" t="inlineStr">
         <is>
-          <t>maa://20989</t>
+          <t>maa://20873</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>格拉尼</t>
+          <t>斯卡蒂</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>GT-4</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
@@ -8995,7 +9060,7 @@
       </c>
       <c r="D76" s="19" t="inlineStr">
         <is>
-          <t>maa://20873</t>
+          <t>maa://20958</t>
         </is>
       </c>
     </row>
@@ -9007,7 +9072,7 @@
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>GT-4</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
@@ -9017,19 +9082,19 @@
       </c>
       <c r="D77" s="19" t="inlineStr">
         <is>
-          <t>maa://20958</t>
+          <t>maa://20957</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>斯卡蒂</t>
+          <t>格雷伊</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
@@ -9039,19 +9104,19 @@
       </c>
       <c r="D78" s="19" t="inlineStr">
         <is>
-          <t>maa://20957</t>
+          <t>maa://20875</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>格雷伊</t>
+          <t>诗怀雅</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
@@ -9061,29 +9126,29 @@
       </c>
       <c r="D79" s="19" t="inlineStr">
         <is>
-          <t>maa://20875</t>
+          <t>maa://20952</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>诗怀雅</t>
+          <t>陈</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D80" s="19" t="inlineStr">
         <is>
-          <t>maa://20952</t>
+          <t>maa://30525, maa://20859</t>
         </is>
       </c>
     </row>
@@ -9095,73 +9160,73 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D81" s="19" t="inlineStr">
         <is>
-          <t>maa://30525, maa://20859</t>
+          <t>maa://28072</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>苏苏洛</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D82" s="19" t="inlineStr">
         <is>
-          <t>maa://28072</t>
+          <t>maa://45572, maa://27794, maa://20960</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
         <is>
-          <t>苏苏洛</t>
+          <t>锡兰</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>OF-3</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D83" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, maa://20960</t>
+          <t>maa://20972</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="inlineStr">
         <is>
-          <t>锡兰</t>
+          <t>格劳克斯</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>OF-3</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
@@ -9171,19 +9236,19 @@
       </c>
       <c r="D84" s="19" t="inlineStr">
         <is>
-          <t>maa://20972</t>
+          <t>maa://20874</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="inlineStr">
         <is>
-          <t>格劳克斯</t>
+          <t>黑</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
@@ -9193,7 +9258,7 @@
       </c>
       <c r="D85" s="19" t="inlineStr">
         <is>
-          <t>maa://20874</t>
+          <t>maa://20885</t>
         </is>
       </c>
     </row>
@@ -9205,7 +9270,7 @@
       </c>
       <c r="B86" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
@@ -9215,19 +9280,19 @@
       </c>
       <c r="D86" s="19" t="inlineStr">
         <is>
-          <t>maa://20885</t>
+          <t>maa://20886</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>桃金娘</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
@@ -9237,19 +9302,19 @@
       </c>
       <c r="D87" s="19" t="inlineStr">
         <is>
-          <t>maa://20886</t>
+          <t>maa://24472</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="inlineStr">
         <is>
-          <t>桃金娘</t>
+          <t>星极</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C88" s="7" t="inlineStr">
@@ -9259,29 +9324,29 @@
       </c>
       <c r="D88" s="19" t="inlineStr">
         <is>
-          <t>maa://24472</t>
+          <t>maa://44402</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="inlineStr">
         <is>
-          <t>星极</t>
+          <t>赫拉格</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D89" s="19" t="inlineStr">
         <is>
-          <t>maa://44402</t>
+          <t>*maa://28190, maa://20880</t>
         </is>
       </c>
     </row>
@@ -9293,29 +9358,29 @@
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D90" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20880</t>
+          <t>maa://24609</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="inlineStr">
         <is>
-          <t>赫拉格</t>
+          <t>红云</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
@@ -9325,19 +9390,19 @@
       </c>
       <c r="D91" s="19" t="inlineStr">
         <is>
-          <t>maa://24609</t>
+          <t>maa://20890</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="inlineStr">
         <is>
-          <t>红云</t>
+          <t>炎客</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>S4-3</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
@@ -9347,19 +9412,19 @@
       </c>
       <c r="D92" s="19" t="inlineStr">
         <is>
-          <t>maa://20890</t>
+          <t>maa://20984</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
         <is>
-          <t>炎客</t>
+          <t>送葬人</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>S4-3</t>
+          <t>IW-8</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
@@ -9369,19 +9434,19 @@
       </c>
       <c r="D93" s="19" t="inlineStr">
         <is>
-          <t>maa://20984</t>
+          <t>maa://40157</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
         <is>
-          <t>送葬人</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>IW-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
@@ -9391,7 +9456,7 @@
       </c>
       <c r="D94" s="19" t="inlineStr">
         <is>
-          <t>maa://40157</t>
+          <t>maa://20927</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9468,7 @@
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
@@ -9413,63 +9478,63 @@
       </c>
       <c r="D95" s="19" t="inlineStr">
         <is>
-          <t>maa://20927</t>
+          <t>maa://20926</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>伊桑</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D96" s="19" t="inlineStr">
         <is>
-          <t>maa://20926</t>
+          <t>maa://20991, *maa://51015</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="inlineStr">
         <is>
-          <t>伊桑</t>
+          <t>微风</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D97" s="19" t="inlineStr">
         <is>
-          <t>maa://20991, *maa://51015</t>
+          <t>maa://20967</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="inlineStr">
         <is>
-          <t>微风</t>
+          <t>梅</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
@@ -9479,19 +9544,19 @@
       </c>
       <c r="D98" s="19" t="inlineStr">
         <is>
-          <t>maa://20967</t>
+          <t>maa://20929</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
         <is>
-          <t>梅</t>
+          <t>拜松</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
@@ -9501,51 +9566,51 @@
       </c>
       <c r="D99" s="19" t="inlineStr">
         <is>
-          <t>maa://20929</t>
+          <t>maa://20852</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="inlineStr">
         <is>
-          <t>拜松</t>
+          <t>槐琥</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D100" s="19" t="inlineStr">
         <is>
-          <t>maa://20852</t>
+          <t>maa://45572, maa://27794, *maa://20893</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
         <is>
-          <t>槐琥</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C101" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D101" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20893</t>
+          <t>maa://40517</t>
         </is>
       </c>
     </row>
@@ -9557,51 +9622,51 @@
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>CB-5</t>
         </is>
       </c>
       <c r="C102" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D102" s="19" t="inlineStr">
         <is>
-          <t>maa://40517</t>
+          <t>*maa://29094, maa://28904</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>苇草</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>CB-5</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D103" s="19" t="inlineStr">
         <is>
-          <t>*maa://29094, maa://28904</t>
+          <t>maa://20966</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
         <is>
-          <t>苇草</t>
+          <t>布洛卡</t>
         </is>
       </c>
       <c r="B104" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C104" s="7" t="inlineStr">
@@ -9611,107 +9676,107 @@
       </c>
       <c r="D104" s="19" t="inlineStr">
         <is>
-          <t>maa://20966</t>
+          <t>maa://39143</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
         <is>
-          <t>布洛卡</t>
+          <t>安比尔</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D105" s="19" t="inlineStr">
         <is>
-          <t>maa://39143</t>
+          <t>maa://45572, maa://27794, *maa://20843</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
         <is>
-          <t>安比尔</t>
+          <t>灰喉</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D106" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20843</t>
+          <t>maa://20894</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
         <is>
-          <t>灰喉</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D107" s="19" t="inlineStr">
         <is>
-          <t>maa://20894</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, *maa://56588, *maa://45194, *maa://32653, *maa://25161</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
         <is>
-          <t>煌</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B108" s="6" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://25018, maa://51881, maa://25776, maa://28361, maa://25772, *maa://56588, *maa://45194, *maa://25161, *maa://32653</t>
+          <t>maa://45259</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
@@ -9721,19 +9786,19 @@
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>maa://45259</t>
+          <t>maa://20887</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
@@ -9743,29 +9808,29 @@
       </c>
       <c r="D110" s="19" t="inlineStr">
         <is>
-          <t>maa://20887</t>
+          <t>maa://28554</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D111" s="19" t="inlineStr">
         <is>
-          <t>maa://28554</t>
+          <t>maa://20933, maa://20822</t>
         </is>
       </c>
     </row>
@@ -9777,29 +9842,29 @@
       </c>
       <c r="B112" s="6" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D112" s="19" t="inlineStr">
         <is>
-          <t>maa://20933, maa://20822</t>
+          <t>maa://29037</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
@@ -9809,29 +9874,29 @@
       </c>
       <c r="D113" s="19" t="inlineStr">
         <is>
-          <t>maa://29037</t>
+          <t>maa://20904</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B114" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D114" s="19" t="inlineStr">
         <is>
-          <t>maa://20904</t>
+          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
         </is>
       </c>
     </row>
@@ -9843,29 +9908,29 @@
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D115" s="19" t="inlineStr">
         <is>
-          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
+          <t>maa://29659, maa://29031</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B116" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
@@ -9875,95 +9940,95 @@
       </c>
       <c r="D116" s="19" t="inlineStr">
         <is>
-          <t>maa://29659, maa://29031</t>
+          <t>maa://31560, maa://20940</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B117" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D117" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20940</t>
+          <t>maa://20986</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D118" s="19" t="inlineStr">
         <is>
-          <t>maa://20986</t>
+          <t>maa://31560, *maa://20851</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20851</t>
+          <t>maa://20949</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D120" s="19" t="inlineStr">
         <is>
-          <t>maa://20949</t>
+          <t>maa://20869, maa://44690</t>
         </is>
       </c>
     </row>
@@ -9975,7 +10040,7 @@
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
@@ -9985,41 +10050,41 @@
       </c>
       <c r="D121" s="19" t="inlineStr">
         <is>
-          <t>maa://20869, maa://44690</t>
+          <t>maa://29650, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B122" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
-          <t>maa://29650, maa://45570</t>
+          <t>maa://20868</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B123" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
@@ -10029,19 +10094,19 @@
       </c>
       <c r="D123" s="19" t="inlineStr">
         <is>
-          <t>maa://20868</t>
+          <t>maa://20909</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>铸铁</t>
         </is>
       </c>
       <c r="B124" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>DH-3</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
@@ -10051,19 +10116,19 @@
       </c>
       <c r="D124" s="19" t="inlineStr">
         <is>
-          <t>maa://20909</t>
+          <t>maa://44403</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
         <is>
-          <t>铸铁</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr">
         <is>
-          <t>DH-3</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
@@ -10073,29 +10138,29 @@
       </c>
       <c r="D125" s="19" t="inlineStr">
         <is>
-          <t>maa://44403</t>
+          <t>maa://30501</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D126" s="19" t="inlineStr">
         <is>
-          <t>maa://30501</t>
+          <t>*maa://20914, maa://20829</t>
         </is>
       </c>
     </row>
@@ -10107,7 +10172,7 @@
       </c>
       <c r="B127" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
@@ -10117,19 +10182,19 @@
       </c>
       <c r="D127" s="19" t="inlineStr">
         <is>
-          <t>*maa://20914, maa://20829</t>
+          <t>maa://37484, maa://24611</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
@@ -10139,29 +10204,29 @@
       </c>
       <c r="D128" s="19" t="inlineStr">
         <is>
-          <t>maa://37484, maa://24611</t>
+          <t>maa://24491, *maa://24493</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B129" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
-          <t>maa://24491, *maa://24493</t>
+          <t>maa://21422</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10238,7 @@
       </c>
       <c r="B130" s="6" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
@@ -10183,29 +10248,29 @@
       </c>
       <c r="D130" s="19" t="inlineStr">
         <is>
-          <t>maa://21422</t>
+          <t>maa://30719</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D131" s="19" t="inlineStr">
         <is>
-          <t>maa://30719</t>
+          <t>maa://20837, *maa://37666</t>
         </is>
       </c>
     </row>
@@ -10217,7 +10282,7 @@
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
@@ -10227,41 +10292,41 @@
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
-          <t>maa://20837, *maa://37666</t>
+          <t>maa://29023, *maa://39515</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>maa://29023, *maa://39515</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
@@ -10271,19 +10336,19 @@
       </c>
       <c r="D134" s="19" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
@@ -10293,19 +10358,19 @@
       </c>
       <c r="D135" s="19" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
@@ -10315,19 +10380,19 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
@@ -10337,19 +10402,19 @@
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>maa://41856</t>
+          <t>maa://29025</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -10359,19 +10424,19 @@
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
-          <t>maa://29025</t>
+          <t>maa://45258</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
@@ -10381,19 +10446,19 @@
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
-          <t>maa://45258</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
@@ -10403,29 +10468,29 @@
       </c>
       <c r="D140" s="19" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>maa://28484, *maa://31185, *maa://30306</t>
         </is>
       </c>
     </row>
@@ -10437,51 +10502,51 @@
       </c>
       <c r="B142" s="6" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>maa://28484, *maa://31185, *maa://30306</t>
+          <t>maa://30670, maa://31470</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470</t>
+          <t>maa://20971</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
@@ -10491,19 +10556,19 @@
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
@@ -10513,19 +10578,19 @@
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
@@ -10535,51 +10600,51 @@
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://28828, maa://20846</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://44119, maa://46108, *maa://37300</t>
         </is>
       </c>
     </row>
@@ -10591,51 +10656,51 @@
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://44119, maa://46108, *maa://37300</t>
+          <t>maa://51549, maa://51923</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://51549, maa://51923</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
@@ -10645,19 +10710,19 @@
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
@@ -10667,29 +10732,29 @@
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
@@ -10701,29 +10766,29 @@
       </c>
       <c r="B154" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
@@ -10733,19 +10798,19 @@
       </c>
       <c r="D155" s="19" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
@@ -10755,19 +10820,19 @@
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://39149</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
@@ -10777,63 +10842,63 @@
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>maa://39149</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B158" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D158" s="19" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>maa://44232, *maa://45603</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, *maa://45603</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B160" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
@@ -10843,19 +10908,19 @@
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
@@ -10865,29 +10930,29 @@
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D162" s="19" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>
@@ -10899,29 +10964,29 @@
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C163" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>*maa://32845, maa://29054</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B164" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C164" s="7" t="inlineStr">
@@ -10931,51 +10996,51 @@
       </c>
       <c r="D164" s="19" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D165" s="19" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>maa://20975, *maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D166" s="19" t="inlineStr">
         <is>
-          <t>maa://20975, *maa://47950, maa://30806</t>
+          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
         </is>
       </c>
     </row>
@@ -10987,51 +11052,51 @@
       </c>
       <c r="B167" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
+          <t>maa://49867, maa://49655</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B168" s="6" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D168" s="19" t="inlineStr">
         <is>
-          <t>maa://49867, maa://49655</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B169" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
@@ -11041,19 +11106,19 @@
       </c>
       <c r="D169" s="19" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B170" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
@@ -11063,19 +11128,19 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B171" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
@@ -11085,19 +11150,19 @@
       </c>
       <c r="D171" s="19" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B172" s="6" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
@@ -11107,19 +11172,19 @@
       </c>
       <c r="D172" s="19" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://20905</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B173" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
@@ -11129,7 +11194,7 @@
       </c>
       <c r="D173" s="19" t="inlineStr">
         <is>
-          <t>maa://20905</t>
+          <t>maa://59681</t>
         </is>
       </c>
     </row>
@@ -11141,51 +11206,51 @@
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://59681</t>
+          <t>maa://32418, maa://51440, *maa://63320</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B175" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440, *maa://63320</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B176" s="6" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
@@ -11195,19 +11260,19 @@
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B177" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
@@ -11217,7 +11282,7 @@
       </c>
       <c r="D177" s="19" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
@@ -11229,51 +11294,51 @@
       </c>
       <c r="B178" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D178" s="19" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B179" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D179" s="19" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B180" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
@@ -11283,19 +11348,19 @@
       </c>
       <c r="D180" s="19" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B181" s="6" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
@@ -11305,19 +11370,19 @@
       </c>
       <c r="D181" s="19" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://31560</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B182" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
@@ -11327,7 +11392,7 @@
       </c>
       <c r="D182" s="19" t="inlineStr">
         <is>
-          <t>maa://31560</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11404,7 @@
       </c>
       <c r="B183" s="6" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C183" s="7" t="inlineStr">
@@ -11349,19 +11414,19 @@
       </c>
       <c r="D183" s="19" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B184" s="6" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C184" s="7" t="inlineStr">
@@ -11371,7 +11436,7 @@
       </c>
       <c r="D184" s="19" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
@@ -11383,51 +11448,51 @@
       </c>
       <c r="B185" s="6" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C185" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D185" s="19" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B186" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D186" s="19" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B187" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
@@ -11437,19 +11502,19 @@
       </c>
       <c r="D187" s="19" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
@@ -11459,29 +11524,29 @@
       </c>
       <c r="D188" s="19" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B189" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D189" s="19" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
@@ -11493,7 +11558,7 @@
       </c>
       <c r="B190" s="6" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
@@ -11503,41 +11568,41 @@
       </c>
       <c r="D190" s="19" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B191" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D191" s="19" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B192" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
@@ -11547,19 +11612,19 @@
       </c>
       <c r="D192" s="19" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B193" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
@@ -11569,7 +11634,7 @@
       </c>
       <c r="D193" s="19" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
@@ -11581,61 +11646,61 @@
       </c>
       <c r="B194" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D194" s="19" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B195" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D195" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B196" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D196" s="19" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, *maa://63024</t>
         </is>
       </c>
     </row>
@@ -11647,39 +11712,39 @@
       </c>
       <c r="B197" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, *maa://63024</t>
+          <t>maa://39156</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B198" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://39156</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
@@ -11708,12 +11773,12 @@
     <row r="200">
       <c r="A200" s="6" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B200" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
@@ -11723,14 +11788,14 @@
       </c>
       <c r="D200" s="19" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B201" s="6" t="inlineStr">
@@ -11740,24 +11805,24 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
@@ -11767,19 +11832,19 @@
       </c>
       <c r="D202" s="19" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B203" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
@@ -11789,19 +11854,19 @@
       </c>
       <c r="D203" s="19" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
@@ -11811,7 +11876,7 @@
       </c>
       <c r="D204" s="19" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
@@ -11823,39 +11888,39 @@
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D205" s="19" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D206" s="8" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
@@ -11867,29 +11932,29 @@
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D207" s="19" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
@@ -11899,51 +11964,51 @@
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D209" s="19" t="inlineStr">
         <is>
-          <t>maa://53354</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B210" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C210" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D210" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://20956, *maa://20830, *maa://44703</t>
         </is>
       </c>
     </row>
@@ -11955,29 +12020,29 @@
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D211" s="19" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, *maa://44703</t>
+          <t>maa://20955</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B212" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
@@ -11987,7 +12052,7 @@
       </c>
       <c r="D212" s="19" t="inlineStr">
         <is>
-          <t>maa://20955</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
@@ -11999,17 +12064,17 @@
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>DH-7</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D213" s="19" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14098,7 @@
       </c>
       <c r="D305" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, *maa://49660</t>
+          <t>maa://50280, maa://49642, maa://49660</t>
         </is>
       </c>
     </row>
@@ -14314,12 +14379,12 @@
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>maa://62761</t>
+          <t>**maa://62755, maa://62761</t>
         </is>
       </c>
     </row>
@@ -14612,44 +14677,44 @@
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>折光</t>
         </is>
       </c>
       <c r="B332" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>6-1</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>maa://59688</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B333" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>maa://34205, **maa://39541</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14726,7 @@
       </c>
       <c r="B334" s="6" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
@@ -14671,85 +14736,85 @@
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://34205, **maa://39541</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B335" s="6" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C335" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D335" s="8" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B336" s="6" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C336" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C337" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>maa://40162</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B338" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C338" s="7" t="inlineStr">
@@ -14759,107 +14824,107 @@
       </c>
       <c r="D338" s="5" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://40162</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B339" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C339" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B340" s="6" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C340" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D340" s="5" t="inlineStr">
         <is>
-          <t>maa://38295, maa://49332</t>
+          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>温米</t>
         </is>
       </c>
       <c r="B341" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C341" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D341" s="5" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B342" s="6" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D342" s="5" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://38295, maa://49332</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B343" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
@@ -14869,19 +14934,19 @@
       </c>
       <c r="D343" s="5" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B344" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
@@ -14891,41 +14956,41 @@
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B345" s="6" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B346" s="6" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
@@ -14935,41 +15000,41 @@
       </c>
       <c r="D346" s="5" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B347" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D347" s="5" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B348" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
@@ -14979,19 +15044,19 @@
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B349" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
@@ -15001,41 +15066,41 @@
       </c>
       <c r="D349" s="5" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B350" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B351" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
@@ -15045,19 +15110,19 @@
       </c>
       <c r="D351" s="5" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B352" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
@@ -15067,19 +15132,19 @@
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, *maa://45833</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B353" s="6" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
@@ -15089,261 +15154,261 @@
       </c>
       <c r="D353" s="5" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B354" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D354" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://45834, *maa://45833</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B355" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B356" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D356" s="5" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B357" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C357" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://49696, maa://49695, maa://49758</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B358" s="6" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C358" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D358" s="5" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B359" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C359" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D359" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B360" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B361" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C361" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B362" s="6" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B363" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C363" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D363" s="5" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://42635, *maa://50629</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B364" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, *maa://41128</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B365" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
@@ -15353,41 +15418,41 @@
       </c>
       <c r="D365" s="5" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B366" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, *maa://41128</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B367" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C367" s="7" t="inlineStr">
@@ -15397,41 +15462,41 @@
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>妮芙</t>
         </is>
       </c>
       <c r="B368" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-7</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D368" s="5" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://63883, *maa://64041</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B369" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
@@ -15441,41 +15506,41 @@
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B370" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, *maa://50518, *maa://41977</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B371" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C371" s="7" t="inlineStr">
@@ -15485,63 +15550,63 @@
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://42338</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B372" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C372" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, *maa://45605</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B373" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C373" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D373" s="5" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://42333, *maa://50518, *maa://41977</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B374" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C374" s="7" t="inlineStr">
@@ -15551,19 +15616,19 @@
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42338</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B375" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C375" s="7" t="inlineStr">
@@ -15573,19 +15638,19 @@
       </c>
       <c r="D375" s="5" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://41110, *maa://45605</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B376" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C376" s="7" t="inlineStr">
@@ -15595,19 +15660,19 @@
       </c>
       <c r="D376" s="5" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B377" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C377" s="7" t="inlineStr">
@@ -15617,41 +15682,41 @@
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B378" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C378" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>maa://53307</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B379" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C379" s="7" t="inlineStr">
@@ -15661,41 +15726,41 @@
       </c>
       <c r="D379" s="5" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B380" s="6" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C380" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B381" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
@@ -15705,19 +15770,19 @@
       </c>
       <c r="D381" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://53307</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
@@ -15727,41 +15792,41 @@
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://42970, maa://44745</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
@@ -15771,19 +15836,19 @@
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
@@ -15793,41 +15858,41 @@
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B387" s="6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C387" s="7" t="inlineStr">
@@ -15837,19 +15902,19 @@
       </c>
       <c r="D387" s="5" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B388" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C388" s="7" t="inlineStr">
@@ -15859,41 +15924,41 @@
       </c>
       <c r="D388" s="5" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>烛煌</t>
         </is>
       </c>
       <c r="B389" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="C389" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D389" s="5" t="inlineStr">
         <is>
-          <t>maa://59533, *maa://59577</t>
+          <t>maa://63890</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B390" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C390" s="7" t="inlineStr">
@@ -15903,19 +15968,19 @@
       </c>
       <c r="D390" s="5" t="inlineStr">
         <is>
-          <t>maa://51907, maa://51908</t>
+          <t>maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B391" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C391" s="7" t="inlineStr">
@@ -15925,161 +15990,293 @@
       </c>
       <c r="D391" s="5" t="inlineStr">
         <is>
-          <t>maa://59691</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B392" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C392" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D392" s="5" t="inlineStr">
         <is>
-          <t>maa://51898, *maa://57241</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="13" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B393" s="20" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C393" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://51880, maa://56651, maa://51878</t>
+          <t>maa://59533, *maa://59577</t>
         </is>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="13" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B394" s="20" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C394" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, maa://51873, *maa://63228, *maa://62047</t>
+          <t>maa://51907, maa://51908</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="13" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B395" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C395" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://60449, maa://59493</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="13" t="inlineStr">
         <is>
-          <t>录武官</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B396" s="13" t="inlineStr">
         <is>
-          <t>HS-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C396" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://51898, *maa://57241</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="13" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B397" s="13" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C397" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://62756</t>
+          <t>maa://51880, maa://56651, maa://51878</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="13" t="inlineStr">
         <is>
+          <t>新约能天使</t>
+        </is>
+      </c>
+      <c r="B398" s="13" t="inlineStr">
+        <is>
+          <t>GA-EX-5</t>
+        </is>
+      </c>
+      <c r="C398" s="13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="13" t="inlineStr">
+        <is>
+          <t>Miss.Christine</t>
+        </is>
+      </c>
+      <c r="B399" s="13" t="inlineStr">
+        <is>
+          <t>DM-7</t>
+        </is>
+      </c>
+      <c r="C399" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="13" t="inlineStr">
+        <is>
+          <t>酒神</t>
+        </is>
+      </c>
+      <c r="B400" s="13" t="inlineStr">
+        <is>
+          <t>9-6</t>
+        </is>
+      </c>
+      <c r="C400" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>maa://60449, maa://59493</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="13" t="inlineStr">
+        <is>
+          <t>录武官</t>
+        </is>
+      </c>
+      <c r="B401" s="13" t="inlineStr">
+        <is>
+          <t>HS-5</t>
+        </is>
+      </c>
+      <c r="C401" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="13" t="inlineStr">
+        <is>
           <t>司霆惊蛰</t>
         </is>
       </c>
-      <c r="B398" s="13" t="inlineStr">
+      <c r="B402" s="13" t="inlineStr">
         <is>
           <t>DV-7</t>
         </is>
       </c>
-      <c r="C398" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
+      <c r="C402" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
         <is>
           <t>maa://62756</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="13" t="inlineStr">
+        <is>
+          <t>吉星</t>
+        </is>
+      </c>
+      <c r="B403" s="13" t="inlineStr">
+        <is>
+          <t>S5-9</t>
+        </is>
+      </c>
+      <c r="C403" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="13" t="inlineStr">
+        <is>
+          <t>遥</t>
+        </is>
+      </c>
+      <c r="B404" s="13" t="inlineStr">
+        <is>
+          <t>7-14</t>
+        </is>
+      </c>
+      <c r="C404" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>maa://64040</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.03 13:42:21</t>
+          <t>更新日期：2025.08.04 13:44:54</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="K12" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
         <is>
-          <t>maa://63896</t>
+          <t>maa://63896, maa://64046</t>
         </is>
       </c>
       <c r="M12" s="15" t="n"/>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="AE13" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF13" s="18" t="inlineStr">
         <is>
-          <t>maa://39883, **maa://39885</t>
+          <t>maa://39883</t>
         </is>
       </c>
       <c r="AG13" s="12" t="n"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D25" s="18" t="inlineStr">
         <is>
-          <t>maa://29753, ***maa://63016</t>
+          <t>maa://29753, **maa://63016</t>
         </is>
       </c>
       <c r="E25" s="15" t="n"/>
@@ -4667,11 +4667,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="X32" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="X32" s="18" t="inlineStr"/>
       <c r="Y32" s="15" t="n"/>
       <c r="Z32" s="15" t="inlineStr">
         <is>
@@ -5203,11 +5199,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB36" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AB36" s="15" t="inlineStr"/>
       <c r="AC36" s="15" t="n"/>
       <c r="AD36" s="15" t="inlineStr">
         <is>
@@ -5647,11 +5639,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AF40" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AF40" s="15" t="inlineStr"/>
       <c r="AG40" s="12" t="n"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
@@ -7003,7 +6991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB404"/>
+  <dimension ref="A1:AB405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -7050,7 +7038,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.03 13:42:21</t>
+          <t>更新日期：2025.08.04 13:44:54</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7579,12 +7567,12 @@
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>末药</t>
+          <t>暗索</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>3-3</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
@@ -7594,7 +7582,7 @@
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
-          <t>maa://20930</t>
+          <t>maa://20848</t>
         </is>
       </c>
       <c r="F17" s="18" t="n"/>
@@ -7613,12 +7601,12 @@
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>嘉维尔</t>
+          <t>末药</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>S4-5</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
@@ -7628,7 +7616,7 @@
       </c>
       <c r="D18" s="19" t="inlineStr">
         <is>
-          <t>maa://20897</t>
+          <t>maa://20930</t>
         </is>
       </c>
       <c r="F18" s="18" t="n"/>
@@ -7647,22 +7635,22 @@
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>调香师</t>
+          <t>嘉维尔</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S4-5</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr">
         <is>
-          <t>maa://20865, *maa://20826</t>
+          <t>maa://20897</t>
         </is>
       </c>
       <c r="F19" s="18" t="n"/>
@@ -7681,22 +7669,22 @@
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>角峰</t>
+          <t>调香师</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" s="19" t="inlineStr">
         <is>
-          <t>maa://20900</t>
+          <t>maa://20865, *maa://20826</t>
         </is>
       </c>
       <c r="F20" s="18" t="n"/>
@@ -7715,22 +7703,22 @@
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>蛇屠箱</t>
+          <t>角峰</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" s="19" t="inlineStr">
         <is>
-          <t>maa://20948, maa://30844, *maa://63387</t>
+          <t>maa://20900</t>
         </is>
       </c>
       <c r="F21" s="18" t="n"/>
@@ -7749,22 +7737,22 @@
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>古米</t>
+          <t>蛇屠箱</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" s="19" t="inlineStr">
         <is>
-          <t>maa://20876</t>
+          <t>maa://20948, maa://30844, *maa://63387</t>
         </is>
       </c>
       <c r="F22" s="18" t="n"/>
@@ -7783,12 +7771,12 @@
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>深海色</t>
+          <t>古米</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
@@ -7798,7 +7786,7 @@
       </c>
       <c r="D23" s="19" t="inlineStr">
         <is>
-          <t>maa://45260</t>
+          <t>maa://20876</t>
         </is>
       </c>
       <c r="F23" s="18" t="n"/>
@@ -7817,12 +7805,12 @@
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>地灵</t>
+          <t>深海色</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
@@ -7832,7 +7820,7 @@
       </c>
       <c r="D24" s="19" t="inlineStr">
         <is>
-          <t>maa://20864</t>
+          <t>maa://45260</t>
         </is>
       </c>
       <c r="F24" s="18" t="n"/>
@@ -7851,12 +7839,12 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>阿消</t>
+          <t>地灵</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C25" s="7" t="inlineStr">
@@ -7866,7 +7854,7 @@
       </c>
       <c r="D25" s="19" t="inlineStr">
         <is>
-          <t>maa://44220</t>
+          <t>maa://20864</t>
         </is>
       </c>
       <c r="F25" s="18" t="n"/>
@@ -7885,22 +7873,22 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>白面鸮</t>
+          <t>阿消</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" s="19" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://30285</t>
+          <t>maa://44220</t>
         </is>
       </c>
       <c r="F26" s="18" t="n"/>
@@ -7919,22 +7907,22 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>凛冬</t>
+          <t>白面鸮</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>maa://20920</t>
+          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://30285</t>
         </is>
       </c>
       <c r="F27" s="18" t="n"/>
@@ -7953,22 +7941,22 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>德克萨斯</t>
+          <t>凛冬</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
         <is>
-          <t>CB-3</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" s="19" t="inlineStr">
         <is>
-          <t>maa://20863, maa://20832, *maa://20727</t>
+          <t>maa://20920</t>
         </is>
       </c>
       <c r="F28" s="18" t="n"/>
@@ -7987,22 +7975,22 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>芙兰卡</t>
+          <t>德克萨斯</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>CB-3</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D29" s="19" t="inlineStr">
         <is>
-          <t>maa://20871</t>
+          <t>maa://20863, maa://20832, *maa://20727</t>
         </is>
       </c>
       <c r="F29" s="18" t="n"/>
@@ -8021,12 +8009,12 @@
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>因陀罗</t>
+          <t>芙兰卡</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
@@ -8036,7 +8024,7 @@
       </c>
       <c r="D30" s="19" t="inlineStr">
         <is>
-          <t>maa://39024</t>
+          <t>maa://20871</t>
         </is>
       </c>
       <c r="F30" s="18" t="n"/>
@@ -8055,56 +8043,56 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>拉普兰德</t>
+          <t>因陀罗</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D31" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, *maa://45572, *maa://27794, maa://62759, *maa://20960, **maa://20843, **maa://20862, *maa://20893</t>
+          <t>maa://39024</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>幽灵鲨</t>
+          <t>拉普兰德</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://30500, *maa://27290</t>
+          <t>maa://36644, maa://36866, *maa://45572, *maa://27794, maa://62759, *maa://20960, **maa://20843, **maa://20862, *maa://20893</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>蓝毒</t>
+          <t>幽灵鲨</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>SN-EX-1</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
@@ -8114,41 +8102,41 @@
       </c>
       <c r="D33" s="19" t="inlineStr">
         <is>
-          <t>maa://20916, maa://52658</t>
+          <t>maa://30500, *maa://27290</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>白金</t>
+          <t>蓝毒</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D34" s="19" t="inlineStr">
         <is>
-          <t>maa://20847</t>
+          <t>maa://20916, maa://52658</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>陨星</t>
+          <t>白金</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C35" s="7" t="inlineStr">
@@ -8158,107 +8146,107 @@
       </c>
       <c r="D35" s="19" t="inlineStr">
         <is>
-          <t>maa://20997</t>
+          <t>maa://20847</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>陨星</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C36" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D36" s="19" t="inlineStr">
         <is>
-          <t>maa://27376, maa://42635</t>
+          <t>maa://20997</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>天火</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" s="19" t="inlineStr">
         <is>
-          <t>maa://20962</t>
+          <t>maa://27376, maa://42635</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>梅尔</t>
+          <t>天火</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" s="19" t="inlineStr">
         <is>
-          <t>*maa://29012, maa://20928</t>
+          <t>maa://20962</t>
         </is>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>赫默</t>
+          <t>梅尔</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D39" s="19" t="inlineStr">
         <is>
-          <t>maa://20882</t>
+          <t>*maa://29012, maa://20928</t>
         </is>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>华法琳</t>
+          <t>赫默</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C40" s="7" t="inlineStr">
@@ -8268,63 +8256,63 @@
       </c>
       <c r="D40" s="19" t="inlineStr">
         <is>
-          <t>maa://20892</t>
+          <t>maa://20882</t>
         </is>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>临光</t>
+          <t>华法琳</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C41" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D41" s="19" t="inlineStr">
         <is>
-          <t>maa://20918, maa://34883, maa://20824</t>
+          <t>maa://20892</t>
         </is>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>红</t>
+          <t>临光</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
         <is>
-          <t>S4-5</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C42" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D42" s="19" t="inlineStr">
         <is>
-          <t>maa://20889</t>
+          <t>maa://20918, maa://34883, maa://20824</t>
         </is>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>雷蛇</t>
+          <t>红</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S4-5</t>
         </is>
       </c>
       <c r="C43" s="7" t="inlineStr">
@@ -8334,19 +8322,19 @@
       </c>
       <c r="D43" s="19" t="inlineStr">
         <is>
-          <t>maa://34718</t>
+          <t>maa://20889</t>
         </is>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>可颂</t>
+          <t>雷蛇</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C44" s="7" t="inlineStr">
@@ -8356,19 +8344,19 @@
       </c>
       <c r="D44" s="19" t="inlineStr">
         <is>
-          <t>maa://20910</t>
+          <t>maa://34718</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>火神</t>
+          <t>可颂</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>S4-4</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C45" s="7" t="inlineStr">
@@ -8378,19 +8366,19 @@
       </c>
       <c r="D45" s="19" t="inlineStr">
         <is>
-          <t>maa://39025</t>
+          <t>maa://20910</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>普罗旺斯</t>
+          <t>火神</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>S5-1</t>
+          <t>S4-4</t>
         </is>
       </c>
       <c r="C46" s="7" t="inlineStr">
@@ -8400,19 +8388,19 @@
       </c>
       <c r="D46" s="19" t="inlineStr">
         <is>
-          <t>maa://20938</t>
+          <t>maa://39025</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>守林人</t>
+          <t>普罗旺斯</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>S5-1</t>
         </is>
       </c>
       <c r="C47" s="7" t="inlineStr">
@@ -8422,58 +8410,58 @@
       </c>
       <c r="D47" s="19" t="inlineStr">
         <is>
-          <t>maa://20954</t>
+          <t>maa://20938</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>崖心</t>
+          <t>守林人</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C48" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D48" s="19" t="inlineStr">
         <is>
-          <t>maa://32845, *maa://20982</t>
+          <t>maa://20954</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>初雪</t>
+          <t>崖心</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D49" s="19" t="inlineStr">
         <is>
-          <t>maa://30503</t>
+          <t>maa://32845, *maa://20982</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>真理</t>
+          <t>初雪</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
@@ -8488,19 +8476,19 @@
       </c>
       <c r="D50" s="19" t="inlineStr">
         <is>
-          <t>maa://21001</t>
+          <t>maa://30503</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>空</t>
+          <t>真理</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr">
         <is>
-          <t>CB-7</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C51" s="7" t="inlineStr">
@@ -8510,73 +8498,73 @@
       </c>
       <c r="D51" s="19" t="inlineStr">
         <is>
-          <t>maa://42295</t>
+          <t>maa://21001</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>狮蝎</t>
+          <t>空</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>1-9</t>
+          <t>CB-7</t>
         </is>
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D52" s="19" t="inlineStr">
         <is>
-          <t>maa://20953, maa://31173</t>
+          <t>maa://42295</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>食铁兽</t>
+          <t>狮蝎</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>WR-7</t>
+          <t>1-9</t>
         </is>
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D53" s="19" t="inlineStr">
         <is>
-          <t>maa://30502</t>
+          <t>maa://20953, maa://31173</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
-          <t>能天使</t>
+          <t>食铁兽</t>
         </is>
       </c>
       <c r="B54" s="6" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>WR-7</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D54" s="19" t="inlineStr">
         <is>
-          <t>maa://20932, maa://42415, maa://40838</t>
+          <t>maa://30502</t>
         </is>
       </c>
     </row>
@@ -8588,39 +8576,39 @@
       </c>
       <c r="B55" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D55" s="19" t="inlineStr">
         <is>
-          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
+          <t>maa://20932, maa://42415, *maa://40838</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>推进之王</t>
+          <t>能天使</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" s="19" t="inlineStr">
         <is>
-          <t>maa://20965</t>
+          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
         </is>
       </c>
     </row>
@@ -8632,29 +8620,29 @@
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>11-2</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D57" s="19" t="inlineStr">
         <is>
-          <t>maa://28900, *maa://30126</t>
+          <t>maa://20965</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>伊芙利特</t>
+          <t>推进之王</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>11-2</t>
         </is>
       </c>
       <c r="C58" s="7" t="inlineStr">
@@ -8664,7 +8652,7 @@
       </c>
       <c r="D58" s="19" t="inlineStr">
         <is>
-          <t>maa://27970, *maa://41118</t>
+          <t>maa://28900, *maa://30126</t>
         </is>
       </c>
     </row>
@@ -8676,61 +8664,61 @@
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>CW-3</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D59" s="19" t="inlineStr">
         <is>
-          <t>maa://38298</t>
+          <t>maa://27970, *maa://41118</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>艾雅法拉</t>
+          <t>伊芙利特</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>CW-3</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D60" s="19" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://20924, *maa://20631</t>
+          <t>maa://38298</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>安洁莉娜</t>
+          <t>艾雅法拉</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>maa://20844</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://20924, *maa://20631</t>
         </is>
       </c>
     </row>
@@ -8742,39 +8730,39 @@
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D62" s="19" t="inlineStr">
         <is>
-          <t>maa://20845, maa://38727</t>
+          <t>maa://20844</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>闪灵</t>
+          <t>安洁莉娜</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D63" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, maa://45144, maa://33504</t>
+          <t>maa://20845, maa://38727</t>
         </is>
       </c>
     </row>
@@ -8786,7 +8774,7 @@
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
@@ -8796,29 +8784,29 @@
       </c>
       <c r="D64" s="19" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, maa://38735</t>
+          <t>maa://28187, maa://45144, maa://33504</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>夜莺</t>
+          <t>闪灵</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D65" s="19" t="inlineStr">
         <is>
-          <t>maa://20993, maa://45606, maa://20829, maa://20900</t>
+          <t>maa://28567, maa://30525, maa://38735</t>
         </is>
       </c>
     </row>
@@ -8830,39 +8818,39 @@
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D66" s="19" t="inlineStr">
         <is>
-          <t>maa://39693</t>
+          <t>maa://20993, maa://45606, maa://20829, maa://20900</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>星熊</t>
+          <t>夜莺</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>6-4</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>maa://20976, maa://20815</t>
+          <t>maa://39693</t>
         </is>
       </c>
     </row>
@@ -8874,39 +8862,39 @@
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>6-4</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D68" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, maa://20904</t>
+          <t>maa://20976, maa://20815</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>塞雷娅</t>
+          <t>星熊</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>MB-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>maa://20944, maa://35393</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
@@ -8918,73 +8906,73 @@
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>MB-3</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D70" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
+          <t>maa://20944, maa://35393</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>银灰</t>
+          <t>塞雷娅</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>maa://36643, maa://36864, maa://39140</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>暴行</t>
+          <t>银灰</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D72" s="19" t="inlineStr">
         <is>
-          <t>maa://39139</t>
+          <t>maa://36643, maa://36864, maa://39140</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>猎蜂</t>
+          <t>暴行</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>7-4</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
@@ -8994,19 +8982,19 @@
       </c>
       <c r="D73" s="19" t="inlineStr">
         <is>
-          <t>maa://39142</t>
+          <t>maa://39139</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>夜魔</t>
+          <t>猎蜂</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>7-4</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
@@ -9016,19 +9004,19 @@
       </c>
       <c r="D74" s="19" t="inlineStr">
         <is>
-          <t>maa://20989</t>
+          <t>maa://39142</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>格拉尼</t>
+          <t>夜魔</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
@@ -9038,19 +9026,19 @@
       </c>
       <c r="D75" s="19" t="inlineStr">
         <is>
-          <t>maa://20873</t>
+          <t>maa://20989</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>斯卡蒂</t>
+          <t>格拉尼</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>GT-4</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
@@ -9060,7 +9048,7 @@
       </c>
       <c r="D76" s="19" t="inlineStr">
         <is>
-          <t>maa://20958</t>
+          <t>maa://20873</t>
         </is>
       </c>
     </row>
@@ -9072,7 +9060,7 @@
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>GT-4</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
@@ -9082,19 +9070,19 @@
       </c>
       <c r="D77" s="19" t="inlineStr">
         <is>
-          <t>maa://20957</t>
+          <t>maa://20958</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>格雷伊</t>
+          <t>斯卡蒂</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
@@ -9104,19 +9092,19 @@
       </c>
       <c r="D78" s="19" t="inlineStr">
         <is>
-          <t>maa://20875</t>
+          <t>maa://20957</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>诗怀雅</t>
+          <t>格雷伊</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
@@ -9126,29 +9114,29 @@
       </c>
       <c r="D79" s="19" t="inlineStr">
         <is>
-          <t>maa://20952</t>
+          <t>maa://20875</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>诗怀雅</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D80" s="19" t="inlineStr">
         <is>
-          <t>maa://30525, maa://20859</t>
+          <t>maa://20952</t>
         </is>
       </c>
     </row>
@@ -9160,73 +9148,73 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D81" s="19" t="inlineStr">
         <is>
-          <t>maa://28072</t>
+          <t>maa://30525, maa://20859</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="inlineStr">
         <is>
-          <t>苏苏洛</t>
+          <t>陈</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D82" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, maa://20960</t>
+          <t>maa://28072</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
         <is>
-          <t>锡兰</t>
+          <t>苏苏洛</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>OF-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D83" s="19" t="inlineStr">
         <is>
-          <t>maa://20972</t>
+          <t>maa://45572, maa://27794, maa://20960</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="inlineStr">
         <is>
-          <t>格劳克斯</t>
+          <t>锡兰</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>OF-3</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
@@ -9236,19 +9224,19 @@
       </c>
       <c r="D84" s="19" t="inlineStr">
         <is>
-          <t>maa://20874</t>
+          <t>maa://20972</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>格劳克斯</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
@@ -9258,7 +9246,7 @@
       </c>
       <c r="D85" s="19" t="inlineStr">
         <is>
-          <t>maa://20885</t>
+          <t>maa://20874</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9258,7 @@
       </c>
       <c r="B86" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
@@ -9280,19 +9268,19 @@
       </c>
       <c r="D86" s="19" t="inlineStr">
         <is>
-          <t>maa://20886</t>
+          <t>maa://20885</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="inlineStr">
         <is>
-          <t>桃金娘</t>
+          <t>黑</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
@@ -9302,19 +9290,19 @@
       </c>
       <c r="D87" s="19" t="inlineStr">
         <is>
-          <t>maa://24472</t>
+          <t>maa://20886</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="inlineStr">
         <is>
-          <t>星极</t>
+          <t>桃金娘</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C88" s="7" t="inlineStr">
@@ -9324,29 +9312,29 @@
       </c>
       <c r="D88" s="19" t="inlineStr">
         <is>
-          <t>maa://44402</t>
+          <t>maa://24472</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="inlineStr">
         <is>
-          <t>赫拉格</t>
+          <t>星极</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D89" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20880</t>
+          <t>maa://44402</t>
         </is>
       </c>
     </row>
@@ -9358,29 +9346,29 @@
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D90" s="19" t="inlineStr">
         <is>
-          <t>maa://24609</t>
+          <t>*maa://28190, maa://20880</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="inlineStr">
         <is>
-          <t>红云</t>
+          <t>赫拉格</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
@@ -9390,19 +9378,19 @@
       </c>
       <c r="D91" s="19" t="inlineStr">
         <is>
-          <t>maa://20890</t>
+          <t>maa://24609</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="inlineStr">
         <is>
-          <t>炎客</t>
+          <t>红云</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
-          <t>S4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
@@ -9412,19 +9400,19 @@
       </c>
       <c r="D92" s="19" t="inlineStr">
         <is>
-          <t>maa://20984</t>
+          <t>maa://20890</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
         <is>
-          <t>送葬人</t>
+          <t>炎客</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>IW-8</t>
+          <t>S4-3</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
@@ -9434,19 +9422,19 @@
       </c>
       <c r="D93" s="19" t="inlineStr">
         <is>
-          <t>maa://40157</t>
+          <t>maa://20984</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>送葬人</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>IW-8</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
@@ -9456,7 +9444,7 @@
       </c>
       <c r="D94" s="19" t="inlineStr">
         <is>
-          <t>maa://20927</t>
+          <t>maa://40157</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9456,7 @@
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
@@ -9478,63 +9466,63 @@
       </c>
       <c r="D95" s="19" t="inlineStr">
         <is>
-          <t>maa://20926</t>
+          <t>maa://20927</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="inlineStr">
         <is>
-          <t>伊桑</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D96" s="19" t="inlineStr">
         <is>
-          <t>maa://20991, *maa://51015</t>
+          <t>maa://20926</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="inlineStr">
         <is>
-          <t>微风</t>
+          <t>伊桑</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D97" s="19" t="inlineStr">
         <is>
-          <t>maa://20967</t>
+          <t>maa://20991, *maa://51015</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="inlineStr">
         <is>
-          <t>梅</t>
+          <t>微风</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
@@ -9544,19 +9532,19 @@
       </c>
       <c r="D98" s="19" t="inlineStr">
         <is>
-          <t>maa://20929</t>
+          <t>maa://20967</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
         <is>
-          <t>拜松</t>
+          <t>梅</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
@@ -9566,51 +9554,51 @@
       </c>
       <c r="D99" s="19" t="inlineStr">
         <is>
-          <t>maa://20852</t>
+          <t>maa://20929</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="inlineStr">
         <is>
-          <t>槐琥</t>
+          <t>拜松</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D100" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20893</t>
+          <t>maa://20852</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>槐琥</t>
         </is>
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C101" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D101" s="19" t="inlineStr">
         <is>
-          <t>maa://40517</t>
+          <t>maa://45572, maa://27794, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -9622,51 +9610,51 @@
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>CB-5</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C102" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D102" s="19" t="inlineStr">
         <is>
-          <t>*maa://29094, maa://28904</t>
+          <t>maa://40517</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
         <is>
-          <t>苇草</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>CB-5</t>
         </is>
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D103" s="19" t="inlineStr">
         <is>
-          <t>maa://20966</t>
+          <t>*maa://29094, maa://28904</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
         <is>
-          <t>布洛卡</t>
+          <t>苇草</t>
         </is>
       </c>
       <c r="B104" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C104" s="7" t="inlineStr">
@@ -9676,107 +9664,107 @@
       </c>
       <c r="D104" s="19" t="inlineStr">
         <is>
-          <t>maa://39143</t>
+          <t>maa://20966</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
         <is>
-          <t>安比尔</t>
+          <t>布洛卡</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D105" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20843</t>
+          <t>maa://39143</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
         <is>
-          <t>灰喉</t>
+          <t>安比尔</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D106" s="19" t="inlineStr">
         <is>
-          <t>maa://20894</t>
+          <t>maa://45572, maa://27794, *maa://20843</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
         <is>
-          <t>煌</t>
+          <t>灰喉</t>
         </is>
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D107" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, *maa://56588, *maa://45194, *maa://32653, *maa://25161</t>
+          <t>maa://20894</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B108" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://45259</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, *maa://56588, *maa://45194, *maa://25161, *maa://32653</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
@@ -9786,19 +9774,19 @@
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>maa://20887</t>
+          <t>maa://45259</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
@@ -9808,29 +9796,29 @@
       </c>
       <c r="D110" s="19" t="inlineStr">
         <is>
-          <t>maa://28554</t>
+          <t>maa://20887</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D111" s="19" t="inlineStr">
         <is>
-          <t>maa://20933, maa://20822</t>
+          <t>maa://28554</t>
         </is>
       </c>
     </row>
@@ -9842,29 +9830,29 @@
       </c>
       <c r="B112" s="6" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D112" s="19" t="inlineStr">
         <is>
-          <t>maa://29037</t>
+          <t>maa://20933, maa://20822</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
@@ -9874,29 +9862,29 @@
       </c>
       <c r="D113" s="19" t="inlineStr">
         <is>
-          <t>maa://20904</t>
+          <t>maa://29037</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B114" s="6" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D114" s="19" t="inlineStr">
         <is>
-          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
+          <t>maa://20904</t>
         </is>
       </c>
     </row>
@@ -9908,29 +9896,29 @@
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D115" s="19" t="inlineStr">
         <is>
-          <t>maa://29659, maa://29031</t>
+          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B116" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
@@ -9940,95 +9928,95 @@
       </c>
       <c r="D116" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20940</t>
+          <t>maa://29659, maa://29031</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B117" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D117" s="19" t="inlineStr">
         <is>
-          <t>maa://20986</t>
+          <t>maa://31560, maa://20940</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D118" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20851</t>
+          <t>maa://20986</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>maa://20949</t>
+          <t>maa://31560, *maa://20851</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D120" s="19" t="inlineStr">
         <is>
-          <t>maa://20869, maa://44690</t>
+          <t>maa://20949</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10028,7 @@
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
@@ -10050,41 +10038,41 @@
       </c>
       <c r="D121" s="19" t="inlineStr">
         <is>
-          <t>maa://29650, maa://45570</t>
+          <t>maa://20869, maa://44690</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B122" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
-          <t>maa://20868</t>
+          <t>maa://29650, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B123" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
@@ -10094,19 +10082,19 @@
       </c>
       <c r="D123" s="19" t="inlineStr">
         <is>
-          <t>maa://20909</t>
+          <t>maa://20868</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
         <is>
-          <t>铸铁</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B124" s="6" t="inlineStr">
         <is>
-          <t>DH-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
@@ -10116,19 +10104,19 @@
       </c>
       <c r="D124" s="19" t="inlineStr">
         <is>
-          <t>maa://44403</t>
+          <t>maa://20909</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>铸铁</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>DH-3</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
@@ -10138,29 +10126,29 @@
       </c>
       <c r="D125" s="19" t="inlineStr">
         <is>
-          <t>maa://30501</t>
+          <t>maa://44403</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D126" s="19" t="inlineStr">
         <is>
-          <t>*maa://20914, maa://20829</t>
+          <t>maa://30501</t>
         </is>
       </c>
     </row>
@@ -10172,7 +10160,7 @@
       </c>
       <c r="B127" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
@@ -10182,19 +10170,19 @@
       </c>
       <c r="D127" s="19" t="inlineStr">
         <is>
-          <t>maa://37484, maa://24611</t>
+          <t>*maa://20914, maa://20829</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
@@ -10204,29 +10192,29 @@
       </c>
       <c r="D128" s="19" t="inlineStr">
         <is>
-          <t>maa://24491, *maa://24493</t>
+          <t>maa://37484, maa://24611</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B129" s="6" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
-          <t>maa://21422</t>
+          <t>maa://24491, *maa://24493</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10226,7 @@
       </c>
       <c r="B130" s="6" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
@@ -10248,29 +10236,29 @@
       </c>
       <c r="D130" s="19" t="inlineStr">
         <is>
-          <t>maa://30719</t>
+          <t>maa://21422</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D131" s="19" t="inlineStr">
         <is>
-          <t>maa://20837, *maa://37666</t>
+          <t>maa://30719</t>
         </is>
       </c>
     </row>
@@ -10282,7 +10270,7 @@
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
@@ -10292,41 +10280,41 @@
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
-          <t>maa://29023, *maa://39515</t>
+          <t>maa://20837, *maa://37666</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://29023, *maa://39515</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
@@ -10336,19 +10324,19 @@
       </c>
       <c r="D134" s="19" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
@@ -10358,19 +10346,19 @@
       </c>
       <c r="D135" s="19" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
@@ -10380,19 +10368,19 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>maa://41856</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
@@ -10402,19 +10390,19 @@
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>maa://29025</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -10424,19 +10412,19 @@
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
-          <t>maa://45258</t>
+          <t>maa://29025</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
@@ -10446,19 +10434,19 @@
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>maa://45258</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
@@ -10468,29 +10456,29 @@
       </c>
       <c r="D140" s="19" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>maa://28484, *maa://31185, *maa://30306</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
@@ -10502,51 +10490,51 @@
       </c>
       <c r="B142" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470</t>
+          <t>maa://28484, *maa://31185, *maa://30306</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>maa://30670, maa://31470</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
@@ -10556,19 +10544,19 @@
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>maa://20971</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
@@ -10578,19 +10566,19 @@
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
@@ -10600,51 +10588,51 @@
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://44119, maa://46108, *maa://37300</t>
+          <t>maa://28828, maa://20846</t>
         </is>
       </c>
     </row>
@@ -10656,51 +10644,51 @@
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://51549, maa://51923</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://44119, maa://46108, *maa://37300</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://51549, maa://51923</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
@@ -10710,19 +10698,19 @@
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
@@ -10732,29 +10720,29 @@
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
@@ -10766,29 +10754,29 @@
       </c>
       <c r="B154" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
@@ -10798,19 +10786,19 @@
       </c>
       <c r="D155" s="19" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
@@ -10820,19 +10808,19 @@
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>maa://39149</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
@@ -10842,63 +10830,63 @@
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>maa://39149</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B158" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D158" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, *maa://45603</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://44232, *maa://45603</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B160" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
@@ -10908,19 +10896,19 @@
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
@@ -10930,29 +10918,29 @@
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D162" s="19" t="inlineStr">
         <is>
-          <t>*maa://32845, maa://29054</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
@@ -10964,29 +10952,29 @@
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C163" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B164" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C164" s="7" t="inlineStr">
@@ -10996,51 +10984,51 @@
       </c>
       <c r="D164" s="19" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D165" s="19" t="inlineStr">
         <is>
-          <t>maa://20975, *maa://47950, maa://30806</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D166" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
+          <t>maa://20975, *maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
@@ -11052,51 +11040,51 @@
       </c>
       <c r="B167" s="6" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://49867, maa://49655</t>
+          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B168" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D168" s="19" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://49867, maa://49655</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B169" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
@@ -11106,19 +11094,19 @@
       </c>
       <c r="D169" s="19" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B170" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
@@ -11128,19 +11116,19 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B171" s="6" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
@@ -11150,19 +11138,19 @@
       </c>
       <c r="D171" s="19" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B172" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
@@ -11172,19 +11160,19 @@
       </c>
       <c r="D172" s="19" t="inlineStr">
         <is>
-          <t>maa://20905</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B173" s="6" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
@@ -11194,7 +11182,7 @@
       </c>
       <c r="D173" s="19" t="inlineStr">
         <is>
-          <t>maa://59681</t>
+          <t>maa://20905</t>
         </is>
       </c>
     </row>
@@ -11206,51 +11194,51 @@
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440, *maa://63320</t>
+          <t>maa://59681</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B175" s="6" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://32418, maa://51440, *maa://63320</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B176" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
@@ -11260,19 +11248,19 @@
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B177" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
@@ -11282,7 +11270,7 @@
       </c>
       <c r="D177" s="19" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
@@ -11294,51 +11282,51 @@
       </c>
       <c r="B178" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D178" s="19" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B179" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D179" s="19" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B180" s="6" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
@@ -11348,19 +11336,19 @@
       </c>
       <c r="D180" s="19" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B181" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
@@ -11370,19 +11358,19 @@
       </c>
       <c r="D181" s="19" t="inlineStr">
         <is>
-          <t>maa://31560</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B182" s="6" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
@@ -11392,7 +11380,7 @@
       </c>
       <c r="D182" s="19" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://31560</t>
         </is>
       </c>
     </row>
@@ -11404,7 +11392,7 @@
       </c>
       <c r="B183" s="6" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C183" s="7" t="inlineStr">
@@ -11414,19 +11402,19 @@
       </c>
       <c r="D183" s="19" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B184" s="6" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C184" s="7" t="inlineStr">
@@ -11436,7 +11424,7 @@
       </c>
       <c r="D184" s="19" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
@@ -11448,51 +11436,51 @@
       </c>
       <c r="B185" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C185" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D185" s="19" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B186" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D186" s="19" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B187" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
@@ -11502,19 +11490,19 @@
       </c>
       <c r="D187" s="19" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
@@ -11524,29 +11512,29 @@
       </c>
       <c r="D188" s="19" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B189" s="6" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D189" s="19" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
@@ -11558,7 +11546,7 @@
       </c>
       <c r="B190" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
@@ -11568,41 +11556,41 @@
       </c>
       <c r="D190" s="19" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B191" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D191" s="19" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B192" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
@@ -11612,19 +11600,19 @@
       </c>
       <c r="D192" s="19" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B193" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
@@ -11634,7 +11622,7 @@
       </c>
       <c r="D193" s="19" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
@@ -11646,61 +11634,61 @@
       </c>
       <c r="B194" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D194" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B195" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D195" s="19" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B196" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D196" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, *maa://63024</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
@@ -11712,39 +11700,39 @@
       </c>
       <c r="B197" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>maa://39156</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, *maa://63024</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B198" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156</t>
         </is>
       </c>
     </row>
@@ -11773,12 +11761,12 @@
     <row r="200">
       <c r="A200" s="6" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B200" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
@@ -11788,14 +11776,14 @@
       </c>
       <c r="D200" s="19" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B201" s="6" t="inlineStr">
@@ -11805,24 +11793,24 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
@@ -11832,19 +11820,19 @@
       </c>
       <c r="D202" s="19" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B203" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
@@ -11854,19 +11842,19 @@
       </c>
       <c r="D203" s="19" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
@@ -11876,7 +11864,7 @@
       </c>
       <c r="D204" s="19" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
@@ -11888,39 +11876,39 @@
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D205" s="19" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D206" s="8" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
@@ -11932,29 +11920,29 @@
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D207" s="19" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
@@ -11964,51 +11952,51 @@
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>maa://53354</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D209" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B210" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C210" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D210" s="19" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, *maa://44703</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
@@ -12020,29 +12008,29 @@
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D211" s="19" t="inlineStr">
         <is>
-          <t>maa://20955</t>
+          <t>maa://20956, *maa://20830, *maa://44703</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B212" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
@@ -12052,7 +12040,7 @@
       </c>
       <c r="D212" s="19" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://20955</t>
         </is>
       </c>
     </row>
@@ -12064,29 +12052,29 @@
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
-          <t>DH-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D213" s="19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B214" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DH-7</t>
         </is>
       </c>
       <c r="C214" s="7" t="inlineStr">
@@ -12096,19 +12084,19 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://64044</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B215" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C215" s="7" t="inlineStr">
@@ -12118,29 +12106,29 @@
       </c>
       <c r="D215" s="19" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B216" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D216" s="19" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
@@ -12152,29 +12140,29 @@
       </c>
       <c r="B217" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D217" s="19" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B218" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
@@ -12184,19 +12172,19 @@
       </c>
       <c r="D218" s="19" t="inlineStr">
         <is>
-          <t>maa://39157</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B219" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
@@ -12206,7 +12194,7 @@
       </c>
       <c r="D219" s="19" t="inlineStr">
         <is>
-          <t>maa://20995</t>
+          <t>maa://39157</t>
         </is>
       </c>
     </row>
@@ -12218,7 +12206,7 @@
       </c>
       <c r="B220" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
@@ -12228,19 +12216,19 @@
       </c>
       <c r="D220" s="19" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>maa://20995</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B221" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
@@ -12250,19 +12238,19 @@
       </c>
       <c r="D221" s="19" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B222" s="6" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
@@ -12272,19 +12260,19 @@
       </c>
       <c r="D222" s="19" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B223" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
@@ -12294,19 +12282,19 @@
       </c>
       <c r="D223" s="19" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B224" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
@@ -12316,29 +12304,29 @@
       </c>
       <c r="D224" s="19" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B225" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D225" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, *maa://39520</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
@@ -12350,39 +12338,39 @@
       </c>
       <c r="B226" s="6" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D226" s="19" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://28187, *maa://39520</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B227" s="6" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D227" s="19" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
@@ -12394,7 +12382,7 @@
       </c>
       <c r="B228" s="6" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
@@ -12404,41 +12392,41 @@
       </c>
       <c r="D228" s="19" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B229" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D229" s="19" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B230" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
@@ -12448,29 +12436,29 @@
       </c>
       <c r="D230" s="19" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B231" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D231" s="19" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, *maa://38723</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
@@ -12482,29 +12470,29 @@
       </c>
       <c r="B232" s="6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C232" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D232" s="19" t="inlineStr">
         <is>
-          <t>maa://48263</t>
+          <t>maa://29058, maa://39140, *maa://38723</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B233" s="6" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C233" s="7" t="inlineStr">
@@ -12514,19 +12502,19 @@
       </c>
       <c r="D233" s="19" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://48263</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B234" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C234" s="7" t="inlineStr">
@@ -12536,19 +12524,19 @@
       </c>
       <c r="D234" s="19" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B235" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C235" s="7" t="inlineStr">
@@ -12558,14 +12546,14 @@
       </c>
       <c r="D235" s="19" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B236" s="6" t="inlineStr">
@@ -12580,7 +12568,7 @@
       </c>
       <c r="D236" s="19" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
@@ -12592,83 +12580,83 @@
       </c>
       <c r="B237" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D237" s="8" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B238" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D238" s="19" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B239" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D239" s="19" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B240" s="6" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D240" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
@@ -12680,29 +12668,29 @@
       </c>
       <c r="B241" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://62759</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B242" s="6" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
@@ -12712,19 +12700,19 @@
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://62759</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B243" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
@@ -12734,19 +12722,19 @@
       </c>
       <c r="D243" s="19" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B244" s="6" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
@@ -12756,7 +12744,7 @@
       </c>
       <c r="D244" s="8" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
@@ -12768,51 +12756,51 @@
       </c>
       <c r="B245" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D245" s="19" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B246" s="6" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D246" s="19" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://20867, maa://38485</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B247" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
@@ -12822,19 +12810,19 @@
       </c>
       <c r="D247" s="19" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B248" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
@@ -12844,29 +12832,29 @@
       </c>
       <c r="D248" s="19" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B249" s="6" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D249" s="8" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
@@ -12878,51 +12866,51 @@
       </c>
       <c r="B250" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D250" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B251" s="6" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://42287, maa://45570, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B252" s="6" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
@@ -12932,7 +12920,7 @@
       </c>
       <c r="D252" s="19" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
@@ -12944,39 +12932,39 @@
       </c>
       <c r="B253" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D253" s="19" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B254" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://24093, maa://31559, maa://20924</t>
         </is>
       </c>
     </row>
@@ -12988,29 +12976,29 @@
       </c>
       <c r="B255" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D255" s="19" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B256" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
@@ -13020,7 +13008,7 @@
       </c>
       <c r="D256" s="19" t="inlineStr">
         <is>
-          <t>maa://20877</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
@@ -13032,51 +13020,51 @@
       </c>
       <c r="B257" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C257" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D257" s="19" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://20877</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B258" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C258" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D258" s="19" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B259" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C259" s="7" t="inlineStr">
@@ -13086,29 +13074,29 @@
       </c>
       <c r="D259" s="19" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B260" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C260" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D260" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
@@ -13120,17 +13108,17 @@
       </c>
       <c r="B261" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C261" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D261" s="19" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
@@ -13142,7 +13130,7 @@
       </c>
       <c r="B262" s="6" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C262" s="7" t="inlineStr">
@@ -13152,19 +13140,19 @@
       </c>
       <c r="D262" s="19" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B263" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
@@ -13174,19 +13162,19 @@
       </c>
       <c r="D263" s="19" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B264" s="6" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
@@ -13196,19 +13184,19 @@
       </c>
       <c r="D264" s="19" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B265" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
@@ -13218,7 +13206,7 @@
       </c>
       <c r="D265" s="19" t="inlineStr">
         <is>
-          <t>maa://59682</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
@@ -13230,7 +13218,7 @@
       </c>
       <c r="B266" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>MB-EX-1</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
@@ -13240,63 +13228,63 @@
       </c>
       <c r="D266" s="19" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://59682</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B267" s="6" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D267" s="19" t="inlineStr">
         <is>
-          <t>*maa://30678, maa://59689</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B268" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D268" s="19" t="inlineStr">
         <is>
-          <t>maa://49643</t>
+          <t>*maa://30678, maa://59689</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B269" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
@@ -13306,7 +13294,7 @@
       </c>
       <c r="D269" s="19" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
@@ -13318,39 +13306,39 @@
       </c>
       <c r="B270" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="19" t="inlineStr">
         <is>
-          <t>maa://20825, maa://21445, *maa://35726</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B271" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D271" s="19" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://20825, maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
@@ -13362,7 +13350,7 @@
       </c>
       <c r="B272" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
@@ -13372,19 +13360,19 @@
       </c>
       <c r="D272" s="19" t="inlineStr">
         <is>
-          <t>maa://62757</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B273" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
@@ -13394,63 +13382,63 @@
       </c>
       <c r="D273" s="19" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>maa://62757</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B274" s="6" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, *maa://56588, *maa://51893</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B275" s="6" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D275" s="19" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://51881, maa://51630, *maa://56588, *maa://51893</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B276" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C276" s="7" t="inlineStr">
@@ -13460,19 +13448,19 @@
       </c>
       <c r="D276" s="19" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B277" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
@@ -13482,19 +13470,19 @@
       </c>
       <c r="D277" s="19" t="inlineStr">
         <is>
-          <t>maa://20939</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B278" s="6" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
@@ -13504,29 +13492,29 @@
       </c>
       <c r="D278" s="19" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://20939</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B279" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D279" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
@@ -13538,29 +13526,29 @@
       </c>
       <c r="B280" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D280" s="19" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B281" s="6" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
@@ -13570,19 +13558,19 @@
       </c>
       <c r="D281" s="19" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B282" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
@@ -13592,19 +13580,19 @@
       </c>
       <c r="D282" s="19" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B283" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
@@ -13614,19 +13602,19 @@
       </c>
       <c r="D283" s="19" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B284" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C284" s="7" t="inlineStr">
@@ -13636,7 +13624,7 @@
       </c>
       <c r="D284" s="19" t="inlineStr">
         <is>
-          <t>maa://39165</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
@@ -13648,39 +13636,39 @@
       </c>
       <c r="B285" s="6" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D285" s="19" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://39165</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B286" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C286" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D286" s="19" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
@@ -13692,7 +13680,7 @@
       </c>
       <c r="B287" s="6" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C287" s="7" t="inlineStr">
@@ -13702,63 +13690,63 @@
       </c>
       <c r="D287" s="19" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B288" s="6" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C288" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D288" s="19" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B289" s="6" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C289" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D289" s="19" t="inlineStr">
         <is>
-          <t>maa://53353</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B290" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
@@ -13768,63 +13756,63 @@
       </c>
       <c r="D290" s="19" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://53353</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B291" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D291" s="19" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B292" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D292" s="19" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B293" s="6" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
@@ -13834,29 +13822,29 @@
       </c>
       <c r="D293" s="19" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B294" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D294" s="19" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
@@ -13868,39 +13856,39 @@
       </c>
       <c r="B295" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D295" s="19" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://25774, maa://28133, maa://22469</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B296" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D296" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, *maa://32505, maa://39155</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
@@ -13912,139 +13900,139 @@
       </c>
       <c r="B297" s="6" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://45799, maa://57199</t>
+          <t>maa://32414, *maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B298" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D298" s="19" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://45799, maa://57199</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B299" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D299" s="19" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B300" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D300" s="19" t="inlineStr">
         <is>
-          <t>maa://39167</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B301" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D301" s="19" t="inlineStr">
         <is>
-          <t>maa://29005, *maa://31560</t>
+          <t>maa://39167</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B302" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D302" s="19" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://29005, *maa://31560</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B303" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
@@ -14054,19 +14042,19 @@
       </c>
       <c r="D303" s="19" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B304" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
@@ -14076,63 +14064,63 @@
       </c>
       <c r="D304" s="19" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B305" s="6" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C305" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D305" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B306" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C306" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D306" s="19" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://50280, maa://49642, maa://49660</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B307" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C307" s="7" t="inlineStr">
@@ -14142,7 +14130,7 @@
       </c>
       <c r="D307" s="19" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14142,7 @@
       </c>
       <c r="B308" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C308" s="7" t="inlineStr">
@@ -14164,19 +14152,19 @@
       </c>
       <c r="D308" s="19" t="inlineStr">
         <is>
-          <t>maa://53352</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B309" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C309" s="7" t="inlineStr">
@@ -14186,7 +14174,7 @@
       </c>
       <c r="D309" s="19" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://53352</t>
         </is>
       </c>
     </row>
@@ -14198,7 +14186,7 @@
       </c>
       <c r="B310" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
@@ -14208,19 +14196,19 @@
       </c>
       <c r="D310" s="19" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B311" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
@@ -14230,7 +14218,7 @@
       </c>
       <c r="D311" s="19" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
@@ -14242,7 +14230,7 @@
       </c>
       <c r="B312" s="6" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
@@ -14252,19 +14240,19 @@
       </c>
       <c r="D312" s="19" t="inlineStr">
         <is>
-          <t>maa://53348</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B313" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
@@ -14274,19 +14262,19 @@
       </c>
       <c r="D313" s="19" t="inlineStr">
         <is>
-          <t>maa://39172</t>
+          <t>maa://53348</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B314" s="6" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
@@ -14296,63 +14284,63 @@
       </c>
       <c r="D314" s="19" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://39172</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B315" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D315" s="19" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B316" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D316" s="19" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B317" s="6" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
@@ -14362,7 +14350,7 @@
       </c>
       <c r="D317" s="19" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
@@ -14374,51 +14362,51 @@
       </c>
       <c r="B318" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>**maa://62755, maa://62761</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B319" s="6" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>maa://43090</t>
+          <t>**maa://62755, maa://62761</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B320" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
@@ -14428,19 +14416,19 @@
       </c>
       <c r="D320" s="19" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://43090</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B321" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
@@ -14450,19 +14438,19 @@
       </c>
       <c r="D321" s="19" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B322" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
@@ -14472,7 +14460,7 @@
       </c>
       <c r="D322" s="19" t="inlineStr">
         <is>
-          <t>maa://25773</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
@@ -14484,7 +14472,7 @@
       </c>
       <c r="B323" s="6" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
@@ -14494,63 +14482,63 @@
       </c>
       <c r="D323" s="19" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://25773</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B324" s="6" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C324" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D324" s="19" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B325" s="6" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D325" s="19" t="inlineStr">
         <is>
-          <t>maa://39174</t>
+          <t>maa://39692, *maa://39810</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B326" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
@@ -14560,63 +14548,63 @@
       </c>
       <c r="D326" s="19" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://39174</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B327" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D327" s="19" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B328" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D328" s="19" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B329" s="6" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
@@ -14626,19 +14614,19 @@
       </c>
       <c r="D329" s="19" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B330" s="6" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
@@ -14648,19 +14636,19 @@
       </c>
       <c r="D330" s="19" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B331" s="6" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
@@ -14670,73 +14658,73 @@
       </c>
       <c r="D331" s="8" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
         <is>
-          <t>折光</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B332" s="6" t="inlineStr">
         <is>
-          <t>6-1</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>折光</t>
         </is>
       </c>
       <c r="B333" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>6-1</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>maa://59688</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B334" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>maa://34205, **maa://39541</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
@@ -14748,7 +14736,7 @@
       </c>
       <c r="B335" s="6" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C335" s="7" t="inlineStr">
@@ -14758,85 +14746,85 @@
       </c>
       <c r="D335" s="8" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://34205, **maa://39541</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B336" s="6" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C336" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C337" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B338" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C338" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D338" s="5" t="inlineStr">
         <is>
-          <t>maa://40162</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B339" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C339" s="7" t="inlineStr">
@@ -14846,107 +14834,107 @@
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://40162</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B340" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C340" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D340" s="5" t="inlineStr">
         <is>
-          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
         <is>
-          <t>温米</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B341" s="6" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C341" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D341" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>温米</t>
         </is>
       </c>
       <c r="B342" s="6" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D342" s="5" t="inlineStr">
         <is>
-          <t>maa://38295, maa://49332</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B343" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D343" s="5" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://38295, maa://49332</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B344" s="6" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
@@ -14956,19 +14944,19 @@
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B345" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
@@ -14978,7 +14966,7 @@
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
@@ -14990,7 +14978,7 @@
       </c>
       <c r="B346" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
@@ -15000,63 +14988,63 @@
       </c>
       <c r="D346" s="5" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B347" s="6" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D347" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B348" s="6" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B349" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
@@ -15066,19 +15054,19 @@
       </c>
       <c r="D349" s="5" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B350" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
@@ -15088,19 +15076,19 @@
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B351" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
@@ -15110,117 +15098,117 @@
       </c>
       <c r="D351" s="5" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B352" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B353" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D353" s="5" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B354" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D354" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, *maa://45833</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B355" s="6" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://45834, *maa://45833</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B356" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D356" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
@@ -15232,7 +15220,7 @@
       </c>
       <c r="B357" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C357" s="7" t="inlineStr">
@@ -15242,63 +15230,63 @@
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B358" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C358" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D358" s="5" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://49696, maa://49695, maa://49758</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B359" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C359" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D359" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B360" s="6" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C360" s="7" t="inlineStr">
@@ -15308,7 +15296,7 @@
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
@@ -15320,95 +15308,95 @@
       </c>
       <c r="B361" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C361" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B362" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B363" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C363" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D363" s="5" t="inlineStr">
         <is>
-          <t>maa://42635, *maa://50629</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B364" s="6" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://42635, *maa://50629</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B365" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
@@ -15418,107 +15406,107 @@
       </c>
       <c r="D365" s="5" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B366" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, *maa://41128</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B367" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C367" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, *maa://41128</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
         <is>
-          <t>妮芙</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B368" s="6" t="inlineStr">
         <is>
-          <t>14-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D368" s="5" t="inlineStr">
         <is>
-          <t>maa://63883, *maa://64041</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>妮芙</t>
         </is>
       </c>
       <c r="B369" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>14-7</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://63883, *maa://64045, *maa://64041</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B370" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
@@ -15528,19 +15516,19 @@
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B371" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C371" s="7" t="inlineStr">
@@ -15550,19 +15538,19 @@
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B372" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C372" s="7" t="inlineStr">
@@ -15572,107 +15560,107 @@
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B373" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C373" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D373" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, *maa://50518, *maa://41977</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B374" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C374" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://42338</t>
+          <t>maa://42333, *maa://50518, *maa://41977</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B375" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C375" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D375" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, *maa://45605</t>
+          <t>maa://42338</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B376" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C376" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D376" s="5" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://41110, *maa://45605</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B377" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C377" s="7" t="inlineStr">
@@ -15682,63 +15670,63 @@
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B378" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C378" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B379" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C379" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D379" s="5" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B380" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C380" s="7" t="inlineStr">
@@ -15748,7 +15736,7 @@
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
@@ -15760,7 +15748,7 @@
       </c>
       <c r="B381" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
@@ -15770,19 +15758,19 @@
       </c>
       <c r="D381" s="5" t="inlineStr">
         <is>
-          <t>maa://53307</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
@@ -15792,63 +15780,63 @@
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://53307</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://42970, maa://44745</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
@@ -15858,19 +15846,19 @@
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
@@ -15880,19 +15868,19 @@
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B387" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C387" s="7" t="inlineStr">
@@ -15902,19 +15890,19 @@
       </c>
       <c r="D387" s="5" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B388" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C388" s="7" t="inlineStr">
@@ -15924,19 +15912,19 @@
       </c>
       <c r="D388" s="5" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="inlineStr">
         <is>
-          <t>烛煌</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B389" s="6" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C389" s="7" t="inlineStr">
@@ -15946,63 +15934,63 @@
       </c>
       <c r="D389" s="5" t="inlineStr">
         <is>
-          <t>maa://63890</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>烛煌</t>
         </is>
       </c>
       <c r="B390" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="C390" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D390" s="5" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://63890</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B391" s="6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C391" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D391" s="5" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B392" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C392" s="7" t="inlineStr">
@@ -16012,41 +16000,41 @@
       </c>
       <c r="D392" s="5" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="13" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B393" s="20" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C393" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://59533, *maa://59577</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="13" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B394" s="20" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C394" s="13" t="inlineStr">
@@ -16056,225 +16044,247 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://51907, maa://51908</t>
+          <t>maa://59533, *maa://59577</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="13" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B395" s="13" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C395" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://59691</t>
+          <t>maa://51907, maa://51908</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="13" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B396" s="13" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C396" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>maa://51898, *maa://57241</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="13" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B397" s="13" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C397" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://51880, maa://56651, maa://51878</t>
+          <t>maa://51898, *maa://57241</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="13" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B398" s="13" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C398" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
+          <t>maa://51880, maa://56651, maa://51878</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="13" t="inlineStr">
         <is>
-          <t>Miss.Christine</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B399" s="13" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C399" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="13" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>Miss.Christine</t>
         </is>
       </c>
       <c r="B400" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C400" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>maa://60449, maa://59493</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="13" t="inlineStr">
         <is>
-          <t>录武官</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B401" s="13" t="inlineStr">
         <is>
-          <t>HS-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C401" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://60449, maa://59493</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="13" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>录武官</t>
         </is>
       </c>
       <c r="B402" s="13" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>HS-5</t>
         </is>
       </c>
       <c r="C402" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>maa://62756</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="13" t="inlineStr">
         <is>
-          <t>吉星</t>
+          <t>司霆惊蛰</t>
         </is>
       </c>
       <c r="B403" s="13" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>DV-7</t>
         </is>
       </c>
       <c r="C403" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://62756</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="13" t="inlineStr">
         <is>
+          <t>吉星</t>
+        </is>
+      </c>
+      <c r="B404" s="13" t="inlineStr">
+        <is>
+          <t>S5-9</t>
+        </is>
+      </c>
+      <c r="C404" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="13" t="inlineStr">
+        <is>
           <t>遥</t>
         </is>
       </c>
-      <c r="B404" s="13" t="inlineStr">
+      <c r="B405" s="13" t="inlineStr">
         <is>
           <t>7-14</t>
         </is>
       </c>
-      <c r="C404" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
+      <c r="C405" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
         <is>
           <t>maa://64040</t>
         </is>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.04 13:44:54</t>
+          <t>更新日期：2025.08.08 13:32:35</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D10" s="18" t="inlineStr">
         <is>
-          <t>***maa://25695, maa://45271, ***maa://34206, ***maa://54000</t>
+          <t>***maa://25695, maa://45271, ***maa://34206, **maa://54000</t>
         </is>
       </c>
       <c r="E10" s="15" t="n"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, *maa://63521</t>
+          <t>maa://27395, maa://22755, **maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="H12" s="18" t="inlineStr">
         <is>
-          <t>maa://21867, **maa://54294</t>
+          <t>maa://21867, *maa://54294</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H13" s="18" t="inlineStr">
         <is>
-          <t>maa://21248, **maa://22728</t>
+          <t>maa://21248, *maa://22728</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="P18" s="18" t="inlineStr">
         <is>
-          <t>maa://24379, *maa://54153, *maa://24380</t>
+          <t>maa://24379, maa://54153, *maa://24380</t>
         </is>
       </c>
       <c r="Q18" s="15" t="n"/>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="AF18" s="18" t="inlineStr">
         <is>
-          <t>maa://24313, *maa://29784, maa://47854</t>
+          <t>maa://24313, maa://47854, *maa://29784</t>
         </is>
       </c>
       <c r="AG18" s="12" t="n"/>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="AE21" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF21" s="18" t="inlineStr">
         <is>
-          <t>maa://22524, maa://22432</t>
+          <t>maa://22524, maa://22432, *maa://64221</t>
         </is>
       </c>
       <c r="AG21" s="12" t="n"/>
@@ -3656,12 +3656,12 @@
       </c>
       <c r="AE24" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF24" s="18" t="inlineStr">
         <is>
-          <t>maa://22523, *maa://36672, maa://29910, maa://45831</t>
+          <t>maa://22523, *maa://36672, maa://29910, maa://45831, *maa://64165</t>
         </is>
       </c>
       <c r="AG24" s="12" t="n"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D25" s="18" t="inlineStr">
         <is>
-          <t>maa://29753, **maa://63016</t>
+          <t>maa://29753, *maa://63016</t>
         </is>
       </c>
       <c r="E25" s="15" t="n"/>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>maa://29063, maa://25311, *maa://45047</t>
+          <t>maa://29063, maa://25311, maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -4324,12 +4324,12 @@
       </c>
       <c r="C30" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30" s="18" t="inlineStr">
         <is>
-          <t>maa://45792</t>
+          <t>maa://45792, ***maa://64191</t>
         </is>
       </c>
       <c r="E30" s="15" t="n"/>
@@ -4664,10 +4664,14 @@
       </c>
       <c r="W32" s="15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X32" s="18" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X32" s="18" t="inlineStr">
+        <is>
+          <t>maa://64104</t>
+        </is>
+      </c>
       <c r="Y32" s="15" t="n"/>
       <c r="Z32" s="15" t="inlineStr">
         <is>
@@ -4936,12 +4940,12 @@
       </c>
       <c r="AA34" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB34" s="18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://64329</t>
         </is>
       </c>
       <c r="AC34" s="15" t="n"/>
@@ -5196,10 +5200,14 @@
       </c>
       <c r="AA36" s="15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB36" s="15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB36" s="15" t="inlineStr">
+        <is>
+          <t>maa://64106</t>
+        </is>
+      </c>
       <c r="AC36" s="15" t="n"/>
       <c r="AD36" s="15" t="inlineStr">
         <is>
@@ -5504,12 +5512,12 @@
       </c>
       <c r="S39" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45790</t>
+          <t>maa://47079, *maa://45788, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -5593,7 +5601,7 @@
       </c>
       <c r="P40" s="18" t="inlineStr">
         <is>
-          <t>maa://23278, maa://21386, maa://36664, *maa://45550</t>
+          <t>maa://23278, maa://21386, maa://36664, **maa://45550</t>
         </is>
       </c>
       <c r="Q40" s="15" t="n"/>
@@ -5636,10 +5644,14 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF40" s="15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF40" s="15" t="inlineStr">
+        <is>
+          <t>maa://64205</t>
+        </is>
+      </c>
       <c r="AG40" s="12" t="n"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
@@ -6699,7 +6711,7 @@
       </c>
       <c r="H62" s="18" t="inlineStr">
         <is>
-          <t>maa://42981, maa://43903, **maa://56228</t>
+          <t>maa://42981, maa://43903, *maa://56228</t>
         </is>
       </c>
       <c r="I62" s="15" t="n"/>
@@ -6717,7 +6729,7 @@
       </c>
       <c r="H63" s="18" t="inlineStr">
         <is>
-          <t>maa://59534, **maa://59413</t>
+          <t>maa://59534, *maa://59413</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -7038,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.04 13:44:54</t>
+          <t>更新日期：2025.08.08 13:32:35</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7543,12 +7555,12 @@
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" s="19" t="inlineStr">
         <is>
-          <t>maa://20919</t>
+          <t>maa://20919, *maa://31611</t>
         </is>
       </c>
       <c r="F16" s="18" t="n"/>
@@ -8075,12 +8087,12 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, *maa://45572, *maa://27794, maa://62759, *maa://20960, **maa://20843, **maa://20862, *maa://20893</t>
+          <t>maa://36644, maa://36866, *maa://45572, maa://62759, *maa://27794, *maa://20960, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -8300,7 +8312,7 @@
       </c>
       <c r="D42" s="19" t="inlineStr">
         <is>
-          <t>maa://20918, maa://34883, maa://20824</t>
+          <t>maa://34883, maa://20918, maa://20824</t>
         </is>
       </c>
     </row>
@@ -8713,12 +8725,12 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://20924, *maa://20631</t>
+          <t>maa://20841, maa://24093, maa://31559, maa://20924, *maa://25777, *maa://20631</t>
         </is>
       </c>
     </row>
@@ -11710,7 +11722,7 @@
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, *maa://63024</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, maa://63024</t>
         </is>
       </c>
     </row>
@@ -15489,12 +15501,12 @@
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://63883, *maa://64045, *maa://64041</t>
+          <t>maa://63883</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.08 13:32:35</t>
+          <t>更新日期：2025.08.10 13:33:24</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, **maa://63521</t>
+          <t>maa://27395, maa://22755</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -3006,12 +3006,12 @@
       </c>
       <c r="AE19" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF19" s="18" t="inlineStr">
         <is>
-          <t>maa://52239</t>
+          <t>maa://21663, *maa://52239</t>
         </is>
       </c>
       <c r="AG19" s="12" t="n"/>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="X21" s="18" t="inlineStr">
         <is>
-          <t>maa://20110, maa://34946</t>
+          <t>maa://34946, maa://20110</t>
         </is>
       </c>
       <c r="Y21" s="15" t="n"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="AF21" s="18" t="inlineStr">
         <is>
-          <t>maa://22524, maa://22432, *maa://64221</t>
+          <t>maa://22524, maa://22432, **maa://64221</t>
         </is>
       </c>
       <c r="AG21" s="12" t="n"/>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S39" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45788, *maa://45790</t>
+          <t>maa://47079, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.08 13:32:35</t>
+          <t>更新日期：2025.08.10 13:33:24</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="D101" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20893</t>
+          <t>maa://45572, maa://27794, maa://20893</t>
         </is>
       </c>
     </row>
@@ -15501,12 +15501,12 @@
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://63883</t>
+          <t>maa://63883, *maa://64045</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.10 13:33:24</t>
+          <t>更新日期：2025.08.11 13:31:21</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755</t>
+          <t>maa://27395, maa://22755, **maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H13" s="18" t="inlineStr">
         <is>
-          <t>maa://21248, *maa://22728</t>
+          <t>maa://21248, **maa://22728</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="AF21" s="18" t="inlineStr">
         <is>
-          <t>maa://22524, maa://22432, **maa://64221</t>
+          <t>maa://22524, maa://22432, ***maa://64221</t>
         </is>
       </c>
       <c r="AG21" s="12" t="n"/>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>maa://64205</t>
+          <t>maa://64107, maa://64205</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.10 13:33:24</t>
+          <t>更新日期：2025.08.11 13:31:21</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="D37" s="19" t="inlineStr">
         <is>
-          <t>maa://27376, maa://42635</t>
+          <t>maa://42635, maa://27376</t>
         </is>
       </c>
     </row>
@@ -8945,12 +8945,12 @@
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://20856, *maa://63790</t>
         </is>
       </c>
     </row>
@@ -9759,12 +9759,12 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, *maa://56588, *maa://45194, *maa://25161, *maa://32653</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, *maa://56588, *maa://45194, *maa://25161, *maa://32653, *maa://61839</t>
         </is>
       </c>
     </row>
@@ -12685,12 +12685,12 @@
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079</t>
         </is>
       </c>
     </row>
@@ -12905,12 +12905,12 @@
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225</t>
+          <t>maa://42287, maa://45570, maa://42225, *maa://60678</t>
         </is>
       </c>
     </row>
@@ -15039,12 +15039,12 @@
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839</t>
         </is>
       </c>
     </row>
@@ -15457,12 +15457,12 @@
       </c>
       <c r="C367" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, *maa://41128</t>
+          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, *maa://41128, *maa://60251</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.11 13:31:21</t>
+          <t>更新日期：2025.08.12 13:22:39</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="AF21" s="18" t="inlineStr">
         <is>
-          <t>maa://22524, maa://22432, ***maa://64221</t>
+          <t>maa://22524, maa://22432, **maa://64221</t>
         </is>
       </c>
       <c r="AG21" s="12" t="n"/>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>maa://64107, maa://64205</t>
+          <t>*maa://64107, maa://64205</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.11 13:31:21</t>
+          <t>更新日期：2025.08.12 13:22:39</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7793,12 +7793,12 @@
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D23" s="19" t="inlineStr">
         <is>
-          <t>maa://20876</t>
+          <t>maa://20876, *maa://63498</t>
         </is>
       </c>
       <c r="F23" s="18" t="n"/>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="D37" s="19" t="inlineStr">
         <is>
-          <t>maa://42635, maa://27376</t>
+          <t>maa://27376, maa://42635</t>
         </is>
       </c>
     </row>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440, *maa://63320</t>
+          <t>maa://32418, maa://51440, maa://63320</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>maa://22763</t>
+          <t>**maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.12 13:22:39</t>
+          <t>更新日期：2025.08.13 13:25:33</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -4226,12 +4226,12 @@
       </c>
       <c r="K29" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L29" s="18" t="inlineStr">
         <is>
-          <t>maa://28432, maa://31400, maa://28440, **maa://28650</t>
+          <t>maa://28432, maa://31400, maa://28440</t>
         </is>
       </c>
       <c r="M29" s="15" t="n"/>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>*maa://64107, maa://64205</t>
+          <t>maa://64205</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.12 13:22:39</t>
+          <t>更新日期：2025.08.13 13:25:33</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -9764,7 +9764,7 @@
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, *maa://56588, *maa://45194, *maa://25161, *maa://32653, *maa://61839</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://25161, *maa://32653, *maa://61839</t>
         </is>
       </c>
     </row>
@@ -10661,12 +10661,12 @@
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://44119, maa://46108, *maa://37300</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://44119, maa://46108, *maa://37300, *maa://64408</t>
         </is>
       </c>
     </row>
@@ -11211,12 +11211,12 @@
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://59681</t>
+          <t>maa://59681, *maa://64200</t>
         </is>
       </c>
     </row>
@@ -13438,7 +13438,7 @@
       </c>
       <c r="D275" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, *maa://56588, *maa://51893</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://51893</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D5" s="18" t="inlineStr">
         <is>
-          <t>maa://21245, maa://54105, maa://22744</t>
+          <t>maa://21245, maa://54105, *maa://22744</t>
         </is>
       </c>
       <c r="E5" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.13 13:25:33</t>
+          <t>更新日期：2025.08.16 13:20:53</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, **maa://63521</t>
+          <t>maa://27395, maa://22755, *maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="H12" s="18" t="inlineStr">
         <is>
-          <t>maa://21867, *maa://54294</t>
+          <t>maa://21867, maa://54294</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -2682,12 +2682,12 @@
       </c>
       <c r="O17" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" s="18" t="inlineStr">
         <is>
-          <t>maa://23890, maa://56238</t>
+          <t>maa://23890, *maa://24940, *maa://56238</t>
         </is>
       </c>
       <c r="Q17" s="15" t="n"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="X24" s="18" t="inlineStr">
         <is>
-          <t>maa://29988, maa://23504, *maa://25141, *maa://36663, maa://52227</t>
+          <t>maa://29988, maa://23504, *maa://36663, *maa://25141, maa://52227</t>
         </is>
       </c>
       <c r="Y24" s="15" t="n"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="D26" s="18" t="inlineStr">
         <is>
-          <t>maa://41802, *maa://56374</t>
+          <t>maa://41802, maa://56374</t>
         </is>
       </c>
       <c r="E26" s="15" t="n"/>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="D30" s="18" t="inlineStr">
         <is>
-          <t>maa://45792, ***maa://64191</t>
+          <t>maa://45792, **maa://64191</t>
         </is>
       </c>
       <c r="E30" s="15" t="n"/>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S39" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45790</t>
+          <t>maa://47079, *maa://45788, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>maa://64205</t>
+          <t>*maa://64107, maa://64205, **maa://65283</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -6724,12 +6724,12 @@
       </c>
       <c r="G63" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H63" s="18" t="inlineStr">
         <is>
-          <t>maa://59534, *maa://59413</t>
+          <t>maa://59534, **maa://59693, *maa://59413</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.13 13:25:33</t>
+          <t>更新日期：2025.08.16 13:20:53</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://20856, *maa://63790</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://63790, maa://20856</t>
         </is>
       </c>
     </row>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="D103" s="19" t="inlineStr">
         <is>
-          <t>*maa://29094, maa://28904</t>
+          <t>maa://29094, maa://28904</t>
         </is>
       </c>
     </row>
@@ -11062,7 +11062,7 @@
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://49074, maa://29861, *maa://42343</t>
         </is>
       </c>
     </row>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://42225, *maa://60678</t>
+          <t>maa://42287, maa://45570, *maa://60678, maa://42225</t>
         </is>
       </c>
     </row>
@@ -14401,12 +14401,12 @@
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>**maa://62755, maa://62761</t>
+          <t>maa://62761</t>
         </is>
       </c>
     </row>
@@ -15462,7 +15462,7 @@
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://44635, maa://48026, maa://41035, maa://44660, *maa://41128, *maa://60251</t>
+          <t>maa://40957, maa://48026, maa://44635, maa://41035, maa://44660, *maa://41128, *maa://60251</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.16 13:20:53</t>
+          <t>更新日期：2025.08.17 13:21:11</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.16 13:20:53</t>
+          <t>更新日期：2025.08.17 13:21:11</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -15462,7 +15462,7 @@
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://48026, maa://44635, maa://41035, maa://44660, *maa://41128, *maa://60251</t>
+          <t>maa://40957, maa://48026, maa://44635, maa://41035, maa://44660, *maa://60251, *maa://41128</t>
         </is>
       </c>
     </row>
@@ -15506,7 +15506,7 @@
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://63883, *maa://64045</t>
+          <t>maa://63883, maa://64045</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D5" s="18" t="inlineStr">
         <is>
-          <t>maa://21245, maa://54105, *maa://22744</t>
+          <t>maa://21245, maa://54105, maa://22744</t>
         </is>
       </c>
       <c r="E5" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.17 13:21:11</t>
+          <t>更新日期：2025.08.18 13:25:38</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, *maa://63521</t>
+          <t>maa://27395, maa://22755, **maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -6446,12 +6446,12 @@
       </c>
       <c r="O52" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P52" s="18" t="inlineStr">
         <is>
-          <t>maa://59394, maa://59378</t>
+          <t>maa://59394, maa://59378, ***maa://65511</t>
         </is>
       </c>
       <c r="Q52" s="15" t="n"/>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="H63" s="18" t="inlineStr">
         <is>
-          <t>maa://59534, **maa://59693, *maa://59413</t>
+          <t>maa://59534, *maa://59693, *maa://59413</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.17 13:21:11</t>
+          <t>更新日期：2025.08.18 13:25:38</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7929,12 +7929,12 @@
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://30285</t>
+          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://30285, *maa://65357</t>
         </is>
       </c>
       <c r="F27" s="18" t="n"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, *maa://45572, maa://62759, *maa://27794, *maa://20960, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://20960, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -9319,12 +9319,12 @@
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D88" s="19" t="inlineStr">
         <is>
-          <t>maa://24472</t>
+          <t>maa://24472, **maa://35841</t>
         </is>
       </c>
     </row>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, *maa://60678, maa://42225</t>
+          <t>maa://42287, maa://45570, maa://60678, maa://42225</t>
         </is>
       </c>
     </row>
@@ -14115,12 +14115,12 @@
       </c>
       <c r="C306" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D306" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660</t>
+          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="T3" s="18" t="inlineStr">
         <is>
-          <t>maa://45854, maa://24617, *maa://60545</t>
+          <t>maa://45854, maa://24617, maa://60545</t>
         </is>
       </c>
       <c r="U3" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.18 13:25:38</t>
+          <t>更新日期：2025.08.22 13:21:00</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, **maa://63521</t>
+          <t>maa://27395, maa://22755, *maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="W19" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X19" s="18" t="inlineStr">
         <is>
-          <t>maa://31386</t>
+          <t>maa://31386, **maa://58490</t>
         </is>
       </c>
       <c r="Y19" s="15" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="AF24" s="18" t="inlineStr">
         <is>
-          <t>maa://22523, *maa://36672, maa://29910, maa://45831, *maa://64165</t>
+          <t>maa://22523, *maa://36672, maa://29910, maa://45831, maa://64165</t>
         </is>
       </c>
       <c r="AG24" s="12" t="n"/>
@@ -4176,12 +4176,12 @@
       </c>
       <c r="AE28" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF28" s="18" t="inlineStr">
         <is>
-          <t>maa://36660</t>
+          <t>maa://36660, ***maa://65700</t>
         </is>
       </c>
       <c r="AG28" s="12" t="n"/>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="D30" s="18" t="inlineStr">
         <is>
-          <t>maa://45792, **maa://64191</t>
+          <t>maa://45792, *maa://64191</t>
         </is>
       </c>
       <c r="E30" s="15" t="n"/>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="H32" s="18" t="inlineStr">
         <is>
-          <t>maa://21895, maa://36667, **maa://22760</t>
+          <t>maa://36667, maa://21895, **maa://22760</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="P40" s="18" t="inlineStr">
         <is>
-          <t>maa://23278, maa://21386, maa://36664, **maa://45550</t>
+          <t>maa://23278, maa://21386, maa://36664, *maa://45550</t>
         </is>
       </c>
       <c r="Q40" s="15" t="n"/>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>*maa://64107, maa://64205, **maa://65283</t>
+          <t>maa://64205, *maa://65283</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="P52" s="18" t="inlineStr">
         <is>
-          <t>maa://59394, maa://59378, ***maa://65511</t>
+          <t>maa://59394, maa://59378, **maa://65511</t>
         </is>
       </c>
       <c r="Q52" s="15" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.18 13:25:38</t>
+          <t>更新日期：2025.08.22 13:21:00</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://63790, maa://20856</t>
+          <t>maa://20943, *maa://30673, maa://63790, *maa://30672, maa://20856</t>
         </is>
       </c>
     </row>
@@ -9759,12 +9759,12 @@
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://25161, *maa://32653, *maa://61839</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://25161, *maa://32653, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
@@ -10529,12 +10529,12 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470</t>
+          <t>maa://30670, maa://31470, *maa://61380</t>
         </is>
       </c>
     </row>
@@ -11739,12 +11739,12 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://39156</t>
+          <t>maa://39156, *maa://63806</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, maa://64079</t>
         </is>
       </c>
     </row>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://60678, maa://42225</t>
+          <t>maa://42287, maa://45570, *maa://60678, maa://42225</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, *maa://32505, maa://39155</t>
+          <t>maa://32414, maa://39155, *maa://32505</t>
         </is>
       </c>
     </row>
@@ -14401,12 +14401,12 @@
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>maa://62761</t>
+          <t>*maa://62755, maa://62761</t>
         </is>
       </c>
     </row>
@@ -15039,12 +15039,12 @@
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="AB2" s="18" t="inlineStr">
         <is>
-          <t>maa://21246, maa://36684</t>
+          <t>maa://36684, maa://21246</t>
         </is>
       </c>
       <c r="AC2" s="15" t="n"/>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="AF4" s="18" t="inlineStr">
         <is>
-          <t>maa://30062, maa://39394</t>
+          <t>maa://39394, maa://30062</t>
         </is>
       </c>
       <c r="AG4" s="12" t="n"/>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D5" s="18" t="inlineStr">
         <is>
-          <t>maa://21245, maa://54105, maa://22744</t>
+          <t>maa://21245, maa://54105, *maa://22744</t>
         </is>
       </c>
       <c r="E5" s="15" t="n"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>**maa://64972</t>
+          <t>*maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.22 13:21:00</t>
+          <t>更新日期：2025.08.30 13:19:59</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="O9" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P9" s="18" t="inlineStr">
         <is>
-          <t>maa://22736</t>
+          <t>maa://22736, ***maa://64516</t>
         </is>
       </c>
       <c r="Q9" s="15" t="n"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="X10" s="18" t="inlineStr">
         <is>
-          <t>maa://22301, maa://45828, maa://22726</t>
+          <t>maa://45828, maa://22301, maa://22726</t>
         </is>
       </c>
       <c r="Y10" s="15" t="n"/>
@@ -1918,12 +1918,12 @@
       </c>
       <c r="S11" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T11" s="18" t="inlineStr">
         <is>
-          <t>maa://22747, maa://22501, maa://45521</t>
+          <t>maa://22747, maa://22501, maa://45521, **maa://64808</t>
         </is>
       </c>
       <c r="U11" s="15" t="n"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H13" s="18" t="inlineStr">
         <is>
-          <t>maa://21248, **maa://22728</t>
+          <t>maa://21248, **maa://66545</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="AE13" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF13" s="18" t="inlineStr">
         <is>
-          <t>maa://39883</t>
+          <t>maa://39883, **maa://39885</t>
         </is>
       </c>
       <c r="AG13" s="12" t="n"/>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="D16" s="18" t="inlineStr">
         <is>
-          <t>maa://21441, maa://37650, maa://36679</t>
+          <t>maa://37650, maa://21441, maa://36679</t>
         </is>
       </c>
       <c r="E16" s="15" t="n"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="H17" s="18" t="inlineStr">
         <is>
-          <t>maa://22430, maa://39599</t>
+          <t>maa://39599, maa://22430</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="X20" s="18" t="inlineStr">
         <is>
-          <t>maa://50085, maa://49976, *maa://56241</t>
+          <t>maa://50085, maa://49976, maa://56241</t>
         </is>
       </c>
       <c r="Y20" s="15" t="n"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="AF21" s="18" t="inlineStr">
         <is>
-          <t>maa://22524, maa://22432, **maa://64221</t>
+          <t>maa://22524, maa://22432, *maa://64221</t>
         </is>
       </c>
       <c r="AG21" s="12" t="n"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="X24" s="18" t="inlineStr">
         <is>
-          <t>maa://29988, maa://23504, *maa://36663, *maa://25141, maa://52227</t>
+          <t>maa://29988, maa://23504, *maa://25141, *maa://36663, maa://52227</t>
         </is>
       </c>
       <c r="Y24" s="15" t="n"/>
@@ -3738,12 +3738,12 @@
       </c>
       <c r="S25" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T25" s="18" t="inlineStr">
         <is>
-          <t>maa://20109, maa://22545, **maa://42915</t>
+          <t>maa://20109, maa://22545</t>
         </is>
       </c>
       <c r="U25" s="15" t="n"/>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="AF28" s="18" t="inlineStr">
         <is>
-          <t>maa://36660, ***maa://65700</t>
+          <t>maa://36660, *maa://65700</t>
         </is>
       </c>
       <c r="AG28" s="12" t="n"/>
@@ -4388,12 +4388,12 @@
       </c>
       <c r="S30" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T30" s="18" t="inlineStr">
         <is>
-          <t>*maa://32940, maa://24388</t>
+          <t>maa://24388</t>
         </is>
       </c>
       <c r="U30" s="15" t="n"/>
@@ -4632,12 +4632,12 @@
       </c>
       <c r="O32" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P32" s="18" t="inlineStr">
         <is>
-          <t>maa://26203</t>
+          <t>maa://26203, ***maa://56429</t>
         </is>
       </c>
       <c r="Q32" s="15" t="n"/>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="L37" s="18" t="inlineStr">
         <is>
-          <t>maa://45718, *maa://47069, *maa://56336, *maa://45789</t>
+          <t>maa://45718, *maa://56336, *maa://47069, *maa://45789</t>
         </is>
       </c>
       <c r="M37" s="15" t="n"/>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>maa://64205, *maa://65283</t>
+          <t>*maa://64107, maa://64205, maa://65283</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="H44" s="18" t="inlineStr">
         <is>
-          <t>maa://29768, maa://27728, *maa://56386</t>
+          <t>maa://29768, maa://27728, maa://56386</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="H47" s="18" t="inlineStr">
         <is>
-          <t>maa://27410, maa://29661, *maa://28038, *maa://56236</t>
+          <t>maa://27410, maa://29661, *maa://56236, *maa://28038</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="P52" s="18" t="inlineStr">
         <is>
-          <t>maa://59394, maa://59378, **maa://65511</t>
+          <t>maa://59394, maa://59378, *maa://65511</t>
         </is>
       </c>
       <c r="Q52" s="15" t="n"/>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="H57" s="18" t="inlineStr">
         <is>
-          <t>maa://25176, *maa://56237</t>
+          <t>maa://25176, maa://56237</t>
         </is>
       </c>
       <c r="I57" s="15" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.22 13:21:00</t>
+          <t>更新日期：2025.08.30 13:19:59</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://30285, *maa://65357</t>
+          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, *maa://65357, maa://30285</t>
         </is>
       </c>
       <c r="F27" s="18" t="n"/>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="D55" s="19" t="inlineStr">
         <is>
-          <t>maa://20932, maa://42415, *maa://40838</t>
+          <t>maa://20932, maa://42415, maa://40838</t>
         </is>
       </c>
     </row>
@@ -8730,7 +8730,7 @@
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>maa://20841, maa://24093, maa://31559, maa://20924, *maa://25777, *maa://20631</t>
+          <t>maa://20841, maa://31559, maa://24093, maa://20924, *maa://25777, *maa://20631</t>
         </is>
       </c>
     </row>
@@ -8901,12 +8901,12 @@
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, maa://20904</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, *maa://20823, maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
@@ -8945,12 +8945,12 @@
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, maa://63790, *maa://30672, maa://20856</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
         </is>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="D88" s="19" t="inlineStr">
         <is>
-          <t>maa://24472, **maa://35841</t>
+          <t>maa://24472, *maa://35841</t>
         </is>
       </c>
     </row>
@@ -11216,7 +11216,7 @@
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://59681, *maa://64200</t>
+          <t>maa://59681, maa://64200</t>
         </is>
       </c>
     </row>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>maa://24093, maa://31559, maa://20924</t>
+          <t>maa://31559, maa://24093, maa://20924</t>
         </is>
       </c>
     </row>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, maa://39155, *maa://32505</t>
+          <t>maa://32414, *maa://32505, maa://39155</t>
         </is>
       </c>
     </row>
@@ -15391,12 +15391,12 @@
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://42635, *maa://50629</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
@@ -15836,7 +15836,7 @@
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://42970, maa://44745</t>
+          <t>*maa://42970, maa://44745</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="S2" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T2" s="18" t="inlineStr">
         <is>
-          <t>maa://22742</t>
+          <t>maa://22742, ***maa://66635</t>
         </is>
       </c>
       <c r="U2" s="15" t="n"/>
@@ -791,7 +791,7 @@
       </c>
       <c r="AF2" s="18" t="inlineStr">
         <is>
-          <t>maa://25251, maa://59087</t>
+          <t>maa://59087, maa://25251</t>
         </is>
       </c>
       <c r="AG2" s="12" t="n"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>*maa://64972</t>
+          <t>maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.30 13:19:59</t>
+          <t>更新日期：2025.08.31 13:19:07</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D10" s="18" t="inlineStr">
         <is>
-          <t>***maa://25695, maa://45271, ***maa://34206, **maa://54000</t>
+          <t>***maa://25695, maa://45271, ***maa://34206, *maa://54000</t>
         </is>
       </c>
       <c r="E10" s="15" t="n"/>
@@ -1788,12 +1788,12 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, *maa://63521</t>
+          <t>maa://27395, maa://22755</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="T11" s="18" t="inlineStr">
         <is>
-          <t>maa://22747, maa://22501, maa://45521, **maa://64808</t>
+          <t>maa://22747, maa://22501, maa://45521, *maa://64808</t>
         </is>
       </c>
       <c r="U11" s="15" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="H12" s="18" t="inlineStr">
         <is>
-          <t>maa://21867, maa://54294</t>
+          <t>maa://21867, *maa://54294</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="AB12" s="18" t="inlineStr">
         <is>
-          <t>maa://23669, maa://36677, maa://39872</t>
+          <t>maa://36677, maa://23669, maa://39872</t>
         </is>
       </c>
       <c r="AC12" s="15" t="n"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H13" s="18" t="inlineStr">
         <is>
-          <t>maa://21248, **maa://66545</t>
+          <t>maa://21248, *maa://66545</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="T16" s="18" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://28648, *maa://36674</t>
+          <t>maa://22729, *maa://36674, *maa://28648</t>
         </is>
       </c>
       <c r="U16" s="15" t="n"/>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="L18" s="18" t="inlineStr">
         <is>
-          <t>maa://22466, maa://52226</t>
+          <t>maa://52226, maa://22466</t>
         </is>
       </c>
       <c r="M18" s="15" t="n"/>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="AF18" s="18" t="inlineStr">
         <is>
-          <t>maa://24313, maa://47854, *maa://29784</t>
+          <t>maa://47854, maa://24313, *maa://29784</t>
         </is>
       </c>
       <c r="AG18" s="12" t="n"/>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="W19" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X19" s="18" t="inlineStr">
         <is>
-          <t>maa://31386, **maa://58490</t>
+          <t>maa://31386</t>
         </is>
       </c>
       <c r="Y19" s="15" t="n"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>maa://27127, maa://22751</t>
+          <t>maa://22751, maa://27127</t>
         </is>
       </c>
       <c r="M22" s="15" t="n"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="X22" s="18" t="inlineStr">
         <is>
-          <t>maa://21282, *maa://37649</t>
+          <t>*maa://37649, maa://21282</t>
         </is>
       </c>
       <c r="Y22" s="15" t="n"/>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="P26" s="18" t="inlineStr">
         <is>
-          <t>maa://39870, maa://56625</t>
+          <t>maa://56625, maa://39870</t>
         </is>
       </c>
       <c r="Q26" s="15" t="n"/>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45788, *maa://45790</t>
+          <t>maa://47079, *maa://45788, maa://45790</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>*maa://64107, maa://64205, maa://65283</t>
+          <t>maa://64205, *maa://65283</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="H47" s="18" t="inlineStr">
         <is>
-          <t>maa://27410, maa://29661, *maa://56236, *maa://28038</t>
+          <t>maa://27410, maa://29661, maa://56236, *maa://28038</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="P52" s="18" t="inlineStr">
         <is>
-          <t>maa://59394, maa://59378, *maa://65511</t>
+          <t>maa://59394, maa://59378, maa://65511</t>
         </is>
       </c>
       <c r="Q52" s="15" t="n"/>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H62" s="18" t="inlineStr">
         <is>
-          <t>maa://42981, maa://43903, *maa://56228</t>
+          <t>maa://42981, maa://56228, maa://43903</t>
         </is>
       </c>
       <c r="I62" s="15" t="n"/>
@@ -6724,12 +6724,12 @@
       </c>
       <c r="G63" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H63" s="18" t="inlineStr">
         <is>
-          <t>maa://59534, *maa://59693, *maa://59413</t>
+          <t>maa://59534, maa://59413</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -7050,7 +7050,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.30 13:19:59</t>
+          <t>更新日期：2025.08.31 13:19:07</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8901,12 +8901,12 @@
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, *maa://29079, maa://29096, maa://29087, *maa://20823, maa://20855, maa://20904</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://25161, *maa://32653, *maa://61839, *maa://61275</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://32653, *maa://25161, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://44119, maa://46108, *maa://37300, *maa://64408</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://46108, maa://44119, *maa://37300, *maa://64408</t>
         </is>
       </c>
     </row>
@@ -16293,12 +16293,12 @@
       </c>
       <c r="C405" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://64040</t>
+          <t>maa://64040, *maa://66377</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="L2" s="18" t="inlineStr">
         <is>
-          <t>maa://39402, *maa://34787, maa://58660</t>
+          <t>maa://39402, maa://58660, *maa://34787</t>
         </is>
       </c>
       <c r="M2" s="15" t="n"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="T2" s="18" t="inlineStr">
         <is>
-          <t>maa://22742, ***maa://66635</t>
+          <t>maa://22742, *maa://66635</t>
         </is>
       </c>
       <c r="U2" s="15" t="n"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="T3" s="18" t="inlineStr">
         <is>
-          <t>maa://45854, maa://24617, maa://60545</t>
+          <t>maa://45854, *maa://60545, maa://24617</t>
         </is>
       </c>
       <c r="U3" s="15" t="n"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="AB3" s="18" t="inlineStr">
         <is>
-          <t>maa://24390, maa://52241</t>
+          <t>maa://52241, maa://24390</t>
         </is>
       </c>
       <c r="AC3" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.31 13:19:07</t>
+          <t>更新日期：2025.09.02 13:21:02</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="P9" s="18" t="inlineStr">
         <is>
-          <t>maa://22736, ***maa://64516</t>
+          <t>maa://22736, *maa://64516</t>
         </is>
       </c>
       <c r="Q9" s="15" t="n"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="X9" s="18" t="inlineStr">
         <is>
-          <t>maa://26223, maa://52237</t>
+          <t>maa://52237, maa://26223</t>
         </is>
       </c>
       <c r="Y9" s="15" t="n"/>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="AE9" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF9" s="18" t="inlineStr">
         <is>
-          <t>maa://26206, **maa://22865</t>
+          <t>maa://26206</t>
         </is>
       </c>
       <c r="AG9" s="12" t="n"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D10" s="18" t="inlineStr">
         <is>
-          <t>***maa://25695, maa://45271, ***maa://34206, *maa://54000</t>
+          <t>***maa://25695, maa://45271, ***maa://34206, maa://54000</t>
         </is>
       </c>
       <c r="E10" s="15" t="n"/>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="X12" s="18" t="inlineStr">
         <is>
-          <t>maa://22753, maa://37962, *maa://21485</t>
+          <t>*maa://21485, maa://37962, maa://22753</t>
         </is>
       </c>
       <c r="Y12" s="15" t="n"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H13" s="18" t="inlineStr">
         <is>
-          <t>maa://21248, *maa://66545</t>
+          <t>maa://21248, maa://66545</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="P13" s="18" t="inlineStr">
         <is>
-          <t>maa://22676, *maa://22583, *maa://48321</t>
+          <t>maa://22676, *maa://48321, *maa://22583</t>
         </is>
       </c>
       <c r="Q13" s="15" t="n"/>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="AE13" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF13" s="18" t="inlineStr">
         <is>
-          <t>maa://39883, **maa://39885</t>
+          <t>maa://39883</t>
         </is>
       </c>
       <c r="AG13" s="12" t="n"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D15" s="18" t="inlineStr">
         <is>
-          <t>maa://22743, maa://22734, *maa://30808, maa://36048, maa://45058</t>
+          <t>maa://22743, maa://22734, *maa://30808, maa://45058, maa://36048</t>
         </is>
       </c>
       <c r="E15" s="15" t="n"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="AF15" s="18" t="inlineStr">
         <is>
-          <t>maa://21364, maa://36666, *maa://22766</t>
+          <t>maa://36666, maa://21364, *maa://22766</t>
         </is>
       </c>
       <c r="AG15" s="12" t="n"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D17" s="18" t="inlineStr">
         <is>
-          <t>maa://21624, **maa://56358</t>
+          <t>maa://21624, *maa://56358</t>
         </is>
       </c>
       <c r="E17" s="15" t="n"/>
@@ -2682,12 +2682,12 @@
       </c>
       <c r="O17" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P17" s="18" t="inlineStr">
         <is>
-          <t>maa://23890, *maa://24940, *maa://56238</t>
+          <t>maa://23890, maa://56238</t>
         </is>
       </c>
       <c r="Q17" s="15" t="n"/>
@@ -2913,11 +2913,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="H19" s="18" t="inlineStr"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="15" t="inlineStr">
         <is>
@@ -3011,7 +3007,7 @@
       </c>
       <c r="AF19" s="18" t="inlineStr">
         <is>
-          <t>maa://21663, *maa://52239</t>
+          <t>maa://21663, **maa://52239</t>
         </is>
       </c>
       <c r="AG19" s="12" t="n"/>
@@ -3109,7 +3105,7 @@
       </c>
       <c r="X20" s="18" t="inlineStr">
         <is>
-          <t>maa://50085, maa://49976, maa://56241</t>
+          <t>maa://50085, maa://56241, maa://49976</t>
         </is>
       </c>
       <c r="Y20" s="15" t="n"/>
@@ -3316,12 +3312,12 @@
       </c>
       <c r="K22" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>maa://22751, maa://27127</t>
+          <t>maa://27127, maa://22751, **maa://66865</t>
         </is>
       </c>
       <c r="M22" s="15" t="n"/>
@@ -3661,7 +3657,7 @@
       </c>
       <c r="AF24" s="18" t="inlineStr">
         <is>
-          <t>maa://22523, *maa://36672, maa://29910, maa://45831, maa://64165</t>
+          <t>maa://22523, *maa://36672, maa://64165, maa://29910, maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="12" t="n"/>
@@ -3695,7 +3691,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>maa://29063, maa://25311, maa://45047</t>
+          <t>maa://29063, maa://25311, *maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -3809,7 +3805,7 @@
       </c>
       <c r="D26" s="18" t="inlineStr">
         <is>
-          <t>maa://41802, maa://56374</t>
+          <t>maa://56374, maa://41802</t>
         </is>
       </c>
       <c r="E26" s="15" t="n"/>
@@ -3857,7 +3853,7 @@
       </c>
       <c r="P26" s="18" t="inlineStr">
         <is>
-          <t>maa://56625, maa://39870</t>
+          <t>maa://39870, maa://56625</t>
         </is>
       </c>
       <c r="Q26" s="15" t="n"/>
@@ -4329,7 +4325,7 @@
       </c>
       <c r="D30" s="18" t="inlineStr">
         <is>
-          <t>maa://45792, *maa://64191</t>
+          <t>maa://45792, maa://64191</t>
         </is>
       </c>
       <c r="E30" s="15" t="n"/>
@@ -4372,12 +4368,12 @@
       </c>
       <c r="O30" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P30" s="18" t="inlineStr">
         <is>
-          <t>maa://21442</t>
+          <t>maa://21442, **maa://66611</t>
         </is>
       </c>
       <c r="Q30" s="15" t="n"/>
@@ -4637,7 +4633,7 @@
       </c>
       <c r="P32" s="18" t="inlineStr">
         <is>
-          <t>maa://26203, ***maa://56429</t>
+          <t>maa://26203, **maa://56429</t>
         </is>
       </c>
       <c r="Q32" s="15" t="n"/>
@@ -4860,12 +4856,12 @@
       </c>
       <c r="G34" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H34" s="18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://66817</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -4897,7 +4893,7 @@
       </c>
       <c r="P34" s="18" t="inlineStr">
         <is>
-          <t>maa://48817, *maa://56235</t>
+          <t>maa://48817, maa://56235</t>
         </is>
       </c>
       <c r="Q34" s="15" t="n"/>
@@ -5271,7 +5267,7 @@
       </c>
       <c r="L37" s="18" t="inlineStr">
         <is>
-          <t>maa://45718, *maa://56336, *maa://47069, *maa://45789</t>
+          <t>maa://45718, maa://56336, *maa://47069, *maa://45789</t>
         </is>
       </c>
       <c r="M37" s="15" t="n"/>
@@ -5649,7 +5645,7 @@
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>maa://64205, *maa://65283</t>
+          <t>*maa://65283, maa://64205</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -5712,12 +5708,12 @@
       </c>
       <c r="S41" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T41" s="18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://66727, maa://66675</t>
         </is>
       </c>
       <c r="U41" s="15" t="n"/>
@@ -5869,7 +5865,7 @@
       </c>
       <c r="H43" s="18" t="inlineStr">
         <is>
-          <t>maa://22525, maa://21284</t>
+          <t>*maa://22525, maa://21284</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -6621,7 +6617,7 @@
       </c>
       <c r="H57" s="18" t="inlineStr">
         <is>
-          <t>maa://25176, maa://56237</t>
+          <t>maa://25176, *maa://56237</t>
         </is>
       </c>
       <c r="I57" s="15" t="n"/>
@@ -6711,7 +6707,7 @@
       </c>
       <c r="H62" s="18" t="inlineStr">
         <is>
-          <t>maa://42981, maa://56228, maa://43903</t>
+          <t>maa://42981, maa://43903, maa://56228</t>
         </is>
       </c>
       <c r="I62" s="15" t="n"/>
@@ -7050,7 +7046,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.08.31 13:19:07</t>
+          <t>更新日期：2025.09.02 13:21:02</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7934,7 +7930,7 @@
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, *maa://65357, maa://30285</t>
+          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://65357, maa://30285</t>
         </is>
       </c>
       <c r="F27" s="18" t="n"/>
@@ -16122,7 +16118,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://51898, *maa://57241</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="T2" s="18" t="inlineStr">
         <is>
-          <t>maa://22742, *maa://66635</t>
+          <t>maa://22742, maa://66635</t>
         </is>
       </c>
       <c r="U2" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.02 13:21:02</t>
+          <t>更新日期：2025.09.03 13:18:59</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="AE9" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF9" s="18" t="inlineStr">
         <is>
-          <t>maa://26206</t>
+          <t>maa://26206, ***maa://66916</t>
         </is>
       </c>
       <c r="AG9" s="12" t="n"/>
@@ -1724,12 +1724,12 @@
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" s="18" t="inlineStr">
         <is>
-          <t>***maa://25695, maa://45271, ***maa://34206, maa://54000</t>
+          <t>***maa://25695, maa://45271, maa://54000</t>
         </is>
       </c>
       <c r="E10" s="15" t="n"/>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="T11" s="18" t="inlineStr">
         <is>
-          <t>maa://22747, maa://22501, maa://45521, *maa://64808</t>
+          <t>maa://22747, maa://22501, maa://45521, maa://64808</t>
         </is>
       </c>
       <c r="U11" s="15" t="n"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D15" s="18" t="inlineStr">
         <is>
-          <t>maa://22743, maa://22734, *maa://30808, maa://45058, maa://36048</t>
+          <t>maa://22743, maa://45058, maa://22734, *maa://30808, maa://36048</t>
         </is>
       </c>
       <c r="E15" s="15" t="n"/>
@@ -2682,12 +2682,12 @@
       </c>
       <c r="O17" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" s="18" t="inlineStr">
         <is>
-          <t>maa://23890, maa://56238</t>
+          <t>maa://23890, *maa://56238, *maa://24940</t>
         </is>
       </c>
       <c r="Q17" s="15" t="n"/>
@@ -2922,12 +2922,12 @@
       </c>
       <c r="K19" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L19" s="18" t="inlineStr">
         <is>
-          <t>maa://39347</t>
+          <t>maa://39347, ***maa://56392</t>
         </is>
       </c>
       <c r="M19" s="15" t="n"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="AF21" s="18" t="inlineStr">
         <is>
-          <t>maa://22524, maa://22432, *maa://64221</t>
+          <t>maa://22524, maa://22432, maa://64221</t>
         </is>
       </c>
       <c r="AG21" s="12" t="n"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>maa://27127, maa://22751, **maa://66865</t>
+          <t>maa://27127, maa://22751, *maa://66865</t>
         </is>
       </c>
       <c r="M22" s="15" t="n"/>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="AF24" s="18" t="inlineStr">
         <is>
-          <t>maa://22523, *maa://36672, maa://64165, maa://29910, maa://45831</t>
+          <t>maa://22523, maa://64165, *maa://36672, maa://29910, maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="12" t="n"/>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="AB30" s="18" t="inlineStr">
         <is>
-          <t>maa://42979, maa://45822, **maa://45045</t>
+          <t>maa://42979, maa://45822, *maa://45045</t>
         </is>
       </c>
       <c r="AC30" s="15" t="n"/>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="L37" s="18" t="inlineStr">
         <is>
-          <t>maa://45718, maa://56336, *maa://47069, *maa://45789</t>
+          <t>maa://45718, *maa://56336, *maa://47069, *maa://45789</t>
         </is>
       </c>
       <c r="M37" s="15" t="n"/>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>*maa://65283, maa://64205</t>
+          <t>maa://65283, maa://64205</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="H45" s="18" t="inlineStr">
         <is>
-          <t>maa://21229, maa://30807, maa://42459</t>
+          <t>maa://21229, maa://42459, maa://30807</t>
         </is>
       </c>
       <c r="I45" s="15" t="n"/>
@@ -6720,12 +6720,12 @@
       </c>
       <c r="G63" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H63" s="18" t="inlineStr">
         <is>
-          <t>maa://59534, maa://59413</t>
+          <t>maa://59534, *maa://59693, *maa://59413</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -7046,7 +7046,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.02 13:21:02</t>
+          <t>更新日期：2025.09.03 13:18:59</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="D63" s="19" t="inlineStr">
         <is>
-          <t>maa://20845, maa://38727</t>
+          <t>*maa://20845, maa://38727</t>
         </is>
       </c>
     </row>
@@ -9161,12 +9161,12 @@
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D81" s="19" t="inlineStr">
         <is>
-          <t>maa://30525, maa://20859</t>
+          <t>maa://30525, maa://20859, *maa://30524</t>
         </is>
       </c>
     </row>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, *maa://32505, maa://39155</t>
+          <t>maa://32414, maa://39155, *maa://32505</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG77"/>
+  <dimension ref="A1:AG79"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>*maa://22880, maa://20276, *maa://22749</t>
+          <t>maa://22880, maa://20276, *maa://22749</t>
         </is>
       </c>
       <c r="M3" s="15" t="n"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="T3" s="18" t="inlineStr">
         <is>
-          <t>maa://45854, *maa://60545, maa://24617</t>
+          <t>maa://45854, maa://60545, maa://24617</t>
         </is>
       </c>
       <c r="U3" s="15" t="n"/>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="T4" s="18" t="inlineStr">
         <is>
-          <t>maa://32509, maa://27295, maa://22754, *maa://31008</t>
+          <t>maa://32509, maa://27295, maa://31008, maa://22754</t>
         </is>
       </c>
       <c r="U4" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.03 13:18:59</t>
+          <t>更新日期：2025.09.06 13:18:41</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D8" s="18" t="inlineStr">
         <is>
-          <t>maa://21476, *maa://39431, **maa://37551</t>
+          <t>maa://21476, **maa://39431, **maa://37551</t>
         </is>
       </c>
       <c r="E8" s="15" t="n"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="P9" s="18" t="inlineStr">
         <is>
-          <t>maa://22736, *maa://64516</t>
+          <t>maa://22736, maa://64516</t>
         </is>
       </c>
       <c r="Q9" s="15" t="n"/>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="AF9" s="18" t="inlineStr">
         <is>
-          <t>maa://26206, ***maa://66916</t>
+          <t>maa://26206, maa://66916</t>
         </is>
       </c>
       <c r="AG9" s="12" t="n"/>
@@ -1724,12 +1724,12 @@
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" s="18" t="inlineStr">
         <is>
-          <t>***maa://25695, maa://45271, maa://54000</t>
+          <t>maa://54000</t>
         </is>
       </c>
       <c r="E10" s="15" t="n"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="P10" s="18" t="inlineStr">
         <is>
-          <t>maa://28977, maa://36669, *maa://23264</t>
+          <t>maa://28977, *maa://36669, *maa://23264</t>
         </is>
       </c>
       <c r="Q10" s="15" t="n"/>
@@ -1788,12 +1788,12 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755</t>
+          <t>maa://27395, maa://22755, *maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="T11" s="18" t="inlineStr">
         <is>
-          <t>maa://22747, maa://22501, maa://45521, maa://64808</t>
+          <t>maa://22747, maa://22501, maa://64808, maa://45521</t>
         </is>
       </c>
       <c r="U11" s="15" t="n"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="D12" s="18" t="inlineStr">
         <is>
-          <t>maa://30766, *maa://36678</t>
+          <t>maa://36678, maa://30766</t>
         </is>
       </c>
       <c r="E12" s="15" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="H12" s="18" t="inlineStr">
         <is>
-          <t>maa://21867, *maa://54294</t>
+          <t>maa://21867, maa://54294</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H13" s="18" t="inlineStr">
         <is>
-          <t>maa://21248, maa://66545</t>
+          <t>*maa://21248, maa://66545</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="P13" s="18" t="inlineStr">
         <is>
-          <t>maa://22676, *maa://48321, *maa://22583</t>
+          <t>maa://48321, maa://22676, *maa://22583</t>
         </is>
       </c>
       <c r="Q13" s="15" t="n"/>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="AE13" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF13" s="18" t="inlineStr">
         <is>
-          <t>maa://39883</t>
+          <t>maa://39883, **maa://39885</t>
         </is>
       </c>
       <c r="AG13" s="12" t="n"/>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="T14" s="18" t="inlineStr">
         <is>
-          <t>maa://22521, maa://42751</t>
+          <t>maa://42751, maa://22521</t>
         </is>
       </c>
       <c r="U14" s="15" t="n"/>
@@ -2374,12 +2374,12 @@
       </c>
       <c r="C15" s="15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" s="18" t="inlineStr">
         <is>
-          <t>maa://22743, maa://45058, maa://22734, *maa://30808, maa://36048</t>
+          <t>maa://22743, maa://45058, maa://22734, *maa://36048</t>
         </is>
       </c>
       <c r="E15" s="15" t="n"/>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="AE15" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF15" s="18" t="inlineStr">
         <is>
-          <t>maa://36666, maa://21364, *maa://22766</t>
+          <t>maa://36666, maa://21364</t>
         </is>
       </c>
       <c r="AG15" s="12" t="n"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="T16" s="18" t="inlineStr">
         <is>
-          <t>maa://22729, *maa://36674, *maa://28648</t>
+          <t>maa://22729, maa://36674, *maa://28648</t>
         </is>
       </c>
       <c r="U16" s="15" t="n"/>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="AF16" s="18" t="inlineStr">
         <is>
-          <t>*maa://23911, maa://27755</t>
+          <t>maa://23911, maa://27755</t>
         </is>
       </c>
       <c r="AG16" s="12" t="n"/>
@@ -2682,12 +2682,12 @@
       </c>
       <c r="O17" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P17" s="18" t="inlineStr">
         <is>
-          <t>maa://23890, *maa://56238, *maa://24940</t>
+          <t>maa://23890, maa://56238</t>
         </is>
       </c>
       <c r="Q17" s="15" t="n"/>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="AE18" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF18" s="18" t="inlineStr">
         <is>
-          <t>maa://47854, maa://24313, *maa://29784</t>
+          <t>maa://47854, *maa://24313</t>
         </is>
       </c>
       <c r="AG18" s="12" t="n"/>
@@ -2910,10 +2910,14 @@
       </c>
       <c r="G19" s="15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H19" s="18" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="18" t="inlineStr">
+        <is>
+          <t>maa://66740</t>
+        </is>
+      </c>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="15" t="inlineStr">
         <is>
@@ -2970,12 +2974,12 @@
       </c>
       <c r="W19" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X19" s="18" t="inlineStr">
         <is>
-          <t>maa://31386</t>
+          <t>maa://31386, *maa://58490</t>
         </is>
       </c>
       <c r="Y19" s="15" t="n"/>
@@ -3007,7 +3011,7 @@
       </c>
       <c r="AF19" s="18" t="inlineStr">
         <is>
-          <t>maa://21663, **maa://52239</t>
+          <t>maa://21663, *maa://52239</t>
         </is>
       </c>
       <c r="AG19" s="12" t="n"/>
@@ -3025,7 +3029,7 @@
       </c>
       <c r="D20" s="18" t="inlineStr">
         <is>
-          <t>maa://21432, maa://25198, maa://36680</t>
+          <t>maa://25198, maa://36680, maa://21432</t>
         </is>
       </c>
       <c r="E20" s="15" t="n"/>
@@ -3246,12 +3250,12 @@
       </c>
       <c r="AA21" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB21" s="18" t="inlineStr">
         <is>
-          <t>maa://21443</t>
+          <t>maa://21443, *maa://52223</t>
         </is>
       </c>
       <c r="AC21" s="15" t="n"/>
@@ -3267,7 +3271,7 @@
       </c>
       <c r="AF21" s="18" t="inlineStr">
         <is>
-          <t>maa://22524, maa://22432, maa://64221</t>
+          <t>maa://22432, maa://22524, maa://64221</t>
         </is>
       </c>
       <c r="AG21" s="12" t="n"/>
@@ -3317,7 +3321,7 @@
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>maa://27127, maa://22751, *maa://66865</t>
+          <t>*maa://27127, *maa://22751, maa://66865</t>
         </is>
       </c>
       <c r="M22" s="15" t="n"/>
@@ -3365,7 +3369,7 @@
       </c>
       <c r="X22" s="18" t="inlineStr">
         <is>
-          <t>*maa://37649, maa://21282</t>
+          <t>maa://37649, maa://21282</t>
         </is>
       </c>
       <c r="Y22" s="15" t="n"/>
@@ -3474,12 +3478,12 @@
       </c>
       <c r="S23" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T23" s="18" t="inlineStr">
         <is>
-          <t>maa://31212, maa://24387</t>
+          <t>maa://31212, maa://24387, *maa://67084</t>
         </is>
       </c>
       <c r="U23" s="15" t="n"/>
@@ -3545,7 +3549,7 @@
       </c>
       <c r="D24" s="18" t="inlineStr">
         <is>
-          <t>maa://24368, *maa://46650</t>
+          <t>maa://24368, maa://46650</t>
         </is>
       </c>
       <c r="E24" s="15" t="n"/>
@@ -3652,12 +3656,12 @@
       </c>
       <c r="AE24" s="15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF24" s="18" t="inlineStr">
         <is>
-          <t>maa://22523, maa://64165, *maa://36672, maa://29910, maa://45831</t>
+          <t>*maa://22523, maa://64165, maa://29910, maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="12" t="n"/>
@@ -3675,7 +3679,7 @@
       </c>
       <c r="D25" s="18" t="inlineStr">
         <is>
-          <t>maa://29753, *maa://63016</t>
+          <t>maa://29753, maa://63016</t>
         </is>
       </c>
       <c r="E25" s="15" t="n"/>
@@ -3691,7 +3695,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>maa://29063, maa://25311, *maa://45047</t>
+          <t>maa://29063, maa://25311, maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -3787,7 +3791,7 @@
       </c>
       <c r="AF25" s="18" t="inlineStr">
         <is>
-          <t>maa://20108, maa://24621, maa://36676, *maa://22771, **maa://37772</t>
+          <t>maa://20108, maa://36676, maa://24621, *maa://22771, **maa://37772</t>
         </is>
       </c>
       <c r="AG25" s="12" t="n"/>
@@ -3816,12 +3820,12 @@
       </c>
       <c r="G26" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H26" s="18" t="inlineStr">
         <is>
-          <t>maa://24913</t>
+          <t>maa://56240, maa://24913</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -3832,12 +3836,12 @@
       </c>
       <c r="K26" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L26" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M26" s="15" t="n"/>
@@ -4124,12 +4128,12 @@
       </c>
       <c r="S28" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T28" s="18" t="inlineStr">
         <is>
-          <t>maa://23263</t>
+          <t>maa://29765, maa://23263</t>
         </is>
       </c>
       <c r="U28" s="15" t="n"/>
@@ -4177,7 +4181,7 @@
       </c>
       <c r="AF28" s="18" t="inlineStr">
         <is>
-          <t>maa://36660, *maa://65700</t>
+          <t>maa://36660, maa://65700</t>
         </is>
       </c>
       <c r="AG28" s="12" t="n"/>
@@ -4307,7 +4311,7 @@
       </c>
       <c r="AF29" s="18" t="inlineStr">
         <is>
-          <t>maa://24080, maa://42865</t>
+          <t>maa://42865, *maa://24080</t>
         </is>
       </c>
       <c r="AG29" s="12" t="n"/>
@@ -4373,7 +4377,7 @@
       </c>
       <c r="P30" s="18" t="inlineStr">
         <is>
-          <t>maa://21442, **maa://66611</t>
+          <t>maa://21442, maa://66611</t>
         </is>
       </c>
       <c r="Q30" s="15" t="n"/>
@@ -4384,12 +4388,12 @@
       </c>
       <c r="S30" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T30" s="18" t="inlineStr">
         <is>
-          <t>maa://24388</t>
+          <t>*maa://32940, maa://24388</t>
         </is>
       </c>
       <c r="U30" s="15" t="n"/>
@@ -4421,7 +4425,7 @@
       </c>
       <c r="AB30" s="18" t="inlineStr">
         <is>
-          <t>maa://42979, maa://45822, *maa://45045</t>
+          <t>maa://42979, maa://45822, **maa://45045</t>
         </is>
       </c>
       <c r="AC30" s="15" t="n"/>
@@ -4519,7 +4523,7 @@
       </c>
       <c r="T31" s="18" t="inlineStr">
         <is>
-          <t>maa://30711, **maa://30768</t>
+          <t>maa://30711, *maa://30768</t>
         </is>
       </c>
       <c r="U31" s="15" t="n"/>
@@ -4551,7 +4555,7 @@
       </c>
       <c r="AB31" s="12" t="inlineStr">
         <is>
-          <t>maa://51420</t>
+          <t>maa://66997</t>
         </is>
       </c>
       <c r="AC31" s="15" t="n"/>
@@ -4633,7 +4637,7 @@
       </c>
       <c r="P32" s="18" t="inlineStr">
         <is>
-          <t>maa://26203, **maa://56429</t>
+          <t>maa://26203, *maa://56429</t>
         </is>
       </c>
       <c r="Q32" s="15" t="n"/>
@@ -4710,12 +4714,12 @@
       </c>
       <c r="C33" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D33" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E33" s="15" t="n"/>
@@ -5267,7 +5271,7 @@
       </c>
       <c r="L37" s="18" t="inlineStr">
         <is>
-          <t>maa://45718, *maa://56336, *maa://47069, *maa://45789</t>
+          <t>maa://45718, maa://56336, *maa://47069, *maa://45789</t>
         </is>
       </c>
       <c r="M37" s="15" t="n"/>
@@ -5278,12 +5282,12 @@
       </c>
       <c r="O37" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P37" s="18" t="inlineStr">
         <is>
-          <t>maa://21280, *maa://21239</t>
+          <t>maa://21280</t>
         </is>
       </c>
       <c r="Q37" s="15" t="n"/>
@@ -5508,12 +5512,12 @@
       </c>
       <c r="S39" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45788, maa://45790</t>
+          <t>maa://47079, *maa://45790</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -5713,7 +5717,7 @@
       </c>
       <c r="T41" s="18" t="inlineStr">
         <is>
-          <t>maa://66727, maa://66675</t>
+          <t>maa://66727, *maa://66675</t>
         </is>
       </c>
       <c r="U41" s="15" t="n"/>
@@ -5917,6 +5921,22 @@
         </is>
       </c>
       <c r="U43" s="15" t="n"/>
+      <c r="Z43" s="12" t="inlineStr">
+        <is>
+          <t>三角初华</t>
+        </is>
+      </c>
+      <c r="AA43" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB43" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC43" s="12" t="n"/>
       <c r="AD43" s="15" t="inlineStr">
         <is>
           <t>引星棘刺</t>
@@ -5949,7 +5969,7 @@
       </c>
       <c r="H44" s="18" t="inlineStr">
         <is>
-          <t>maa://29768, maa://27728, maa://56386</t>
+          <t>maa://29768, maa://56386, maa://27728</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -6034,7 +6054,7 @@
       </c>
       <c r="H45" s="18" t="inlineStr">
         <is>
-          <t>maa://21229, maa://42459, maa://30807</t>
+          <t>maa://42459, maa://21229, maa://30807</t>
         </is>
       </c>
       <c r="I45" s="15" t="n"/>
@@ -6199,15 +6219,31 @@
       </c>
       <c r="S47" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T47" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://67476</t>
         </is>
       </c>
       <c r="U47" s="15" t="n"/>
+      <c r="AD47" s="12" t="inlineStr">
+        <is>
+          <t>八幡海铃</t>
+        </is>
+      </c>
+      <c r="AE47" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF47" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG47" s="12" t="n"/>
     </row>
     <row r="48">
       <c r="B48" s="4" t="n"/>
@@ -6261,6 +6297,22 @@
         </is>
       </c>
       <c r="U48" s="15" t="n"/>
+      <c r="AD48" s="12" t="inlineStr">
+        <is>
+          <t>若叶睦</t>
+        </is>
+      </c>
+      <c r="AE48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG48" s="12" t="n"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="B49" s="4" t="n"/>
@@ -6305,12 +6357,12 @@
       </c>
       <c r="S49" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T49" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://67231</t>
         </is>
       </c>
       <c r="U49" s="15" t="n"/>
@@ -6617,7 +6669,7 @@
       </c>
       <c r="H57" s="18" t="inlineStr">
         <is>
-          <t>maa://25176, *maa://56237</t>
+          <t>maa://25176, maa://56237</t>
         </is>
       </c>
       <c r="I57" s="15" t="n"/>
@@ -6725,7 +6777,7 @@
       </c>
       <c r="H63" s="18" t="inlineStr">
         <is>
-          <t>maa://59534, *maa://59693, *maa://59413</t>
+          <t>maa://59534, *maa://59693, maa://59413</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -6936,12 +6988,12 @@
       </c>
       <c r="G75" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -6981,6 +7033,42 @@
         </is>
       </c>
       <c r="I77" s="12" t="n"/>
+    </row>
+    <row r="78">
+      <c r="F78" s="12" t="inlineStr">
+        <is>
+          <t>祐天寺若麦</t>
+        </is>
+      </c>
+      <c r="G78" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" s="12" t="n"/>
+    </row>
+    <row r="79">
+      <c r="F79" s="12" t="inlineStr">
+        <is>
+          <t>丰川祥子</t>
+        </is>
+      </c>
+      <c r="G79" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6999,7 +7087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB405"/>
+  <dimension ref="A1:AB412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -7046,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.03 13:18:59</t>
+          <t>更新日期：2025.09.06 13:18:41</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8963,12 +9051,12 @@
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D72" s="19" t="inlineStr">
         <is>
-          <t>maa://36643, maa://36864, maa://39140</t>
+          <t>maa://36643, maa://36864, maa://39140, *maa://66335</t>
         </is>
       </c>
     </row>
@@ -9767,34 +9855,34 @@
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>maa://45259</t>
+          <t>maa://36646, maa://25774, maa://35996, maa://22469, *maa://30668, *maa://67286</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
@@ -9804,19 +9892,19 @@
       </c>
       <c r="D110" s="19" t="inlineStr">
         <is>
-          <t>maa://20887</t>
+          <t>maa://45259</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
@@ -9826,29 +9914,29 @@
       </c>
       <c r="D111" s="19" t="inlineStr">
         <is>
-          <t>maa://28554</t>
+          <t>maa://20887</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B112" s="6" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D112" s="19" t="inlineStr">
         <is>
-          <t>maa://20933, maa://20822</t>
+          <t>maa://28554</t>
         </is>
       </c>
     </row>
@@ -9860,29 +9948,29 @@
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D113" s="19" t="inlineStr">
         <is>
-          <t>maa://29037</t>
+          <t>maa://20933, maa://20822</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B114" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
@@ -9892,29 +9980,29 @@
       </c>
       <c r="D114" s="19" t="inlineStr">
         <is>
-          <t>maa://20904</t>
+          <t>maa://29037</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D115" s="19" t="inlineStr">
         <is>
-          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
+          <t>maa://20904</t>
         </is>
       </c>
     </row>
@@ -9926,29 +10014,29 @@
       </c>
       <c r="B116" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D116" s="19" t="inlineStr">
         <is>
-          <t>maa://29659, maa://29031</t>
+          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B117" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
@@ -9958,95 +10046,95 @@
       </c>
       <c r="D117" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20940</t>
+          <t>maa://29659, maa://29031</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D118" s="19" t="inlineStr">
         <is>
-          <t>maa://20986</t>
+          <t>maa://31560, maa://20940</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20851</t>
+          <t>maa://20986</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D120" s="19" t="inlineStr">
         <is>
-          <t>maa://20949</t>
+          <t>maa://31560, *maa://20851</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D121" s="19" t="inlineStr">
         <is>
-          <t>maa://20869, maa://44690</t>
+          <t>maa://20949</t>
         </is>
       </c>
     </row>
@@ -10058,7 +10146,7 @@
       </c>
       <c r="B122" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
@@ -10068,41 +10156,41 @@
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
-          <t>maa://29650, maa://45570</t>
+          <t>maa://20869, maa://44690</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B123" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D123" s="19" t="inlineStr">
         <is>
-          <t>maa://20868</t>
+          <t>maa://29650, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B124" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
@@ -10112,19 +10200,19 @@
       </c>
       <c r="D124" s="19" t="inlineStr">
         <is>
-          <t>maa://20909</t>
+          <t>maa://20868</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
         <is>
-          <t>铸铁</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr">
         <is>
-          <t>DH-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
@@ -10134,19 +10222,19 @@
       </c>
       <c r="D125" s="19" t="inlineStr">
         <is>
-          <t>maa://44403</t>
+          <t>maa://20909</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>铸铁</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>DH-3</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
@@ -10156,29 +10244,29 @@
       </c>
       <c r="D126" s="19" t="inlineStr">
         <is>
-          <t>maa://30501</t>
+          <t>maa://44403</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B127" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D127" s="19" t="inlineStr">
         <is>
-          <t>*maa://20914, maa://20829</t>
+          <t>maa://30501</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10278,7 @@
       </c>
       <c r="B128" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
@@ -10200,19 +10288,19 @@
       </c>
       <c r="D128" s="19" t="inlineStr">
         <is>
-          <t>maa://37484, maa://24611</t>
+          <t>*maa://20914, maa://20829</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B129" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
@@ -10222,29 +10310,29 @@
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
-          <t>maa://24491, *maa://24493</t>
+          <t>maa://37484, maa://24611</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="6" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B130" s="6" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D130" s="19" t="inlineStr">
         <is>
-          <t>maa://21422</t>
+          <t>maa://24491, *maa://24493</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10344,7 @@
       </c>
       <c r="B131" s="6" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
@@ -10266,29 +10354,29 @@
       </c>
       <c r="D131" s="19" t="inlineStr">
         <is>
-          <t>maa://30719</t>
+          <t>maa://21422</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
-          <t>maa://20837, *maa://37666</t>
+          <t>maa://30719</t>
         </is>
       </c>
     </row>
@@ -10300,7 +10388,7 @@
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
@@ -10310,41 +10398,41 @@
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>maa://29023, *maa://39515</t>
+          <t>maa://20837, *maa://37666</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D134" s="19" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://29023, *maa://39515</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
@@ -10354,19 +10442,19 @@
       </c>
       <c r="D135" s="19" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
@@ -10376,19 +10464,19 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
@@ -10398,19 +10486,19 @@
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>maa://41856</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -10420,19 +10508,19 @@
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
-          <t>maa://29025</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
@@ -10442,19 +10530,19 @@
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
-          <t>maa://45258</t>
+          <t>maa://29025</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
@@ -10464,19 +10552,19 @@
       </c>
       <c r="D140" s="19" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>maa://45258</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
@@ -10486,29 +10574,29 @@
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B142" s="6" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>maa://28484, *maa://31185, *maa://30306</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10608,7 @@
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
@@ -10530,41 +10618,41 @@
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, *maa://61380</t>
+          <t>maa://28484, *maa://31185, *maa://30306</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>maa://30670, maa://31470, *maa://61380</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
@@ -10574,19 +10662,19 @@
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>maa://20971</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
@@ -10596,19 +10684,19 @@
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
@@ -10618,51 +10706,51 @@
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://46108, maa://44119, *maa://37300, *maa://64408</t>
+          <t>maa://28828, maa://20846</t>
         </is>
       </c>
     </row>
@@ -10674,51 +10762,51 @@
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://51549, maa://51923</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://46108, maa://44119, *maa://37300, *maa://64408</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://51549, maa://51923</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
@@ -10728,19 +10816,19 @@
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
@@ -10750,29 +10838,29 @@
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B154" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
@@ -10784,29 +10872,29 @@
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D155" s="19" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
@@ -10816,19 +10904,19 @@
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
@@ -10838,19 +10926,19 @@
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>maa://39149</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B158" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
@@ -10860,63 +10948,63 @@
       </c>
       <c r="D158" s="19" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>maa://39149</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, *maa://45603</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B160" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://44232, *maa://45603</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
@@ -10926,19 +11014,19 @@
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
@@ -10948,29 +11036,29 @@
       </c>
       <c r="D162" s="19" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C163" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>*maa://32845, maa://29054</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
@@ -10982,29 +11070,29 @@
       </c>
       <c r="B164" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C164" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D164" s="19" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C165" s="7" t="inlineStr">
@@ -11014,51 +11102,51 @@
       </c>
       <c r="D165" s="19" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D166" s="19" t="inlineStr">
         <is>
-          <t>maa://20975, *maa://47950, maa://30806</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B167" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://49074, maa://29861, *maa://42343</t>
+          <t>maa://20975, *maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
@@ -11070,51 +11158,51 @@
       </c>
       <c r="B168" s="6" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D168" s="19" t="inlineStr">
         <is>
-          <t>maa://49867, maa://49655</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://49074, maa://29861, *maa://42343</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B169" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D169" s="19" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://49867, maa://49655</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B170" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
@@ -11124,19 +11212,19 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B171" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
@@ -11146,19 +11234,19 @@
       </c>
       <c r="D171" s="19" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B172" s="6" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
@@ -11168,19 +11256,19 @@
       </c>
       <c r="D172" s="19" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B173" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
@@ -11190,29 +11278,29 @@
       </c>
       <c r="D173" s="19" t="inlineStr">
         <is>
-          <t>maa://20905</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://59681, maa://64200</t>
+          <t>maa://20905</t>
         </is>
       </c>
     </row>
@@ -11224,51 +11312,51 @@
       </c>
       <c r="B175" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440, maa://63320</t>
+          <t>maa://59681, maa://64200</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B176" s="6" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://32418, maa://51440, maa://63320</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B177" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
@@ -11278,19 +11366,19 @@
       </c>
       <c r="D177" s="19" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B178" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
@@ -11300,7 +11388,7 @@
       </c>
       <c r="D178" s="19" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
@@ -11312,51 +11400,51 @@
       </c>
       <c r="B179" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D179" s="19" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B180" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D180" s="19" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B181" s="6" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
@@ -11366,19 +11454,19 @@
       </c>
       <c r="D181" s="19" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B182" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
@@ -11388,19 +11476,19 @@
       </c>
       <c r="D182" s="19" t="inlineStr">
         <is>
-          <t>maa://31560</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B183" s="6" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C183" s="7" t="inlineStr">
@@ -11410,7 +11498,7 @@
       </c>
       <c r="D183" s="19" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://31560</t>
         </is>
       </c>
     </row>
@@ -11422,7 +11510,7 @@
       </c>
       <c r="B184" s="6" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C184" s="7" t="inlineStr">
@@ -11432,19 +11520,19 @@
       </c>
       <c r="D184" s="19" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B185" s="6" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C185" s="7" t="inlineStr">
@@ -11454,7 +11542,7 @@
       </c>
       <c r="D185" s="19" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
@@ -11466,51 +11554,51 @@
       </c>
       <c r="B186" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D186" s="19" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B187" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D187" s="19" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
@@ -11520,19 +11608,19 @@
       </c>
       <c r="D188" s="19" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B189" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
@@ -11542,29 +11630,29 @@
       </c>
       <c r="D189" s="19" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B190" s="6" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D190" s="19" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
@@ -11576,7 +11664,7 @@
       </c>
       <c r="B191" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
@@ -11586,41 +11674,41 @@
       </c>
       <c r="D191" s="19" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B192" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D192" s="19" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B193" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
@@ -11630,19 +11718,19 @@
       </c>
       <c r="D193" s="19" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B194" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
@@ -11652,7 +11740,7 @@
       </c>
       <c r="D194" s="19" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
@@ -11664,61 +11752,61 @@
       </c>
       <c r="B195" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D195" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B196" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D196" s="19" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B197" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, maa://63024</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
@@ -11730,39 +11818,39 @@
       </c>
       <c r="B198" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://63806</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, maa://63024</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B199" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D199" s="19" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156, *maa://63806</t>
         </is>
       </c>
     </row>
@@ -11791,12 +11879,12 @@
     <row r="201">
       <c r="A201" s="6" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B201" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
@@ -11806,14 +11894,14 @@
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr">
@@ -11823,24 +11911,24 @@
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D202" s="19" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B203" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
@@ -11850,19 +11938,19 @@
       </c>
       <c r="D203" s="19" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
@@ -11872,19 +11960,19 @@
       </c>
       <c r="D204" s="19" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
@@ -11894,7 +11982,7 @@
       </c>
       <c r="D205" s="19" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
@@ -11906,39 +11994,39 @@
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D206" s="8" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D207" s="19" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
@@ -11950,29 +12038,29 @@
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
@@ -11982,51 +12070,51 @@
       </c>
       <c r="D209" s="19" t="inlineStr">
         <is>
-          <t>maa://53354</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B210" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C210" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D210" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D211" s="19" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, *maa://44703</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
@@ -12038,29 +12126,29 @@
       </c>
       <c r="B212" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D212" s="19" t="inlineStr">
         <is>
-          <t>maa://20955</t>
+          <t>maa://20956, *maa://20830, *maa://44703</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
@@ -12070,7 +12158,7 @@
       </c>
       <c r="D213" s="19" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://20955</t>
         </is>
       </c>
     </row>
@@ -12082,7 +12170,7 @@
       </c>
       <c r="B214" s="6" t="inlineStr">
         <is>
-          <t>DH-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C214" s="7" t="inlineStr">
@@ -12092,19 +12180,19 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>maa://64044</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B215" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DH-7</t>
         </is>
       </c>
       <c r="C215" s="7" t="inlineStr">
@@ -12114,19 +12202,19 @@
       </c>
       <c r="D215" s="19" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://64044</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B216" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
@@ -12136,29 +12224,29 @@
       </c>
       <c r="D216" s="19" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B217" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D217" s="19" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
@@ -12170,29 +12258,29 @@
       </c>
       <c r="B218" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D218" s="19" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B219" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
@@ -12202,19 +12290,19 @@
       </c>
       <c r="D219" s="19" t="inlineStr">
         <is>
-          <t>maa://39157</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B220" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
@@ -12224,7 +12312,7 @@
       </c>
       <c r="D220" s="19" t="inlineStr">
         <is>
-          <t>maa://20995</t>
+          <t>maa://39157</t>
         </is>
       </c>
     </row>
@@ -12236,7 +12324,7 @@
       </c>
       <c r="B221" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
@@ -12246,19 +12334,19 @@
       </c>
       <c r="D221" s="19" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>maa://20995</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B222" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
@@ -12268,19 +12356,19 @@
       </c>
       <c r="D222" s="19" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B223" s="6" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
@@ -12290,19 +12378,19 @@
       </c>
       <c r="D223" s="19" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B224" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
@@ -12312,19 +12400,19 @@
       </c>
       <c r="D224" s="19" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B225" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
@@ -12334,29 +12422,29 @@
       </c>
       <c r="D225" s="19" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B226" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D226" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, *maa://39520</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
@@ -12368,39 +12456,39 @@
       </c>
       <c r="B227" s="6" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D227" s="19" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://28187, *maa://39520</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B228" s="6" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D228" s="19" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
@@ -12412,7 +12500,7 @@
       </c>
       <c r="B229" s="6" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
@@ -12422,41 +12510,41 @@
       </c>
       <c r="D229" s="19" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B230" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D230" s="19" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B231" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
@@ -12466,29 +12554,29 @@
       </c>
       <c r="D231" s="19" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B232" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C232" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D232" s="19" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, *maa://38723</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
@@ -12500,29 +12588,29 @@
       </c>
       <c r="B233" s="6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C233" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D233" s="19" t="inlineStr">
         <is>
-          <t>maa://48263</t>
+          <t>maa://29058, maa://39140, *maa://38723</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B234" s="6" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C234" s="7" t="inlineStr">
@@ -12532,19 +12620,19 @@
       </c>
       <c r="D234" s="19" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://48263</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B235" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C235" s="7" t="inlineStr">
@@ -12554,19 +12642,19 @@
       </c>
       <c r="D235" s="19" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B236" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C236" s="7" t="inlineStr">
@@ -12576,14 +12664,14 @@
       </c>
       <c r="D236" s="19" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B237" s="6" t="inlineStr">
@@ -12598,7 +12686,7 @@
       </c>
       <c r="D237" s="8" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
@@ -12610,83 +12698,83 @@
       </c>
       <c r="B238" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D238" s="19" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B239" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D239" s="19" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B240" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D240" s="19" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B241" s="6" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588, maa://64079</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
@@ -12698,29 +12786,29 @@
       </c>
       <c r="B242" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://62759</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, maa://64079, *maa://65726</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B243" s="6" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
@@ -12730,19 +12818,19 @@
       </c>
       <c r="D243" s="19" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://62759</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B244" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
@@ -12752,19 +12840,19 @@
       </c>
       <c r="D244" s="8" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B245" s="6" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
@@ -12774,7 +12862,7 @@
       </c>
       <c r="D245" s="19" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
@@ -12786,51 +12874,51 @@
       </c>
       <c r="B246" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D246" s="19" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B247" s="6" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D247" s="19" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://20867, maa://38485</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B248" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
@@ -12840,19 +12928,19 @@
       </c>
       <c r="D248" s="19" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B249" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
@@ -12862,29 +12950,29 @@
       </c>
       <c r="D249" s="8" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B250" s="6" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D250" s="19" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
@@ -12896,51 +12984,51 @@
       </c>
       <c r="B251" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, *maa://60678, maa://42225</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B252" s="6" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D252" s="19" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://42287, maa://45570, *maa://60678, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B253" s="6" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
@@ -12950,7 +13038,7 @@
       </c>
       <c r="D253" s="19" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
@@ -12962,39 +13050,39 @@
       </c>
       <c r="B254" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>maa://31559, maa://24093, maa://20924</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B255" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D255" s="19" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://31559, maa://24093, maa://20924</t>
         </is>
       </c>
     </row>
@@ -13006,29 +13094,29 @@
       </c>
       <c r="B256" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D256" s="19" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B257" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C257" s="7" t="inlineStr">
@@ -13038,7 +13126,7 @@
       </c>
       <c r="D257" s="19" t="inlineStr">
         <is>
-          <t>maa://20877</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
@@ -13050,51 +13138,51 @@
       </c>
       <c r="B258" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C258" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D258" s="19" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://20877</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B259" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C259" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D259" s="19" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B260" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C260" s="7" t="inlineStr">
@@ -13104,29 +13192,29 @@
       </c>
       <c r="D260" s="19" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B261" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C261" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D261" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
@@ -13138,17 +13226,17 @@
       </c>
       <c r="B262" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D262" s="19" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13248,7 @@
       </c>
       <c r="B263" s="6" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
@@ -13170,19 +13258,19 @@
       </c>
       <c r="D263" s="19" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B264" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
@@ -13192,19 +13280,19 @@
       </c>
       <c r="D264" s="19" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B265" s="6" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
@@ -13214,19 +13302,19 @@
       </c>
       <c r="D265" s="19" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B266" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
@@ -13236,7 +13324,7 @@
       </c>
       <c r="D266" s="19" t="inlineStr">
         <is>
-          <t>maa://59682</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13336,7 @@
       </c>
       <c r="B267" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>MB-EX-1</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
@@ -13258,63 +13346,63 @@
       </c>
       <c r="D267" s="19" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://59682</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B268" s="6" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D268" s="19" t="inlineStr">
         <is>
-          <t>*maa://30678, maa://59689</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B269" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D269" s="19" t="inlineStr">
         <is>
-          <t>maa://49643</t>
+          <t>*maa://30678, maa://59689</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B270" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
@@ -13324,7 +13412,7 @@
       </c>
       <c r="D270" s="19" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
@@ -13336,39 +13424,39 @@
       </c>
       <c r="B271" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D271" s="19" t="inlineStr">
         <is>
-          <t>maa://20825, maa://21445, *maa://35726</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B272" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D272" s="19" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://20825, maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
@@ -13380,7 +13468,7 @@
       </c>
       <c r="B273" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
@@ -13390,19 +13478,19 @@
       </c>
       <c r="D273" s="19" t="inlineStr">
         <is>
-          <t>maa://62757</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B274" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
@@ -13412,63 +13500,63 @@
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>maa://62757</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B275" s="6" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D275" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://56588, *maa://51893</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B276" s="6" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C276" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D276" s="19" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://51893</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B277" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
@@ -13478,19 +13566,19 @@
       </c>
       <c r="D277" s="19" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B278" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
@@ -13500,19 +13588,19 @@
       </c>
       <c r="D278" s="19" t="inlineStr">
         <is>
-          <t>maa://20939</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B279" s="6" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
@@ -13522,29 +13610,29 @@
       </c>
       <c r="D279" s="19" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://20939</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B280" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D280" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
@@ -13556,29 +13644,29 @@
       </c>
       <c r="B281" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D281" s="19" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B282" s="6" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
@@ -13588,19 +13676,19 @@
       </c>
       <c r="D282" s="19" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B283" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
@@ -13610,19 +13698,19 @@
       </c>
       <c r="D283" s="19" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B284" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C284" s="7" t="inlineStr">
@@ -13632,19 +13720,19 @@
       </c>
       <c r="D284" s="19" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B285" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C285" s="7" t="inlineStr">
@@ -13654,7 +13742,7 @@
       </c>
       <c r="D285" s="19" t="inlineStr">
         <is>
-          <t>maa://39165</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
@@ -13666,39 +13754,39 @@
       </c>
       <c r="B286" s="6" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C286" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D286" s="19" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://39165</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B287" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C287" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D287" s="19" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
@@ -13710,7 +13798,7 @@
       </c>
       <c r="B288" s="6" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C288" s="7" t="inlineStr">
@@ -13720,63 +13808,63 @@
       </c>
       <c r="D288" s="19" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B289" s="6" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C289" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D289" s="19" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B290" s="6" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D290" s="19" t="inlineStr">
         <is>
-          <t>maa://53353</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B291" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
@@ -13786,63 +13874,63 @@
       </c>
       <c r="D291" s="19" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://53353</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B292" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D292" s="19" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B293" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D293" s="19" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B294" s="6" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
@@ -13852,29 +13940,29 @@
       </c>
       <c r="D294" s="19" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B295" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D295" s="19" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
@@ -13886,39 +13974,39 @@
       </c>
       <c r="B296" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D296" s="19" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://25774, maa://28133, maa://22469</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B297" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, maa://39155, *maa://32505</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
@@ -13930,139 +14018,139 @@
       </c>
       <c r="B298" s="6" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D298" s="19" t="inlineStr">
         <is>
-          <t>maa://45799, maa://57199</t>
+          <t>maa://32414, maa://39155, *maa://32505</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B299" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D299" s="19" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://45799, maa://57199</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B300" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D300" s="19" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B301" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D301" s="19" t="inlineStr">
         <is>
-          <t>maa://39167</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B302" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D302" s="19" t="inlineStr">
         <is>
-          <t>maa://29005, *maa://31560</t>
+          <t>maa://39167</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B303" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D303" s="19" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://29005, *maa://31560</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B304" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
@@ -14072,19 +14160,19 @@
       </c>
       <c r="D304" s="19" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B305" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C305" s="7" t="inlineStr">
@@ -14094,63 +14182,63 @@
       </c>
       <c r="D305" s="19" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B306" s="6" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C306" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D306" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B307" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C307" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D307" s="19" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B308" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C308" s="7" t="inlineStr">
@@ -14160,7 +14248,7 @@
       </c>
       <c r="D308" s="19" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
@@ -14172,7 +14260,7 @@
       </c>
       <c r="B309" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C309" s="7" t="inlineStr">
@@ -14182,19 +14270,19 @@
       </c>
       <c r="D309" s="19" t="inlineStr">
         <is>
-          <t>maa://53352</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B310" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
@@ -14204,7 +14292,7 @@
       </c>
       <c r="D310" s="19" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://53352</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14304,7 @@
       </c>
       <c r="B311" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
@@ -14226,19 +14314,19 @@
       </c>
       <c r="D311" s="19" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B312" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
@@ -14248,7 +14336,7 @@
       </c>
       <c r="D312" s="19" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
@@ -14260,7 +14348,7 @@
       </c>
       <c r="B313" s="6" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
@@ -14270,19 +14358,19 @@
       </c>
       <c r="D313" s="19" t="inlineStr">
         <is>
-          <t>maa://53348</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B314" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
@@ -14292,19 +14380,19 @@
       </c>
       <c r="D314" s="19" t="inlineStr">
         <is>
-          <t>maa://39172</t>
+          <t>maa://53348</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B315" s="6" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
@@ -14314,63 +14402,63 @@
       </c>
       <c r="D315" s="19" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://39172</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B316" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D316" s="19" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B317" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D317" s="19" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B318" s="6" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
@@ -14380,7 +14468,7 @@
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
@@ -14392,51 +14480,51 @@
       </c>
       <c r="B319" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>*maa://62755, maa://62761</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B320" s="6" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D320" s="19" t="inlineStr">
         <is>
-          <t>maa://43090</t>
+          <t>*maa://62755, maa://62761</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B321" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
@@ -14446,19 +14534,19 @@
       </c>
       <c r="D321" s="19" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://43090</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B322" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
@@ -14468,19 +14556,19 @@
       </c>
       <c r="D322" s="19" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B323" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
@@ -14490,7 +14578,7 @@
       </c>
       <c r="D323" s="19" t="inlineStr">
         <is>
-          <t>maa://25773</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
@@ -14502,7 +14590,7 @@
       </c>
       <c r="B324" s="6" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C324" s="7" t="inlineStr">
@@ -14512,63 +14600,63 @@
       </c>
       <c r="D324" s="19" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://25773</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B325" s="6" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D325" s="19" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B326" s="6" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D326" s="19" t="inlineStr">
         <is>
-          <t>maa://39174</t>
+          <t>maa://39692, *maa://39810</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B327" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
@@ -14578,63 +14666,63 @@
       </c>
       <c r="D327" s="19" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://39174</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B328" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="19" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B329" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D329" s="19" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://34867, maa://34715</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B330" s="6" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
@@ -14644,19 +14732,19 @@
       </c>
       <c r="D330" s="19" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B331" s="6" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
@@ -14666,19 +14754,19 @@
       </c>
       <c r="D331" s="8" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B332" s="6" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
@@ -14688,73 +14776,73 @@
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
         <is>
-          <t>折光</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B333" s="6" t="inlineStr">
         <is>
-          <t>6-1</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>折光</t>
         </is>
       </c>
       <c r="B334" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>6-1</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>maa://59688</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B335" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C335" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D335" s="8" t="inlineStr">
         <is>
-          <t>maa://34205, **maa://39541</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14854,7 @@
       </c>
       <c r="B336" s="6" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C336" s="7" t="inlineStr">
@@ -14776,85 +14864,85 @@
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://34205, **maa://39541</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C337" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B338" s="6" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C338" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D338" s="5" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B339" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C339" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://40162</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B340" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>ZT-8</t>
         </is>
       </c>
       <c r="C340" s="7" t="inlineStr">
@@ -14864,129 +14952,129 @@
       </c>
       <c r="D340" s="5" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://67275</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B341" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C341" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" s="5" t="inlineStr">
         <is>
-          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
+          <t>maa://40162</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr">
         <is>
-          <t>温米</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B342" s="6" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D342" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B343" s="6" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D343" s="5" t="inlineStr">
         <is>
-          <t>maa://38295, maa://49332</t>
+          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>温米</t>
         </is>
       </c>
       <c r="B344" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B345" s="6" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://38295, *maa://49332</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B346" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
@@ -14996,19 +15084,19 @@
       </c>
       <c r="D346" s="5" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B347" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
@@ -15018,41 +15106,41 @@
       </c>
       <c r="D347" s="5" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B348" s="6" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B349" s="6" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
@@ -15062,41 +15150,41 @@
       </c>
       <c r="D349" s="5" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B350" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B351" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
@@ -15106,19 +15194,19 @@
       </c>
       <c r="D351" s="5" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B352" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
@@ -15128,41 +15216,41 @@
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B353" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D353" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B354" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
@@ -15172,19 +15260,19 @@
       </c>
       <c r="D354" s="5" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B355" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
@@ -15194,19 +15282,19 @@
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, *maa://45833</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B356" s="6" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
@@ -15216,217 +15304,217 @@
       </c>
       <c r="D356" s="5" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B357" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C357" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://45834, *maa://45833</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B358" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C358" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D358" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B359" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C359" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D359" s="5" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B360" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://49696, maa://49695, maa://49758</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B361" s="6" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C361" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B362" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B363" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C363" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D363" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B364" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B365" s="6" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D365" s="5" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B366" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
@@ -15436,41 +15524,41 @@
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://42635</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B367" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C367" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://48026, maa://44635, maa://41035, maa://44660, *maa://60251, *maa://41128</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B368" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
@@ -15480,41 +15568,41 @@
       </c>
       <c r="D368" s="5" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
         <is>
-          <t>妮芙</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B369" s="6" t="inlineStr">
         <is>
-          <t>14-7</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://63883, maa://64045</t>
+          <t>maa://40957, maa://48026, maa://44635, maa://41035, maa://44660, *maa://60251, *maa://41128</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B370" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
@@ -15524,41 +15612,41 @@
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>妮芙</t>
         </is>
       </c>
       <c r="B371" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>14-7</t>
         </is>
       </c>
       <c r="C371" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://63883, maa://64045</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B372" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C372" s="7" t="inlineStr">
@@ -15568,19 +15656,19 @@
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B373" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C373" s="7" t="inlineStr">
@@ -15590,41 +15678,41 @@
       </c>
       <c r="D373" s="5" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B374" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C374" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, *maa://50518, *maa://41977</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B375" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C375" s="7" t="inlineStr">
@@ -15634,41 +15722,41 @@
       </c>
       <c r="D375" s="5" t="inlineStr">
         <is>
-          <t>maa://42338</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B376" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C376" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D376" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, *maa://45605</t>
+          <t>maa://42333, *maa://50518, *maa://41977</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B377" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C377" s="7" t="inlineStr">
@@ -15678,63 +15766,63 @@
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://42338</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B378" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C378" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://41110, *maa://45605</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B379" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C379" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D379" s="5" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B380" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C380" s="7" t="inlineStr">
@@ -15744,41 +15832,41 @@
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B381" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D381" s="5" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
@@ -15788,19 +15876,19 @@
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://53307</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
@@ -15810,41 +15898,41 @@
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>*maa://42970, maa://44745</t>
+          <t>maa://53307</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
@@ -15854,41 +15942,41 @@
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>*maa://42970, maa://44745</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B387" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C387" s="7" t="inlineStr">
@@ -15898,19 +15986,19 @@
       </c>
       <c r="D387" s="5" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B388" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C388" s="7" t="inlineStr">
@@ -15920,19 +16008,19 @@
       </c>
       <c r="D388" s="5" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B389" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C389" s="7" t="inlineStr">
@@ -15942,19 +16030,19 @@
       </c>
       <c r="D389" s="5" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="inlineStr">
         <is>
-          <t>烛煌</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B390" s="6" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C390" s="7" t="inlineStr">
@@ -15964,41 +16052,41 @@
       </c>
       <c r="D390" s="5" t="inlineStr">
         <is>
-          <t>maa://63890</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B391" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C391" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D391" s="5" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>烛煌</t>
         </is>
       </c>
       <c r="B392" s="6" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="C392" s="7" t="inlineStr">
@@ -16008,107 +16096,107 @@
       </c>
       <c r="D392" s="5" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://63890</t>
         </is>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="13" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B393" s="20" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C393" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="13" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B394" s="20" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C394" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://59533, *maa://59577</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="13" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B395" s="13" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C395" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://51907, maa://51908</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="13" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B396" s="13" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C396" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>maa://59691</t>
+          <t>maa://59533, maa://59577</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="13" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B397" s="13" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C397" s="13" t="inlineStr">
@@ -16118,107 +16206,107 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>maa://51907, maa://51908</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="13" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B398" s="13" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C398" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>maa://51880, maa://56651, maa://51878</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="13" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B399" s="13" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C399" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="13" t="inlineStr">
         <is>
-          <t>Miss.Christine</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B400" s="13" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C400" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://51880, maa://56651, maa://51878</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="13" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B401" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C401" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://60449, maa://59493</t>
+          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="13" t="inlineStr">
         <is>
-          <t>录武官</t>
+          <t>Miss.Christine</t>
         </is>
       </c>
       <c r="B402" s="13" t="inlineStr">
         <is>
-          <t>HS-5</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C402" s="13" t="inlineStr">
@@ -16235,34 +16323,34 @@
     <row r="403">
       <c r="A403" s="13" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B403" s="13" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C403" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>maa://62756</t>
+          <t>maa://60449, maa://59493</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="13" t="inlineStr">
         <is>
-          <t>吉星</t>
+          <t>录武官</t>
         </is>
       </c>
       <c r="B404" s="13" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>HS-5</t>
         </is>
       </c>
       <c r="C404" s="13" t="inlineStr">
@@ -16279,22 +16367,176 @@
     <row r="405">
       <c r="A405" s="13" t="inlineStr">
         <is>
+          <t>司霆惊蛰</t>
+        </is>
+      </c>
+      <c r="B405" s="13" t="inlineStr">
+        <is>
+          <t>DV-7</t>
+        </is>
+      </c>
+      <c r="C405" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>maa://62756</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="13" t="inlineStr">
+        <is>
+          <t>吉星</t>
+        </is>
+      </c>
+      <c r="B406" s="13" t="inlineStr">
+        <is>
+          <t>S5-9</t>
+        </is>
+      </c>
+      <c r="C406" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="13" t="inlineStr">
+        <is>
           <t>遥</t>
         </is>
       </c>
-      <c r="B405" s="13" t="inlineStr">
+      <c r="B407" s="13" t="inlineStr">
         <is>
           <t>7-14</t>
         </is>
       </c>
-      <c r="C405" s="13" t="inlineStr">
+      <c r="C407" s="13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D405" t="inlineStr">
+      <c r="D407" t="inlineStr">
         <is>
           <t>maa://64040, *maa://66377</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="13" t="inlineStr">
+        <is>
+          <t>祐天寺若麦</t>
+        </is>
+      </c>
+      <c r="B408" s="13" t="inlineStr">
+        <is>
+          <t>ZT-4</t>
+        </is>
+      </c>
+      <c r="C408" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>maa://67090</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="13" t="inlineStr">
+        <is>
+          <t>八幡海铃</t>
+        </is>
+      </c>
+      <c r="B409" s="13" t="inlineStr">
+        <is>
+          <t>BB-7</t>
+        </is>
+      </c>
+      <c r="C409" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>maa://67388</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="13" t="inlineStr">
+        <is>
+          <t>若叶睦</t>
+        </is>
+      </c>
+      <c r="B410" s="13" t="inlineStr">
+        <is>
+          <t>13-16</t>
+        </is>
+      </c>
+      <c r="C410" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>maa://67089</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="13" t="inlineStr">
+        <is>
+          <t>三角初华</t>
+        </is>
+      </c>
+      <c r="B411" s="13" t="inlineStr">
+        <is>
+          <t>ZT-6</t>
+        </is>
+      </c>
+      <c r="C411" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>maa://67088</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="13" t="inlineStr">
+        <is>
+          <t>丰川祥子</t>
+        </is>
+      </c>
+      <c r="B412" s="13" t="inlineStr">
+        <is>
+          <t>IS-7</t>
+        </is>
+      </c>
+      <c r="C412" s="13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>maa://67087, maa://67268, *maa://67269</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="T3" s="18" t="inlineStr">
         <is>
-          <t>maa://45854, maa://60545, maa://24617</t>
+          <t>*maa://45854, maa://60545, maa://24617</t>
         </is>
       </c>
       <c r="U3" s="15" t="n"/>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="T4" s="18" t="inlineStr">
         <is>
-          <t>maa://32509, maa://27295, maa://31008, maa://22754</t>
+          <t>maa://27295, maa://32509, maa://31008, maa://22754</t>
         </is>
       </c>
       <c r="U4" s="15" t="n"/>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="G7" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>maa://64972</t>
+          <t>*maa://22763, maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.06 13:18:41</t>
+          <t>更新日期：2025.09.08 13:20:19</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D8" s="18" t="inlineStr">
         <is>
-          <t>maa://21476, **maa://39431, **maa://37551</t>
+          <t>maa://21476, **maa://39431, ***maa://37551</t>
         </is>
       </c>
       <c r="E8" s="15" t="n"/>
@@ -1544,12 +1544,12 @@
       </c>
       <c r="W8" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X8" s="18" t="inlineStr">
         <is>
-          <t>maa://21411</t>
+          <t>maa://21411, *maa://67587</t>
         </is>
       </c>
       <c r="Y8" s="15" t="n"/>
@@ -1610,12 +1610,12 @@
       </c>
       <c r="G9" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H9" s="18" t="inlineStr">
         <is>
-          <t>maa://56348</t>
+          <t>*maa://47450, maa://56348</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="P9" s="18" t="inlineStr">
         <is>
-          <t>maa://22736, maa://64516</t>
+          <t>maa://64516, *maa://22736</t>
         </is>
       </c>
       <c r="Q9" s="15" t="n"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, *maa://63521</t>
+          <t>maa://27395, maa://22755, maa://63521</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="AF10" s="18" t="inlineStr">
         <is>
-          <t>maa://25021, maa://22733</t>
+          <t>*maa://25021, maa://22733</t>
         </is>
       </c>
       <c r="AG10" s="12" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="AB11" s="18" t="inlineStr">
         <is>
-          <t>maa://29912, maa://22516</t>
+          <t>maa://29912, *maa://22516</t>
         </is>
       </c>
       <c r="AC11" s="15" t="n"/>
@@ -2096,12 +2096,12 @@
       </c>
       <c r="AE12" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF12" s="18" t="inlineStr">
         <is>
-          <t>maa://28932, *maa://20106, *maa://22769</t>
+          <t>maa://28932</t>
         </is>
       </c>
       <c r="AG12" s="12" t="n"/>
@@ -2162,12 +2162,12 @@
       </c>
       <c r="O13" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P13" s="18" t="inlineStr">
         <is>
-          <t>maa://48321, maa://22676, *maa://22583</t>
+          <t>maa://22676, maa://22583</t>
         </is>
       </c>
       <c r="Q13" s="15" t="n"/>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="AE13" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF13" s="18" t="inlineStr">
         <is>
-          <t>maa://39883, **maa://39885</t>
+          <t>maa://39883</t>
         </is>
       </c>
       <c r="AG13" s="12" t="n"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="T16" s="18" t="inlineStr">
         <is>
-          <t>maa://22729, maa://36674, *maa://28648</t>
+          <t>maa://36674, maa://22729, *maa://28648</t>
         </is>
       </c>
       <c r="U16" s="15" t="n"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="AE16" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF16" s="18" t="inlineStr">
         <is>
-          <t>maa://23911, maa://27755</t>
+          <t>maa://23911, maa://27755, *maa://67613</t>
         </is>
       </c>
       <c r="AG16" s="12" t="n"/>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="L19" s="18" t="inlineStr">
         <is>
-          <t>maa://39347, ***maa://56392</t>
+          <t>maa://39347, *maa://56392</t>
         </is>
       </c>
       <c r="M19" s="15" t="n"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="AF19" s="18" t="inlineStr">
         <is>
-          <t>maa://21663, *maa://52239</t>
+          <t>maa://21663, maa://52239</t>
         </is>
       </c>
       <c r="AG19" s="12" t="n"/>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="AB21" s="18" t="inlineStr">
         <is>
-          <t>maa://21443, *maa://52223</t>
+          <t>maa://21443, maa://52223</t>
         </is>
       </c>
       <c r="AC21" s="15" t="n"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="D23" s="18" t="inlineStr">
         <is>
-          <t>*maa://28036, maa://41753</t>
+          <t>**maa://28036, maa://41753</t>
         </is>
       </c>
       <c r="E23" s="15" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="AF24" s="18" t="inlineStr">
         <is>
-          <t>*maa://22523, maa://64165, maa://29910, maa://45831</t>
+          <t>maa://64165, *maa://22523, maa://29910, maa://45831</t>
         </is>
       </c>
       <c r="AG24" s="12" t="n"/>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="AB25" s="18" t="inlineStr">
         <is>
-          <t>maa://31215, maa://24516, maa://26001</t>
+          <t>maa://31215, *maa://24516, maa://26001</t>
         </is>
       </c>
       <c r="AC25" s="15" t="n"/>
@@ -3836,12 +3836,12 @@
       </c>
       <c r="K26" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L26" s="18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67563</t>
         </is>
       </c>
       <c r="M26" s="15" t="n"/>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="H27" s="18" t="inlineStr">
         <is>
-          <t>*maa://39601, maa://34494</t>
+          <t>maa://39601, maa://34494</t>
         </is>
       </c>
       <c r="I27" s="15" t="n"/>
@@ -5464,12 +5464,12 @@
       </c>
       <c r="G39" s="15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H39" s="18" t="inlineStr">
         <is>
-          <t>maa://36670, maa://25199, maa://30434, *maa://45059, **maa://44165</t>
+          <t>maa://25199, maa://30434, *maa://45059, **maa://44165</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="P39" s="18" t="inlineStr">
         <is>
-          <t>maa://24709, maa://47093</t>
+          <t>maa://47093, maa://24709</t>
         </is>
       </c>
       <c r="Q39" s="15" t="n"/>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, *maa://45790</t>
+          <t>maa://47079, maa://45790</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.06 13:18:41</t>
+          <t>更新日期：2025.09.08 13:20:19</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -15519,12 +15519,12 @@
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://42635</t>
+          <t>maa://42635, *maa://50629</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://48026, maa://44635, maa://41035, maa://44660, *maa://60251, *maa://41128</t>
+          <t>maa://40957, maa://48026, maa://44635, maa://41035, *maa://60251, maa://44660, *maa://41128</t>
         </is>
       </c>
     </row>
@@ -16421,12 +16421,12 @@
       </c>
       <c r="C407" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>maa://64040, *maa://66377</t>
+          <t>maa://64040, maa://52505, *maa://66377</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="C410" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>maa://67089</t>
+          <t>maa://67089, *maa://67271</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16536,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>maa://67087, maa://67268, *maa://67269</t>
+          <t>maa://67087, maa://67268, maa://67269</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1311,12 +1311,12 @@
       </c>
       <c r="AE6" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF6" s="18" t="inlineStr">
         <is>
-          <t>maa://33152, ***maa://22770</t>
+          <t>maa://33152</t>
         </is>
       </c>
       <c r="AG6" s="12" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.08 13:20:19</t>
+          <t>更新日期：2025.09.08 23:48:05</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="X8" s="18" t="inlineStr">
         <is>
-          <t>maa://21411, *maa://67587</t>
+          <t>maa://21411, maa://67587</t>
         </is>
       </c>
       <c r="Y8" s="15" t="n"/>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="AF10" s="18" t="inlineStr">
         <is>
-          <t>*maa://25021, maa://22733</t>
+          <t>maa://25021, maa://22733</t>
         </is>
       </c>
       <c r="AG10" s="12" t="n"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="P23" s="18" t="inlineStr">
         <is>
-          <t>maa://30587, *maa://29748, *maa://37566</t>
+          <t>maa://30587, maa://29748, *maa://37566</t>
         </is>
       </c>
       <c r="Q23" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.08 13:20:19</t>
+          <t>更新日期：2025.09.08 23:48:05</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -16536,7 +16536,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>maa://67087, maa://67268, maa://67269</t>
+          <t>maa://67087, maa://67268, *maa://67269</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="L2" s="18" t="inlineStr">
         <is>
-          <t>maa://39402, maa://58660, *maa://34787</t>
+          <t>maa://58660, maa://39402, *maa://34787</t>
         </is>
       </c>
       <c r="M2" s="15" t="n"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="T3" s="18" t="inlineStr">
         <is>
-          <t>*maa://45854, maa://60545, maa://24617</t>
+          <t>maa://45854, maa://60545, maa://24617</t>
         </is>
       </c>
       <c r="U3" s="15" t="n"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="AB5" s="18" t="inlineStr">
         <is>
-          <t>maa://29863, **maa://26013</t>
+          <t>maa://29863, ***maa://26013</t>
         </is>
       </c>
       <c r="AC5" s="15" t="n"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>*maa://22763, maa://64972</t>
+          <t>maa://22763, maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.08 23:48:05</t>
+          <t>更新日期：2025.09.10 13:19:23</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="X12" s="18" t="inlineStr">
         <is>
-          <t>*maa://21485, maa://37962, maa://22753</t>
+          <t>maa://37962, *maa://21485, maa://22753</t>
         </is>
       </c>
       <c r="Y12" s="15" t="n"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="L14" s="18" t="inlineStr">
         <is>
-          <t>maa://39841, maa://26245, maa://21288, maa://36682</t>
+          <t>maa://39841, maa://26245, maa://36682, maa://21288</t>
         </is>
       </c>
       <c r="M14" s="15" t="n"/>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="X15" s="18" t="inlineStr">
         <is>
-          <t>maa://38786, maa://56102</t>
+          <t>maa://38786, *maa://56102</t>
         </is>
       </c>
       <c r="Y15" s="15" t="n"/>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="AF16" s="18" t="inlineStr">
         <is>
-          <t>maa://23911, maa://27755, *maa://67613</t>
+          <t>maa://23911, maa://27755, maa://67613</t>
         </is>
       </c>
       <c r="AG16" s="12" t="n"/>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="P23" s="18" t="inlineStr">
         <is>
-          <t>maa://30587, maa://29748, *maa://37566</t>
+          <t>maa://30587, *maa://29748, *maa://37566</t>
         </is>
       </c>
       <c r="Q23" s="15" t="n"/>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="AB30" s="18" t="inlineStr">
         <is>
-          <t>maa://42979, maa://45822, **maa://45045</t>
+          <t>maa://42979, maa://45822, *maa://45045</t>
         </is>
       </c>
       <c r="AC30" s="15" t="n"/>
@@ -4714,12 +4714,12 @@
       </c>
       <c r="C33" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D33" s="18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67752</t>
         </is>
       </c>
       <c r="E33" s="15" t="n"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H39" s="18" t="inlineStr">
         <is>
-          <t>maa://25199, maa://30434, *maa://45059, **maa://44165</t>
+          <t>maa://25199, maa://30434, maa://45059, **maa://44165</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -6988,12 +6988,12 @@
       </c>
       <c r="G75" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67748</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.08 23:48:05</t>
+          <t>更新日期：2025.09.10 13:19:23</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="D2" s="18" t="inlineStr">
         <is>
-          <t>maa://25390, maa://24702, maa://36681</t>
+          <t>maa://25390, maa://24702, *maa://36681</t>
         </is>
       </c>
       <c r="E2" s="15" t="n"/>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="P6" s="18" t="inlineStr">
         <is>
-          <t>maa://31836, maa://30381</t>
+          <t>maa://31836, *maa://30381</t>
         </is>
       </c>
       <c r="Q6" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.10 13:19:23</t>
+          <t>更新日期：2025.09.15 13:24:29</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="O10" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P10" s="18" t="inlineStr">
         <is>
-          <t>maa://28977, *maa://36669, *maa://23264</t>
+          <t>maa://28977, *maa://36669</t>
         </is>
       </c>
       <c r="Q10" s="15" t="n"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="X10" s="18" t="inlineStr">
         <is>
-          <t>maa://45828, maa://22301, maa://22726</t>
+          <t>maa://45828, maa://22301, *maa://22726</t>
         </is>
       </c>
       <c r="Y10" s="15" t="n"/>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="AE15" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF15" s="18" t="inlineStr">
         <is>
-          <t>maa://36666, maa://21364</t>
+          <t>maa://36666, maa://21364, *maa://22766</t>
         </is>
       </c>
       <c r="AG15" s="12" t="n"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D17" s="18" t="inlineStr">
         <is>
-          <t>maa://21624, *maa://56358</t>
+          <t>maa://21624, maa://56358</t>
         </is>
       </c>
       <c r="E17" s="15" t="n"/>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="AE18" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF18" s="18" t="inlineStr">
         <is>
-          <t>maa://47854, *maa://24313</t>
+          <t>maa://47854</t>
         </is>
       </c>
       <c r="AG18" s="12" t="n"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="X24" s="18" t="inlineStr">
         <is>
-          <t>maa://29988, maa://23504, *maa://25141, *maa://36663, maa://52227</t>
+          <t>maa://29988, maa://23504, *maa://25141, maa://52227, *maa://36663</t>
         </is>
       </c>
       <c r="Y24" s="15" t="n"/>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="AB25" s="18" t="inlineStr">
         <is>
-          <t>maa://31215, *maa://24516, maa://26001</t>
+          <t>maa://31215, *maa://24516, *maa://26001</t>
         </is>
       </c>
       <c r="AC25" s="15" t="n"/>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="AE29" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF29" s="18" t="inlineStr">
         <is>
-          <t>maa://42865, *maa://24080</t>
+          <t>maa://42865</t>
         </is>
       </c>
       <c r="AG29" s="12" t="n"/>
@@ -4372,12 +4372,12 @@
       </c>
       <c r="O30" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P30" s="18" t="inlineStr">
         <is>
-          <t>maa://21442, maa://66611</t>
+          <t>maa://21442, maa://66611, **maa://68394</t>
         </is>
       </c>
       <c r="Q30" s="15" t="n"/>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="P32" s="18" t="inlineStr">
         <is>
-          <t>maa://26203, *maa://56429</t>
+          <t>maa://26203, maa://56429</t>
         </is>
       </c>
       <c r="Q32" s="15" t="n"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H39" s="18" t="inlineStr">
         <is>
-          <t>maa://25199, maa://30434, maa://45059, **maa://44165</t>
+          <t>maa://25199, maa://30434, maa://45059, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="P40" s="18" t="inlineStr">
         <is>
-          <t>maa://23278, maa://21386, maa://36664, *maa://45550</t>
+          <t>maa://23278, maa://21386, maa://36664, **maa://45550</t>
         </is>
       </c>
       <c r="Q40" s="15" t="n"/>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="T41" s="18" t="inlineStr">
         <is>
-          <t>maa://66727, *maa://66675</t>
+          <t>maa://66727, **maa://66675</t>
         </is>
       </c>
       <c r="U41" s="15" t="n"/>
@@ -6219,12 +6219,12 @@
       </c>
       <c r="S47" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T47" s="18" t="inlineStr">
         <is>
-          <t>maa://67476</t>
+          <t>maa://67476, **maa://68392</t>
         </is>
       </c>
       <c r="U47" s="15" t="n"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="H57" s="18" t="inlineStr">
         <is>
-          <t>maa://25176, maa://56237</t>
+          <t>maa://56237, maa://25176</t>
         </is>
       </c>
       <c r="I57" s="15" t="n"/>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="H62" s="18" t="inlineStr">
         <is>
-          <t>maa://42981, maa://43903, maa://56228</t>
+          <t>maa://42981, maa://56228, maa://43903</t>
         </is>
       </c>
       <c r="I62" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.10 13:19:23</t>
+          <t>更新日期：2025.09.15 13:24:29</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8171,12 +8171,12 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://20960, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://20960, *maa://20843, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, *maa://61380</t>
+          <t>maa://30670, maa://31470, maa://61380</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://42918, maa://46108, maa://44119, *maa://37300, *maa://64408</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://37300, *maa://64408</t>
         </is>
       </c>
     </row>
@@ -12329,12 +12329,12 @@
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D221" s="19" t="inlineStr">
         <is>
-          <t>maa://20995</t>
+          <t>*maa://26496, maa://20995</t>
         </is>
       </c>
     </row>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588, maa://64079, *maa://65726</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726</t>
         </is>
       </c>
     </row>
@@ -13495,12 +13495,12 @@
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>maa://62757</t>
+          <t>*maa://62757, maa://67819</t>
         </is>
       </c>
     </row>
@@ -14815,12 +14815,12 @@
       </c>
       <c r="C334" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67818</t>
         </is>
       </c>
     </row>
@@ -15035,12 +15035,12 @@
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67817</t>
         </is>
       </c>
     </row>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://47175, maa://47174</t>
+          <t>*maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
@@ -16311,12 +16311,12 @@
       </c>
       <c r="C402" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67814</t>
         </is>
       </c>
     </row>
@@ -16355,12 +16355,12 @@
       </c>
       <c r="C404" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67815</t>
         </is>
       </c>
     </row>
@@ -16399,12 +16399,12 @@
       </c>
       <c r="C406" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67816</t>
         </is>
       </c>
     </row>
@@ -16531,12 +16531,12 @@
       </c>
       <c r="C412" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>maa://67087, maa://67268, *maa://67269</t>
+          <t>maa://67087, maa://67268, *maa://67269, *maa://67648</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.15 13:24:29</t>
+          <t>更新日期：2025.09.17 13:21:49</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="AE15" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF15" s="18" t="inlineStr">
         <is>
-          <t>maa://36666, maa://21364, *maa://22766</t>
+          <t>maa://36666, maa://21364, *maa://22766, **maa://68306</t>
         </is>
       </c>
       <c r="AG15" s="12" t="n"/>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="AF19" s="18" t="inlineStr">
         <is>
-          <t>maa://21663, maa://52239</t>
+          <t>*maa://21663, maa://52239</t>
         </is>
       </c>
       <c r="AG19" s="12" t="n"/>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="T23" s="18" t="inlineStr">
         <is>
-          <t>maa://31212, maa://24387, *maa://67084</t>
+          <t>maa://31212, *maa://24387, *maa://67084</t>
         </is>
       </c>
       <c r="U23" s="15" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="K25" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L25" s="18" t="inlineStr">
         <is>
-          <t>maa://24378</t>
+          <t>maa://24378, *maa://68415</t>
         </is>
       </c>
       <c r="M25" s="15" t="n"/>
@@ -3770,12 +3770,12 @@
       </c>
       <c r="AA25" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AB25" s="18" t="inlineStr">
         <is>
-          <t>maa://31215, *maa://24516, *maa://26001</t>
+          <t>maa://31215, *maa://24516, *maa://26001, *maa://68311</t>
         </is>
       </c>
       <c r="AC25" s="15" t="n"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="P30" s="18" t="inlineStr">
         <is>
-          <t>maa://21442, maa://66611, **maa://68394</t>
+          <t>maa://21442, maa://66611, maa://68394</t>
         </is>
       </c>
       <c r="Q30" s="15" t="n"/>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="AE38" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF38" s="18" t="inlineStr">
         <is>
-          <t>maa://36697</t>
+          <t>maa://36697, maa://68397</t>
         </is>
       </c>
       <c r="AG38" s="12" t="n"/>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="H39" s="18" t="inlineStr">
         <is>
-          <t>maa://25199, maa://30434, maa://45059, *maa://44165</t>
+          <t>maa://25199, maa://45059, maa://30434, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="T47" s="18" t="inlineStr">
         <is>
-          <t>maa://67476, **maa://68392</t>
+          <t>maa://67476, maa://68392</t>
         </is>
       </c>
       <c r="U47" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.15 13:24:29</t>
+          <t>更新日期：2025.09.17 13:21:49</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://51440, maa://63320</t>
+          <t>maa://32418, maa://63320, maa://51440</t>
         </is>
       </c>
     </row>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="D329" s="19" t="inlineStr">
         <is>
-          <t>maa://34867, maa://34715</t>
+          <t>maa://34715, maa://34867</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.17 13:21:49</t>
+          <t>更新日期：2025.09.20 13:19:46</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="AF15" s="18" t="inlineStr">
         <is>
-          <t>maa://36666, maa://21364, *maa://22766, **maa://68306</t>
+          <t>maa://36666, maa://21364, *maa://22766, *maa://68306</t>
         </is>
       </c>
       <c r="AG15" s="12" t="n"/>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="P17" s="18" t="inlineStr">
         <is>
-          <t>maa://23890, maa://56238</t>
+          <t>*maa://23890, maa://56238</t>
         </is>
       </c>
       <c r="Q17" s="15" t="n"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="D23" s="18" t="inlineStr">
         <is>
-          <t>**maa://28036, maa://41753</t>
+          <t>maa://41753, **maa://28036</t>
         </is>
       </c>
       <c r="E23" s="15" t="n"/>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="AB25" s="18" t="inlineStr">
         <is>
-          <t>maa://31215, *maa://24516, *maa://26001, *maa://68311</t>
+          <t>maa://31215, *maa://24516, *maa://26001, maa://68311</t>
         </is>
       </c>
       <c r="AC25" s="15" t="n"/>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="T43" s="18" t="inlineStr">
         <is>
-          <t>maa://43198, *maa://46286</t>
+          <t>maa://43198, maa://46286</t>
         </is>
       </c>
       <c r="U43" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.17 13:21:49</t>
+          <t>更新日期：2025.09.20 13:19:46</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>maa://36646, maa://25774, maa://35996, maa://22469, *maa://30668, *maa://67286</t>
+          <t>maa://36646, maa://25774, maa://35996, maa://22469, *maa://30668, maa://67286</t>
         </is>
       </c>
     </row>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://37300, *maa://64408</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://64408, *maa://37300</t>
         </is>
       </c>
     </row>
@@ -16201,12 +16201,12 @@
       </c>
       <c r="C397" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://51907, maa://51908</t>
+          <t>maa://51908</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -873,7 +873,7 @@
       </c>
       <c r="T3" s="18" t="inlineStr">
         <is>
-          <t>maa://45854, maa://60545, maa://24617</t>
+          <t>maa://60545, maa://45854, maa://24617</t>
         </is>
       </c>
       <c r="U3" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.20 13:19:46</t>
+          <t>更新日期：2025.09.23 13:20:11</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="O14" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P14" s="18" t="inlineStr">
         <is>
-          <t>maa://23250, *maa://20107, *maa://22772</t>
+          <t>maa://23250, *maa://20107, *maa://22772, **maa://68732</t>
         </is>
       </c>
       <c r="Q14" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.20 13:19:46</t>
+          <t>更新日期：2025.09.23 13:20:11</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -15387,12 +15387,12 @@
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758</t>
+          <t>maa://49696, maa://49695, maa://49758, *maa://52357</t>
         </is>
       </c>
     </row>
@@ -16492,7 +16492,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>maa://67089, *maa://67271</t>
+          <t>maa://67089, maa://67271</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.23 13:20:11</t>
+          <t>更新日期：2025.09.24 13:19:27</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="T23" s="18" t="inlineStr">
         <is>
-          <t>maa://31212, *maa://24387, *maa://67084</t>
+          <t>maa://31212, maa://24387, *maa://67084</t>
         </is>
       </c>
       <c r="U23" s="15" t="n"/>
@@ -4762,12 +4762,12 @@
       </c>
       <c r="O33" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P33" s="18" t="inlineStr">
         <is>
-          <t>maa://21956, *maa://22730</t>
+          <t>maa://21956, *maa://22730, ***maa://69135</t>
         </is>
       </c>
       <c r="Q33" s="15" t="n"/>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="G45" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H45" s="18" t="inlineStr">
         <is>
-          <t>maa://42459, maa://21229, maa://30807</t>
+          <t>maa://42459, maa://21229, maa://30807, *maa://22767</t>
         </is>
       </c>
       <c r="I45" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.23 13:20:11</t>
+          <t>更新日期：2025.09.24 13:19:27</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -12791,12 +12791,12 @@
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726, *maa://68226</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.23 13:20:11</t>
+          <t>更新日期：2025.09.26 13:19:42</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>maa://29063, maa://25311, maa://45047</t>
+          <t>maa://29063, *maa://25311, maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -4762,12 +4762,12 @@
       </c>
       <c r="O33" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P33" s="18" t="inlineStr">
         <is>
-          <t>maa://21956, *maa://22730</t>
+          <t>maa://21956, *maa://22730, *maa://69135</t>
         </is>
       </c>
       <c r="Q33" s="15" t="n"/>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="G45" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H45" s="18" t="inlineStr">
         <is>
-          <t>maa://42459, maa://21229, maa://30807</t>
+          <t>maa://42459, maa://21229, maa://30807, *maa://22767</t>
         </is>
       </c>
       <c r="I45" s="15" t="n"/>
@@ -7134,7 +7134,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.23 13:20:11</t>
+          <t>更新日期：2025.09.26 13:19:42</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -12791,12 +12791,12 @@
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726, *maa://68226</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.26 13:19:42</t>
+          <t>更新日期：2025.10.01 13:20:43</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D8" s="18" t="inlineStr">
         <is>
-          <t>maa://21476, **maa://39431, ***maa://37551</t>
+          <t>maa://21476, *maa://39431, ***maa://37551</t>
         </is>
       </c>
       <c r="E8" s="15" t="n"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="L9" s="18" t="inlineStr">
         <is>
-          <t>maa://22762, *maa://39552</t>
+          <t>maa://22762, maa://39552</t>
         </is>
       </c>
       <c r="M9" s="15" t="n"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="L14" s="18" t="inlineStr">
         <is>
-          <t>maa://39841, maa://26245, maa://36682, maa://21288</t>
+          <t>maa://39841, maa://36682, maa://26245, maa://21288</t>
         </is>
       </c>
       <c r="M14" s="15" t="n"/>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="P14" s="18" t="inlineStr">
         <is>
-          <t>maa://23250, *maa://20107, *maa://22772, **maa://68732</t>
+          <t>maa://23250, *maa://20107, *maa://22772, *maa://68732</t>
         </is>
       </c>
       <c r="Q14" s="15" t="n"/>
@@ -2374,12 +2374,12 @@
       </c>
       <c r="C15" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D15" s="18" t="inlineStr">
         <is>
-          <t>maa://22743, maa://45058, maa://22734, *maa://36048</t>
+          <t>maa://22743, maa://45058, maa://22734, *maa://36048, *maa://69928</t>
         </is>
       </c>
       <c r="E15" s="15" t="n"/>
@@ -6275,11 +6275,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="P48" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="P48" s="18" t="inlineStr"/>
       <c r="Q48" s="15" t="n"/>
       <c r="R48" s="15" t="inlineStr">
         <is>
@@ -7134,7 +7130,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.09.26 13:19:42</t>
+          <t>更新日期：2025.10.01 13:20:43</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -9694,7 +9690,7 @@
       </c>
       <c r="D101" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, maa://20893</t>
+          <t>maa://45572, maa://27794, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -11845,12 +11841,12 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D199" s="19" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://63806</t>
+          <t>maa://39156, *maa://53417, *maa://63806</t>
         </is>
       </c>
     </row>
@@ -13495,12 +13491,12 @@
       </c>
       <c r="C274" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>*maa://62757, maa://67819</t>
+          <t>maa://67819</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.01 13:20:43</t>
+          <t>更新日期：2025.10.03 13:19:12</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" s="18" t="inlineStr">
         <is>
-          <t>maa://21476, *maa://39431, ***maa://37551</t>
+          <t>maa://21476</t>
         </is>
       </c>
       <c r="E8" s="15" t="n"/>
@@ -4762,12 +4762,12 @@
       </c>
       <c r="O33" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P33" s="18" t="inlineStr">
         <is>
-          <t>maa://21956, *maa://22730, *maa://69135</t>
+          <t>maa://21956, maa://69135</t>
         </is>
       </c>
       <c r="Q33" s="15" t="n"/>
@@ -7130,7 +7130,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.01 13:20:43</t>
+          <t>更新日期：2025.10.03 13:19:12</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -13535,12 +13535,12 @@
       </c>
       <c r="C276" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D276" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://56588, *maa://51893</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://51893, *maa://66758</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>maa://22763, maa://64972</t>
+          <t>*maa://22763, maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.03 13:19:12</t>
+          <t>更新日期：2025.10.05 13:18:08</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="P33" s="18" t="inlineStr">
         <is>
-          <t>maa://21956, maa://69135</t>
+          <t>maa://21956, *maa://69135</t>
         </is>
       </c>
       <c r="Q33" s="15" t="n"/>
@@ -5864,12 +5864,12 @@
       </c>
       <c r="G43" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H43" s="18" t="inlineStr">
         <is>
-          <t>*maa://22525, maa://21284</t>
+          <t>maa://21284</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -7130,7 +7130,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.03 13:19:12</t>
+          <t>更新日期：2025.10.05 13:18:08</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="D22" s="19" t="inlineStr">
         <is>
-          <t>maa://20948, maa://30844, *maa://63387</t>
+          <t>maa://20948, maa://30844, maa://63387</t>
         </is>
       </c>
       <c r="F22" s="18" t="n"/>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="D56" s="19" t="inlineStr">
         <is>
-          <t>maa://44235, maa://45604, maa://20961, maa://20910</t>
+          <t>maa://44235, maa://45604, *maa://20961, maa://20910</t>
         </is>
       </c>
     </row>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, maa://20904</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, *maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
@@ -13139,12 +13139,12 @@
       </c>
       <c r="C258" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D258" s="19" t="inlineStr">
         <is>
-          <t>maa://20877</t>
+          <t>maa://20877, *maa://20836</t>
         </is>
       </c>
     </row>
@@ -14217,12 +14217,12 @@
       </c>
       <c r="C307" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D307" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, *maa://50517</t>
+          <t>maa://50280, maa://49642, maa://49660, *maa://50517, *maa://70004</t>
         </is>
       </c>
     </row>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
+          <t>maa://51872, maa://51876, *maa://63228, maa://51873, maa://62047</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -998,12 +998,12 @@
       </c>
       <c r="S4" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="T4" s="18" t="inlineStr">
         <is>
-          <t>maa://27295, maa://32509, maa://31008, maa://22754</t>
+          <t>maa://27295, maa://32509, maa://31008, maa://22754, *maa://70489</t>
         </is>
       </c>
       <c r="U4" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.05 13:18:08</t>
+          <t>更新日期：2025.10.09 13:20:20</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="L9" s="18" t="inlineStr">
         <is>
-          <t>maa://22762, maa://39552</t>
+          <t>maa://22762, *maa://39552</t>
         </is>
       </c>
       <c r="M9" s="15" t="n"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D15" s="18" t="inlineStr">
         <is>
-          <t>maa://22743, maa://45058, maa://22734, *maa://36048, *maa://69928</t>
+          <t>maa://22743, maa://45058, maa://22734, *maa://36048, maa://69928</t>
         </is>
       </c>
       <c r="E15" s="15" t="n"/>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="AE18" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF18" s="18" t="inlineStr">
         <is>
-          <t>maa://47854</t>
+          <t>maa://47854, **maa://68715</t>
         </is>
       </c>
       <c r="AG18" s="12" t="n"/>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="P33" s="18" t="inlineStr">
         <is>
-          <t>maa://21956, *maa://69135</t>
+          <t>maa://21956, maa://69135</t>
         </is>
       </c>
       <c r="Q33" s="15" t="n"/>
@@ -5314,12 +5314,12 @@
       </c>
       <c r="AA37" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB37" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AC37" s="15" t="n"/>
@@ -5455,8 +5455,22 @@
       <c r="AG38" s="12" t="n"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="1" t="n"/>
-      <c r="D39" s="1" t="n"/>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>冬时</t>
+        </is>
+      </c>
+      <c r="C39" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="n"/>
       <c r="F39" s="15" t="inlineStr">
         <is>
           <t>山</t>
@@ -6058,6 +6072,22 @@
         </is>
       </c>
       <c r="I45" s="15" t="n"/>
+      <c r="J45" s="12" t="inlineStr">
+        <is>
+          <t>折桠</t>
+        </is>
+      </c>
+      <c r="K45" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L45" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M45" s="12" t="n"/>
       <c r="N45" s="15" t="inlineStr">
         <is>
           <t>玫拉</t>
@@ -6166,12 +6196,12 @@
       </c>
       <c r="AE46" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF46" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>None</t>
         </is>
       </c>
       <c r="AG46" s="12" t="n"/>
@@ -6272,10 +6302,14 @@
       </c>
       <c r="O48" s="15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P48" s="18" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P48" s="18" t="inlineStr">
+        <is>
+          <t>maa://69969</t>
+        </is>
+      </c>
       <c r="Q48" s="15" t="n"/>
       <c r="R48" s="15" t="inlineStr">
         <is>
@@ -6599,6 +6633,22 @@
         </is>
       </c>
       <c r="Q54" s="15" t="n"/>
+      <c r="R54" s="12" t="inlineStr">
+        <is>
+          <t>真言</t>
+        </is>
+      </c>
+      <c r="S54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U54" s="12" t="n"/>
     </row>
     <row r="55">
       <c r="F55" s="15" t="inlineStr">
@@ -7083,7 +7133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB412"/>
+  <dimension ref="A1:AB418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -7130,7 +7180,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.05 13:18:08</t>
+          <t>更新日期：2025.10.09 13:20:20</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8014,7 +8064,7 @@
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, *maa://42172, maa://65357, maa://30285</t>
+          <t>*maa://20849, *maa://28758, maa://29036, maa://65357, *maa://42172, maa://30285</t>
         </is>
       </c>
       <c r="F27" s="18" t="n"/>
@@ -8817,12 +8867,12 @@
     <row r="62">
       <c r="A62" s="6" t="inlineStr">
         <is>
-          <t>安洁莉娜</t>
+          <t>艾雅法拉</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>SL-4</t>
         </is>
       </c>
       <c r="C62" s="7" t="inlineStr">
@@ -8832,7 +8882,7 @@
       </c>
       <c r="D62" s="19" t="inlineStr">
         <is>
-          <t>maa://20844</t>
+          <t>maa://40590</t>
         </is>
       </c>
     </row>
@@ -8844,39 +8894,39 @@
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D63" s="19" t="inlineStr">
         <is>
-          <t>*maa://20845, maa://38727</t>
+          <t>maa://20844</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>闪灵</t>
+          <t>安洁莉娜</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D64" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, maa://45144, maa://33504</t>
+          <t>*maa://20845, maa://38727</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8938,7 @@
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C65" s="7" t="inlineStr">
@@ -8898,29 +8948,29 @@
       </c>
       <c r="D65" s="19" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, maa://38735</t>
+          <t>maa://28187, maa://45144, maa://33504</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>夜莺</t>
+          <t>闪灵</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D66" s="19" t="inlineStr">
         <is>
-          <t>maa://20993, maa://45606, maa://20829, maa://20900</t>
+          <t>maa://28567, maa://30525, maa://38735</t>
         </is>
       </c>
     </row>
@@ -8932,39 +8982,39 @@
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>maa://39693</t>
+          <t>maa://20993, maa://45606, maa://20829, maa://20900</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>星熊</t>
+          <t>夜莺</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>6-4</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D68" s="19" t="inlineStr">
         <is>
-          <t>maa://20976, maa://20815</t>
+          <t>maa://39693</t>
         </is>
       </c>
     </row>
@@ -8976,39 +9026,39 @@
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>6-4</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D69" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, *maa://29079, maa://29096, maa://29087, *maa://20855, maa://20904</t>
+          <t>maa://20976, maa://20815</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>塞雷娅</t>
+          <t>星熊</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
         <is>
-          <t>MB-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D70" s="19" t="inlineStr">
         <is>
-          <t>maa://20944, maa://35393</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, *maa://20855, maa://20904</t>
         </is>
       </c>
     </row>
@@ -9020,29 +9070,29 @@
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>MB-3</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D71" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
+          <t>maa://20944, maa://35393</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6" t="inlineStr">
         <is>
-          <t>银灰</t>
+          <t>塞雷娅</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
@@ -9052,41 +9102,41 @@
       </c>
       <c r="D72" s="19" t="inlineStr">
         <is>
-          <t>maa://36643, maa://36864, maa://39140, *maa://66335</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>暴行</t>
+          <t>银灰</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D73" s="19" t="inlineStr">
         <is>
-          <t>maa://39139</t>
+          <t>maa://36643, maa://36864, maa://39140, *maa://66335</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>猎蜂</t>
+          <t>暴行</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>7-4</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
@@ -9096,19 +9146,19 @@
       </c>
       <c r="D74" s="19" t="inlineStr">
         <is>
-          <t>maa://39142</t>
+          <t>maa://39139</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>夜魔</t>
+          <t>猎蜂</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>7-4</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
@@ -9118,19 +9168,19 @@
       </c>
       <c r="D75" s="19" t="inlineStr">
         <is>
-          <t>maa://20989</t>
+          <t>maa://39142</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>格拉尼</t>
+          <t>夜魔</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
@@ -9140,19 +9190,19 @@
       </c>
       <c r="D76" s="19" t="inlineStr">
         <is>
-          <t>maa://20873</t>
+          <t>maa://20989</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6" t="inlineStr">
         <is>
-          <t>斯卡蒂</t>
+          <t>格拉尼</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>GT-4</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C77" s="7" t="inlineStr">
@@ -9162,7 +9212,7 @@
       </c>
       <c r="D77" s="19" t="inlineStr">
         <is>
-          <t>maa://20958</t>
+          <t>maa://20873</t>
         </is>
       </c>
     </row>
@@ -9174,7 +9224,7 @@
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>GT-6</t>
+          <t>GT-4</t>
         </is>
       </c>
       <c r="C78" s="7" t="inlineStr">
@@ -9184,19 +9234,19 @@
       </c>
       <c r="D78" s="19" t="inlineStr">
         <is>
-          <t>maa://20957</t>
+          <t>maa://20958</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>格雷伊</t>
+          <t>斯卡蒂</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>GT-6</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
@@ -9206,19 +9256,19 @@
       </c>
       <c r="D79" s="19" t="inlineStr">
         <is>
-          <t>maa://20875</t>
+          <t>maa://20957</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>诗怀雅</t>
+          <t>格雷伊</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C80" s="7" t="inlineStr">
@@ -9228,29 +9278,29 @@
       </c>
       <c r="D80" s="19" t="inlineStr">
         <is>
-          <t>maa://20952</t>
+          <t>maa://20875</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="inlineStr">
         <is>
-          <t>陈</t>
+          <t>诗怀雅</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D81" s="19" t="inlineStr">
         <is>
-          <t>maa://30525, maa://20859, *maa://30524</t>
+          <t>maa://20952</t>
         </is>
       </c>
     </row>
@@ -9262,73 +9312,73 @@
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D82" s="19" t="inlineStr">
         <is>
-          <t>maa://28072</t>
+          <t>maa://30525, maa://20859, *maa://30524</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
         <is>
-          <t>苏苏洛</t>
+          <t>陈</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D83" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, maa://20960</t>
+          <t>maa://28072</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="inlineStr">
         <is>
-          <t>锡兰</t>
+          <t>苏苏洛</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>OF-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D84" s="19" t="inlineStr">
         <is>
-          <t>maa://20972</t>
+          <t>maa://45572, maa://27794, maa://20960</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6" t="inlineStr">
         <is>
-          <t>格劳克斯</t>
+          <t>锡兰</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>OF-3</t>
         </is>
       </c>
       <c r="C85" s="7" t="inlineStr">
@@ -9338,19 +9388,19 @@
       </c>
       <c r="D85" s="19" t="inlineStr">
         <is>
-          <t>maa://20874</t>
+          <t>maa://20972</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6" t="inlineStr">
         <is>
-          <t>黑</t>
+          <t>格劳克斯</t>
         </is>
       </c>
       <c r="B86" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C86" s="7" t="inlineStr">
@@ -9360,7 +9410,7 @@
       </c>
       <c r="D86" s="19" t="inlineStr">
         <is>
-          <t>maa://20885</t>
+          <t>maa://20874</t>
         </is>
       </c>
     </row>
@@ -9372,7 +9422,7 @@
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C87" s="7" t="inlineStr">
@@ -9382,73 +9432,73 @@
       </c>
       <c r="D87" s="19" t="inlineStr">
         <is>
-          <t>maa://20886</t>
+          <t>maa://20885</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6" t="inlineStr">
         <is>
-          <t>桃金娘</t>
+          <t>黑</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D88" s="19" t="inlineStr">
         <is>
-          <t>maa://24472, *maa://35841</t>
+          <t>maa://20886</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="inlineStr">
         <is>
-          <t>星极</t>
+          <t>桃金娘</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C89" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D89" s="19" t="inlineStr">
         <is>
-          <t>maa://44402</t>
+          <t>maa://24472, *maa://35841</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6" t="inlineStr">
         <is>
-          <t>赫拉格</t>
+          <t>星极</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C90" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D90" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20880</t>
+          <t>maa://44402</t>
         </is>
       </c>
     </row>
@@ -9460,29 +9510,29 @@
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C91" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D91" s="19" t="inlineStr">
         <is>
-          <t>maa://24609</t>
+          <t>*maa://28190, maa://20880</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="inlineStr">
         <is>
-          <t>红云</t>
+          <t>赫拉格</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="C92" s="7" t="inlineStr">
@@ -9492,19 +9542,19 @@
       </c>
       <c r="D92" s="19" t="inlineStr">
         <is>
-          <t>maa://20890</t>
+          <t>maa://24609</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
         <is>
-          <t>炎客</t>
+          <t>红云</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>S4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C93" s="7" t="inlineStr">
@@ -9514,19 +9564,19 @@
       </c>
       <c r="D93" s="19" t="inlineStr">
         <is>
-          <t>maa://20984</t>
+          <t>maa://20890</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
         <is>
-          <t>送葬人</t>
+          <t>炎客</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>IW-8</t>
+          <t>S4-3</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
@@ -9536,19 +9586,19 @@
       </c>
       <c r="D94" s="19" t="inlineStr">
         <is>
-          <t>maa://40157</t>
+          <t>maa://20984</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>送葬人</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>IW-8</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
@@ -9558,7 +9608,7 @@
       </c>
       <c r="D95" s="19" t="inlineStr">
         <is>
-          <t>maa://20927</t>
+          <t>maa://40157</t>
         </is>
       </c>
     </row>
@@ -9570,7 +9620,7 @@
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
@@ -9580,63 +9630,63 @@
       </c>
       <c r="D96" s="19" t="inlineStr">
         <is>
-          <t>maa://20926</t>
+          <t>maa://20927</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="inlineStr">
         <is>
-          <t>伊桑</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D97" s="19" t="inlineStr">
         <is>
-          <t>maa://20991, *maa://51015</t>
+          <t>maa://20926</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="inlineStr">
         <is>
-          <t>微风</t>
+          <t>伊桑</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D98" s="19" t="inlineStr">
         <is>
-          <t>maa://20967</t>
+          <t>maa://20991, *maa://51015</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
         <is>
-          <t>梅</t>
+          <t>微风</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
@@ -9646,19 +9696,19 @@
       </c>
       <c r="D99" s="19" t="inlineStr">
         <is>
-          <t>maa://20929</t>
+          <t>maa://20967</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="inlineStr">
         <is>
-          <t>拜松</t>
+          <t>梅</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
@@ -9668,51 +9718,51 @@
       </c>
       <c r="D100" s="19" t="inlineStr">
         <is>
-          <t>maa://20852</t>
+          <t>maa://20929</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
         <is>
-          <t>槐琥</t>
+          <t>拜松</t>
         </is>
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C101" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D101" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20893</t>
+          <t>maa://20852</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>槐琥</t>
         </is>
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C102" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D102" s="19" t="inlineStr">
         <is>
-          <t>maa://40517</t>
+          <t>maa://45572, maa://27794, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -9724,51 +9774,51 @@
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>CB-5</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D103" s="19" t="inlineStr">
         <is>
-          <t>maa://29094, maa://28904</t>
+          <t>maa://40517</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
         <is>
-          <t>苇草</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B104" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>CB-5</t>
         </is>
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D104" s="19" t="inlineStr">
         <is>
-          <t>maa://20966</t>
+          <t>maa://29094, maa://28904</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
         <is>
-          <t>布洛卡</t>
+          <t>苇草</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C105" s="7" t="inlineStr">
@@ -9778,73 +9828,73 @@
       </c>
       <c r="D105" s="19" t="inlineStr">
         <is>
-          <t>maa://39143</t>
+          <t>maa://20966</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
         <is>
-          <t>安比尔</t>
+          <t>布洛卡</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D106" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20843</t>
+          <t>maa://39143</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
         <is>
-          <t>灰喉</t>
+          <t>安比尔</t>
         </is>
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D107" s="19" t="inlineStr">
         <is>
-          <t>maa://20894</t>
+          <t>maa://45572, maa://27794, *maa://20843</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
         <is>
-          <t>煌</t>
+          <t>灰喉</t>
         </is>
       </c>
       <c r="B108" s="6" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://32653, *maa://25161, *maa://61839, *maa://61275</t>
+          <t>maa://20894</t>
         </is>
       </c>
     </row>
@@ -9856,51 +9906,51 @@
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>maa://36646, maa://25774, maa://35996, maa://22469, *maa://30668, maa://67286</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://32653, *maa://25161, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D110" s="19" t="inlineStr">
         <is>
-          <t>maa://45259</t>
+          <t>maa://36646, maa://25774, maa://35996, maa://22469, *maa://30668, maa://67286</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
@@ -9910,19 +9960,19 @@
       </c>
       <c r="D111" s="19" t="inlineStr">
         <is>
-          <t>maa://20887</t>
+          <t>maa://45259</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B112" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
@@ -9932,29 +9982,29 @@
       </c>
       <c r="D112" s="19" t="inlineStr">
         <is>
-          <t>maa://28554</t>
+          <t>maa://20887</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D113" s="19" t="inlineStr">
         <is>
-          <t>maa://20933, maa://20822</t>
+          <t>maa://28554</t>
         </is>
       </c>
     </row>
@@ -9966,29 +10016,29 @@
       </c>
       <c r="B114" s="6" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D114" s="19" t="inlineStr">
         <is>
-          <t>maa://29037</t>
+          <t>maa://20933, maa://20822</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
@@ -9998,29 +10048,29 @@
       </c>
       <c r="D115" s="19" t="inlineStr">
         <is>
-          <t>maa://20904</t>
+          <t>maa://29037</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B116" s="6" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D116" s="19" t="inlineStr">
         <is>
-          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
+          <t>maa://20904</t>
         </is>
       </c>
     </row>
@@ -10032,29 +10082,29 @@
       </c>
       <c r="B117" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D117" s="19" t="inlineStr">
         <is>
-          <t>maa://29659, maa://29031</t>
+          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
@@ -10064,95 +10114,95 @@
       </c>
       <c r="D118" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20940</t>
+          <t>maa://29659, maa://29031</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>maa://20986</t>
+          <t>maa://31560, maa://20940</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D120" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20851</t>
+          <t>maa://20986</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D121" s="19" t="inlineStr">
         <is>
-          <t>maa://20949</t>
+          <t>maa://31560, *maa://20851</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B122" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
-          <t>maa://20869, maa://44690</t>
+          <t>maa://20949</t>
         </is>
       </c>
     </row>
@@ -10164,7 +10214,7 @@
       </c>
       <c r="B123" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
@@ -10174,41 +10224,41 @@
       </c>
       <c r="D123" s="19" t="inlineStr">
         <is>
-          <t>maa://29650, maa://45570</t>
+          <t>maa://20869, maa://44690</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B124" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D124" s="19" t="inlineStr">
         <is>
-          <t>maa://20868</t>
+          <t>maa://29650, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
@@ -10218,19 +10268,19 @@
       </c>
       <c r="D125" s="19" t="inlineStr">
         <is>
-          <t>maa://20909</t>
+          <t>maa://20868</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
         <is>
-          <t>铸铁</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>DH-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
@@ -10240,19 +10290,19 @@
       </c>
       <c r="D126" s="19" t="inlineStr">
         <is>
-          <t>maa://44403</t>
+          <t>maa://20909</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>铸铁</t>
         </is>
       </c>
       <c r="B127" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>DH-3</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
@@ -10262,29 +10312,29 @@
       </c>
       <c r="D127" s="19" t="inlineStr">
         <is>
-          <t>maa://30501</t>
+          <t>maa://44403</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D128" s="19" t="inlineStr">
         <is>
-          <t>*maa://20914, maa://20829</t>
+          <t>maa://30501</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10346,7 @@
       </c>
       <c r="B129" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
@@ -10306,19 +10356,19 @@
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
-          <t>maa://37484, maa://24611</t>
+          <t>*maa://20914, maa://20829</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="6" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B130" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
@@ -10328,29 +10378,29 @@
       </c>
       <c r="D130" s="19" t="inlineStr">
         <is>
-          <t>maa://24491, *maa://24493</t>
+          <t>maa://37484, maa://24611</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D131" s="19" t="inlineStr">
         <is>
-          <t>maa://21422</t>
+          <t>maa://24491, *maa://24493</t>
         </is>
       </c>
     </row>
@@ -10362,7 +10412,7 @@
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
@@ -10372,29 +10422,29 @@
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
-          <t>maa://30719</t>
+          <t>maa://21422</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>maa://20837, *maa://37666</t>
+          <t>maa://30719</t>
         </is>
       </c>
     </row>
@@ -10406,7 +10456,7 @@
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
@@ -10416,41 +10466,41 @@
       </c>
       <c r="D134" s="19" t="inlineStr">
         <is>
-          <t>maa://29023, *maa://39515</t>
+          <t>maa://20837, *maa://37666</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D135" s="19" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://29023, *maa://39515</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
@@ -10460,19 +10510,19 @@
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
@@ -10482,19 +10532,19 @@
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -10504,19 +10554,19 @@
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
-          <t>maa://41856</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
@@ -10526,19 +10576,19 @@
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
-          <t>maa://29025</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
@@ -10548,19 +10598,19 @@
       </c>
       <c r="D140" s="19" t="inlineStr">
         <is>
-          <t>maa://45258</t>
+          <t>maa://29025</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
@@ -10570,19 +10620,19 @@
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>maa://45258</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B142" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
@@ -10592,29 +10642,29 @@
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://28484, *maa://31185, *maa://30306</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10676,7 @@
       </c>
       <c r="B144" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
@@ -10636,41 +10686,41 @@
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, maa://61380</t>
+          <t>maa://28484, *maa://31185, *maa://30306</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>maa://30670, maa://31470, maa://61380</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
@@ -10680,19 +10730,19 @@
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>maa://20971</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
@@ -10702,19 +10752,19 @@
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
@@ -10724,51 +10774,51 @@
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://64408, *maa://37300</t>
+          <t>maa://28828, maa://20846</t>
         </is>
       </c>
     </row>
@@ -10780,51 +10830,51 @@
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>maa://51549, maa://51923</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://64408, *maa://37300</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://51549, maa://51923</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
@@ -10834,19 +10884,19 @@
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B154" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
@@ -10856,29 +10906,29 @@
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D155" s="19" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
@@ -10890,29 +10940,29 @@
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
@@ -10922,19 +10972,19 @@
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B158" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
@@ -10944,19 +10994,19 @@
       </c>
       <c r="D158" s="19" t="inlineStr">
         <is>
-          <t>maa://39149</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
@@ -10966,63 +11016,63 @@
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>maa://39149</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B160" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, *maa://45603</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://44232, *maa://45603</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
@@ -11032,19 +11082,19 @@
       </c>
       <c r="D162" s="19" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C163" s="7" t="inlineStr">
@@ -11054,29 +11104,29 @@
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B164" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C164" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D164" s="19" t="inlineStr">
         <is>
-          <t>*maa://32845, maa://29054</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
@@ -11088,29 +11138,29 @@
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D165" s="19" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C166" s="7" t="inlineStr">
@@ -11120,51 +11170,51 @@
       </c>
       <c r="D166" s="19" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B167" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://20975, *maa://47950, maa://30806</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B168" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D168" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://49074, maa://29861, *maa://42343</t>
+          <t>maa://20975, *maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
@@ -11176,51 +11226,51 @@
       </c>
       <c r="B169" s="6" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D169" s="19" t="inlineStr">
         <is>
-          <t>maa://49867, maa://49655</t>
+          <t>maa://29633, maa://29627, maa://29659, maa://49074, maa://29861, *maa://42343</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B170" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://49867, maa://49655</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B171" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
@@ -11230,19 +11280,19 @@
       </c>
       <c r="D171" s="19" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B172" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
@@ -11252,19 +11302,19 @@
       </c>
       <c r="D172" s="19" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B173" s="6" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
@@ -11274,19 +11324,19 @@
       </c>
       <c r="D173" s="19" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
@@ -11296,29 +11346,29 @@
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://20905</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B175" s="6" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://59681, maa://64200</t>
+          <t>maa://20905</t>
         </is>
       </c>
     </row>
@@ -11330,51 +11380,51 @@
       </c>
       <c r="B176" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://63320, maa://51440</t>
+          <t>maa://59681, maa://64200</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B177" s="6" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D177" s="19" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://32418, maa://63320, maa://51440</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B178" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
@@ -11384,19 +11434,19 @@
       </c>
       <c r="D178" s="19" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B179" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
@@ -11406,7 +11456,7 @@
       </c>
       <c r="D179" s="19" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
@@ -11418,51 +11468,51 @@
       </c>
       <c r="B180" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D180" s="19" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B181" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D181" s="19" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B182" s="6" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
@@ -11472,19 +11522,19 @@
       </c>
       <c r="D182" s="19" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B183" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C183" s="7" t="inlineStr">
@@ -11494,19 +11544,19 @@
       </c>
       <c r="D183" s="19" t="inlineStr">
         <is>
-          <t>maa://31560</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B184" s="6" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C184" s="7" t="inlineStr">
@@ -11516,7 +11566,7 @@
       </c>
       <c r="D184" s="19" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://31560</t>
         </is>
       </c>
     </row>
@@ -11528,7 +11578,7 @@
       </c>
       <c r="B185" s="6" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C185" s="7" t="inlineStr">
@@ -11538,19 +11588,19 @@
       </c>
       <c r="D185" s="19" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B186" s="6" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
@@ -11560,7 +11610,7 @@
       </c>
       <c r="D186" s="19" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
@@ -11572,51 +11622,51 @@
       </c>
       <c r="B187" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D187" s="19" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D188" s="19" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B189" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
@@ -11626,19 +11676,19 @@
       </c>
       <c r="D189" s="19" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B190" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
@@ -11648,29 +11698,29 @@
       </c>
       <c r="D190" s="19" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B191" s="6" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D191" s="19" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
@@ -11682,7 +11732,7 @@
       </c>
       <c r="B192" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
@@ -11692,41 +11742,41 @@
       </c>
       <c r="D192" s="19" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B193" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D193" s="19" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B194" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
@@ -11736,19 +11786,19 @@
       </c>
       <c r="D194" s="19" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B195" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
@@ -11758,7 +11808,7 @@
       </c>
       <c r="D195" s="19" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
@@ -11770,61 +11820,61 @@
       </c>
       <c r="B196" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D196" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B197" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B198" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, maa://63024</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
@@ -11836,39 +11886,39 @@
       </c>
       <c r="B199" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D199" s="19" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://53417, *maa://63806</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, maa://63024</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B200" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D200" s="19" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156, *maa://53417, *maa://63806</t>
         </is>
       </c>
     </row>
@@ -11897,12 +11947,12 @@
     <row r="202">
       <c r="A202" s="6" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
@@ -11912,14 +11962,14 @@
       </c>
       <c r="D202" s="19" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B203" s="6" t="inlineStr">
@@ -11929,24 +11979,24 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D203" s="19" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
@@ -11956,19 +12006,19 @@
       </c>
       <c r="D204" s="19" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
@@ -11978,19 +12028,19 @@
       </c>
       <c r="D205" s="19" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
@@ -12000,7 +12050,7 @@
       </c>
       <c r="D206" s="8" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
@@ -12012,39 +12062,39 @@
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D207" s="19" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
@@ -12056,29 +12106,29 @@
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D209" s="19" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B210" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C210" s="7" t="inlineStr">
@@ -12088,51 +12138,51 @@
       </c>
       <c r="D210" s="19" t="inlineStr">
         <is>
-          <t>maa://53354</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D211" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B212" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D212" s="19" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, *maa://44703</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
@@ -12144,29 +12194,29 @@
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D213" s="19" t="inlineStr">
         <is>
-          <t>maa://20955</t>
+          <t>maa://20956, *maa://20830, *maa://44703</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B214" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C214" s="7" t="inlineStr">
@@ -12176,7 +12226,7 @@
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://20955</t>
         </is>
       </c>
     </row>
@@ -12188,7 +12238,7 @@
       </c>
       <c r="B215" s="6" t="inlineStr">
         <is>
-          <t>DH-7</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C215" s="7" t="inlineStr">
@@ -12198,19 +12248,19 @@
       </c>
       <c r="D215" s="19" t="inlineStr">
         <is>
-          <t>maa://64044</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B216" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DH-7</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
@@ -12220,19 +12270,19 @@
       </c>
       <c r="D216" s="19" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://64044</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B217" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
@@ -12242,29 +12292,29 @@
       </c>
       <c r="D217" s="19" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B218" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D218" s="19" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
@@ -12276,29 +12326,29 @@
       </c>
       <c r="B219" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D219" s="19" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B220" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
@@ -12308,29 +12358,29 @@
       </c>
       <c r="D220" s="19" t="inlineStr">
         <is>
-          <t>maa://39157</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B221" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D221" s="19" t="inlineStr">
         <is>
-          <t>*maa://26496, maa://20995</t>
+          <t>maa://39157</t>
         </is>
       </c>
     </row>
@@ -12342,29 +12392,29 @@
       </c>
       <c r="B222" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D222" s="19" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>*maa://26496, maa://20995</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B223" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
@@ -12374,19 +12424,19 @@
       </c>
       <c r="D223" s="19" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B224" s="6" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
@@ -12396,19 +12446,19 @@
       </c>
       <c r="D224" s="19" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B225" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
@@ -12418,19 +12468,19 @@
       </c>
       <c r="D225" s="19" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B226" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
@@ -12440,29 +12490,29 @@
       </c>
       <c r="D226" s="19" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B227" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D227" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, *maa://39520</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
@@ -12474,39 +12524,39 @@
       </c>
       <c r="B228" s="6" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D228" s="19" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://28187, *maa://39520</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B229" s="6" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D229" s="19" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
@@ -12518,7 +12568,7 @@
       </c>
       <c r="B230" s="6" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
@@ -12528,41 +12578,41 @@
       </c>
       <c r="D230" s="19" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B231" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D231" s="19" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B232" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C232" s="7" t="inlineStr">
@@ -12572,29 +12622,29 @@
       </c>
       <c r="D232" s="19" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B233" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C233" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D233" s="19" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, *maa://38723</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
@@ -12606,29 +12656,29 @@
       </c>
       <c r="B234" s="6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C234" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D234" s="19" t="inlineStr">
         <is>
-          <t>maa://48263</t>
+          <t>maa://29058, maa://39140, *maa://38723</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B235" s="6" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C235" s="7" t="inlineStr">
@@ -12638,19 +12688,19 @@
       </c>
       <c r="D235" s="19" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://48263</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B236" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C236" s="7" t="inlineStr">
@@ -12660,19 +12710,19 @@
       </c>
       <c r="D236" s="19" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B237" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
@@ -12682,14 +12732,14 @@
       </c>
       <c r="D237" s="8" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B238" s="6" t="inlineStr">
@@ -12704,7 +12754,7 @@
       </c>
       <c r="D238" s="19" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
@@ -12716,83 +12766,83 @@
       </c>
       <c r="B239" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D239" s="19" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B240" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D240" s="19" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B241" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B242" s="6" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726, *maa://68226</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
@@ -12804,29 +12854,29 @@
       </c>
       <c r="B243" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D243" s="19" t="inlineStr">
         <is>
-          <t>maa://62759</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726, *maa://68226</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B244" s="6" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
@@ -12836,19 +12886,19 @@
       </c>
       <c r="D244" s="8" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://62759</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B245" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
@@ -12858,19 +12908,19 @@
       </c>
       <c r="D245" s="19" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B246" s="6" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
@@ -12880,7 +12930,7 @@
       </c>
       <c r="D246" s="19" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
@@ -12892,51 +12942,51 @@
       </c>
       <c r="B247" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D247" s="19" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B248" s="6" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D248" s="19" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://20867, maa://38485</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B249" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
@@ -12946,19 +12996,19 @@
       </c>
       <c r="D249" s="8" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B250" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
@@ -12968,29 +13018,29 @@
       </c>
       <c r="D250" s="19" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B251" s="6" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
@@ -13002,51 +13052,51 @@
       </c>
       <c r="B252" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D252" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, *maa://60678, maa://42225</t>
+          <t>maa://28923, maa://28906</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B253" s="6" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D253" s="19" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://42287, maa://45570, *maa://60678, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B254" s="6" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
@@ -13056,7 +13106,7 @@
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
@@ -13068,39 +13118,39 @@
       </c>
       <c r="B255" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D255" s="19" t="inlineStr">
         <is>
-          <t>maa://31559, maa://24093, maa://20924</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B256" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D256" s="19" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://31559, maa://24093, maa://20924</t>
         </is>
       </c>
     </row>
@@ -13112,39 +13162,39 @@
       </c>
       <c r="B257" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C257" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D257" s="19" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B258" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C258" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D258" s="19" t="inlineStr">
         <is>
-          <t>maa://20877, *maa://20836</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
@@ -13156,7 +13206,7 @@
       </c>
       <c r="B259" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C259" s="7" t="inlineStr">
@@ -13166,41 +13216,41 @@
       </c>
       <c r="D259" s="19" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://20877, *maa://20836</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B260" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C260" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D260" s="19" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B261" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C261" s="7" t="inlineStr">
@@ -13210,29 +13260,29 @@
       </c>
       <c r="D261" s="19" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B262" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D262" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
@@ -13244,17 +13294,17 @@
       </c>
       <c r="B263" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D263" s="19" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13316,7 @@
       </c>
       <c r="B264" s="6" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
@@ -13276,19 +13326,19 @@
       </c>
       <c r="D264" s="19" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B265" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
@@ -13298,19 +13348,19 @@
       </c>
       <c r="D265" s="19" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B266" s="6" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
@@ -13320,19 +13370,19 @@
       </c>
       <c r="D266" s="19" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B267" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
@@ -13342,7 +13392,7 @@
       </c>
       <c r="D267" s="19" t="inlineStr">
         <is>
-          <t>maa://59682</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
@@ -13354,7 +13404,7 @@
       </c>
       <c r="B268" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>MB-EX-1</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
@@ -13364,63 +13414,63 @@
       </c>
       <c r="D268" s="19" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://59682</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B269" s="6" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D269" s="19" t="inlineStr">
         <is>
-          <t>*maa://30678, maa://59689</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B270" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D270" s="19" t="inlineStr">
         <is>
-          <t>maa://49643</t>
+          <t>*maa://30678, maa://59689</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B271" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
@@ -13430,7 +13480,7 @@
       </c>
       <c r="D271" s="19" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
@@ -13442,39 +13492,39 @@
       </c>
       <c r="B272" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D272" s="19" t="inlineStr">
         <is>
-          <t>maa://20825, maa://21445, *maa://35726</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B273" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D273" s="19" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://20825, maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
@@ -13486,7 +13536,7 @@
       </c>
       <c r="B274" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
@@ -13496,19 +13546,19 @@
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>maa://67819</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B275" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
@@ -13518,63 +13568,63 @@
       </c>
       <c r="D275" s="19" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>maa://67819</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B276" s="6" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C276" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D276" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://56588, *maa://51893, *maa://66758</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B277" s="6" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D277" s="19" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://51893, *maa://66758</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B278" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
@@ -13584,19 +13634,19 @@
       </c>
       <c r="D278" s="19" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B279" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
@@ -13606,19 +13656,19 @@
       </c>
       <c r="D279" s="19" t="inlineStr">
         <is>
-          <t>maa://20939</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B280" s="6" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
@@ -13628,29 +13678,29 @@
       </c>
       <c r="D280" s="19" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://20939</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B281" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D281" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
@@ -13662,29 +13712,29 @@
       </c>
       <c r="B282" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D282" s="19" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B283" s="6" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
@@ -13694,19 +13744,19 @@
       </c>
       <c r="D283" s="19" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B284" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C284" s="7" t="inlineStr">
@@ -13716,19 +13766,19 @@
       </c>
       <c r="D284" s="19" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B285" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C285" s="7" t="inlineStr">
@@ -13738,19 +13788,19 @@
       </c>
       <c r="D285" s="19" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B286" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C286" s="7" t="inlineStr">
@@ -13760,7 +13810,7 @@
       </c>
       <c r="D286" s="19" t="inlineStr">
         <is>
-          <t>maa://39165</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
@@ -13772,39 +13822,39 @@
       </c>
       <c r="B287" s="6" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C287" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D287" s="19" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://39165</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B288" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C288" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D288" s="19" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
@@ -13816,7 +13866,7 @@
       </c>
       <c r="B289" s="6" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C289" s="7" t="inlineStr">
@@ -13826,63 +13876,63 @@
       </c>
       <c r="D289" s="19" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B290" s="6" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D290" s="19" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B291" s="6" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D291" s="19" t="inlineStr">
         <is>
-          <t>maa://53353</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B292" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C292" s="7" t="inlineStr">
@@ -13892,63 +13942,63 @@
       </c>
       <c r="D292" s="19" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://53353</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B293" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D293" s="19" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B294" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D294" s="19" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B295" s="6" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
@@ -13958,29 +14008,29 @@
       </c>
       <c r="D295" s="19" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B296" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D296" s="19" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
@@ -13992,39 +14042,39 @@
       </c>
       <c r="B297" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://25774, maa://28133, maa://22469</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B298" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D298" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, maa://39155, *maa://32505</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
@@ -14036,139 +14086,139 @@
       </c>
       <c r="B299" s="6" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D299" s="19" t="inlineStr">
         <is>
-          <t>maa://45799, maa://57199</t>
+          <t>maa://32414, maa://39155, *maa://32505</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B300" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D300" s="19" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://45799, maa://57199</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B301" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D301" s="19" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B302" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D302" s="19" t="inlineStr">
         <is>
-          <t>maa://39167</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B303" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D303" s="19" t="inlineStr">
         <is>
-          <t>maa://29005, *maa://31560</t>
+          <t>maa://39167</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B304" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D304" s="19" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://29005, *maa://31560</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B305" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C305" s="7" t="inlineStr">
@@ -14178,19 +14228,19 @@
       </c>
       <c r="D305" s="19" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B306" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C306" s="7" t="inlineStr">
@@ -14200,63 +14250,63 @@
       </c>
       <c r="D306" s="19" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B307" s="6" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C307" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D307" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, *maa://50517, *maa://70004</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B308" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C308" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D308" s="19" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://50280, maa://49642, maa://49660, *maa://50517, *maa://70004</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B309" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C309" s="7" t="inlineStr">
@@ -14266,7 +14316,7 @@
       </c>
       <c r="D309" s="19" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
@@ -14278,7 +14328,7 @@
       </c>
       <c r="B310" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
@@ -14288,19 +14338,19 @@
       </c>
       <c r="D310" s="19" t="inlineStr">
         <is>
-          <t>maa://53352</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B311" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
@@ -14310,7 +14360,7 @@
       </c>
       <c r="D311" s="19" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://53352</t>
         </is>
       </c>
     </row>
@@ -14322,7 +14372,7 @@
       </c>
       <c r="B312" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
@@ -14332,19 +14382,19 @@
       </c>
       <c r="D312" s="19" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B313" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
@@ -14354,7 +14404,7 @@
       </c>
       <c r="D313" s="19" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
@@ -14366,7 +14416,7 @@
       </c>
       <c r="B314" s="6" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
@@ -14376,19 +14426,19 @@
       </c>
       <c r="D314" s="19" t="inlineStr">
         <is>
-          <t>maa://53348</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B315" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
@@ -14398,19 +14448,19 @@
       </c>
       <c r="D315" s="19" t="inlineStr">
         <is>
-          <t>maa://39172</t>
+          <t>maa://53348</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B316" s="6" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
@@ -14420,63 +14470,63 @@
       </c>
       <c r="D316" s="19" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://39172</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B317" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D317" s="19" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B318" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B319" s="6" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
@@ -14486,7 +14536,7 @@
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
@@ -14498,51 +14548,51 @@
       </c>
       <c r="B320" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D320" s="19" t="inlineStr">
         <is>
-          <t>*maa://62755, maa://62761</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B321" s="6" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D321" s="19" t="inlineStr">
         <is>
-          <t>maa://43090</t>
+          <t>*maa://62755, maa://62761</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B322" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
@@ -14552,19 +14602,19 @@
       </c>
       <c r="D322" s="19" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://43090</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B323" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
@@ -14574,19 +14624,19 @@
       </c>
       <c r="D323" s="19" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B324" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C324" s="7" t="inlineStr">
@@ -14596,7 +14646,7 @@
       </c>
       <c r="D324" s="19" t="inlineStr">
         <is>
-          <t>maa://25773</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
@@ -14608,7 +14658,7 @@
       </c>
       <c r="B325" s="6" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
@@ -14618,63 +14668,63 @@
       </c>
       <c r="D325" s="19" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://25773</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B326" s="6" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D326" s="19" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B327" s="6" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D327" s="19" t="inlineStr">
         <is>
-          <t>maa://39174</t>
+          <t>maa://39692, *maa://39810</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B328" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
@@ -14684,63 +14734,63 @@
       </c>
       <c r="D328" s="19" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://39174</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B329" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D329" s="19" t="inlineStr">
         <is>
-          <t>maa://34715, maa://34867</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B330" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" s="19" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://34715, maa://34867</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B331" s="6" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
@@ -14750,19 +14800,19 @@
       </c>
       <c r="D331" s="8" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B332" s="6" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
@@ -14772,19 +14822,19 @@
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B333" s="6" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
@@ -14794,19 +14844,19 @@
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr">
         <is>
-          <t>折光</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B334" s="6" t="inlineStr">
         <is>
-          <t>6-1</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
@@ -14816,107 +14866,107 @@
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>maa://67818</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>跃跃</t>
         </is>
       </c>
       <c r="B335" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C335" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D335" s="8" t="inlineStr">
         <is>
-          <t>maa://59688</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>折光</t>
         </is>
       </c>
       <c r="B336" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>6-1</t>
         </is>
       </c>
       <c r="C336" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>maa://34205, **maa://39541</t>
+          <t>maa://67818</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C337" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B338" s="6" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C338" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D338" s="5" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://34205, **maa://39541</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B339" s="6" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C339" s="7" t="inlineStr">
@@ -14926,19 +14976,19 @@
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B340" s="6" t="inlineStr">
         <is>
-          <t>ZT-8</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C340" s="7" t="inlineStr">
@@ -14948,41 +14998,41 @@
       </c>
       <c r="D340" s="5" t="inlineStr">
         <is>
-          <t>maa://67275</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B341" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C341" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D341" s="5" t="inlineStr">
         <is>
-          <t>maa://40162</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B342" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>ZT-8</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
@@ -14992,41 +15042,41 @@
       </c>
       <c r="D342" s="5" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://67275</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B343" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D343" s="5" t="inlineStr">
         <is>
-          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
+          <t>maa://40162</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
         <is>
-          <t>温米</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B344" s="6" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
@@ -15036,41 +15086,41 @@
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>maa://67817</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B345" s="6" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://38295, *maa://49332</t>
+          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>温米</t>
         </is>
       </c>
       <c r="B346" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
@@ -15080,41 +15130,41 @@
       </c>
       <c r="D346" s="5" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://67817</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B347" s="6" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D347" s="5" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://38295, *maa://49332</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B348" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
@@ -15124,19 +15174,19 @@
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B349" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
@@ -15146,41 +15196,41 @@
       </c>
       <c r="D349" s="5" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B350" s="6" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B351" s="6" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
@@ -15190,41 +15240,41 @@
       </c>
       <c r="D351" s="5" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B352" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B353" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
@@ -15234,19 +15284,19 @@
       </c>
       <c r="D353" s="5" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B354" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
@@ -15256,41 +15306,41 @@
       </c>
       <c r="D354" s="5" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B355" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B356" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
@@ -15300,19 +15350,19 @@
       </c>
       <c r="D356" s="5" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B357" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C357" s="7" t="inlineStr">
@@ -15322,19 +15372,19 @@
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, *maa://45833</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B358" s="6" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C358" s="7" t="inlineStr">
@@ -15344,261 +15394,261 @@
       </c>
       <c r="D358" s="5" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B359" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C359" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D359" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://45834, *maa://45833</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B360" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758, *maa://52357</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B361" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C361" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B362" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://49696, maa://49695, maa://49758, *maa://52357</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B363" s="6" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C363" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D363" s="5" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B364" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B365" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D365" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B366" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://42635, *maa://50629</t>
+          <t>maa://36646, maa://36845, maa://51007</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B367" s="6" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C367" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B368" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D368" s="5" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://42635, *maa://50629, *maa://48859</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B369" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://48026, maa://44635, maa://41035, *maa://60251, maa://44660, *maa://41128</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B370" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
@@ -15608,41 +15658,41 @@
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
         <is>
-          <t>妮芙</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B371" s="6" t="inlineStr">
         <is>
-          <t>14-7</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C371" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://63883, maa://64045</t>
+          <t>maa://40957, maa://48026, maa://44635, maa://41035, *maa://60251, maa://44660, *maa://41128</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B372" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C372" s="7" t="inlineStr">
@@ -15652,41 +15702,41 @@
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>妮芙</t>
         </is>
       </c>
       <c r="B373" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>14-7</t>
         </is>
       </c>
       <c r="C373" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D373" s="5" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://63883, maa://64045</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B374" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C374" s="7" t="inlineStr">
@@ -15696,19 +15746,19 @@
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B375" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C375" s="7" t="inlineStr">
@@ -15718,41 +15768,41 @@
       </c>
       <c r="D375" s="5" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>娜仁图亚</t>
         </is>
       </c>
       <c r="B376" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>WB-6</t>
         </is>
       </c>
       <c r="C376" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D376" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, *maa://50518, *maa://41977</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B377" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C377" s="7" t="inlineStr">
@@ -15762,63 +15812,63 @@
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://42338</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B378" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C378" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, *maa://45605</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B379" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C379" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D379" s="5" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://42333, *maa://50518, *maa://41977</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B380" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C380" s="7" t="inlineStr">
@@ -15828,19 +15878,19 @@
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42338</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B381" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
@@ -15850,19 +15900,19 @@
       </c>
       <c r="D381" s="5" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://41110, *maa://45605</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
@@ -15872,19 +15922,19 @@
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
@@ -15894,41 +15944,41 @@
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://53307</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
@@ -15938,41 +15988,41 @@
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>*maa://42970, maa://44745</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B387" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C387" s="7" t="inlineStr">
@@ -15982,19 +16032,19 @@
       </c>
       <c r="D387" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://53307</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B388" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C388" s="7" t="inlineStr">
@@ -16004,41 +16054,41 @@
       </c>
       <c r="D388" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B389" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C389" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D389" s="5" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>*maa://42970, maa://44745, *maa://44896</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B390" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C390" s="7" t="inlineStr">
@@ -16048,19 +16098,19 @@
       </c>
       <c r="D390" s="5" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B391" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C391" s="7" t="inlineStr">
@@ -16070,19 +16120,19 @@
       </c>
       <c r="D391" s="5" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="inlineStr">
         <is>
-          <t>烛煌</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B392" s="6" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C392" s="7" t="inlineStr">
@@ -16092,41 +16142,41 @@
       </c>
       <c r="D392" s="5" t="inlineStr">
         <is>
-          <t>maa://63890</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="13" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B393" s="20" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C393" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>*maa://47175, maa://47174</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="13" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B394" s="20" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C394" s="13" t="inlineStr">
@@ -16136,19 +16186,19 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="13" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>烛煌</t>
         </is>
       </c>
       <c r="B395" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="C395" s="13" t="inlineStr">
@@ -16158,19 +16208,19 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://63890</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="13" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B396" s="13" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C396" s="13" t="inlineStr">
@@ -16180,19 +16230,19 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>maa://59533, maa://59577</t>
+          <t>*maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="13" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B397" s="13" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C397" s="13" t="inlineStr">
@@ -16202,107 +16252,107 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://51908</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="13" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>水灯心</t>
         </is>
       </c>
       <c r="B398" s="13" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C398" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>maa://59691</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="13" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B399" s="13" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C399" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="13" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B400" s="13" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C400" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>maa://51880, maa://56651, maa://51878</t>
+          <t>maa://59533, maa://59577</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="13" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B401" s="13" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C401" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, *maa://63228, maa://51873, maa://62047</t>
+          <t>maa://51908</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="13" t="inlineStr">
         <is>
-          <t>Miss.Christine</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B402" s="13" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C402" s="13" t="inlineStr">
@@ -16312,19 +16362,19 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>maa://67814</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="13" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B403" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C403" s="13" t="inlineStr">
@@ -16334,63 +16384,63 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>maa://60449, maa://59493</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="13" t="inlineStr">
         <is>
-          <t>录武官</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B404" s="13" t="inlineStr">
         <is>
-          <t>HS-5</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C404" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>maa://67815</t>
+          <t>maa://51880, maa://56651, maa://51878</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="13" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B405" s="13" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C405" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://62756</t>
+          <t>maa://51872, maa://51876, *maa://63228, maa://51873, maa://62047</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="13" t="inlineStr">
         <is>
-          <t>吉星</t>
+          <t>Miss.Christine</t>
         </is>
       </c>
       <c r="B406" s="13" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C406" s="13" t="inlineStr">
@@ -16400,41 +16450,41 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>maa://67816</t>
+          <t>maa://67814</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="13" t="inlineStr">
         <is>
-          <t>遥</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B407" s="13" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C407" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>maa://64040, maa://52505, *maa://66377</t>
+          <t>maa://60449, maa://59493</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="13" t="inlineStr">
         <is>
-          <t>祐天寺若麦</t>
+          <t>录武官</t>
         </is>
       </c>
       <c r="B408" s="13" t="inlineStr">
         <is>
-          <t>ZT-4</t>
+          <t>HS-5</t>
         </is>
       </c>
       <c r="C408" s="13" t="inlineStr">
@@ -16444,19 +16494,19 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>maa://67090</t>
+          <t>maa://67815</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="13" t="inlineStr">
         <is>
-          <t>八幡海铃</t>
+          <t>司霆惊蛰</t>
         </is>
       </c>
       <c r="B409" s="13" t="inlineStr">
         <is>
-          <t>BB-7</t>
+          <t>DV-7</t>
         </is>
       </c>
       <c r="C409" s="13" t="inlineStr">
@@ -16466,73 +16516,205 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>maa://67388</t>
+          <t>maa://62756</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="13" t="inlineStr">
         <is>
-          <t>若叶睦</t>
+          <t>吉星</t>
         </is>
       </c>
       <c r="B410" s="13" t="inlineStr">
         <is>
-          <t>13-16</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C410" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>maa://67089, maa://67271</t>
+          <t>maa://67816</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="13" t="inlineStr">
         <is>
-          <t>三角初华</t>
+          <t>遥</t>
         </is>
       </c>
       <c r="B411" s="13" t="inlineStr">
         <is>
-          <t>ZT-6</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C411" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>maa://67088</t>
+          <t>maa://64040, maa://52505, *maa://66377</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="13" t="inlineStr">
         <is>
+          <t>祐天寺若麦</t>
+        </is>
+      </c>
+      <c r="B412" s="13" t="inlineStr">
+        <is>
+          <t>ZT-4</t>
+        </is>
+      </c>
+      <c r="C412" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>maa://67090</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="13" t="inlineStr">
+        <is>
+          <t>八幡海铃</t>
+        </is>
+      </c>
+      <c r="B413" s="13" t="inlineStr">
+        <is>
+          <t>BB-7</t>
+        </is>
+      </c>
+      <c r="C413" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>maa://67388</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="13" t="inlineStr">
+        <is>
+          <t>若叶睦</t>
+        </is>
+      </c>
+      <c r="B414" s="13" t="inlineStr">
+        <is>
+          <t>13-16</t>
+        </is>
+      </c>
+      <c r="C414" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>maa://67089, maa://67271</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="13" t="inlineStr">
+        <is>
+          <t>三角初华</t>
+        </is>
+      </c>
+      <c r="B415" s="13" t="inlineStr">
+        <is>
+          <t>ZT-6</t>
+        </is>
+      </c>
+      <c r="C415" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>maa://67088</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="13" t="inlineStr">
+        <is>
           <t>丰川祥子</t>
         </is>
       </c>
-      <c r="B412" s="13" t="inlineStr">
+      <c r="B416" s="13" t="inlineStr">
         <is>
           <t>IS-7</t>
         </is>
       </c>
-      <c r="C412" s="13" t="inlineStr">
+      <c r="C416" s="13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr">
+      <c r="D416" t="inlineStr">
         <is>
           <t>maa://67087, maa://67268, *maa://67269, *maa://67648</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="13" t="inlineStr">
+        <is>
+          <t>冬时</t>
+        </is>
+      </c>
+      <c r="B417" s="13" t="inlineStr">
+        <is>
+          <t>R8-2</t>
+        </is>
+      </c>
+      <c r="C417" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="13" t="inlineStr">
+        <is>
+          <t>折桠</t>
+        </is>
+      </c>
+      <c r="B418" s="13" t="inlineStr">
+        <is>
+          <t>MB-5</t>
+        </is>
+      </c>
+      <c r="C418" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1003,7 +1003,7 @@
       </c>
       <c r="T4" s="18" t="inlineStr">
         <is>
-          <t>maa://27295, maa://32509, maa://31008, maa://22754, *maa://70489</t>
+          <t>maa://27295, maa://32509, maa://31008, maa://22754, maa://70489</t>
         </is>
       </c>
       <c r="U4" s="15" t="n"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="AB5" s="18" t="inlineStr">
         <is>
-          <t>maa://29863, ***maa://26013</t>
+          <t>maa://29863, **maa://26013</t>
         </is>
       </c>
       <c r="AC5" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.09 13:20:20</t>
+          <t>更新日期：2025.10.16 13:20:24</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="L9" s="18" t="inlineStr">
         <is>
-          <t>maa://22762, *maa://39552</t>
+          <t>maa://22762, maa://39552</t>
         </is>
       </c>
       <c r="M9" s="15" t="n"/>
@@ -2162,12 +2162,12 @@
       </c>
       <c r="O13" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P13" s="18" t="inlineStr">
         <is>
-          <t>maa://22676, maa://22583</t>
+          <t>maa://22676, maa://22583, *maa://22500</t>
         </is>
       </c>
       <c r="Q13" s="15" t="n"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>*maa://27127, *maa://22751, maa://66865</t>
+          <t>maa://27127, *maa://22751, maa://66865</t>
         </is>
       </c>
       <c r="M22" s="15" t="n"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="P30" s="18" t="inlineStr">
         <is>
-          <t>maa://21442, maa://66611, maa://68394</t>
+          <t>maa://21442, maa://68394, maa://66611</t>
         </is>
       </c>
       <c r="Q30" s="15" t="n"/>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="T43" s="18" t="inlineStr">
         <is>
-          <t>maa://43198, maa://46286</t>
+          <t>maa://43198, *maa://46286</t>
         </is>
       </c>
       <c r="U43" s="15" t="n"/>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="AE46" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF46" s="15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://70759</t>
         </is>
       </c>
       <c r="AG46" s="12" t="n"/>
@@ -7133,7 +7133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB418"/>
+  <dimension ref="A1:AB420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -7180,7 +7180,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.09 13:20:20</t>
+          <t>更新日期：2025.10.16 13:20:24</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D27" s="19" t="inlineStr">
         <is>
-          <t>*maa://20849, *maa://28758, maa://29036, maa://65357, *maa://42172, maa://30285</t>
+          <t>*maa://20849, *maa://28758, maa://65357, maa://29036, *maa://42172, *maa://30285</t>
         </is>
       </c>
       <c r="F27" s="18" t="n"/>
@@ -8217,12 +8217,12 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://20960, *maa://20843, *maa://20893</t>
+          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://20960, *maa://20843, *maa://20893, *maa://70680</t>
         </is>
       </c>
     </row>
@@ -8723,12 +8723,12 @@
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" s="19" t="inlineStr">
         <is>
-          <t>maa://20932, maa://42415, maa://40838</t>
+          <t>maa://20932, maa://42415, maa://40838, *maa://68386</t>
         </is>
       </c>
     </row>
@@ -9009,12 +9009,12 @@
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D68" s="19" t="inlineStr">
         <is>
-          <t>maa://39693</t>
+          <t>maa://39693, *maa://49348</t>
         </is>
       </c>
     </row>
@@ -9053,12 +9053,12 @@
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D70" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, *maa://29079, maa://29096, maa://29087, *maa://20855, maa://20904</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, *maa://20855, *maa://63722, maa://20904</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="D168" s="19" t="inlineStr">
         <is>
-          <t>maa://20975, *maa://47950, maa://30806</t>
+          <t>maa://20975, maa://47950, maa://30806</t>
         </is>
       </c>
     </row>
@@ -11891,12 +11891,12 @@
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D199" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, maa://63024</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, maa://63024, *maa://70161</t>
         </is>
       </c>
     </row>
@@ -12881,12 +12881,12 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D244" s="8" t="inlineStr">
         <is>
-          <t>maa://62759</t>
+          <t>maa://62759, *maa://70680</t>
         </is>
       </c>
     </row>
@@ -13057,12 +13057,12 @@
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D252" s="19" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906</t>
+          <t>maa://28923, maa://28906, *maa://65613</t>
         </is>
       </c>
     </row>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="D253" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, *maa://60678, maa://42225</t>
+          <t>maa://42287, maa://45570, maa://60678, maa://42225</t>
         </is>
       </c>
     </row>
@@ -14521,34 +14521,34 @@
     <row r="319">
       <c r="A319" s="6" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B319" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>GA-3</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B320" s="6" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
@@ -14558,7 +14558,7 @@
       </c>
       <c r="D320" s="19" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
@@ -14570,51 +14570,51 @@
       </c>
       <c r="B321" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D321" s="19" t="inlineStr">
         <is>
-          <t>*maa://62755, maa://62761</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B322" s="6" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D322" s="19" t="inlineStr">
         <is>
-          <t>maa://43090</t>
+          <t>maa://62755, maa://62761</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B323" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
@@ -14624,19 +14624,19 @@
       </c>
       <c r="D323" s="19" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://43090</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B324" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C324" s="7" t="inlineStr">
@@ -14646,19 +14646,19 @@
       </c>
       <c r="D324" s="19" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B325" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="D325" s="19" t="inlineStr">
         <is>
-          <t>maa://25773</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
@@ -14680,73 +14680,73 @@
       </c>
       <c r="B326" s="6" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D326" s="19" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B327" s="6" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D327" s="19" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B328" s="6" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D328" s="19" t="inlineStr">
         <is>
-          <t>maa://39174</t>
+          <t>maa://39692, *maa://39810</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B329" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
@@ -14756,63 +14756,63 @@
       </c>
       <c r="D329" s="19" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://39174</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B330" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D330" s="19" t="inlineStr">
         <is>
-          <t>maa://34715, maa://34867</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B331" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D331" s="8" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://34715, maa://34867</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B332" s="6" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
@@ -14822,19 +14822,19 @@
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B333" s="6" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
@@ -14844,19 +14844,19 @@
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B334" s="6" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
@@ -14866,63 +14866,63 @@
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr">
         <is>
-          <t>跃跃</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B335" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C335" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D335" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr">
         <is>
-          <t>折光</t>
+          <t>跃跃</t>
         </is>
       </c>
       <c r="B336" s="6" t="inlineStr">
         <is>
-          <t>6-1</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C336" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>maa://67818</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>折光</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>6-1</t>
         </is>
       </c>
       <c r="C337" s="7" t="inlineStr">
@@ -14932,29 +14932,29 @@
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>maa://59688</t>
+          <t>maa://67818</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B338" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C338" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D338" s="5" t="inlineStr">
         <is>
-          <t>maa://34205, **maa://39541</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
@@ -14966,7 +14966,7 @@
       </c>
       <c r="B339" s="6" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C339" s="7" t="inlineStr">
@@ -14976,51 +14976,51 @@
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>maa://34205, **maa://39541</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B340" s="6" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C340" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D340" s="5" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B341" s="6" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C341" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D341" s="5" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
@@ -15032,29 +15032,29 @@
       </c>
       <c r="B342" s="6" t="inlineStr">
         <is>
-          <t>ZT-8</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D342" s="5" t="inlineStr">
         <is>
-          <t>maa://67275</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B343" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>ZT-8</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
@@ -15064,19 +15064,19 @@
       </c>
       <c r="D343" s="5" t="inlineStr">
         <is>
-          <t>maa://40162</t>
+          <t>maa://67275</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B344" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
@@ -15086,107 +15086,107 @@
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://40162</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B345" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="inlineStr">
         <is>
-          <t>温米</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B346" s="6" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D346" s="5" t="inlineStr">
         <is>
-          <t>maa://67817</t>
+          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>温米</t>
         </is>
       </c>
       <c r="B347" s="6" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D347" s="5" t="inlineStr">
         <is>
-          <t>maa://38295, *maa://49332</t>
+          <t>maa://67817</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B348" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://38295, *maa://49332</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B349" s="6" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
@@ -15196,19 +15196,19 @@
       </c>
       <c r="D349" s="5" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B350" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15230,7 @@
       </c>
       <c r="B351" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
@@ -15240,63 +15240,63 @@
       </c>
       <c r="D351" s="5" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B352" s="6" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B353" s="6" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D353" s="5" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B354" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
@@ -15306,19 +15306,19 @@
       </c>
       <c r="D354" s="5" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B355" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
@@ -15328,19 +15328,19 @@
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B356" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
@@ -15350,117 +15350,117 @@
       </c>
       <c r="D356" s="5" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B357" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C357" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B358" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C358" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D358" s="5" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B359" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C359" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D359" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, *maa://45833</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B360" s="6" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://45834, *maa://45833</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B361" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C361" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
@@ -15472,73 +15472,73 @@
       </c>
       <c r="B362" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758, *maa://52357</t>
+          <t>maa://36868, maa://35996, maa://47349</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B363" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C363" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D363" s="5" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://49696, maa://49695, maa://49758, *maa://52357</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B364" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B365" s="6" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
@@ -15548,7 +15548,7 @@
       </c>
       <c r="D365" s="5" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
@@ -15560,29 +15560,29 @@
       </c>
       <c r="B366" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B367" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C367" s="7" t="inlineStr">
@@ -15592,63 +15592,63 @@
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://36646, maa://36845, maa://51007, *maa://70752</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B368" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D368" s="5" t="inlineStr">
         <is>
-          <t>maa://42635, *maa://50629, *maa://48859</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B369" s="6" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://42635, *maa://50629, *maa://48859</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B370" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
@@ -15658,107 +15658,107 @@
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B371" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C371" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://48026, maa://44635, maa://41035, *maa://60251, maa://44660, *maa://41128</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B372" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C372" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://40957, maa://48026, maa://44635, maa://41035, *maa://60251, maa://44660, *maa://41128</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
         <is>
-          <t>妮芙</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B373" s="6" t="inlineStr">
         <is>
-          <t>14-7</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C373" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D373" s="5" t="inlineStr">
         <is>
-          <t>maa://63883, maa://64045</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>妮芙</t>
         </is>
       </c>
       <c r="B374" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>14-7</t>
         </is>
       </c>
       <c r="C374" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://63883, maa://64045</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B375" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C375" s="7" t="inlineStr">
@@ -15768,63 +15768,63 @@
       </c>
       <c r="D375" s="5" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
         <is>
-          <t>娜仁图亚</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B376" s="6" t="inlineStr">
         <is>
-          <t>WB-6</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C376" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D376" s="5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>娜仁图亚</t>
         </is>
       </c>
       <c r="B377" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>WB-6</t>
         </is>
       </c>
       <c r="C377" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://70756, maa://71182</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B378" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C378" s="7" t="inlineStr">
@@ -15834,107 +15834,107 @@
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B379" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C379" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D379" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, *maa://50518, *maa://41977</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B380" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C380" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>maa://42338</t>
+          <t>maa://42333, *maa://50518, *maa://41977</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B381" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D381" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, *maa://45605</t>
+          <t>maa://42338</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://41110, *maa://45605</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
@@ -15944,63 +15944,63 @@
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
@@ -16010,7 +16010,7 @@
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B387" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C387" s="7" t="inlineStr">
@@ -16032,19 +16032,19 @@
       </c>
       <c r="D387" s="5" t="inlineStr">
         <is>
-          <t>maa://53307</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B388" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C388" s="7" t="inlineStr">
@@ -16054,63 +16054,63 @@
       </c>
       <c r="D388" s="5" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://53307</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B389" s="6" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C389" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D389" s="5" t="inlineStr">
         <is>
-          <t>*maa://42970, maa://44745, *maa://44896</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B390" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C390" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D390" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>*maa://42970, maa://44745, *maa://44896</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B391" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C391" s="7" t="inlineStr">
@@ -16120,19 +16120,19 @@
       </c>
       <c r="D391" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B392" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C392" s="7" t="inlineStr">
@@ -16142,19 +16142,19 @@
       </c>
       <c r="D392" s="5" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="13" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B393" s="20" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C393" s="13" t="inlineStr">
@@ -16164,19 +16164,19 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="13" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B394" s="20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C394" s="13" t="inlineStr">
@@ -16186,19 +16186,19 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="13" t="inlineStr">
         <is>
-          <t>烛煌</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B395" s="13" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C395" s="13" t="inlineStr">
@@ -16208,151 +16208,151 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://63890</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="13" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>烛煌</t>
         </is>
       </c>
       <c r="B396" s="13" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="C396" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>*maa://47175, maa://47174</t>
+          <t>maa://63890</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="13" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B397" s="13" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C397" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>*maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="13" t="inlineStr">
         <is>
-          <t>水灯心</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B398" s="13" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C398" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="13" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>水灯心</t>
         </is>
       </c>
       <c r="B399" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C399" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="13" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B400" s="13" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C400" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>maa://59533, maa://59577</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="13" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B401" s="13" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C401" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://51908</t>
+          <t>maa://59533, maa://59577</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="13" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B402" s="13" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C402" s="13" t="inlineStr">
@@ -16362,151 +16362,151 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>maa://59691</t>
+          <t>maa://51908</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="13" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B403" s="13" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C403" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="13" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B404" s="13" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C404" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>maa://51880, maa://56651, maa://51878</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="13" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B405" s="13" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C405" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, *maa://63228, maa://51873, maa://62047</t>
+          <t>maa://51880, maa://56651, maa://51878</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="13" t="inlineStr">
         <is>
-          <t>Miss.Christine</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B406" s="13" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C406" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>maa://67814</t>
+          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="13" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>Miss.Christine</t>
         </is>
       </c>
       <c r="B407" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C407" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>maa://60449, maa://59493</t>
+          <t>maa://67814</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="13" t="inlineStr">
         <is>
-          <t>录武官</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B408" s="13" t="inlineStr">
         <is>
-          <t>HS-5</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C408" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>maa://67815</t>
+          <t>maa://60449, maa://59493</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="13" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>录武官</t>
         </is>
       </c>
       <c r="B409" s="13" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>HS-5</t>
         </is>
       </c>
       <c r="C409" s="13" t="inlineStr">
@@ -16516,19 +16516,19 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>maa://62756</t>
+          <t>maa://67815</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="13" t="inlineStr">
         <is>
-          <t>吉星</t>
+          <t>司霆惊蛰</t>
         </is>
       </c>
       <c r="B410" s="13" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>DV-7</t>
         </is>
       </c>
       <c r="C410" s="13" t="inlineStr">
@@ -16538,63 +16538,63 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>maa://67816</t>
+          <t>maa://62756</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="13" t="inlineStr">
         <is>
-          <t>遥</t>
+          <t>吉星</t>
         </is>
       </c>
       <c r="B411" s="13" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C411" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>maa://64040, maa://52505, *maa://66377</t>
+          <t>maa://67816</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="13" t="inlineStr">
         <is>
-          <t>祐天寺若麦</t>
+          <t>遥</t>
         </is>
       </c>
       <c r="B412" s="13" t="inlineStr">
         <is>
-          <t>ZT-4</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C412" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>maa://67090</t>
+          <t>maa://64040, maa://52505, *maa://66377</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="13" t="inlineStr">
         <is>
-          <t>八幡海铃</t>
+          <t>祐天寺若麦</t>
         </is>
       </c>
       <c r="B413" s="13" t="inlineStr">
         <is>
-          <t>BB-7</t>
+          <t>ZT-4</t>
         </is>
       </c>
       <c r="C413" s="13" t="inlineStr">
@@ -16604,117 +16604,161 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>maa://67388</t>
+          <t>maa://67090</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="13" t="inlineStr">
         <is>
-          <t>若叶睦</t>
+          <t>八幡海铃</t>
         </is>
       </c>
       <c r="B414" s="13" t="inlineStr">
         <is>
-          <t>13-16</t>
+          <t>BB-7</t>
         </is>
       </c>
       <c r="C414" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>maa://67089, maa://67271</t>
+          <t>maa://67388</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="13" t="inlineStr">
         <is>
-          <t>三角初华</t>
+          <t>若叶睦</t>
         </is>
       </c>
       <c r="B415" s="13" t="inlineStr">
         <is>
-          <t>ZT-6</t>
+          <t>13-16</t>
         </is>
       </c>
       <c r="C415" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>maa://67088</t>
+          <t>maa://67089, maa://67271</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="13" t="inlineStr">
         <is>
-          <t>丰川祥子</t>
+          <t>三角初华</t>
         </is>
       </c>
       <c r="B416" s="13" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>ZT-6</t>
         </is>
       </c>
       <c r="C416" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>maa://67087, maa://67268, *maa://67269, *maa://67648</t>
+          <t>maa://67088</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="13" t="inlineStr">
         <is>
-          <t>冬时</t>
+          <t>丰川祥子</t>
         </is>
       </c>
       <c r="B417" s="13" t="inlineStr">
         <is>
-          <t>R8-2</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C417" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67087, maa://67268, *maa://67269, *maa://67648</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="13" t="inlineStr">
         <is>
+          <t>冬时</t>
+        </is>
+      </c>
+      <c r="B418" s="13" t="inlineStr">
+        <is>
+          <t>R8-2</t>
+        </is>
+      </c>
+      <c r="C418" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="13" t="inlineStr">
+        <is>
           <t>折桠</t>
         </is>
       </c>
-      <c r="B418" s="13" t="inlineStr">
+      <c r="B419" s="13" t="inlineStr">
         <is>
           <t>MB-5</t>
         </is>
       </c>
-      <c r="C418" s="13" t="inlineStr">
+      <c r="C419" s="13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
+      <c r="D419" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="13" t="inlineStr">
+        <is>
+          <t>真言</t>
+        </is>
+      </c>
+      <c r="B420" s="13" t="inlineStr">
+        <is>
+          <t>FC-5</t>
+        </is>
+      </c>
+      <c r="C420" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>maa://70877</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1252,7 +1252,7 @@
       </c>
       <c r="P6" s="18" t="inlineStr">
         <is>
-          <t>maa://31836, *maa://30381</t>
+          <t>maa://31836, maa://30381</t>
         </is>
       </c>
       <c r="Q6" s="15" t="n"/>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="W6" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X6" s="18" t="inlineStr">
         <is>
-          <t>maa://52754</t>
+          <t>maa://52754, **maa://71825</t>
         </is>
       </c>
       <c r="Y6" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.16 13:20:24</t>
+          <t>更新日期：2025.10.20 13:21:27</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="L25" s="18" t="inlineStr">
         <is>
-          <t>maa://24378, *maa://68415</t>
+          <t>maa://24378, maa://68415</t>
         </is>
       </c>
       <c r="M25" s="15" t="n"/>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="AF25" s="18" t="inlineStr">
         <is>
-          <t>maa://20108, maa://36676, maa://24621, *maa://22771, **maa://37772</t>
+          <t>maa://20108, maa://36676, maa://24621, *maa://22771, *maa://37772</t>
         </is>
       </c>
       <c r="AG25" s="12" t="n"/>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="L31" s="18" t="inlineStr">
         <is>
-          <t>maa://35926, maa://36258, *maa://43904</t>
+          <t>maa://35926, maa://36258, maa://43904</t>
         </is>
       </c>
       <c r="M31" s="15" t="n"/>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="H47" s="18" t="inlineStr">
         <is>
-          <t>maa://27410, maa://29661, maa://56236, *maa://28038</t>
+          <t>maa://27410, maa://56236, maa://29661, *maa://28038</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -7180,7 +7180,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.16 13:20:24</t>
+          <t>更新日期：2025.10.20 13:21:27</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="D308" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, *maa://50517, *maa://70004</t>
+          <t>maa://50280, maa://49642, maa://49660, maa://70004, *maa://50517</t>
         </is>
       </c>
     </row>
@@ -15741,12 +15741,12 @@
       </c>
       <c r="C374" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://63883, maa://64045</t>
+          <t>maa://63883, maa://64045, **maa://64041</t>
         </is>
       </c>
     </row>
@@ -15807,12 +15807,12 @@
       </c>
       <c r="C377" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://70756, maa://71182</t>
+          <t>maa://71182, maa://70756, **maa://71524</t>
         </is>
       </c>
     </row>
@@ -16621,12 +16621,12 @@
       </c>
       <c r="C414" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>maa://67388</t>
+          <t>maa://67388, *maa://71184</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1252,7 +1252,7 @@
       </c>
       <c r="P6" s="18" t="inlineStr">
         <is>
-          <t>maa://31836, maa://30381</t>
+          <t>maa://31836, *maa://30381</t>
         </is>
       </c>
       <c r="Q6" s="15" t="n"/>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="X6" s="18" t="inlineStr">
         <is>
-          <t>maa://52754, **maa://71825</t>
+          <t>maa://52754, maa://71825</t>
         </is>
       </c>
       <c r="Y6" s="15" t="n"/>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="AE7" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF7" s="18" t="inlineStr">
         <is>
-          <t>maa://45272</t>
+          <t>maa://45272, *maa://26191</t>
         </is>
       </c>
       <c r="AG7" s="12" t="n"/>
@@ -1454,7 +1454,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.20 13:21:27</t>
+          <t>更新日期：2025.10.31 13:21:33</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="P14" s="18" t="inlineStr">
         <is>
-          <t>maa://23250, *maa://20107, *maa://22772, *maa://68732</t>
+          <t>maa://23250, *maa://20107, *maa://22772, maa://68732</t>
         </is>
       </c>
       <c r="Q14" s="15" t="n"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="AF15" s="18" t="inlineStr">
         <is>
-          <t>maa://36666, maa://21364, *maa://22766, *maa://68306</t>
+          <t>maa://36666, maa://21364, *maa://22766, maa://68306</t>
         </is>
       </c>
       <c r="AG15" s="12" t="n"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="L25" s="18" t="inlineStr">
         <is>
-          <t>maa://24378, maa://68415</t>
+          <t>maa://24378, *maa://68415</t>
         </is>
       </c>
       <c r="M25" s="15" t="n"/>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="L31" s="18" t="inlineStr">
         <is>
-          <t>maa://35926, maa://36258, maa://43904</t>
+          <t>maa://35926, maa://36258, *maa://43904</t>
         </is>
       </c>
       <c r="M31" s="15" t="n"/>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="H39" s="18" t="inlineStr">
         <is>
-          <t>maa://25199, maa://45059, maa://30434, *maa://44165</t>
+          <t>maa://45059, maa://25199, maa://30434, *maa://44165</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="P52" s="18" t="inlineStr">
         <is>
-          <t>maa://59394, maa://59378, maa://65511</t>
+          <t>maa://59394, maa://65511, maa://59378</t>
         </is>
       </c>
       <c r="Q52" s="15" t="n"/>
@@ -7180,7 +7180,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.20 13:21:27</t>
+          <t>更新日期：2025.10.31 13:21:33</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8217,12 +8217,12 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://20960, *maa://20843, *maa://20893, *maa://70680</t>
+          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://20960, *maa://20843, *maa://70680, *maa://20893, *maa://20862</t>
         </is>
       </c>
     </row>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>maa://20993, maa://45606, maa://20829, maa://20900</t>
+          <t>maa://20993, maa://45606, maa://20900, maa://20829</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="D70" s="19" t="inlineStr">
         <is>
-          <t>maa://20974, *maa://29079, maa://29096, maa://29087, *maa://20855, *maa://63722, maa://20904</t>
+          <t>maa://20974, *maa://29079, maa://29096, maa://29087, maa://20855, *maa://63722, maa://20904</t>
         </is>
       </c>
     </row>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="D82" s="19" t="inlineStr">
         <is>
-          <t>maa://30525, maa://20859, *maa://30524</t>
+          <t>maa://30525, maa://20859, **maa://30524</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="D102" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20893</t>
+          <t>maa://45572, maa://27794, maa://20893</t>
         </is>
       </c>
     </row>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="D169" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, maa://29659, maa://49074, maa://29861, *maa://42343</t>
+          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
         </is>
       </c>
     </row>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://59681, maa://64200</t>
+          <t>maa://64200, maa://59681</t>
         </is>
       </c>
     </row>
@@ -13453,12 +13453,12 @@
       </c>
       <c r="C270" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D270" s="19" t="inlineStr">
         <is>
-          <t>*maa://30678, maa://59689</t>
+          <t>maa://59689</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://34205, **maa://39541</t>
+          <t>maa://34205, *maa://39541</t>
         </is>
       </c>
     </row>
@@ -15477,12 +15477,12 @@
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349</t>
+          <t>maa://36868, maa://35996, maa://47349, **maa://71203</t>
         </is>
       </c>
     </row>
@@ -15587,12 +15587,12 @@
       </c>
       <c r="C367" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007, *maa://70752</t>
+          <t>maa://36646, maa://36845, maa://51007, *maa://70752, *maa://71932</t>
         </is>
       </c>
     </row>
@@ -15807,12 +15807,12 @@
       </c>
       <c r="C377" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://71182, maa://70756, **maa://71524</t>
+          <t>maa://71182, maa://70756, *maa://71524, *maa://72244</t>
         </is>
       </c>
     </row>
@@ -16582,7 +16582,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>maa://64040, maa://52505, *maa://66377</t>
+          <t>maa://52505, maa://64040, *maa://66377</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -142,6 +142,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG79"/>
+  <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
@@ -706,12 +709,12 @@
       </c>
       <c r="K2" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L2" s="18" t="inlineStr">
         <is>
-          <t>maa://58660, maa://39402, *maa://34787</t>
+          <t>maa://58660, maa://39402, *maa://34787, **maa://54304</t>
         </is>
       </c>
       <c r="M2" s="15" t="n"/>
@@ -1252,7 +1255,7 @@
       </c>
       <c r="P6" s="18" t="inlineStr">
         <is>
-          <t>maa://31836, *maa://30381</t>
+          <t>maa://31836, maa://30381</t>
         </is>
       </c>
       <c r="Q6" s="15" t="n"/>
@@ -1350,7 +1353,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>*maa://22763, maa://64972</t>
+          <t>maa://22763, maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1454,7 +1457,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.31 13:21:33</t>
+          <t>更新日期：2025.11.03 13:29:46</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1788,12 +1791,12 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, maa://63521</t>
+          <t>maa://27395, maa://22755, maa://63521, *maa://73485</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -2406,12 +2409,12 @@
       </c>
       <c r="K15" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L15" s="18" t="inlineStr">
         <is>
-          <t>maa://21334</t>
+          <t>maa://21334, **maa://73742</t>
         </is>
       </c>
       <c r="M15" s="15" t="n"/>
@@ -2621,7 +2624,7 @@
       </c>
       <c r="AF16" s="18" t="inlineStr">
         <is>
-          <t>maa://23911, maa://27755, maa://67613</t>
+          <t>maa://23911, maa://67613, maa://27755</t>
         </is>
       </c>
       <c r="AG16" s="12" t="n"/>
@@ -2817,7 +2820,7 @@
       </c>
       <c r="P18" s="18" t="inlineStr">
         <is>
-          <t>maa://24379, maa://54153, *maa://24380</t>
+          <t>maa://54153, maa://24379, *maa://24380</t>
         </is>
       </c>
       <c r="Q18" s="15" t="n"/>
@@ -2979,7 +2982,7 @@
       </c>
       <c r="X19" s="18" t="inlineStr">
         <is>
-          <t>maa://31386, *maa://58490</t>
+          <t>maa://31386, maa://58490</t>
         </is>
       </c>
       <c r="Y19" s="15" t="n"/>
@@ -3109,7 +3112,7 @@
       </c>
       <c r="X20" s="18" t="inlineStr">
         <is>
-          <t>maa://50085, maa://56241, maa://49976</t>
+          <t>maa://56241, maa://50085, maa://49976</t>
         </is>
       </c>
       <c r="Y20" s="15" t="n"/>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="L22" s="18" t="inlineStr">
         <is>
-          <t>maa://27127, *maa://22751, maa://66865</t>
+          <t>maa://27127, maa://66865, *maa://22751</t>
         </is>
       </c>
       <c r="M22" s="15" t="n"/>
@@ -3467,7 +3470,7 @@
       </c>
       <c r="P23" s="18" t="inlineStr">
         <is>
-          <t>maa://30587, *maa://29748, *maa://37566</t>
+          <t>maa://30587, maa://29748, *maa://37566</t>
         </is>
       </c>
       <c r="Q23" s="15" t="n"/>
@@ -3608,12 +3611,12 @@
       </c>
       <c r="S24" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T24" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://73341</t>
         </is>
       </c>
       <c r="U24" s="15" t="n"/>
@@ -3695,7 +3698,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>maa://29063, *maa://25311, maa://45047</t>
+          <t>maa://29063, maa://25311, maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -3711,7 +3714,7 @@
       </c>
       <c r="L25" s="18" t="inlineStr">
         <is>
-          <t>maa://24378, *maa://68415</t>
+          <t>maa://24378, maa://68415</t>
         </is>
       </c>
       <c r="M25" s="15" t="n"/>
@@ -3775,7 +3778,7 @@
       </c>
       <c r="AB25" s="18" t="inlineStr">
         <is>
-          <t>maa://31215, *maa://24516, *maa://26001, maa://68311</t>
+          <t>maa://31215, *maa://24516, maa://68311, *maa://26001</t>
         </is>
       </c>
       <c r="AC25" s="15" t="n"/>
@@ -3857,7 +3860,7 @@
       </c>
       <c r="P26" s="18" t="inlineStr">
         <is>
-          <t>maa://39870, maa://56625</t>
+          <t>maa://56625, maa://39870</t>
         </is>
       </c>
       <c r="Q26" s="15" t="n"/>
@@ -4215,7 +4218,7 @@
       </c>
       <c r="H29" s="18" t="inlineStr">
         <is>
-          <t>maa://25175</t>
+          <t>*maa://73558</t>
         </is>
       </c>
       <c r="I29" s="15" t="n"/>
@@ -4491,7 +4494,7 @@
       </c>
       <c r="L31" s="18" t="inlineStr">
         <is>
-          <t>maa://35926, maa://36258, *maa://43904</t>
+          <t>maa://35926, maa://36258, maa://43904</t>
         </is>
       </c>
       <c r="M31" s="15" t="n"/>
@@ -4762,12 +4765,12 @@
       </c>
       <c r="O33" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P33" s="18" t="inlineStr">
         <is>
-          <t>maa://21956, maa://69135</t>
+          <t>maa://21956, maa://69135, maa://73357</t>
         </is>
       </c>
       <c r="Q33" s="15" t="n"/>
@@ -4810,12 +4813,12 @@
       </c>
       <c r="AA33" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB33" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://73340, *maa://73523</t>
         </is>
       </c>
       <c r="AC33" s="15" t="n"/>
@@ -4897,7 +4900,7 @@
       </c>
       <c r="P34" s="18" t="inlineStr">
         <is>
-          <t>maa://48817, maa://56235</t>
+          <t>maa://56235, maa://48817</t>
         </is>
       </c>
       <c r="Q34" s="15" t="n"/>
@@ -5282,12 +5285,12 @@
       </c>
       <c r="O37" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P37" s="18" t="inlineStr">
         <is>
-          <t>maa://21280</t>
+          <t>maa://21280, **maa://21239</t>
         </is>
       </c>
       <c r="Q37" s="15" t="n"/>
@@ -5526,12 +5529,12 @@
       </c>
       <c r="S39" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T39" s="18" t="inlineStr">
         <is>
-          <t>maa://47079, maa://45790</t>
+          <t>maa://47079, maa://45790, *maa://56232</t>
         </is>
       </c>
       <c r="U39" s="15" t="n"/>
@@ -5569,8 +5572,22 @@
       <c r="AG39" s="12" t="n"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
+      <c r="B40" s="12" t="inlineStr">
+        <is>
+          <t>凛御银灰</t>
+        </is>
+      </c>
+      <c r="C40" s="22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="12" t="n"/>
       <c r="F40" s="15" t="inlineStr">
         <is>
           <t>战车</t>
@@ -5615,7 +5632,7 @@
       </c>
       <c r="P40" s="18" t="inlineStr">
         <is>
-          <t>maa://23278, maa://21386, maa://36664, **maa://45550</t>
+          <t>maa://23278, maa://21386, maa://36664, *maa://45550</t>
         </is>
       </c>
       <c r="Q40" s="15" t="n"/>
@@ -5658,12 +5675,12 @@
       </c>
       <c r="AE40" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF40" s="15" t="inlineStr">
         <is>
-          <t>maa://65283, maa://64205</t>
+          <t>maa://65283, *maa://64107, maa://64205</t>
         </is>
       </c>
       <c r="AG40" s="12" t="n"/>
@@ -6035,6 +6052,22 @@
         </is>
       </c>
       <c r="U44" s="15" t="n"/>
+      <c r="Z44" s="12" t="inlineStr">
+        <is>
+          <t>溯光星源</t>
+        </is>
+      </c>
+      <c r="AA44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC44" s="12" t="n"/>
       <c r="AD44" s="15" t="inlineStr">
         <is>
           <t>钼铅</t>
@@ -6424,12 +6457,12 @@
       </c>
       <c r="O50" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P50" s="18" t="inlineStr">
         <is>
-          <t>maa://62852</t>
+          <t>maa://62852, ***maa://73565</t>
         </is>
       </c>
       <c r="Q50" s="15" t="n"/>
@@ -6674,15 +6707,31 @@
       </c>
       <c r="O55" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P55" s="12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://73349</t>
         </is>
       </c>
       <c r="Q55" s="12" t="n"/>
+      <c r="R55" s="12" t="inlineStr">
+        <is>
+          <t>协律</t>
+        </is>
+      </c>
+      <c r="S55" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T55" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U55" s="12" t="n"/>
     </row>
     <row r="56">
       <c r="F56" s="15" t="inlineStr">
@@ -6701,6 +6750,38 @@
         </is>
       </c>
       <c r="I56" s="15" t="n"/>
+      <c r="N56" s="12" t="inlineStr">
+        <is>
+          <t>雪猎</t>
+        </is>
+      </c>
+      <c r="O56" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P56" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q56" s="12" t="n"/>
+      <c r="R56" s="12" t="inlineStr">
+        <is>
+          <t>圣聆初雪</t>
+        </is>
+      </c>
+      <c r="S56" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T56" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U56" s="12" t="n"/>
     </row>
     <row r="57">
       <c r="F57" s="15" t="inlineStr">
@@ -6854,12 +6935,12 @@
       </c>
       <c r="G65" s="15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H65" s="18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>maa://73343</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -7115,6 +7196,24 @@
         </is>
       </c>
       <c r="I79" s="12" t="n"/>
+    </row>
+    <row r="80">
+      <c r="F80" s="12" t="inlineStr">
+        <is>
+          <t>哈蒂娅</t>
+        </is>
+      </c>
+      <c r="G80" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7133,7 +7232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB420"/>
+  <dimension ref="A1:AB430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -7180,7 +7279,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.10.31 13:21:33</t>
+          <t>更新日期：2025.11.03 13:29:46</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -7928,7 +8027,7 @@
       </c>
       <c r="D23" s="19" t="inlineStr">
         <is>
-          <t>maa://20876, *maa://63498</t>
+          <t>maa://20876, maa://63498</t>
         </is>
       </c>
       <c r="F23" s="18" t="n"/>
@@ -8222,7 +8321,7 @@
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://20960, *maa://20843, *maa://70680, *maa://20893, *maa://20862</t>
+          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://70680, *maa://20960, *maa://20843, *maa://20893, *maa://20862</t>
         </is>
       </c>
     </row>
@@ -8987,12 +9086,12 @@
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D67" s="19" t="inlineStr">
         <is>
-          <t>maa://20993, maa://45606, maa://20900, maa://20829</t>
+          <t>maa://20993, maa://45606, *maa://20914, maa://20900, maa://20829</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9648,7 @@
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
         <is>
-          <t>红云</t>
+          <t>坚雷</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
@@ -9559,24 +9658,24 @@
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D93" s="19" t="inlineStr">
         <is>
-          <t>maa://20890</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
         <is>
-          <t>炎客</t>
+          <t>红云</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
         <is>
-          <t>S4-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C94" s="7" t="inlineStr">
@@ -9586,19 +9685,19 @@
       </c>
       <c r="D94" s="19" t="inlineStr">
         <is>
-          <t>maa://20984</t>
+          <t>maa://20890</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="inlineStr">
         <is>
-          <t>送葬人</t>
+          <t>炎客</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>IW-8</t>
+          <t>S4-3</t>
         </is>
       </c>
       <c r="C95" s="7" t="inlineStr">
@@ -9608,19 +9707,19 @@
       </c>
       <c r="D95" s="19" t="inlineStr">
         <is>
-          <t>maa://40157</t>
+          <t>maa://20984</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="inlineStr">
         <is>
-          <t>麦哲伦</t>
+          <t>送葬人</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>IW-8</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
@@ -9630,7 +9729,7 @@
       </c>
       <c r="D96" s="19" t="inlineStr">
         <is>
-          <t>maa://20927</t>
+          <t>maa://40157</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9741,7 @@
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
@@ -9652,63 +9751,63 @@
       </c>
       <c r="D97" s="19" t="inlineStr">
         <is>
-          <t>maa://20926</t>
+          <t>maa://20927</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6" t="inlineStr">
         <is>
-          <t>伊桑</t>
+          <t>麦哲伦</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
         <is>
-          <t>TW-3</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D98" s="19" t="inlineStr">
         <is>
-          <t>maa://20991, *maa://51015</t>
+          <t>maa://20926</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
         <is>
-          <t>微风</t>
+          <t>伊桑</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>TW-3</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D99" s="19" t="inlineStr">
         <is>
-          <t>maa://20967</t>
+          <t>maa://20991, *maa://51015</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6" t="inlineStr">
         <is>
-          <t>梅</t>
+          <t>微风</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
@@ -9718,19 +9817,19 @@
       </c>
       <c r="D100" s="19" t="inlineStr">
         <is>
-          <t>maa://20929</t>
+          <t>maa://20967</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
         <is>
-          <t>拜松</t>
+          <t>梅</t>
         </is>
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C101" s="7" t="inlineStr">
@@ -9740,51 +9839,51 @@
       </c>
       <c r="D101" s="19" t="inlineStr">
         <is>
-          <t>maa://20852</t>
+          <t>maa://20929</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="inlineStr">
         <is>
-          <t>槐琥</t>
+          <t>拜松</t>
         </is>
       </c>
       <c r="B102" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C102" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D102" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, maa://20893</t>
+          <t>maa://20852</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
         <is>
-          <t>莫斯提马</t>
+          <t>槐琥</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D103" s="19" t="inlineStr">
         <is>
-          <t>maa://40517</t>
+          <t>maa://45572, maa://27794, maa://20893</t>
         </is>
       </c>
     </row>
@@ -9796,51 +9895,51 @@
       </c>
       <c r="B104" s="6" t="inlineStr">
         <is>
-          <t>CB-5</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D104" s="19" t="inlineStr">
         <is>
-          <t>maa://29094, maa://28904</t>
+          <t>maa://40517</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
         <is>
-          <t>苇草</t>
+          <t>莫斯提马</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>CB-5</t>
         </is>
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D105" s="19" t="inlineStr">
         <is>
-          <t>maa://20966</t>
+          <t>maa://29094, maa://28904</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
         <is>
-          <t>布洛卡</t>
+          <t>苇草</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
@@ -9850,73 +9949,73 @@
       </c>
       <c r="D106" s="19" t="inlineStr">
         <is>
-          <t>maa://39143</t>
+          <t>maa://20966</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
         <is>
-          <t>安比尔</t>
+          <t>布洛卡</t>
         </is>
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D107" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20843</t>
+          <t>maa://39143</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
         <is>
-          <t>灰喉</t>
+          <t>安比尔</t>
         </is>
       </c>
       <c r="B108" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://20894</t>
+          <t>maa://45572, maa://27794, *maa://20843</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
         <is>
-          <t>煌</t>
+          <t>灰喉</t>
         </is>
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C109" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D109" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://32653, *maa://25161, *maa://61839, *maa://61275</t>
+          <t>maa://20894</t>
         </is>
       </c>
     </row>
@@ -9928,51 +10027,51 @@
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D110" s="19" t="inlineStr">
         <is>
-          <t>maa://36646, maa://25774, maa://35996, maa://22469, *maa://30668, maa://67286</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://32653, *maa://25161, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
         <is>
-          <t>雪雉</t>
+          <t>煌</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D111" s="19" t="inlineStr">
         <is>
-          <t>maa://45259</t>
+          <t>maa://36646, maa://25774, maa://35996, maa://22469, *maa://30668, maa://67286</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="inlineStr">
         <is>
-          <t>吽</t>
+          <t>雪雉</t>
         </is>
       </c>
       <c r="B112" s="6" t="inlineStr">
         <is>
-          <t>S2-4</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
@@ -9982,19 +10081,19 @@
       </c>
       <c r="D112" s="19" t="inlineStr">
         <is>
-          <t>maa://20887</t>
+          <t>maa://45259</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
         <is>
-          <t>阿</t>
+          <t>吽</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>S2-4</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
@@ -10004,29 +10103,29 @@
       </c>
       <c r="D113" s="19" t="inlineStr">
         <is>
-          <t>maa://28554</t>
+          <t>maa://20887</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
         <is>
-          <t>年</t>
+          <t>阿</t>
         </is>
       </c>
       <c r="B114" s="6" t="inlineStr">
         <is>
-          <t>WR-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D114" s="19" t="inlineStr">
         <is>
-          <t>maa://20933, maa://20822</t>
+          <t>maa://28554</t>
         </is>
       </c>
     </row>
@@ -10038,29 +10137,29 @@
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>S6-2</t>
+          <t>WR-9</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D115" s="19" t="inlineStr">
         <is>
-          <t>maa://29037</t>
+          <t>maa://20933, maa://20822</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
         <is>
-          <t>惊蛰</t>
+          <t>年</t>
         </is>
       </c>
       <c r="B116" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>S6-2</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
@@ -10070,29 +10169,29 @@
       </c>
       <c r="D116" s="19" t="inlineStr">
         <is>
-          <t>maa://20904</t>
+          <t>maa://29037</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
         <is>
-          <t>刻俄柏</t>
+          <t>惊蛰</t>
         </is>
       </c>
       <c r="B117" s="6" t="inlineStr">
         <is>
-          <t>RI-6</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D117" s="19" t="inlineStr">
         <is>
-          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
+          <t>maa://20904</t>
         </is>
       </c>
     </row>
@@ -10104,29 +10203,29 @@
       </c>
       <c r="B118" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>RI-6</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D118" s="19" t="inlineStr">
         <is>
-          <t>maa://29659, maa://29031</t>
+          <t>maa://20908, maa://35723, maa://38822, *maa://58659</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
         <is>
-          <t>清流</t>
+          <t>刻俄柏</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C119" s="7" t="inlineStr">
@@ -10136,95 +10235,95 @@
       </c>
       <c r="D119" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20940</t>
+          <t>maa://29659, maa://29031</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
         <is>
-          <t>宴</t>
+          <t>清流</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C120" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D120" s="19" t="inlineStr">
         <is>
-          <t>maa://20986</t>
+          <t>maa://31560, maa://20940</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="inlineStr">
         <is>
-          <t>柏喙</t>
+          <t>宴</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D121" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, *maa://20851</t>
+          <t>maa://20986</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
         <is>
-          <t>慑砂</t>
+          <t>柏喙</t>
         </is>
       </c>
       <c r="B122" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D122" s="19" t="inlineStr">
         <is>
-          <t>maa://20949</t>
+          <t>maa://31560, *maa://20851</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
         <is>
-          <t>风笛</t>
+          <t>慑砂</t>
         </is>
       </c>
       <c r="B123" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C123" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D123" s="19" t="inlineStr">
         <is>
-          <t>maa://20869, maa://44690</t>
+          <t>maa://20949</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10335,7 @@
       </c>
       <c r="B124" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C124" s="7" t="inlineStr">
@@ -10246,41 +10345,41 @@
       </c>
       <c r="D124" s="19" t="inlineStr">
         <is>
-          <t>maa://29650, maa://45570</t>
+          <t>maa://20869, maa://44690</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="inlineStr">
         <is>
-          <t>断罪者</t>
+          <t>风笛</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D125" s="19" t="inlineStr">
         <is>
-          <t>maa://20868</t>
+          <t>maa://29650, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
         <is>
-          <t>刻刀</t>
+          <t>断罪者</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C126" s="7" t="inlineStr">
@@ -10290,19 +10389,19 @@
       </c>
       <c r="D126" s="19" t="inlineStr">
         <is>
-          <t>maa://20909</t>
+          <t>maa://20868</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="inlineStr">
         <is>
-          <t>铸铁</t>
+          <t>刻刀</t>
         </is>
       </c>
       <c r="B127" s="6" t="inlineStr">
         <is>
-          <t>DH-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C127" s="7" t="inlineStr">
@@ -10312,19 +10411,19 @@
       </c>
       <c r="D127" s="19" t="inlineStr">
         <is>
-          <t>maa://44403</t>
+          <t>maa://20909</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
         <is>
-          <t>巫恋</t>
+          <t>铸铁</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>DH-3</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
@@ -10334,29 +10433,29 @@
       </c>
       <c r="D128" s="19" t="inlineStr">
         <is>
-          <t>maa://30501</t>
+          <t>maa://44403</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6" t="inlineStr">
         <is>
-          <t>傀影</t>
+          <t>巫恋</t>
         </is>
       </c>
       <c r="B129" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D129" s="19" t="inlineStr">
         <is>
-          <t>*maa://20914, maa://20829</t>
+          <t>maa://30501</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10467,7 @@
       </c>
       <c r="B130" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
@@ -10378,19 +10477,19 @@
       </c>
       <c r="D130" s="19" t="inlineStr">
         <is>
-          <t>maa://37484, maa://24611</t>
+          <t>*maa://20914, maa://20829</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="inlineStr">
         <is>
-          <t>极境</t>
+          <t>傀影</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
@@ -10400,29 +10499,29 @@
       </c>
       <c r="D131" s="19" t="inlineStr">
         <is>
-          <t>maa://24491, *maa://24493</t>
+          <t>maa://37484, maa://24611</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>极境</t>
         </is>
       </c>
       <c r="B132" s="6" t="inlineStr">
         <is>
-          <t>BI-5</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D132" s="19" t="inlineStr">
         <is>
-          <t>maa://21422</t>
+          <t>maa://24491, *maa://24493</t>
         </is>
       </c>
     </row>
@@ -10434,7 +10533,7 @@
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>IC-6</t>
+          <t>BI-5</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
@@ -10444,29 +10543,29 @@
       </c>
       <c r="D133" s="19" t="inlineStr">
         <is>
-          <t>maa://30719</t>
+          <t>maa://21422</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>温蒂</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr">
         <is>
-          <t>DM-3</t>
+          <t>IC-6</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D134" s="19" t="inlineStr">
         <is>
-          <t>maa://20837, *maa://37666</t>
+          <t>maa://30719</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10577,7 @@
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>DM-3</t>
         </is>
       </c>
       <c r="C135" s="7" t="inlineStr">
@@ -10488,63 +10587,63 @@
       </c>
       <c r="D135" s="19" t="inlineStr">
         <is>
-          <t>maa://29023, *maa://39515</t>
+          <t>maa://20837, *maa://37666</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>月禾</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D136" s="19" t="inlineStr">
         <is>
-          <t>maa://39146</t>
+          <t>maa://29023, *maa://39515</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>波登可</t>
+          <t>石棉</t>
         </is>
       </c>
       <c r="B137" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>6-2</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D137" s="19" t="inlineStr">
         <is>
-          <t>maa://20856</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>苦艾</t>
+          <t>月禾</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr">
@@ -10554,19 +10653,19 @@
       </c>
       <c r="D138" s="19" t="inlineStr">
         <is>
-          <t>maa://20913</t>
+          <t>maa://39146</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>莱恩哈特</t>
+          <t>波登可</t>
         </is>
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr">
@@ -10576,19 +10675,19 @@
       </c>
       <c r="D139" s="19" t="inlineStr">
         <is>
-          <t>maa://41856</t>
+          <t>maa://20856</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>早露</t>
+          <t>苦艾</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr">
@@ -10598,19 +10697,19 @@
       </c>
       <c r="D140" s="19" t="inlineStr">
         <is>
-          <t>maa://29025</t>
+          <t>maa://20913</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>卡达</t>
+          <t>莱恩哈特</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr">
@@ -10620,19 +10719,19 @@
       </c>
       <c r="D141" s="19" t="inlineStr">
         <is>
-          <t>maa://45258</t>
+          <t>maa://41856</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="inlineStr">
         <is>
-          <t>亚叶</t>
+          <t>早露</t>
         </is>
       </c>
       <c r="B142" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C142" s="7" t="inlineStr">
@@ -10642,19 +10741,19 @@
       </c>
       <c r="D142" s="19" t="inlineStr">
         <is>
-          <t>maa://20981</t>
+          <t>maa://29025</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
         <is>
-          <t>断崖</t>
+          <t>卡达</t>
         </is>
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C143" s="7" t="inlineStr">
@@ -10664,107 +10763,107 @@
       </c>
       <c r="D143" s="19" t="inlineStr">
         <is>
-          <t>maa://37689</t>
+          <t>maa://45258</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>亚叶</t>
         </is>
       </c>
       <c r="B144" s="6" t="inlineStr">
         <is>
-          <t>TW-7</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D144" s="19" t="inlineStr">
         <is>
-          <t>maa://28484, *maa://31185, *maa://30306</t>
+          <t>maa://20981</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>铃兰</t>
+          <t>断崖</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D145" s="19" t="inlineStr">
         <is>
-          <t>maa://30670, maa://31470, maa://61380</t>
+          <t>maa://37689</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>稀音</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>TW-7</t>
         </is>
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D146" s="19" t="inlineStr">
         <is>
-          <t>maa://20971</t>
+          <t>maa://28484, *maa://31185, *maa://30306</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>蜜蜡</t>
+          <t>铃兰</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D147" s="19" t="inlineStr">
         <is>
-          <t>maa://39147</t>
+          <t>maa://30670, maa://31470, maa://61380</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>贾维</t>
+          <t>稀音</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C148" s="7" t="inlineStr">
@@ -10774,19 +10873,19 @@
       </c>
       <c r="D148" s="19" t="inlineStr">
         <is>
-          <t>maa://20898</t>
+          <t>maa://20971</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="inlineStr">
         <is>
-          <t>孑</t>
+          <t>蜜蜡</t>
         </is>
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>S3-2</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C149" s="7" t="inlineStr">
@@ -10796,63 +10895,63 @@
       </c>
       <c r="D149" s="19" t="inlineStr">
         <is>
-          <t>maa://29056</t>
+          <t>maa://39147</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="inlineStr">
         <is>
-          <t>安哲拉</t>
+          <t>贾维</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>1-1</t>
         </is>
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D150" s="19" t="inlineStr">
         <is>
-          <t>maa://28828, maa://20846</t>
+          <t>maa://20898</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>孑</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>S3-2</t>
         </is>
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D151" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://64408, *maa://37300</t>
+          <t>maa://29056</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>棘刺</t>
+          <t>安哲拉</t>
         </is>
       </c>
       <c r="B152" s="6" t="inlineStr">
         <is>
-          <t>7-2</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C152" s="7" t="inlineStr">
@@ -10862,63 +10961,63 @@
       </c>
       <c r="D152" s="19" t="inlineStr">
         <is>
-          <t>maa://51549, maa://51923</t>
+          <t>maa://28828, maa://20846</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>酸糖</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://20961</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://64408, *maa://37300</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6" t="inlineStr">
         <is>
-          <t>特米米</t>
+          <t>棘刺</t>
         </is>
       </c>
       <c r="B154" s="6" t="inlineStr">
         <is>
-          <t>RI-2</t>
+          <t>7-2</t>
         </is>
       </c>
       <c r="C154" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D154" s="19" t="inlineStr">
         <is>
-          <t>maa://20963</t>
+          <t>maa://51549, maa://51923</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
         <is>
-          <t>燧石</t>
+          <t>酸糖</t>
         </is>
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C155" s="7" t="inlineStr">
@@ -10928,41 +11027,41 @@
       </c>
       <c r="D155" s="19" t="inlineStr">
         <is>
-          <t>maa://39148</t>
+          <t>maa://20961</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>特米米</t>
         </is>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>RI-2</t>
         </is>
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D156" s="19" t="inlineStr">
         <is>
-          <t>maa://20946, maa://20833</t>
+          <t>maa://20963</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>森蚺</t>
+          <t>燧石</t>
         </is>
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C157" s="7" t="inlineStr">
@@ -10972,41 +11071,41 @@
       </c>
       <c r="D157" s="19" t="inlineStr">
         <is>
-          <t>maa://20945</t>
+          <t>maa://39148</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>芳汀</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B158" s="6" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C158" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D158" s="19" t="inlineStr">
         <is>
-          <t>maa://37694</t>
+          <t>maa://20946, maa://20833</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>薄绿</t>
+          <t>森蚺</t>
         </is>
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C159" s="7" t="inlineStr">
@@ -11016,19 +11115,19 @@
       </c>
       <c r="D159" s="19" t="inlineStr">
         <is>
-          <t>maa://39149</t>
+          <t>maa://20945</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>四月</t>
+          <t>芳汀</t>
         </is>
       </c>
       <c r="B160" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="C160" s="7" t="inlineStr">
@@ -11038,41 +11137,41 @@
       </c>
       <c r="D160" s="19" t="inlineStr">
         <is>
-          <t>maa://20959</t>
+          <t>maa://37694</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>史尔特尔</t>
+          <t>薄绿</t>
         </is>
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D161" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, *maa://45603</t>
+          <t>maa://39149</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>泡泡</t>
+          <t>四月</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C162" s="7" t="inlineStr">
@@ -11082,41 +11181,41 @@
       </c>
       <c r="D162" s="19" t="inlineStr">
         <is>
-          <t>maa://20936</t>
+          <t>maa://20959</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="inlineStr">
         <is>
-          <t>鞭刃</t>
+          <t>史尔特尔</t>
         </is>
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C163" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>maa://20855</t>
+          <t>maa://44232, *maa://45603</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="inlineStr">
         <is>
-          <t>奥斯塔</t>
+          <t>泡泡</t>
         </is>
       </c>
       <c r="B164" s="6" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C164" s="7" t="inlineStr">
@@ -11126,41 +11225,41 @@
       </c>
       <c r="D164" s="19" t="inlineStr">
         <is>
-          <t>maa://40158</t>
+          <t>maa://20936</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>鞭刃</t>
         </is>
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>MN-4</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D165" s="19" t="inlineStr">
         <is>
-          <t>*maa://32845, maa://29054</t>
+          <t>maa://20855</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>瑕光</t>
+          <t>奥斯塔</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="C166" s="7" t="inlineStr">
@@ -11170,151 +11269,151 @@
       </c>
       <c r="D166" s="19" t="inlineStr">
         <is>
-          <t>maa://20973</t>
+          <t>maa://40158</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6" t="inlineStr">
         <is>
-          <t>杰克</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B167" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>MN-4</t>
         </is>
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D167" s="19" t="inlineStr">
         <is>
-          <t>maa://39150</t>
+          <t>*maa://32845, maa://29054</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
         <is>
-          <t>絮雨</t>
+          <t>瑕光</t>
         </is>
       </c>
       <c r="B168" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C168" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D168" s="19" t="inlineStr">
         <is>
-          <t>maa://20975, maa://47950, maa://30806</t>
+          <t>maa://20973</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>杰克</t>
         </is>
       </c>
       <c r="B169" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C169" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D169" s="19" t="inlineStr">
         <is>
-          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
+          <t>maa://39150</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>泥岩</t>
+          <t>絮雨</t>
         </is>
       </c>
       <c r="B170" s="6" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://49867, maa://49655</t>
+          <t>maa://47950, maa://20975, maa://30806</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>迷迭香</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B171" s="6" t="inlineStr">
         <is>
-          <t>4-1</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D171" s="19" t="inlineStr">
         <is>
-          <t>maa://29059</t>
+          <t>maa://29633, maa://29627, *maa://29659, maa://49074, maa://29861, *maa://42343</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>泥岩</t>
         </is>
       </c>
       <c r="B172" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D172" s="19" t="inlineStr">
         <is>
-          <t>maa://45556</t>
+          <t>maa://49867, maa://49655</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>松果</t>
+          <t>迷迭香</t>
         </is>
       </c>
       <c r="B173" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>4-1</t>
         </is>
       </c>
       <c r="C173" s="7" t="inlineStr">
@@ -11324,19 +11423,19 @@
       </c>
       <c r="D173" s="19" t="inlineStr">
         <is>
-          <t>maa://40159</t>
+          <t>maa://29059</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6" t="inlineStr">
         <is>
-          <t>罗宾</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B174" s="6" t="inlineStr">
         <is>
-          <t>BI-EX-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C174" s="7" t="inlineStr">
@@ -11346,19 +11445,19 @@
       </c>
       <c r="D174" s="19" t="inlineStr">
         <is>
-          <t>maa://39152</t>
+          <t>maa://45556</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="inlineStr">
         <is>
-          <t>卡夫卡</t>
+          <t>松果</t>
         </is>
       </c>
       <c r="B175" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C175" s="7" t="inlineStr">
@@ -11368,107 +11467,107 @@
       </c>
       <c r="D175" s="19" t="inlineStr">
         <is>
-          <t>maa://20905</t>
+          <t>maa://40159</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>罗宾</t>
         </is>
       </c>
       <c r="B176" s="6" t="inlineStr">
         <is>
-          <t>LE-5</t>
+          <t>BI-EX-2</t>
         </is>
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D176" s="19" t="inlineStr">
         <is>
-          <t>maa://64200, maa://59681</t>
+          <t>maa://39152</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6" t="inlineStr">
         <is>
-          <t>山</t>
+          <t>卡夫卡</t>
         </is>
       </c>
       <c r="B177" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-3</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D177" s="19" t="inlineStr">
         <is>
-          <t>maa://32418, maa://63320, maa://51440</t>
+          <t>maa://20905</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6" t="inlineStr">
         <is>
-          <t>豆苗</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B178" s="6" t="inlineStr">
         <is>
-          <t>S3-7</t>
+          <t>LE-5</t>
         </is>
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D178" s="19" t="inlineStr">
         <is>
-          <t>maa://37690</t>
+          <t>maa://64200, maa://59681</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6" t="inlineStr">
         <is>
-          <t>爱丽丝</t>
+          <t>山</t>
         </is>
       </c>
       <c r="B179" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>MB-EX-3</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D179" s="19" t="inlineStr">
         <is>
-          <t>maa://20842</t>
+          <t>maa://32418, maa://63320, maa://51440</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>豆苗</t>
         </is>
       </c>
       <c r="B180" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>S3-7</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
@@ -11478,41 +11577,41 @@
       </c>
       <c r="D180" s="19" t="inlineStr">
         <is>
-          <t>maa://20912</t>
+          <t>maa://37690</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6" t="inlineStr">
         <is>
-          <t>空弦</t>
+          <t>爱丽丝</t>
         </is>
       </c>
       <c r="B181" s="6" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D181" s="19" t="inlineStr">
         <is>
-          <t>maa://20911, *maa://29012</t>
+          <t>maa://20842</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="6" t="inlineStr">
         <is>
-          <t>图耶</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B182" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
@@ -11522,41 +11621,41 @@
       </c>
       <c r="D182" s="19" t="inlineStr">
         <is>
-          <t>maa://20964</t>
+          <t>maa://20912</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6" t="inlineStr">
         <is>
-          <t>炎狱炎熔</t>
+          <t>空弦</t>
         </is>
       </c>
       <c r="B183" s="6" t="inlineStr">
         <is>
-          <t>WR-4</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="C183" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D183" s="19" t="inlineStr">
         <is>
-          <t>maa://20983</t>
+          <t>maa://20911, *maa://29012</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="6" t="inlineStr">
         <is>
-          <t>乌有</t>
+          <t>图耶</t>
         </is>
       </c>
       <c r="B184" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C184" s="7" t="inlineStr">
@@ -11566,19 +11665,19 @@
       </c>
       <c r="D184" s="19" t="inlineStr">
         <is>
-          <t>maa://31560</t>
+          <t>maa://20964</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>炎狱炎熔</t>
         </is>
       </c>
       <c r="B185" s="6" t="inlineStr">
         <is>
-          <t>WR-3</t>
+          <t>WR-4</t>
         </is>
       </c>
       <c r="C185" s="7" t="inlineStr">
@@ -11588,19 +11687,19 @@
       </c>
       <c r="D185" s="19" t="inlineStr">
         <is>
-          <t>maa://28104</t>
+          <t>maa://20983</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6" t="inlineStr">
         <is>
-          <t>嵯峨</t>
+          <t>乌有</t>
         </is>
       </c>
       <c r="B186" s="6" t="inlineStr">
         <is>
-          <t>WR-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C186" s="7" t="inlineStr">
@@ -11610,19 +11709,19 @@
       </c>
       <c r="D186" s="19" t="inlineStr">
         <is>
-          <t>maa://20861</t>
+          <t>maa://31560</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B187" s="6" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>WR-3</t>
         </is>
       </c>
       <c r="C187" s="7" t="inlineStr">
@@ -11632,41 +11731,41 @@
       </c>
       <c r="D187" s="19" t="inlineStr">
         <is>
-          <t>maa://20970</t>
+          <t>maa://28104</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6" t="inlineStr">
         <is>
-          <t>夕</t>
+          <t>嵯峨</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>WR-1</t>
         </is>
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D188" s="19" t="inlineStr">
         <is>
-          <t>maa://20969, maa://41303</t>
+          <t>maa://20861</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6" t="inlineStr">
         <is>
-          <t>战车</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B189" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="C189" s="7" t="inlineStr">
@@ -11676,41 +11775,41 @@
       </c>
       <c r="D189" s="19" t="inlineStr">
         <is>
-          <t>maa://20999</t>
+          <t>maa://20970</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6" t="inlineStr">
         <is>
-          <t>闪击</t>
+          <t>夕</t>
         </is>
       </c>
       <c r="B190" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D190" s="19" t="inlineStr">
         <is>
-          <t>maa://35198</t>
+          <t>maa://20969, maa://41303</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6" t="inlineStr">
         <is>
-          <t>霜华</t>
+          <t>战车</t>
         </is>
       </c>
       <c r="B191" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C191" s="7" t="inlineStr">
@@ -11720,107 +11819,107 @@
       </c>
       <c r="D191" s="19" t="inlineStr">
         <is>
-          <t>maa://39153</t>
+          <t>maa://20999</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>闪击</t>
         </is>
       </c>
       <c r="B192" s="6" t="inlineStr">
         <is>
-          <t>SV-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D192" s="19" t="inlineStr">
         <is>
-          <t>maa://34866, maa://34714</t>
+          <t>maa://35198</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6" t="inlineStr">
         <is>
-          <t>灰烬</t>
+          <t>霜华</t>
         </is>
       </c>
       <c r="B193" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D193" s="19" t="inlineStr">
         <is>
-          <t>maa://34883, maa://20895</t>
+          <t>maa://39153</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6" t="inlineStr">
         <is>
-          <t>暴雨</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B194" s="6" t="inlineStr">
         <is>
-          <t>2-7</t>
+          <t>SV-8</t>
         </is>
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D194" s="19" t="inlineStr">
         <is>
-          <t>maa://20853</t>
+          <t>maa://34866, maa://34714</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6" t="inlineStr">
         <is>
-          <t>熔泉</t>
+          <t>灰烬</t>
         </is>
       </c>
       <c r="B195" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D195" s="19" t="inlineStr">
         <is>
-          <t>maa://20942</t>
+          <t>maa://34883, maa://20895</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>暴雨</t>
         </is>
       </c>
       <c r="B196" s="6" t="inlineStr">
         <is>
-          <t>2-2</t>
+          <t>2-7</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
@@ -11830,41 +11929,41 @@
       </c>
       <c r="D196" s="19" t="inlineStr">
         <is>
-          <t>maa://20992</t>
+          <t>maa://20853</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6" t="inlineStr">
         <is>
-          <t>异客</t>
+          <t>熔泉</t>
         </is>
       </c>
       <c r="B197" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D197" s="19" t="inlineStr">
         <is>
-          <t>*maa://28190, maa://20994</t>
+          <t>maa://20942</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6" t="inlineStr">
         <is>
-          <t>赤冬</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B198" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>2-2</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
@@ -11874,107 +11973,107 @@
       </c>
       <c r="D198" s="19" t="inlineStr">
         <is>
-          <t>maa://20860</t>
+          <t>maa://20992</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>异客</t>
         </is>
       </c>
       <c r="B199" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D199" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, *maa://51066, maa://63024, *maa://70161</t>
+          <t>*maa://28190, maa://20994</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6" t="inlineStr">
         <is>
-          <t>歌蕾蒂娅</t>
+          <t>赤冬</t>
         </is>
       </c>
       <c r="B200" s="6" t="inlineStr">
         <is>
-          <t>SN-EX-3</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D200" s="19" t="inlineStr">
         <is>
-          <t>maa://39156, *maa://53417, *maa://63806</t>
+          <t>maa://20860</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B201" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SV-EX-5</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, maa://63024, *maa://51066, *maa://70161</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6" t="inlineStr">
         <is>
-          <t>凯尔希</t>
+          <t>歌蕾蒂娅</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>SN-EX-3</t>
         </is>
       </c>
       <c r="C202" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D202" s="19" t="inlineStr">
         <is>
-          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
+          <t>maa://39156, *maa://53417, *maa://63806</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6" t="inlineStr">
         <is>
-          <t>浊心斯卡蒂</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B203" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C203" s="7" t="inlineStr">
@@ -11984,63 +12083,63 @@
       </c>
       <c r="D203" s="19" t="inlineStr">
         <is>
-          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6" t="inlineStr">
         <is>
-          <t>深靛</t>
+          <t>凯尔希</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D204" s="19" t="inlineStr">
         <is>
-          <t>maa://39154</t>
+          <t>maa://27823, *maa://28190, maa://22894, *maa://20906</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6" t="inlineStr">
         <is>
-          <t>贝娜</t>
+          <t>浊心斯卡蒂</t>
         </is>
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C205" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D205" s="19" t="inlineStr">
         <is>
-          <t>maa://20854</t>
+          <t>maa://42223, maa://49077, maa://42292, *maa://42402</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6" t="inlineStr">
         <is>
-          <t>绮良</t>
+          <t>深靛</t>
         </is>
       </c>
       <c r="B206" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C206" s="7" t="inlineStr">
@@ -12050,19 +12149,19 @@
       </c>
       <c r="D206" s="8" t="inlineStr">
         <is>
-          <t>maa://20937</t>
+          <t>maa://39154</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>贝娜</t>
         </is>
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
-          <t>7-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C207" s="7" t="inlineStr">
@@ -12072,195 +12171,195 @@
       </c>
       <c r="D207" s="19" t="inlineStr">
         <is>
-          <t>maa://22468</t>
+          <t>maa://20854</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6" t="inlineStr">
         <is>
-          <t>卡涅利安</t>
+          <t>绮良</t>
         </is>
       </c>
       <c r="B208" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D208" s="19" t="inlineStr">
         <is>
-          <t>maa://30673, maa://30672</t>
+          <t>maa://20937</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>7-3</t>
         </is>
       </c>
       <c r="C209" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D209" s="19" t="inlineStr">
         <is>
-          <t>maa://20934, maa://20827, maa://20828</t>
+          <t>maa://22468</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6" t="inlineStr">
         <is>
-          <t>帕拉斯</t>
+          <t>卡涅利安</t>
         </is>
       </c>
       <c r="B210" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C210" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D210" s="19" t="inlineStr">
         <is>
-          <t>maa://20935</t>
+          <t>maa://30673, maa://30672</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6" t="inlineStr">
         <is>
-          <t>龙舌兰</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C211" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D211" s="19" t="inlineStr">
         <is>
-          <t>maa://53354</t>
+          <t>maa://20934, maa://20827, maa://20828</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6" t="inlineStr">
         <is>
-          <t>羽毛笔</t>
+          <t>帕拉斯</t>
         </is>
       </c>
       <c r="B212" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C212" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D212" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://25369</t>
+          <t>maa://20935</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>龙舌兰</t>
         </is>
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C213" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D213" s="19" t="inlineStr">
         <is>
-          <t>maa://20956, *maa://20830, *maa://44703</t>
+          <t>maa://53354</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6" t="inlineStr">
         <is>
-          <t>水月</t>
+          <t>羽毛笔</t>
         </is>
       </c>
       <c r="B214" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C214" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D214" s="19" t="inlineStr">
         <is>
-          <t>maa://20955</t>
+          <t>maa://28133, maa://25369</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B215" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C215" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D215" s="19" t="inlineStr">
         <is>
-          <t>maa://39238</t>
+          <t>maa://20956, *maa://20830, *maa://44703</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6" t="inlineStr">
         <is>
-          <t>假日威龙陈</t>
+          <t>水月</t>
         </is>
       </c>
       <c r="B216" s="6" t="inlineStr">
         <is>
-          <t>DH-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C216" s="7" t="inlineStr">
@@ -12270,19 +12369,19 @@
       </c>
       <c r="D216" s="19" t="inlineStr">
         <is>
-          <t>maa://64044</t>
+          <t>maa://20955</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6" t="inlineStr">
         <is>
-          <t>罗比菈塔</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B217" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C217" s="7" t="inlineStr">
@@ -12292,19 +12391,19 @@
       </c>
       <c r="D217" s="19" t="inlineStr">
         <is>
-          <t>maa://45261</t>
+          <t>maa://39238</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6" t="inlineStr">
         <is>
-          <t>桑葚</t>
+          <t>假日威龙陈</t>
         </is>
       </c>
       <c r="B218" s="6" t="inlineStr">
         <is>
-          <t>SV-5</t>
+          <t>DH-7</t>
         </is>
       </c>
       <c r="C218" s="7" t="inlineStr">
@@ -12314,41 +12413,41 @@
       </c>
       <c r="D218" s="19" t="inlineStr">
         <is>
-          <t>maa://39694</t>
+          <t>maa://64044</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>罗比菈塔</t>
         </is>
       </c>
       <c r="B219" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D219" s="19" t="inlineStr">
         <is>
-          <t>maa://24636, maa://25778</t>
+          <t>maa://45261</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6" t="inlineStr">
         <is>
-          <t>琴柳</t>
+          <t>桑葚</t>
         </is>
       </c>
       <c r="B220" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>SV-5</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
@@ -12358,63 +12457,63 @@
       </c>
       <c r="D220" s="19" t="inlineStr">
         <is>
-          <t>maa://48261</t>
+          <t>maa://39694</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6" t="inlineStr">
         <is>
-          <t>灰毫</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B221" s="6" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D221" s="19" t="inlineStr">
         <is>
-          <t>maa://39157</t>
+          <t>maa://24636, maa://25778</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>琴柳</t>
         </is>
       </c>
       <c r="B222" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D222" s="19" t="inlineStr">
         <is>
-          <t>*maa://26496, maa://20995</t>
+          <t>maa://48261</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6" t="inlineStr">
         <is>
-          <t>远牙</t>
+          <t>灰毫</t>
         </is>
       </c>
       <c r="B223" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
@@ -12424,41 +12523,41 @@
       </c>
       <c r="D223" s="19" t="inlineStr">
         <is>
-          <t>maa://26499</t>
+          <t>maa://39157</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6" t="inlineStr">
         <is>
-          <t>布丁</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B224" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D224" s="19" t="inlineStr">
         <is>
-          <t>maa://20858</t>
+          <t>*maa://26496, maa://20995</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6" t="inlineStr">
         <is>
-          <t>蜜莓</t>
+          <t>远牙</t>
         </is>
       </c>
       <c r="B225" s="6" t="inlineStr">
         <is>
-          <t>GA-2</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C225" s="7" t="inlineStr">
@@ -12468,19 +12567,19 @@
       </c>
       <c r="D225" s="19" t="inlineStr">
         <is>
-          <t>maa://39695</t>
+          <t>maa://26499</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6" t="inlineStr">
         <is>
-          <t>野鬃</t>
+          <t>布丁</t>
         </is>
       </c>
       <c r="B226" s="6" t="inlineStr">
         <is>
-          <t>MN-2</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C226" s="7" t="inlineStr">
@@ -12490,19 +12589,19 @@
       </c>
       <c r="D226" s="19" t="inlineStr">
         <is>
-          <t>maa://20988</t>
+          <t>maa://20858</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6" t="inlineStr">
         <is>
-          <t>蚀清</t>
+          <t>蜜莓</t>
         </is>
       </c>
       <c r="B227" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-2</t>
         </is>
       </c>
       <c r="C227" s="7" t="inlineStr">
@@ -12512,41 +12611,41 @@
       </c>
       <c r="D227" s="19" t="inlineStr">
         <is>
-          <t>maa://39158</t>
+          <t>maa://39695</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>野鬃</t>
         </is>
       </c>
       <c r="B228" s="6" t="inlineStr">
         <is>
-          <t>NL-5</t>
+          <t>MN-2</t>
         </is>
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D228" s="19" t="inlineStr">
         <is>
-          <t>maa://28187, *maa://39520</t>
+          <t>maa://20988</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6" t="inlineStr">
         <is>
-          <t>焰尾</t>
+          <t>蚀清</t>
         </is>
       </c>
       <c r="B229" s="6" t="inlineStr">
         <is>
-          <t>NL-3</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C229" s="7" t="inlineStr">
@@ -12556,19 +12655,19 @@
       </c>
       <c r="D229" s="19" t="inlineStr">
         <is>
-          <t>maa://20985</t>
+          <t>maa://39158</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B230" s="6" t="inlineStr">
         <is>
-          <t>MN-8</t>
+          <t>NL-5</t>
         </is>
       </c>
       <c r="C230" s="7" t="inlineStr">
@@ -12578,80 +12677,80 @@
       </c>
       <c r="D230" s="19" t="inlineStr">
         <is>
-          <t>maa://20987, *maa://35801</t>
+          <t>maa://28187, *maa://39520</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6" t="inlineStr">
         <is>
-          <t>耀骑士临光</t>
+          <t>焰尾</t>
         </is>
       </c>
       <c r="B231" s="6" t="inlineStr">
         <is>
-          <t>NL-10</t>
+          <t>NL-3</t>
         </is>
       </c>
       <c r="C231" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D231" s="19" t="inlineStr">
         <is>
-          <t>*maa://29644, maa://39159</t>
+          <t>maa://20985</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6" t="inlineStr">
         <is>
-          <t>耶拉</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B232" s="6" t="inlineStr">
         <is>
-          <t>BI-7</t>
+          <t>MN-8</t>
         </is>
       </c>
       <c r="C232" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D232" s="19" t="inlineStr">
         <is>
-          <t>maa://30677</t>
+          <t>maa://20987, *maa://35801</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6" t="inlineStr">
         <is>
-          <t>极光</t>
+          <t>耀骑士临光</t>
         </is>
       </c>
       <c r="B233" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>NL-10</t>
         </is>
       </c>
       <c r="C233" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D233" s="19" t="inlineStr">
         <is>
-          <t>maa://20896</t>
+          <t>*maa://29644, maa://39159</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>耶拉</t>
         </is>
       </c>
       <c r="B234" s="6" t="inlineStr">
@@ -12661,24 +12760,24 @@
       </c>
       <c r="C234" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D234" s="19" t="inlineStr">
         <is>
-          <t>maa://29058, maa://39140, *maa://38723</t>
+          <t>maa://30677</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6" t="inlineStr">
         <is>
-          <t>灵知</t>
+          <t>极光</t>
         </is>
       </c>
       <c r="B235" s="6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C235" s="7" t="inlineStr">
@@ -12688,41 +12787,41 @@
       </c>
       <c r="D235" s="19" t="inlineStr">
         <is>
-          <t>maa://48263</t>
+          <t>maa://20896</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6" t="inlineStr">
         <is>
-          <t>九色鹿</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B236" s="6" t="inlineStr">
         <is>
-          <t>IW-3</t>
+          <t>BI-7</t>
         </is>
       </c>
       <c r="C236" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D236" s="19" t="inlineStr">
         <is>
-          <t>maa://39160</t>
+          <t>maa://29058, maa://39140, *maa://38723</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="6" t="inlineStr">
         <is>
-          <t>寒芒克洛丝</t>
+          <t>灵知</t>
         </is>
       </c>
       <c r="B237" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
@@ -12732,41 +12831,41 @@
       </c>
       <c r="D237" s="8" t="inlineStr">
         <is>
-          <t>maa://49491</t>
+          <t>maa://48263</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="6" t="inlineStr">
         <is>
-          <t>夜半</t>
+          <t>暮落</t>
         </is>
       </c>
       <c r="B238" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D238" s="19" t="inlineStr">
         <is>
-          <t>maa://35952</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>九色鹿</t>
         </is>
       </c>
       <c r="B239" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>IW-3</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
@@ -12776,63 +12875,63 @@
       </c>
       <c r="D239" s="19" t="inlineStr">
         <is>
-          <t>maa://20917</t>
+          <t>maa://39160</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6" t="inlineStr">
         <is>
-          <t>老鲤</t>
+          <t>寒芒克洛丝</t>
         </is>
       </c>
       <c r="B240" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D240" s="19" t="inlineStr">
         <is>
-          <t>maa://30714, maa://30675</t>
+          <t>maa://49491</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6" t="inlineStr">
         <is>
-          <t>令</t>
+          <t>夜半</t>
         </is>
       </c>
       <c r="B241" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D241" s="19" t="inlineStr">
         <is>
-          <t>maa://20922, *maa://32623, *maa://34242</t>
+          <t>maa://35952</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6" t="inlineStr">
         <is>
-          <t>夏栎</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B242" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
@@ -12842,63 +12941,63 @@
       </c>
       <c r="D242" s="19" t="inlineStr">
         <is>
-          <t>maa://32999</t>
+          <t>maa://20917</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>老鲤</t>
         </is>
       </c>
       <c r="B243" s="6" t="inlineStr">
         <is>
-          <t>R8-8</t>
+          <t>IW-EX-1</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D243" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726, *maa://68226</t>
+          <t>maa://30714, maa://30675</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6" t="inlineStr">
         <is>
-          <t>澄闪</t>
+          <t>令</t>
         </is>
       </c>
       <c r="B244" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D244" s="8" t="inlineStr">
         <is>
-          <t>maa://62759, *maa://70680</t>
+          <t>maa://20922, *maa://32623, *maa://34242</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6" t="inlineStr">
         <is>
-          <t>见行者</t>
+          <t>夏栎</t>
         </is>
       </c>
       <c r="B245" s="6" t="inlineStr">
         <is>
-          <t>GA-EX-1</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C245" s="7" t="inlineStr">
@@ -12908,85 +13007,85 @@
       </c>
       <c r="D245" s="19" t="inlineStr">
         <is>
-          <t>maa://30512</t>
+          <t>maa://32999</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6" t="inlineStr">
         <is>
-          <t>风丸</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B246" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>R8-8</t>
         </is>
       </c>
       <c r="C246" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D246" s="19" t="inlineStr">
         <is>
-          <t>maa://20870</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726, *maa://68226</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>澄闪</t>
         </is>
       </c>
       <c r="B247" s="6" t="inlineStr">
         <is>
-          <t>GA-4</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D247" s="19" t="inlineStr">
         <is>
-          <t>maa://29024</t>
+          <t>maa://62759, *maa://70680</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6" t="inlineStr">
         <is>
-          <t>菲亚梅塔</t>
+          <t>见行者</t>
         </is>
       </c>
       <c r="B248" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>GA-EX-1</t>
         </is>
       </c>
       <c r="C248" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D248" s="19" t="inlineStr">
         <is>
-          <t>maa://20867, maa://38485</t>
+          <t>maa://30512</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6" t="inlineStr">
         <is>
-          <t>褐果</t>
+          <t>风丸</t>
         </is>
       </c>
       <c r="B249" s="6" t="inlineStr">
         <is>
-          <t>SV-3</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C249" s="7" t="inlineStr">
@@ -12996,19 +13095,19 @@
       </c>
       <c r="D249" s="8" t="inlineStr">
         <is>
-          <t>maa://40160</t>
+          <t>maa://20870</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6" t="inlineStr">
         <is>
-          <t>海蒂</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B250" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>GA-4</t>
         </is>
       </c>
       <c r="C250" s="7" t="inlineStr">
@@ -13018,85 +13117,85 @@
       </c>
       <c r="D250" s="19" t="inlineStr">
         <is>
-          <t>maa://43089</t>
+          <t>maa://29024</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6" t="inlineStr">
         <is>
-          <t>洛洛</t>
+          <t>菲亚梅塔</t>
         </is>
       </c>
       <c r="B251" s="6" t="inlineStr">
         <is>
-          <t>RI-EX-4</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D251" s="19" t="inlineStr">
         <is>
-          <t>maa://30674</t>
+          <t>maa://20867, maa://38485</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>褐果</t>
         </is>
       </c>
       <c r="B252" s="6" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>SV-3</t>
         </is>
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D252" s="19" t="inlineStr">
         <is>
-          <t>maa://28923, maa://28906, *maa://65613</t>
+          <t>maa://40160</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6" t="inlineStr">
         <is>
-          <t>号角</t>
+          <t>海蒂</t>
         </is>
       </c>
       <c r="B253" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D253" s="19" t="inlineStr">
         <is>
-          <t>maa://42287, maa://45570, maa://60678, maa://42225</t>
+          <t>maa://43089</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6" t="inlineStr">
         <is>
-          <t>掠风</t>
+          <t>洛洛</t>
         </is>
       </c>
       <c r="B254" s="6" t="inlineStr">
         <is>
-          <t>11-9</t>
+          <t>RI-EX-4</t>
         </is>
       </c>
       <c r="C254" s="7" t="inlineStr">
@@ -13106,85 +13205,85 @@
       </c>
       <c r="D254" s="19" t="inlineStr">
         <is>
-          <t>maa://39161</t>
+          <t>maa://30674</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B255" s="6" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D255" s="19" t="inlineStr">
         <is>
-          <t>maa://20923</t>
+          <t>maa://28923, maa://28906, *maa://65613</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6" t="inlineStr">
         <is>
-          <t>流明</t>
+          <t>号角</t>
         </is>
       </c>
       <c r="B256" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D256" s="19" t="inlineStr">
         <is>
-          <t>maa://31559, maa://24093, maa://20924</t>
+          <t>maa://42287, maa://45570, maa://60678, maa://42225</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>掠风</t>
         </is>
       </c>
       <c r="B257" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>11-9</t>
         </is>
       </c>
       <c r="C257" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D257" s="19" t="inlineStr">
         <is>
-          <t>maa://40958, *maa://45067</t>
+          <t>maa://39161</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6" t="inlineStr">
         <is>
-          <t>艾丽妮</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B258" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="C258" s="7" t="inlineStr">
@@ -13194,41 +13293,41 @@
       </c>
       <c r="D258" s="19" t="inlineStr">
         <is>
-          <t>maa://20840</t>
+          <t>maa://20923</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>流明</t>
         </is>
       </c>
       <c r="B259" s="6" t="inlineStr">
         <is>
-          <t>SV-EX-1</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C259" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D259" s="19" t="inlineStr">
         <is>
-          <t>maa://20877, *maa://20836</t>
+          <t>maa://31559, maa://24093, maa://20924</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6" t="inlineStr">
         <is>
-          <t>归溟幽灵鲨</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B260" s="6" t="inlineStr">
         <is>
-          <t>S4-1</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C260" s="7" t="inlineStr">
@@ -13238,19 +13337,19 @@
       </c>
       <c r="D260" s="19" t="inlineStr">
         <is>
-          <t>maa://20879, maa://20834</t>
+          <t>maa://40958, *maa://45067</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6" t="inlineStr">
         <is>
-          <t>埃拉托</t>
+          <t>艾丽妮</t>
         </is>
       </c>
       <c r="B261" s="6" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C261" s="7" t="inlineStr">
@@ -13260,41 +13359,41 @@
       </c>
       <c r="D261" s="19" t="inlineStr">
         <is>
-          <t>maa://20839</t>
+          <t>maa://20840</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6" t="inlineStr">
         <is>
-          <t>濯尘芙蓉</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B262" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>SV-EX-1</t>
         </is>
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D262" s="19" t="inlineStr">
         <is>
-          <t>maa://30676</t>
+          <t>maa://20877, *maa://20836</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>归溟幽灵鲨</t>
         </is>
       </c>
       <c r="B263" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>S4-1</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
@@ -13304,19 +13403,19 @@
       </c>
       <c r="D263" s="19" t="inlineStr">
         <is>
-          <t>maa://31560, maa://20884</t>
+          <t>maa://20879, maa://20834</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>埃拉托</t>
         </is>
       </c>
       <c r="B264" s="6" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
@@ -13326,41 +13425,41 @@
       </c>
       <c r="D264" s="19" t="inlineStr">
         <is>
-          <t>maa://47204</t>
+          <t>maa://20839</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6" t="inlineStr">
         <is>
-          <t>黑键</t>
+          <t>车尔尼</t>
         </is>
       </c>
       <c r="B265" s="6" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>LE-3</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D265" s="19" t="inlineStr">
         <is>
-          <t>maa://29027</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6" t="inlineStr">
         <is>
-          <t>星源</t>
+          <t>濯尘芙蓉</t>
         </is>
       </c>
       <c r="B266" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
@@ -13370,41 +13469,41 @@
       </c>
       <c r="D266" s="19" t="inlineStr">
         <is>
-          <t>maa://20977</t>
+          <t>maa://30676</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6" t="inlineStr">
         <is>
-          <t>承曦格雷伊</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B267" s="6" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D267" s="19" t="inlineStr">
         <is>
-          <t>maa://39162</t>
+          <t>maa://31560, maa://20884</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B268" s="6" t="inlineStr">
         <is>
-          <t>MB-EX-1</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="C268" s="7" t="inlineStr">
@@ -13414,19 +13513,19 @@
       </c>
       <c r="D268" s="19" t="inlineStr">
         <is>
-          <t>maa://59682</t>
+          <t>maa://47204</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6" t="inlineStr">
         <is>
-          <t>多萝西</t>
+          <t>黑键</t>
         </is>
       </c>
       <c r="B269" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="C269" s="7" t="inlineStr">
@@ -13436,19 +13535,19 @@
       </c>
       <c r="D269" s="19" t="inlineStr">
         <is>
-          <t>maa://22467</t>
+          <t>maa://29027</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6" t="inlineStr">
         <is>
-          <t>至简</t>
+          <t>星源</t>
         </is>
       </c>
       <c r="B270" s="6" t="inlineStr">
         <is>
-          <t>IC-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C270" s="7" t="inlineStr">
@@ -13458,19 +13557,19 @@
       </c>
       <c r="D270" s="19" t="inlineStr">
         <is>
-          <t>maa://59689</t>
+          <t>maa://20977</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6" t="inlineStr">
         <is>
-          <t>晓歌</t>
+          <t>承曦格雷伊</t>
         </is>
       </c>
       <c r="B271" s="6" t="inlineStr">
         <is>
-          <t>5-3</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="C271" s="7" t="inlineStr">
@@ -13480,19 +13579,19 @@
       </c>
       <c r="D271" s="19" t="inlineStr">
         <is>
-          <t>maa://49643</t>
+          <t>maa://39162</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B272" s="6" t="inlineStr">
         <is>
-          <t>9-7</t>
+          <t>MB-EX-1</t>
         </is>
       </c>
       <c r="C272" s="7" t="inlineStr">
@@ -13502,41 +13601,41 @@
       </c>
       <c r="D272" s="19" t="inlineStr">
         <is>
-          <t>maa://48265</t>
+          <t>maa://59682</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="6" t="inlineStr">
         <is>
-          <t>鸿雪</t>
+          <t>多萝西</t>
         </is>
       </c>
       <c r="B273" s="6" t="inlineStr">
         <is>
-          <t>2-10</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D273" s="19" t="inlineStr">
         <is>
-          <t>maa://20825, maa://21445, *maa://35726</t>
+          <t>maa://22467</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>至简</t>
         </is>
       </c>
       <c r="B274" s="6" t="inlineStr">
         <is>
-          <t>9-2</t>
+          <t>IC-8</t>
         </is>
       </c>
       <c r="C274" s="7" t="inlineStr">
@@ -13546,19 +13645,19 @@
       </c>
       <c r="D274" s="19" t="inlineStr">
         <is>
-          <t>maa://25769</t>
+          <t>maa://59689</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6" t="inlineStr">
         <is>
-          <t>百炼嘉维尔</t>
+          <t>晓歌</t>
         </is>
       </c>
       <c r="B275" s="6" t="inlineStr">
         <is>
-          <t>RI-9</t>
+          <t>5-3</t>
         </is>
       </c>
       <c r="C275" s="7" t="inlineStr">
@@ -13568,19 +13667,19 @@
       </c>
       <c r="D275" s="19" t="inlineStr">
         <is>
-          <t>maa://67819</t>
+          <t>maa://49643</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6" t="inlineStr">
         <is>
-          <t>但书</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B276" s="6" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>9-7</t>
         </is>
       </c>
       <c r="C276" s="7" t="inlineStr">
@@ -13590,41 +13689,41 @@
       </c>
       <c r="D276" s="19" t="inlineStr">
         <is>
-          <t>maa://20862</t>
+          <t>maa://48265</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6" t="inlineStr">
         <is>
-          <t>玛恩纳</t>
+          <t>鸿雪</t>
         </is>
       </c>
       <c r="B277" s="6" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>2-10</t>
         </is>
       </c>
       <c r="C277" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D277" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://51630, maa://56588, *maa://51893, *maa://66758</t>
+          <t>maa://20825, maa://21445, *maa://35726</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6" t="inlineStr">
         <is>
-          <t>罗小黑</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B278" s="6" t="inlineStr">
         <is>
-          <t>IW-4</t>
+          <t>9-2</t>
         </is>
       </c>
       <c r="C278" s="7" t="inlineStr">
@@ -13634,19 +13733,19 @@
       </c>
       <c r="D278" s="19" t="inlineStr">
         <is>
-          <t>maa://39163</t>
+          <t>maa://25769</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6" t="inlineStr">
         <is>
-          <t>海沫</t>
+          <t>百炼嘉维尔</t>
         </is>
       </c>
       <c r="B279" s="6" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>RI-9</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
@@ -13656,19 +13755,19 @@
       </c>
       <c r="D279" s="19" t="inlineStr">
         <is>
-          <t>maa://29061</t>
+          <t>maa://67819</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6" t="inlineStr">
         <is>
-          <t>铅踝</t>
+          <t>但书</t>
         </is>
       </c>
       <c r="B280" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
@@ -13678,63 +13777,63 @@
       </c>
       <c r="D280" s="19" t="inlineStr">
         <is>
-          <t>maa://20939</t>
+          <t>maa://20862</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6" t="inlineStr">
         <is>
-          <t>达格达</t>
+          <t>玛恩纳</t>
         </is>
       </c>
       <c r="B281" s="6" t="inlineStr">
         <is>
-          <t>11-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D281" s="19" t="inlineStr">
         <is>
-          <t>maa://39164</t>
+          <t>maa://51881, maa://51630, maa://56588, *maa://51893, *maa://66758</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>罗小黑</t>
         </is>
       </c>
       <c r="B282" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IW-4</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D282" s="19" t="inlineStr">
         <is>
-          <t>maa://28133, maa://33394</t>
+          <t>maa://39163</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6" t="inlineStr">
         <is>
-          <t>白铁</t>
+          <t>海沫</t>
         </is>
       </c>
       <c r="B283" s="6" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
@@ -13744,19 +13843,19 @@
       </c>
       <c r="D283" s="19" t="inlineStr">
         <is>
-          <t>maa://42311</t>
+          <t>maa://29061</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6" t="inlineStr">
         <is>
-          <t>石英</t>
+          <t>铅踝</t>
         </is>
       </c>
       <c r="B284" s="6" t="inlineStr">
         <is>
-          <t>DH-4</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C284" s="7" t="inlineStr">
@@ -13766,19 +13865,19 @@
       </c>
       <c r="D284" s="19" t="inlineStr">
         <is>
-          <t>maa://41362</t>
+          <t>maa://20939</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6" t="inlineStr">
         <is>
-          <t>雪绒</t>
+          <t>达格达</t>
         </is>
       </c>
       <c r="B285" s="6" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>11-5</t>
         </is>
       </c>
       <c r="C285" s="7" t="inlineStr">
@@ -13788,41 +13887,41 @@
       </c>
       <c r="D285" s="19" t="inlineStr">
         <is>
-          <t>maa://20978</t>
+          <t>maa://39164</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6" t="inlineStr">
         <is>
-          <t>子月</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B286" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C286" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D286" s="19" t="inlineStr">
         <is>
-          <t>maa://21002</t>
+          <t>maa://28133, maa://33394</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>白铁</t>
         </is>
       </c>
       <c r="B287" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C287" s="7" t="inlineStr">
@@ -13832,41 +13931,41 @@
       </c>
       <c r="D287" s="19" t="inlineStr">
         <is>
-          <t>maa://39165</t>
+          <t>maa://42311</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6" t="inlineStr">
         <is>
-          <t>伺夜</t>
+          <t>石英</t>
         </is>
       </c>
       <c r="B288" s="6" t="inlineStr">
         <is>
-          <t>IS-6</t>
+          <t>DH-4</t>
         </is>
       </c>
       <c r="C288" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D288" s="19" t="inlineStr">
         <is>
-          <t>maa://48267, maa://48266</t>
+          <t>maa://41362</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>雪绒</t>
         </is>
       </c>
       <c r="B289" s="6" t="inlineStr">
         <is>
-          <t>CB-4</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="C289" s="7" t="inlineStr">
@@ -13876,19 +13975,19 @@
       </c>
       <c r="D289" s="19" t="inlineStr">
         <is>
-          <t>maa://29635</t>
+          <t>maa://20978</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6" t="inlineStr">
         <is>
-          <t>斥罪</t>
+          <t>子月</t>
         </is>
       </c>
       <c r="B290" s="6" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C290" s="7" t="inlineStr">
@@ -13898,63 +13997,63 @@
       </c>
       <c r="D290" s="19" t="inlineStr">
         <is>
-          <t>maa://38296</t>
+          <t>maa://21002</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6" t="inlineStr">
         <is>
-          <t>缄默德克萨斯</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B291" s="6" t="inlineStr">
         <is>
-          <t>CB-8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C291" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D291" s="19" t="inlineStr">
         <is>
-          <t>maa://20899, maa://46332</t>
+          <t>maa://39165</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6" t="inlineStr">
         <is>
-          <t>谜图</t>
+          <t>伺夜</t>
         </is>
       </c>
       <c r="B292" s="6" t="inlineStr">
         <is>
-          <t>9-4</t>
+          <t>IS-6</t>
         </is>
       </c>
       <c r="C292" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D292" s="19" t="inlineStr">
         <is>
-          <t>maa://53353</t>
+          <t>maa://48267, maa://48266</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6" t="inlineStr">
         <is>
-          <t>和弦</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B293" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>CB-4</t>
         </is>
       </c>
       <c r="C293" s="7" t="inlineStr">
@@ -13964,63 +14063,63 @@
       </c>
       <c r="D293" s="19" t="inlineStr">
         <is>
-          <t>maa://20881</t>
+          <t>maa://29635</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6" t="inlineStr">
         <is>
-          <t>焰影苇草</t>
+          <t>斥罪</t>
         </is>
       </c>
       <c r="B294" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>IS-7</t>
         </is>
       </c>
       <c r="C294" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D294" s="19" t="inlineStr">
         <is>
-          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
+          <t>maa://38296</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6" t="inlineStr">
         <is>
-          <t>截云</t>
+          <t>缄默德克萨斯</t>
         </is>
       </c>
       <c r="B295" s="6" t="inlineStr">
         <is>
-          <t>S2-2</t>
+          <t>CB-8</t>
         </is>
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D295" s="19" t="inlineStr">
         <is>
-          <t>maa://20902</t>
+          <t>maa://20899, maa://46332</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6" t="inlineStr">
         <is>
-          <t>火哨</t>
+          <t>谜图</t>
         </is>
       </c>
       <c r="B296" s="6" t="inlineStr">
         <is>
-          <t>S4-6</t>
+          <t>9-4</t>
         </is>
       </c>
       <c r="C296" s="7" t="inlineStr">
@@ -14030,173 +14129,173 @@
       </c>
       <c r="D296" s="19" t="inlineStr">
         <is>
-          <t>maa://29159</t>
+          <t>maa://53353</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>和弦</t>
         </is>
       </c>
       <c r="B297" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D297" s="19" t="inlineStr">
         <is>
-          <t>maa://25774, maa://28133, maa://22469</t>
+          <t>maa://20881</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6" t="inlineStr">
         <is>
-          <t>林</t>
+          <t>焰影苇草</t>
         </is>
       </c>
       <c r="B298" s="6" t="inlineStr">
         <is>
-          <t>6-5</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D298" s="19" t="inlineStr">
         <is>
-          <t>maa://47882</t>
+          <t>maa://30710, maa://36845, maa://31558, *maa://30668</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>截云</t>
         </is>
       </c>
       <c r="B299" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>S2-2</t>
         </is>
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D299" s="19" t="inlineStr">
         <is>
-          <t>maa://32414, maa://39155, *maa://32505</t>
+          <t>maa://20902</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6" t="inlineStr">
         <is>
-          <t>重岳</t>
+          <t>火哨</t>
         </is>
       </c>
       <c r="B300" s="6" t="inlineStr">
         <is>
-          <t>GA-5</t>
+          <t>S4-6</t>
         </is>
       </c>
       <c r="C300" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D300" s="19" t="inlineStr">
         <is>
-          <t>maa://45799, maa://57199</t>
+          <t>maa://29159</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6" t="inlineStr">
         <is>
-          <t>铎铃</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B301" s="6" t="inlineStr">
         <is>
-          <t>2-1</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D301" s="19" t="inlineStr">
         <is>
-          <t>maa://42312</t>
+          <t>maa://25774, maa://28133, maa://22469</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6" t="inlineStr">
         <is>
-          <t>仇白</t>
+          <t>林</t>
         </is>
       </c>
       <c r="B302" s="6" t="inlineStr">
         <is>
-          <t>WB-7</t>
+          <t>6-5</t>
         </is>
       </c>
       <c r="C302" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D302" s="19" t="inlineStr">
         <is>
-          <t>maa://36642, maa://36867, maa://39155</t>
+          <t>maa://47882</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6" t="inlineStr">
         <is>
-          <t>火龙S黑角</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B303" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C303" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D303" s="19" t="inlineStr">
         <is>
-          <t>maa://39167</t>
+          <t>maa://32414, maa://39155, *maa://32505</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6" t="inlineStr">
         <is>
-          <t>麒麟R夜刀</t>
+          <t>重岳</t>
         </is>
       </c>
       <c r="B304" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>GA-5</t>
         </is>
       </c>
       <c r="C304" s="7" t="inlineStr">
@@ -14206,19 +14305,19 @@
       </c>
       <c r="D304" s="19" t="inlineStr">
         <is>
-          <t>maa://29005, *maa://31560</t>
+          <t>maa://45799, maa://57199</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6" t="inlineStr">
         <is>
-          <t>休谟斯</t>
+          <t>铎铃</t>
         </is>
       </c>
       <c r="B305" s="6" t="inlineStr">
         <is>
-          <t>7-8</t>
+          <t>2-1</t>
         </is>
       </c>
       <c r="C305" s="7" t="inlineStr">
@@ -14228,41 +14327,41 @@
       </c>
       <c r="D305" s="19" t="inlineStr">
         <is>
-          <t>maa://39168</t>
+          <t>maa://42312</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="6" t="inlineStr">
         <is>
-          <t>摩根</t>
+          <t>仇白</t>
         </is>
       </c>
       <c r="B306" s="6" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>WB-7</t>
         </is>
       </c>
       <c r="C306" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D306" s="19" t="inlineStr">
         <is>
-          <t>maa://39169</t>
+          <t>maa://36642, maa://36867, maa://39155</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="6" t="inlineStr">
         <is>
-          <t>洋灰</t>
+          <t>火龙S黑角</t>
         </is>
       </c>
       <c r="B307" s="6" t="inlineStr">
         <is>
-          <t>IW-EX-6</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C307" s="7" t="inlineStr">
@@ -14272,41 +14371,41 @@
       </c>
       <c r="D307" s="19" t="inlineStr">
         <is>
-          <t>maa://39170</t>
+          <t>maa://39167</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6" t="inlineStr">
         <is>
-          <t>伊内丝</t>
+          <t>麒麟R夜刀</t>
         </is>
       </c>
       <c r="B308" s="6" t="inlineStr">
         <is>
-          <t>12-12</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C308" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D308" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, maa://70004, *maa://50517</t>
+          <t>maa://29005, *maa://31560</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6" t="inlineStr">
         <is>
-          <t>玫拉</t>
+          <t>休谟斯</t>
         </is>
       </c>
       <c r="B309" s="6" t="inlineStr">
         <is>
-          <t>S3-5</t>
+          <t>7-8</t>
         </is>
       </c>
       <c r="C309" s="7" t="inlineStr">
@@ -14316,19 +14415,19 @@
       </c>
       <c r="D309" s="19" t="inlineStr">
         <is>
-          <t>maa://39171</t>
+          <t>maa://39168</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>摩根</t>
         </is>
       </c>
       <c r="B310" s="6" t="inlineStr">
         <is>
-          <t>6-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="C310" s="7" t="inlineStr">
@@ -14338,19 +14437,19 @@
       </c>
       <c r="D310" s="19" t="inlineStr">
         <is>
-          <t>maa://27939</t>
+          <t>maa://39169</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6" t="inlineStr">
         <is>
-          <t>淬羽赫默</t>
+          <t>洋灰</t>
         </is>
       </c>
       <c r="B311" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>IW-EX-6</t>
         </is>
       </c>
       <c r="C311" s="7" t="inlineStr">
@@ -14360,41 +14459,41 @@
       </c>
       <c r="D311" s="19" t="inlineStr">
         <is>
-          <t>maa://53352</t>
+          <t>maa://39170</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>伊内丝</t>
         </is>
       </c>
       <c r="B312" s="6" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>12-12</t>
         </is>
       </c>
       <c r="C312" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D312" s="19" t="inlineStr">
         <is>
-          <t>maa://29129</t>
+          <t>maa://50280, maa://49642, maa://49660, maa://70004, *maa://50517</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6" t="inlineStr">
         <is>
-          <t>霍尔海雅</t>
+          <t>玫拉</t>
         </is>
       </c>
       <c r="B313" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>S3-5</t>
         </is>
       </c>
       <c r="C313" s="7" t="inlineStr">
@@ -14404,19 +14503,19 @@
       </c>
       <c r="D313" s="19" t="inlineStr">
         <is>
-          <t>maa://36005</t>
+          <t>maa://39171</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B314" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-3</t>
         </is>
       </c>
       <c r="C314" s="7" t="inlineStr">
@@ -14426,19 +14525,19 @@
       </c>
       <c r="D314" s="19" t="inlineStr">
         <is>
-          <t>maa://35859</t>
+          <t>maa://27939</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="6" t="inlineStr">
         <is>
-          <t>缪尔赛思</t>
+          <t>淬羽赫默</t>
         </is>
       </c>
       <c r="B315" s="6" t="inlineStr">
         <is>
-          <t>6-12</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C315" s="7" t="inlineStr">
@@ -14448,19 +14547,19 @@
       </c>
       <c r="D315" s="19" t="inlineStr">
         <is>
-          <t>maa://53348</t>
+          <t>maa://53352</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="6" t="inlineStr">
         <is>
-          <t>隐现</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B316" s="6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C316" s="7" t="inlineStr">
@@ -14470,19 +14569,19 @@
       </c>
       <c r="D316" s="19" t="inlineStr">
         <is>
-          <t>maa://39172</t>
+          <t>maa://29129</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6" t="inlineStr">
         <is>
-          <t>空构</t>
+          <t>霍尔海雅</t>
         </is>
       </c>
       <c r="B317" s="6" t="inlineStr">
         <is>
-          <t>DM-2</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C317" s="7" t="inlineStr">
@@ -14492,63 +14591,63 @@
       </c>
       <c r="D317" s="19" t="inlineStr">
         <is>
-          <t>maa://39173</t>
+          <t>maa://36005</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B318" s="6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C318" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D318" s="19" t="inlineStr">
         <is>
-          <t>maa://25775, *maa://25393</t>
+          <t>maa://35859</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6" t="inlineStr">
         <is>
-          <t>圣约送葬人</t>
+          <t>缪尔赛思</t>
         </is>
       </c>
       <c r="B319" s="6" t="inlineStr">
         <is>
-          <t>GA-3</t>
+          <t>6-12</t>
         </is>
       </c>
       <c r="C319" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D319" s="19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://53348</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6" t="inlineStr">
         <is>
-          <t>寒檀</t>
+          <t>隐现</t>
         </is>
       </c>
       <c r="B320" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="C320" s="7" t="inlineStr">
@@ -14558,19 +14657,19 @@
       </c>
       <c r="D320" s="19" t="inlineStr">
         <is>
-          <t>maa://40161</t>
+          <t>maa://39172</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>空构</t>
         </is>
       </c>
       <c r="B321" s="6" t="inlineStr">
         <is>
-          <t>S2-1</t>
+          <t>DM-2</t>
         </is>
       </c>
       <c r="C321" s="7" t="inlineStr">
@@ -14580,19 +14679,19 @@
       </c>
       <c r="D321" s="19" t="inlineStr">
         <is>
-          <t>maa://25367</t>
+          <t>maa://39173</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="6" t="inlineStr">
         <is>
-          <t>提丰</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B322" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C322" s="7" t="inlineStr">
@@ -14602,41 +14701,41 @@
       </c>
       <c r="D322" s="19" t="inlineStr">
         <is>
-          <t>maa://62755, maa://62761</t>
+          <t>maa://25775, *maa://25393</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="6" t="inlineStr">
         <is>
-          <t>凛视</t>
+          <t>圣约送葬人</t>
         </is>
       </c>
       <c r="B323" s="6" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>GA-3</t>
         </is>
       </c>
       <c r="C323" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D323" s="19" t="inlineStr">
         <is>
-          <t>maa://43090</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="6" t="inlineStr">
         <is>
-          <t>苍苔</t>
+          <t>寒檀</t>
         </is>
       </c>
       <c r="B324" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C324" s="7" t="inlineStr">
@@ -14646,19 +14745,19 @@
       </c>
       <c r="D324" s="19" t="inlineStr">
         <is>
-          <t>maa://28070</t>
+          <t>maa://40161</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="6" t="inlineStr">
         <is>
-          <t>青枳</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B325" s="6" t="inlineStr">
         <is>
-          <t>OF-5</t>
+          <t>S2-1</t>
         </is>
       </c>
       <c r="C325" s="7" t="inlineStr">
@@ -14668,19 +14767,19 @@
       </c>
       <c r="D325" s="19" t="inlineStr">
         <is>
-          <t>maa://28241</t>
+          <t>maa://25367</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>提丰</t>
         </is>
       </c>
       <c r="B326" s="6" t="inlineStr">
         <is>
-          <t>5-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C326" s="7" t="inlineStr">
@@ -14690,19 +14789,19 @@
       </c>
       <c r="D326" s="19" t="inlineStr">
         <is>
-          <t>maa://25773, *maa://26088</t>
+          <t>maa://62755, maa://62761</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6" t="inlineStr">
         <is>
-          <t>琳琅诗怀雅</t>
+          <t>凛视</t>
         </is>
       </c>
       <c r="B327" s="6" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="C327" s="7" t="inlineStr">
@@ -14712,41 +14811,41 @@
       </c>
       <c r="D327" s="19" t="inlineStr">
         <is>
-          <t>maa://39239</t>
+          <t>maa://43090</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6" t="inlineStr">
         <is>
-          <t>纯烬艾雅法拉</t>
+          <t>苍苔</t>
         </is>
       </c>
       <c r="B328" s="6" t="inlineStr">
         <is>
-          <t>FC-5</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C328" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D328" s="19" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://28070</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6" t="inlineStr">
         <is>
-          <t>冰酿</t>
+          <t>青枳</t>
         </is>
       </c>
       <c r="B329" s="6" t="inlineStr">
         <is>
-          <t>S3-3</t>
+          <t>OF-5</t>
         </is>
       </c>
       <c r="C329" s="7" t="inlineStr">
@@ -14756,85 +14855,85 @@
       </c>
       <c r="D329" s="19" t="inlineStr">
         <is>
-          <t>maa://39174</t>
+          <t>maa://28241</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6" t="inlineStr">
         <is>
-          <t>杏仁</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B330" s="6" t="inlineStr">
         <is>
-          <t>BI-2</t>
+          <t>5-2</t>
         </is>
       </c>
       <c r="C330" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D330" s="19" t="inlineStr">
         <is>
-          <t>maa://39175</t>
+          <t>maa://25773, *maa://26088</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="7" t="inlineStr">
         <is>
-          <t>涤火杰西卡</t>
+          <t>琳琅诗怀雅</t>
         </is>
       </c>
       <c r="B331" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="C331" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D331" s="8" t="inlineStr">
         <is>
-          <t>maa://34715, maa://34867</t>
+          <t>maa://39239</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="7" t="inlineStr">
         <is>
-          <t>维荻</t>
+          <t>纯烬艾雅法拉</t>
         </is>
       </c>
       <c r="B332" s="6" t="inlineStr">
         <is>
-          <t>9-3</t>
+          <t>FC-5</t>
         </is>
       </c>
       <c r="C332" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>maa://39176</t>
+          <t>maa://39692, *maa://39810</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="7" t="inlineStr">
         <is>
-          <t>戴菲恩</t>
+          <t>冰酿</t>
         </is>
       </c>
       <c r="B333" s="6" t="inlineStr">
         <is>
-          <t>WD-6</t>
+          <t>S3-3</t>
         </is>
       </c>
       <c r="C333" s="7" t="inlineStr">
@@ -14844,19 +14943,19 @@
       </c>
       <c r="D333" s="8" t="inlineStr">
         <is>
-          <t>maa://42316</t>
+          <t>maa://39174</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="7" t="inlineStr">
         <is>
-          <t>刺玫</t>
+          <t>杏仁</t>
         </is>
       </c>
       <c r="B334" s="6" t="inlineStr">
         <is>
-          <t>IC-2</t>
+          <t>BI-2</t>
         </is>
       </c>
       <c r="C334" s="7" t="inlineStr">
@@ -14866,63 +14965,63 @@
       </c>
       <c r="D334" s="8" t="inlineStr">
         <is>
-          <t>maa://30680</t>
+          <t>maa://39175</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="7" t="inlineStr">
         <is>
-          <t>赫德雷</t>
+          <t>涤火杰西卡</t>
         </is>
       </c>
       <c r="B335" s="6" t="inlineStr">
         <is>
-          <t>IW-7</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C335" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D335" s="8" t="inlineStr">
         <is>
-          <t>maa://40956</t>
+          <t>maa://34715, maa://34867</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="7" t="inlineStr">
         <is>
-          <t>跃跃</t>
+          <t>维荻</t>
         </is>
       </c>
       <c r="B336" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>9-3</t>
         </is>
       </c>
       <c r="C336" s="7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D336" s="8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://39176</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="7" t="inlineStr">
         <is>
-          <t>折光</t>
+          <t>戴菲恩</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr">
         <is>
-          <t>6-1</t>
+          <t>WD-6</t>
         </is>
       </c>
       <c r="C337" s="7" t="inlineStr">
@@ -14932,19 +15031,19 @@
       </c>
       <c r="D337" s="8" t="inlineStr">
         <is>
-          <t>maa://67818</t>
+          <t>maa://42316</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="7" t="inlineStr">
         <is>
-          <t>深律</t>
+          <t>刺玫</t>
         </is>
       </c>
       <c r="B338" s="6" t="inlineStr">
         <is>
-          <t>LE-4</t>
+          <t>IC-2</t>
         </is>
       </c>
       <c r="C338" s="7" t="inlineStr">
@@ -14954,63 +15053,63 @@
       </c>
       <c r="D338" s="5" t="inlineStr">
         <is>
-          <t>maa://59688</t>
+          <t>maa://30680</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>赫德雷</t>
         </is>
       </c>
       <c r="B339" s="6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>IW-7</t>
         </is>
       </c>
       <c r="C339" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D339" s="5" t="inlineStr">
         <is>
-          <t>maa://34205, *maa://39541</t>
+          <t>maa://40956</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="7" t="inlineStr">
         <is>
-          <t>止颂</t>
+          <t>跃跃</t>
         </is>
       </c>
       <c r="B340" s="6" t="inlineStr">
         <is>
-          <t>TW-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C340" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D340" s="5" t="inlineStr">
         <is>
-          <t>maa://43092, maa://43093</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="7" t="inlineStr">
         <is>
-          <t>薇薇安娜</t>
+          <t>折光</t>
         </is>
       </c>
       <c r="B341" s="6" t="inlineStr">
         <is>
-          <t>MN-3</t>
+          <t>6-1</t>
         </is>
       </c>
       <c r="C341" s="7" t="inlineStr">
@@ -15020,85 +15119,85 @@
       </c>
       <c r="D341" s="5" t="inlineStr">
         <is>
-          <t>maa://44234</t>
+          <t>maa://67818</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>深律</t>
         </is>
       </c>
       <c r="B342" s="6" t="inlineStr">
         <is>
-          <t>GA-7</t>
+          <t>LE-4</t>
         </is>
       </c>
       <c r="C342" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D342" s="5" t="inlineStr">
         <is>
-          <t>maa://42968, maa://49245</t>
+          <t>maa://59688</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="7" t="inlineStr">
         <is>
-          <t>塑心</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B343" s="6" t="inlineStr">
         <is>
-          <t>ZT-8</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="C343" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D343" s="5" t="inlineStr">
         <is>
-          <t>maa://67275</t>
+          <t>maa://34205, *maa://39541</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="7" t="inlineStr">
         <is>
-          <t>哈洛德</t>
+          <t>止颂</t>
         </is>
       </c>
       <c r="B344" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>TW-5</t>
         </is>
       </c>
       <c r="C344" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D344" s="5" t="inlineStr">
         <is>
-          <t>maa://40162</t>
+          <t>maa://43092, maa://43093</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="7" t="inlineStr">
         <is>
-          <t>烈夏</t>
+          <t>薇薇安娜</t>
         </is>
       </c>
       <c r="B345" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>MN-3</t>
         </is>
       </c>
       <c r="C345" s="7" t="inlineStr">
@@ -15108,41 +15207,41 @@
       </c>
       <c r="D345" s="5" t="inlineStr">
         <is>
-          <t>maa://37692</t>
+          <t>maa://44234</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="7" t="inlineStr">
         <is>
-          <t>锏</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B346" s="6" t="inlineStr">
         <is>
-          <t>BI-6</t>
+          <t>GA-7</t>
         </is>
       </c>
       <c r="C346" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D346" s="5" t="inlineStr">
         <is>
-          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
+          <t>maa://42968, maa://49245</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="7" t="inlineStr">
         <is>
-          <t>温米</t>
+          <t>塑心</t>
         </is>
       </c>
       <c r="B347" s="6" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>ZT-8</t>
         </is>
       </c>
       <c r="C347" s="7" t="inlineStr">
@@ -15152,41 +15251,41 @@
       </c>
       <c r="D347" s="5" t="inlineStr">
         <is>
-          <t>maa://67817</t>
+          <t>maa://67275</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="7" t="inlineStr">
         <is>
-          <t>莱伊</t>
+          <t>哈洛德</t>
         </is>
       </c>
       <c r="B348" s="6" t="inlineStr">
         <is>
-          <t>S9-1</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C348" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D348" s="5" t="inlineStr">
         <is>
-          <t>maa://38295, *maa://49332</t>
+          <t>maa://40162</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="7" t="inlineStr">
         <is>
-          <t>万顷</t>
+          <t>烈夏</t>
         </is>
       </c>
       <c r="B349" s="6" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C349" s="7" t="inlineStr">
@@ -15196,41 +15295,41 @@
       </c>
       <c r="D349" s="5" t="inlineStr">
         <is>
-          <t>maa://32417</t>
+          <t>maa://37692</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="7" t="inlineStr">
         <is>
-          <t>小满</t>
+          <t>锏</t>
         </is>
       </c>
       <c r="B350" s="6" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>BI-6</t>
         </is>
       </c>
       <c r="C350" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D350" s="5" t="inlineStr">
         <is>
-          <t>maa://32419</t>
+          <t>*maa://30671, maa://30669, *maa://37275, *maa://41605</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>温米</t>
         </is>
       </c>
       <c r="B351" s="6" t="inlineStr">
         <is>
-          <t>WB-5</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="C351" s="7" t="inlineStr">
@@ -15240,63 +15339,63 @@
       </c>
       <c r="D351" s="5" t="inlineStr">
         <is>
-          <t>maa://32416</t>
+          <t>maa://67817</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="7" t="inlineStr">
         <is>
-          <t>左乐</t>
+          <t>莱伊</t>
         </is>
       </c>
       <c r="B352" s="6" t="inlineStr">
         <is>
-          <t>RI-7</t>
+          <t>S9-1</t>
         </is>
       </c>
       <c r="C352" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D352" s="5" t="inlineStr">
         <is>
-          <t>maa://45800</t>
+          <t>maa://38295, *maa://49332</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="7" t="inlineStr">
         <is>
-          <t>黍</t>
+          <t>万顷</t>
         </is>
       </c>
       <c r="B353" s="6" t="inlineStr">
         <is>
-          <t>11-11</t>
+          <t>9-13</t>
         </is>
       </c>
       <c r="C353" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D353" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
+          <t>maa://32417</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="7" t="inlineStr">
         <is>
-          <t>红隼</t>
+          <t>小满</t>
         </is>
       </c>
       <c r="B354" s="6" t="inlineStr">
         <is>
-          <t>11-18</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="C354" s="7" t="inlineStr">
@@ -15306,19 +15405,19 @@
       </c>
       <c r="D354" s="5" t="inlineStr">
         <is>
-          <t>maa://32420</t>
+          <t>maa://32419</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="7" t="inlineStr">
         <is>
-          <t>导火索</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B355" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>WB-5</t>
         </is>
       </c>
       <c r="C355" s="7" t="inlineStr">
@@ -15328,19 +15427,19 @@
       </c>
       <c r="D355" s="5" t="inlineStr">
         <is>
-          <t>maa://35606</t>
+          <t>maa://32416</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="7" t="inlineStr">
         <is>
-          <t>双月</t>
+          <t>左乐</t>
         </is>
       </c>
       <c r="B356" s="6" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>RI-7</t>
         </is>
       </c>
       <c r="C356" s="7" t="inlineStr">
@@ -15350,58 +15449,58 @@
       </c>
       <c r="D356" s="5" t="inlineStr">
         <is>
-          <t>maa://34716</t>
+          <t>maa://45800</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="7" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>黍</t>
         </is>
       </c>
       <c r="B357" s="6" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>11-11</t>
         </is>
       </c>
       <c r="C357" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://39179</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="7" t="inlineStr">
         <is>
-          <t>艾拉</t>
+          <t>红隼</t>
         </is>
       </c>
       <c r="B358" s="6" t="inlineStr">
         <is>
-          <t>DM-EX-1</t>
+          <t>11-18</t>
         </is>
       </c>
       <c r="C358" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D358" s="5" t="inlineStr">
         <is>
-          <t>maa://34865, maa://34717</t>
+          <t>maa://32420</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="7" t="inlineStr">
         <is>
-          <t>露托</t>
+          <t>导火索</t>
         </is>
       </c>
       <c r="B359" s="6" t="inlineStr">
@@ -15416,41 +15515,41 @@
       </c>
       <c r="D359" s="5" t="inlineStr">
         <is>
-          <t>maa://39180</t>
+          <t>maa://35606</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="7" t="inlineStr">
         <is>
-          <t>奥达</t>
+          <t>双月</t>
         </is>
       </c>
       <c r="B360" s="6" t="inlineStr">
         <is>
-          <t>S3-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="C360" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D360" s="5" t="inlineStr">
         <is>
-          <t>maa://45834, *maa://45833</t>
+          <t>maa://34716</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="7" t="inlineStr">
         <is>
-          <t>阿罗玛</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="B361" s="6" t="inlineStr">
         <is>
-          <t>GT-HX-3</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="C361" s="7" t="inlineStr">
@@ -15460,305 +15559,305 @@
       </c>
       <c r="D361" s="5" t="inlineStr">
         <is>
-          <t>maa://39181</t>
+          <t>maa://39179</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>艾拉</t>
         </is>
       </c>
       <c r="B362" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>DM-EX-1</t>
         </is>
       </c>
       <c r="C362" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D362" s="5" t="inlineStr">
         <is>
-          <t>maa://36868, maa://35996, maa://47349, **maa://71203</t>
+          <t>maa://34865, maa://34717</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="7" t="inlineStr">
         <is>
-          <t>阿斯卡纶</t>
+          <t>露托</t>
         </is>
       </c>
       <c r="B363" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C363" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D363" s="5" t="inlineStr">
         <is>
-          <t>maa://49696, maa://49695, maa://49758, *maa://52357</t>
+          <t>maa://39180</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="7" t="inlineStr">
         <is>
-          <t>历阵锐枪芬</t>
+          <t>奥达</t>
         </is>
       </c>
       <c r="B364" s="6" t="inlineStr">
         <is>
-          <t>4-2</t>
+          <t>S3-6</t>
         </is>
       </c>
       <c r="C364" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D364" s="5" t="inlineStr">
         <is>
-          <t>maa://36647</t>
+          <t>maa://45834, *maa://45833</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="7" t="inlineStr">
         <is>
-          <t>魔王</t>
+          <t>阿罗玛</t>
         </is>
       </c>
       <c r="B365" s="6" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>GT-HX-3</t>
         </is>
       </c>
       <c r="C365" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D365" s="5" t="inlineStr">
         <is>
-          <t>maa://42299, *maa://42224</t>
+          <t>maa://39181</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B366" s="6" t="inlineStr">
         <is>
-          <t>14-9</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C366" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D366" s="5" t="inlineStr">
         <is>
-          <t>maa://49648, *maa://49662</t>
+          <t>maa://36868, maa://35996, maa://47349, *maa://71203</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="7" t="inlineStr">
         <is>
-          <t>逻各斯</t>
+          <t>阿斯卡纶</t>
         </is>
       </c>
       <c r="B367" s="6" t="inlineStr">
         <is>
-          <t>11-6</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C367" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D367" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007, *maa://70752, *maa://71932</t>
+          <t>maa://49696, maa://49695, maa://49758, *maa://52357</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="7" t="inlineStr">
         <is>
-          <t>维什戴尔</t>
+          <t>历阵锐枪芬</t>
         </is>
       </c>
       <c r="B368" s="6" t="inlineStr">
         <is>
-          <t>DM-5</t>
+          <t>4-2</t>
         </is>
       </c>
       <c r="C368" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D368" s="5" t="inlineStr">
         <is>
-          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
+          <t>maa://36647</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="7" t="inlineStr">
         <is>
-          <t>阿米娅</t>
+          <t>魔王</t>
         </is>
       </c>
       <c r="B369" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C369" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D369" s="5" t="inlineStr">
         <is>
-          <t>maa://42635, *maa://50629, *maa://48859</t>
+          <t>maa://42299, *maa://42224</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="7" t="inlineStr">
         <is>
-          <t>深巡</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B370" s="6" t="inlineStr">
         <is>
-          <t>SN-5</t>
+          <t>14-9</t>
         </is>
       </c>
       <c r="C370" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D370" s="5" t="inlineStr">
         <is>
-          <t>maa://39183</t>
+          <t>maa://49648, *maa://49662</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="7" t="inlineStr">
         <is>
-          <t>海霓</t>
+          <t>逻各斯</t>
         </is>
       </c>
       <c r="B371" s="6" t="inlineStr">
         <is>
-          <t>SV-4</t>
+          <t>11-6</t>
         </is>
       </c>
       <c r="C371" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://39184</t>
+          <t>maa://36646, maa://36845, maa://51007, *maa://70752, *maa://71932</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="7" t="inlineStr">
         <is>
-          <t>乌尔比安</t>
+          <t>维什戴尔</t>
         </is>
       </c>
       <c r="B372" s="6" t="inlineStr">
         <is>
-          <t>SV-6</t>
+          <t>DM-5</t>
         </is>
       </c>
       <c r="C372" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D372" s="5" t="inlineStr">
         <is>
-          <t>maa://40957, maa://48026, maa://44635, maa://41035, *maa://60251, maa://44660, *maa://41128</t>
+          <t>maa://36645, maa://36841, maa://37484, maa://37858</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="7" t="inlineStr">
         <is>
-          <t>渡桥</t>
+          <t>阿米娅</t>
         </is>
       </c>
       <c r="B373" s="6" t="inlineStr">
         <is>
-          <t>3-1</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C373" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D373" s="5" t="inlineStr">
         <is>
-          <t>maa://40164</t>
+          <t>maa://42635, *maa://50629, *maa://48859</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="7" t="inlineStr">
         <is>
-          <t>妮芙</t>
+          <t>深巡</t>
         </is>
       </c>
       <c r="B374" s="6" t="inlineStr">
         <is>
-          <t>14-7</t>
+          <t>SN-5</t>
         </is>
       </c>
       <c r="C374" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D374" s="5" t="inlineStr">
         <is>
-          <t>maa://63883, maa://64045, **maa://64041</t>
+          <t>maa://39183</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="7" t="inlineStr">
         <is>
-          <t>锡人</t>
+          <t>海霓</t>
         </is>
       </c>
       <c r="B375" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>SV-4</t>
         </is>
       </c>
       <c r="C375" s="7" t="inlineStr">
@@ -15768,85 +15867,85 @@
       </c>
       <c r="D375" s="5" t="inlineStr">
         <is>
-          <t>maa://48268</t>
+          <t>maa://39184</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="7" t="inlineStr">
         <is>
-          <t>衡沙</t>
+          <t>乌尔比安</t>
         </is>
       </c>
       <c r="B376" s="6" t="inlineStr">
         <is>
-          <t>DV-2</t>
+          <t>SV-6</t>
         </is>
       </c>
       <c r="C376" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D376" s="5" t="inlineStr">
         <is>
-          <t>maa://40165</t>
+          <t>maa://40957, maa://48026, maa://44635, maa://41035, *maa://60251, maa://44660, *maa://41128</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="7" t="inlineStr">
         <is>
-          <t>娜仁图亚</t>
+          <t>渡桥</t>
         </is>
       </c>
       <c r="B377" s="6" t="inlineStr">
         <is>
-          <t>WB-6</t>
+          <t>3-1</t>
         </is>
       </c>
       <c r="C377" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D377" s="5" t="inlineStr">
         <is>
-          <t>maa://71182, maa://70756, *maa://71524, *maa://72244</t>
+          <t>maa://40164</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="7" t="inlineStr">
         <is>
-          <t>佩佩</t>
+          <t>妮芙</t>
         </is>
       </c>
       <c r="B378" s="6" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>14-7</t>
         </is>
       </c>
       <c r="C378" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D378" s="5" t="inlineStr">
         <is>
-          <t>maa://45798</t>
+          <t>maa://63883, maa://64045</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="7" t="inlineStr">
         <is>
-          <t>森西</t>
+          <t>锡人</t>
         </is>
       </c>
       <c r="B379" s="6" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C379" s="7" t="inlineStr">
@@ -15856,85 +15955,85 @@
       </c>
       <c r="D379" s="5" t="inlineStr">
         <is>
-          <t>maa://42331</t>
+          <t>maa://48268</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="7" t="inlineStr">
         <is>
-          <t>齐尔查克</t>
+          <t>衡沙</t>
         </is>
       </c>
       <c r="B380" s="6" t="inlineStr">
         <is>
-          <t>4-3</t>
+          <t>DV-2</t>
         </is>
       </c>
       <c r="C380" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D380" s="5" t="inlineStr">
         <is>
-          <t>maa://42333, *maa://50518, *maa://41977</t>
+          <t>maa://40165</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="7" t="inlineStr">
         <is>
-          <t>莱欧斯</t>
+          <t>娜仁图亚</t>
         </is>
       </c>
       <c r="B381" s="6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>WB-6</t>
         </is>
       </c>
       <c r="C381" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D381" s="5" t="inlineStr">
         <is>
-          <t>maa://42338</t>
+          <t>maa://71182, maa://70756, *maa://71524, *maa://72244</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="7" t="inlineStr">
         <is>
-          <t>玛露西尔</t>
+          <t>佩佩</t>
         </is>
       </c>
       <c r="B382" s="6" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="C382" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D382" s="5" t="inlineStr">
         <is>
-          <t>maa://41110, *maa://45605</t>
+          <t>maa://45798</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="7" t="inlineStr">
         <is>
-          <t>凯瑟琳</t>
+          <t>森西</t>
         </is>
       </c>
       <c r="B383" s="6" t="inlineStr">
         <is>
-          <t>11-7</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="C383" s="7" t="inlineStr">
@@ -15944,85 +16043,85 @@
       </c>
       <c r="D383" s="5" t="inlineStr">
         <is>
-          <t>maa://42343</t>
+          <t>maa://42331</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="7" t="inlineStr">
         <is>
-          <t>波卜</t>
+          <t>齐尔查克</t>
         </is>
       </c>
       <c r="B384" s="6" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-3</t>
         </is>
       </c>
       <c r="C384" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D384" s="5" t="inlineStr">
         <is>
-          <t>maa://43095</t>
+          <t>maa://42333, *maa://50518, *maa://41977</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="7" t="inlineStr">
         <is>
-          <t>维娜·维多利亚</t>
+          <t>莱欧斯</t>
         </is>
       </c>
       <c r="B385" s="6" t="inlineStr">
         <is>
-          <t>9-5</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="C385" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D385" s="5" t="inlineStr">
         <is>
-          <t>maa://44233, maa://45570</t>
+          <t>maa://42338</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="7" t="inlineStr">
         <is>
-          <t>裁度</t>
+          <t>玛露西尔</t>
         </is>
       </c>
       <c r="B386" s="6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="C386" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D386" s="5" t="inlineStr">
         <is>
-          <t>maa://43097</t>
+          <t>maa://41110, *maa://45605</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>凯瑟琳</t>
         </is>
       </c>
       <c r="B387" s="6" t="inlineStr">
         <is>
-          <t>4-4</t>
+          <t>11-7</t>
         </is>
       </c>
       <c r="C387" s="7" t="inlineStr">
@@ -16032,14 +16131,14 @@
       </c>
       <c r="D387" s="5" t="inlineStr">
         <is>
-          <t>maa://43872</t>
+          <t>maa://42343</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="7" t="inlineStr">
         <is>
-          <t>弑君者</t>
+          <t>波卜</t>
         </is>
       </c>
       <c r="B388" s="6" t="inlineStr">
@@ -16054,63 +16153,63 @@
       </c>
       <c r="D388" s="5" t="inlineStr">
         <is>
-          <t>maa://53307</t>
+          <t>maa://43095</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="7" t="inlineStr">
         <is>
-          <t>忍冬</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B389" s="6" t="inlineStr">
         <is>
-          <t>S2-3</t>
+          <t>9-5</t>
         </is>
       </c>
       <c r="C389" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D389" s="5" t="inlineStr">
         <is>
-          <t>maa://43875</t>
+          <t>maa://44233, maa://45570</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="7" t="inlineStr">
         <is>
-          <t>荒芜拉普兰德</t>
+          <t>维娜·维多利亚</t>
         </is>
       </c>
       <c r="B390" s="6" t="inlineStr">
         <is>
-          <t>IS-8</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="C390" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D390" s="5" t="inlineStr">
         <is>
-          <t>*maa://42970, maa://44745, *maa://44896</t>
+          <t>maa://73355</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="7" t="inlineStr">
         <is>
-          <t>瑰盐</t>
+          <t>裁度</t>
         </is>
       </c>
       <c r="B391" s="6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="C391" s="7" t="inlineStr">
@@ -16120,19 +16219,19 @@
       </c>
       <c r="D391" s="5" t="inlineStr">
         <is>
-          <t>maa://44389</t>
+          <t>maa://43097</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="7" t="inlineStr">
         <is>
-          <t>特克诺</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B392" s="6" t="inlineStr">
         <is>
-          <t>DH-6</t>
+          <t>4-4</t>
         </is>
       </c>
       <c r="C392" s="7" t="inlineStr">
@@ -16142,19 +16241,19 @@
       </c>
       <c r="D392" s="5" t="inlineStr">
         <is>
-          <t>maa://59690</t>
+          <t>maa://43872</t>
         </is>
       </c>
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="13" t="inlineStr">
         <is>
-          <t>引星棘刺</t>
+          <t>弑君者</t>
         </is>
       </c>
       <c r="B393" s="20" t="inlineStr">
         <is>
-          <t>OF-7</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C393" s="13" t="inlineStr">
@@ -16164,19 +16263,19 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>maa://48113</t>
+          <t>maa://53307</t>
         </is>
       </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="13" t="inlineStr">
         <is>
-          <t>行箸</t>
+          <t>忍冬</t>
         </is>
       </c>
       <c r="B394" s="20" t="inlineStr">
         <is>
-          <t>3-2</t>
+          <t>S2-3</t>
         </is>
       </c>
       <c r="C394" s="13" t="inlineStr">
@@ -16186,41 +16285,41 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>maa://45807</t>
+          <t>maa://43875</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="13" t="inlineStr">
         <is>
-          <t>寻澜</t>
+          <t>荒芜拉普兰德</t>
         </is>
       </c>
       <c r="B395" s="13" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>IS-8</t>
         </is>
       </c>
       <c r="C395" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>maa://50552</t>
+          <t>*maa://42970, maa://44745, *maa://44896</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="13" t="inlineStr">
         <is>
-          <t>烛煌</t>
+          <t>瑰盐</t>
         </is>
       </c>
       <c r="B396" s="13" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C396" s="13" t="inlineStr">
@@ -16230,41 +16329,41 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>maa://63890</t>
+          <t>maa://44389</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="13" t="inlineStr">
         <is>
-          <t>诺威尔</t>
+          <t>特克诺</t>
         </is>
       </c>
       <c r="B397" s="13" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>DH-6</t>
         </is>
       </c>
       <c r="C397" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>*maa://47175, maa://47174</t>
+          <t>maa://59690</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="13" t="inlineStr">
         <is>
-          <t>隐德来希</t>
+          <t>引星棘刺</t>
         </is>
       </c>
       <c r="B398" s="13" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>OF-7</t>
         </is>
       </c>
       <c r="C398" s="13" t="inlineStr">
@@ -16274,41 +16373,41 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>maa://47023</t>
+          <t>maa://48113</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="13" t="inlineStr">
         <is>
-          <t>水灯心</t>
+          <t>行箸</t>
         </is>
       </c>
       <c r="B399" s="13" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>3-2</t>
         </is>
       </c>
       <c r="C399" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://45807</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="13" t="inlineStr">
         <is>
-          <t>钼铅</t>
+          <t>寻澜</t>
         </is>
       </c>
       <c r="B400" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="C400" s="13" t="inlineStr">
@@ -16318,63 +16417,63 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>maa://48618</t>
+          <t>maa://50552</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="13" t="inlineStr">
         <is>
-          <t>死芒</t>
+          <t>烛煌</t>
         </is>
       </c>
       <c r="B401" s="13" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="C401" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://59533, maa://59577</t>
+          <t>maa://63890</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="13" t="inlineStr">
         <is>
-          <t>骋风</t>
+          <t>诺威尔</t>
         </is>
       </c>
       <c r="B402" s="13" t="inlineStr">
         <is>
-          <t>SN-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="C402" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>maa://51908</t>
+          <t>*maa://47175, maa://47174</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="13" t="inlineStr">
         <is>
-          <t>阿兰娜</t>
+          <t>隐德来希</t>
         </is>
       </c>
       <c r="B403" s="13" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="C403" s="13" t="inlineStr">
@@ -16384,85 +16483,85 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>maa://59691</t>
+          <t>maa://47023</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="13" t="inlineStr">
         <is>
-          <t>信仰搅拌机</t>
+          <t>水灯心</t>
         </is>
       </c>
       <c r="B404" s="13" t="inlineStr">
         <is>
-          <t>14-5</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="C404" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>maa://51898, maa://57241</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="13" t="inlineStr">
         <is>
-          <t>蕾缪安</t>
+          <t>钼铅</t>
         </is>
       </c>
       <c r="B405" s="13" t="inlineStr">
         <is>
-          <t>13-13</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C405" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>maa://51880, maa://56651, maa://51878</t>
+          <t>maa://48618</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="13" t="inlineStr">
         <is>
-          <t>新约能天使</t>
+          <t>死芒</t>
         </is>
       </c>
       <c r="B406" s="13" t="inlineStr">
         <is>
-          <t>GA-EX-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="C406" s="13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
+          <t>maa://59533, maa://59577</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="13" t="inlineStr">
         <is>
-          <t>Miss.Christine</t>
+          <t>骋风</t>
         </is>
       </c>
       <c r="B407" s="13" t="inlineStr">
         <is>
-          <t>DM-7</t>
+          <t>SN-2</t>
         </is>
       </c>
       <c r="C407" s="13" t="inlineStr">
@@ -16472,195 +16571,195 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>maa://67814</t>
+          <t>maa://51908</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="13" t="inlineStr">
         <is>
-          <t>酒神</t>
+          <t>阿兰娜</t>
         </is>
       </c>
       <c r="B408" s="13" t="inlineStr">
         <is>
-          <t>9-6</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C408" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>maa://60449, maa://59493</t>
+          <t>maa://59691</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="13" t="inlineStr">
         <is>
-          <t>录武官</t>
+          <t>信仰搅拌机</t>
         </is>
       </c>
       <c r="B409" s="13" t="inlineStr">
         <is>
-          <t>HS-5</t>
+          <t>14-5</t>
         </is>
       </c>
       <c r="C409" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>maa://67815</t>
+          <t>maa://51898, maa://57241</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="13" t="inlineStr">
         <is>
-          <t>司霆惊蛰</t>
+          <t>蕾缪安</t>
         </is>
       </c>
       <c r="B410" s="13" t="inlineStr">
         <is>
-          <t>DV-7</t>
+          <t>13-13</t>
         </is>
       </c>
       <c r="C410" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>maa://62756</t>
+          <t>maa://51880, maa://56651, maa://51878</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="13" t="inlineStr">
         <is>
-          <t>吉星</t>
+          <t>新约能天使</t>
         </is>
       </c>
       <c r="B411" s="13" t="inlineStr">
         <is>
-          <t>S5-9</t>
+          <t>GA-EX-5</t>
         </is>
       </c>
       <c r="C411" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>maa://67816</t>
+          <t>maa://51872, maa://51876, *maa://63228, maa://51873, *maa://62047</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="13" t="inlineStr">
         <is>
-          <t>遥</t>
+          <t>Miss.Christine</t>
         </is>
       </c>
       <c r="B412" s="13" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>DM-7</t>
         </is>
       </c>
       <c r="C412" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>maa://52505, maa://64040, *maa://66377</t>
+          <t>maa://67814</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="13" t="inlineStr">
         <is>
-          <t>祐天寺若麦</t>
+          <t>酒神</t>
         </is>
       </c>
       <c r="B413" s="13" t="inlineStr">
         <is>
-          <t>ZT-4</t>
+          <t>9-6</t>
         </is>
       </c>
       <c r="C413" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>maa://67090</t>
+          <t>maa://60449, maa://59493</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="13" t="inlineStr">
         <is>
-          <t>八幡海铃</t>
+          <t>录武官</t>
         </is>
       </c>
       <c r="B414" s="13" t="inlineStr">
         <is>
-          <t>BB-7</t>
+          <t>HS-5</t>
         </is>
       </c>
       <c r="C414" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>maa://67388, *maa://71184</t>
+          <t>maa://67815</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="13" t="inlineStr">
         <is>
-          <t>若叶睦</t>
+          <t>司霆惊蛰</t>
         </is>
       </c>
       <c r="B415" s="13" t="inlineStr">
         <is>
-          <t>13-16</t>
+          <t>DV-7</t>
         </is>
       </c>
       <c r="C415" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>maa://67089, maa://67271</t>
+          <t>maa://62756</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="13" t="inlineStr">
         <is>
-          <t>三角初华</t>
+          <t>吉星</t>
         </is>
       </c>
       <c r="B416" s="13" t="inlineStr">
         <is>
-          <t>ZT-6</t>
+          <t>S5-9</t>
         </is>
       </c>
       <c r="C416" s="13" t="inlineStr">
@@ -16670,95 +16769,315 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>maa://67088</t>
+          <t>maa://67816</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="13" t="inlineStr">
         <is>
-          <t>丰川祥子</t>
+          <t>遥</t>
         </is>
       </c>
       <c r="B417" s="13" t="inlineStr">
         <is>
-          <t>IS-7</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="C417" s="13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>maa://67087, maa://67268, *maa://67269, *maa://67648</t>
+          <t>maa://52505, maa://64040, *maa://66377</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="13" t="inlineStr">
         <is>
-          <t>冬时</t>
+          <t>斩业星熊</t>
         </is>
       </c>
       <c r="B418" s="13" t="inlineStr">
         <is>
-          <t>R8-2</t>
+          <t>OF-8</t>
         </is>
       </c>
       <c r="C418" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://73193</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="13" t="inlineStr">
         <is>
-          <t>折桠</t>
+          <t>祐天寺若麦</t>
         </is>
       </c>
       <c r="B419" s="13" t="inlineStr">
         <is>
-          <t>MB-5</t>
+          <t>ZT-4</t>
         </is>
       </c>
       <c r="C419" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://67090</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="13" t="inlineStr">
         <is>
+          <t>八幡海铃</t>
+        </is>
+      </c>
+      <c r="B420" s="13" t="inlineStr">
+        <is>
+          <t>BB-7</t>
+        </is>
+      </c>
+      <c r="C420" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>maa://67388, *maa://71184</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="13" t="inlineStr">
+        <is>
+          <t>若叶睦</t>
+        </is>
+      </c>
+      <c r="B421" s="13" t="inlineStr">
+        <is>
+          <t>13-16</t>
+        </is>
+      </c>
+      <c r="C421" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>maa://67089, maa://67271</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="13" t="inlineStr">
+        <is>
+          <t>三角初华</t>
+        </is>
+      </c>
+      <c r="B422" s="13" t="inlineStr">
+        <is>
+          <t>ZT-6</t>
+        </is>
+      </c>
+      <c r="C422" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>maa://67088</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="13" t="inlineStr">
+        <is>
+          <t>丰川祥子</t>
+        </is>
+      </c>
+      <c r="B423" s="13" t="inlineStr">
+        <is>
+          <t>IS-7</t>
+        </is>
+      </c>
+      <c r="C423" s="13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>maa://67087, maa://67268, *maa://67269, *maa://67648</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="13" t="inlineStr">
+        <is>
+          <t>冬时</t>
+        </is>
+      </c>
+      <c r="B424" s="13" t="inlineStr">
+        <is>
+          <t>R8-2</t>
+        </is>
+      </c>
+      <c r="C424" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="13" t="inlineStr">
+        <is>
+          <t>折桠</t>
+        </is>
+      </c>
+      <c r="B425" s="13" t="inlineStr">
+        <is>
+          <t>MB-5</t>
+        </is>
+      </c>
+      <c r="C425" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="13" t="inlineStr">
+        <is>
           <t>真言</t>
         </is>
       </c>
-      <c r="B420" s="13" t="inlineStr">
+      <c r="B426" s="13" t="inlineStr">
         <is>
           <t>FC-5</t>
         </is>
       </c>
-      <c r="C420" s="13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
+      <c r="C426" s="13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
         <is>
           <t>maa://70877</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="13" t="inlineStr">
+        <is>
+          <t>协律</t>
+        </is>
+      </c>
+      <c r="B427" s="13" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+      <c r="C427" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="13" t="inlineStr">
+        <is>
+          <t>雪猎</t>
+        </is>
+      </c>
+      <c r="B428" s="13" t="inlineStr">
+        <is>
+          <t>BI-1</t>
+        </is>
+      </c>
+      <c r="C428" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="13" t="inlineStr">
+        <is>
+          <t>溯光星源</t>
+        </is>
+      </c>
+      <c r="B429" s="13" t="inlineStr">
+        <is>
+          <t>BI-6</t>
+        </is>
+      </c>
+      <c r="C429" s="13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="13" t="inlineStr">
+        <is>
+          <t>圣聆初雪</t>
+        </is>
+      </c>
+      <c r="B430" s="13" t="inlineStr">
+        <is>
+          <t>BI-7</t>
+        </is>
+      </c>
+      <c r="C430" s="13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>maa://73227, *maa://73422</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>maa://22763, maa://64972</t>
+          <t>*maa://22763, maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1457,7 +1457,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.11.03 13:29:46</t>
+          <t>更新日期：2025.11.06 13:22:37</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1839,12 +1839,12 @@
       </c>
       <c r="AE10" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF10" s="18" t="inlineStr">
         <is>
-          <t>maa://25021, maa://22733</t>
+          <t>*maa://74007</t>
         </is>
       </c>
       <c r="AG10" s="12" t="n"/>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="W12" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X12" s="18" t="inlineStr">
         <is>
-          <t>maa://37962, *maa://21485, maa://22753</t>
+          <t>maa://37962, maa://21485, maa://22753, maa://73860</t>
         </is>
       </c>
       <c r="Y12" s="15" t="n"/>
@@ -2133,12 +2133,12 @@
       </c>
       <c r="G13" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H13" s="18" t="inlineStr">
         <is>
-          <t>*maa://21248, maa://66545</t>
+          <t>*maa://21248, maa://66545, *maa://22728</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="L15" s="18" t="inlineStr">
         <is>
-          <t>maa://21334, **maa://73742</t>
+          <t>maa://21334, maa://73742</t>
         </is>
       </c>
       <c r="M15" s="15" t="n"/>
@@ -3009,12 +3009,12 @@
       </c>
       <c r="AE19" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF19" s="18" t="inlineStr">
         <is>
-          <t>*maa://21663, maa://52239</t>
+          <t>maa://52239</t>
         </is>
       </c>
       <c r="AG19" s="12" t="n"/>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="T23" s="18" t="inlineStr">
         <is>
-          <t>maa://31212, *maa://24387, *maa://67084</t>
+          <t>maa://31212, maa://24387, *maa://67084</t>
         </is>
       </c>
       <c r="U23" s="15" t="n"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>maa://29063, maa://25311, maa://45047</t>
+          <t>maa://29063, *maa://25311, maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AB25" s="18" t="inlineStr">
         <is>
-          <t>maa://31215, *maa://24516, maa://68311, *maa://26001</t>
+          <t>maa://31215, maa://68311, *maa://24516, *maa://26001</t>
         </is>
       </c>
       <c r="AC25" s="15" t="n"/>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="H29" s="18" t="inlineStr">
         <is>
-          <t>*maa://73558</t>
+          <t>maa://73558</t>
         </is>
       </c>
       <c r="I29" s="15" t="n"/>
@@ -4927,12 +4927,12 @@
       </c>
       <c r="W34" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X34" s="15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://74001</t>
         </is>
       </c>
       <c r="Y34" s="15" t="n"/>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="T41" s="18" t="inlineStr">
         <is>
-          <t>maa://66727, **maa://66675</t>
+          <t>maa://66727, *maa://66675</t>
         </is>
       </c>
       <c r="U41" s="15" t="n"/>
@@ -6144,12 +6144,12 @@
       </c>
       <c r="S45" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T45" s="18" t="inlineStr">
         <is>
-          <t>maa://39364</t>
+          <t>maa://39364, maa://73997</t>
         </is>
       </c>
       <c r="U45" s="15" t="n"/>
@@ -6197,12 +6197,12 @@
       </c>
       <c r="O46" s="15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P46" s="18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://74003</t>
         </is>
       </c>
       <c r="Q46" s="15" t="n"/>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="T47" s="18" t="inlineStr">
         <is>
-          <t>maa://67476, maa://68392</t>
+          <t>maa://68392, maa://67476</t>
         </is>
       </c>
       <c r="U47" s="15" t="n"/>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="P50" s="18" t="inlineStr">
         <is>
-          <t>maa://62852, ***maa://73565</t>
+          <t>maa://62852, maa://73565</t>
         </is>
       </c>
       <c r="Q50" s="15" t="n"/>
@@ -6791,12 +6791,12 @@
       </c>
       <c r="G57" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H57" s="18" t="inlineStr">
         <is>
-          <t>maa://56237, maa://25176</t>
+          <t>maa://56237, maa://25176, maa://73737</t>
         </is>
       </c>
       <c r="I57" s="15" t="n"/>
@@ -6845,12 +6845,12 @@
       </c>
       <c r="G60" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H60" s="18" t="inlineStr">
         <is>
-          <t>maa://40438</t>
+          <t>maa://40438, **maa://73999</t>
         </is>
       </c>
       <c r="I60" s="15" t="n"/>
@@ -7279,7 +7279,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.11.03 13:29:46</t>
+          <t>更新日期：2025.11.06 13:22:37</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, *maa://70680, *maa://20960, *maa://20843, *maa://20893, *maa://20862</t>
+          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, maa://70680, *maa://20960, *maa://20843, *maa://20893, *maa://20862</t>
         </is>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="D103" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, maa://20893</t>
+          <t>maa://45572, maa://27794, *maa://20893</t>
         </is>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="D108" s="19" t="inlineStr">
         <is>
-          <t>maa://45572, maa://27794, *maa://20843</t>
+          <t>maa://45572, maa://27794, maa://20843</t>
         </is>
       </c>
     </row>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="D224" s="19" t="inlineStr">
         <is>
-          <t>*maa://26496, maa://20995</t>
+          <t>maa://26496, maa://20995</t>
         </is>
       </c>
     </row>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D247" s="19" t="inlineStr">
         <is>
-          <t>maa://62759, *maa://70680</t>
+          <t>maa://62759, maa://70680</t>
         </is>
       </c>
     </row>
@@ -15471,7 +15471,7 @@
       </c>
       <c r="D357" s="5" t="inlineStr">
         <is>
-          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, *maa://61839, *maa://61275</t>
+          <t>maa://32647, maa://32415, maa://34677, maa://32892, *maa://32653, maa://61839, *maa://61275</t>
         </is>
       </c>
     </row>
@@ -17050,12 +17050,12 @@
       </c>
       <c r="C429" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>maa://74092</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1006,7 +1006,7 @@
       </c>
       <c r="T4" s="18" t="inlineStr">
         <is>
-          <t>maa://27295, maa://32509, maa://31008, maa://22754, maa://70489</t>
+          <t>maa://27295, maa://32509, maa://31008, maa://70489, maa://22754</t>
         </is>
       </c>
       <c r="U4" s="15" t="n"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D5" s="18" t="inlineStr">
         <is>
-          <t>maa://21245, maa://54105, *maa://22744</t>
+          <t>maa://54105, maa://21245, *maa://22744</t>
         </is>
       </c>
       <c r="E5" s="15" t="n"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H7" s="18" t="inlineStr">
         <is>
-          <t>*maa://22763, maa://64972</t>
+          <t>maa://22763, maa://64972</t>
         </is>
       </c>
       <c r="I7" s="15" t="n"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="X7" s="18" t="inlineStr">
         <is>
-          <t>maa://22399, *maa://22758</t>
+          <t>maa://22399, maa://22758</t>
         </is>
       </c>
       <c r="Y7" s="15" t="n"/>
@@ -1457,7 +1457,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.11.06 13:22:37</t>
+          <t>更新日期：2025.11.10 13:23:00</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="AE8" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF8" s="18" t="inlineStr">
         <is>
-          <t>maa://24479, **maa://21990</t>
+          <t>maa://24479</t>
         </is>
       </c>
       <c r="AG8" s="12" t="n"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="H9" s="18" t="inlineStr">
         <is>
-          <t>*maa://47450, maa://56348</t>
+          <t>maa://47450, maa://56348</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1727,12 +1727,12 @@
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" s="18" t="inlineStr">
         <is>
-          <t>maa://54000</t>
+          <t>maa://54000, *maa://45271</t>
         </is>
       </c>
       <c r="E10" s="15" t="n"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="T10" s="18" t="inlineStr">
         <is>
-          <t>maa://27395, maa://22755, maa://63521, *maa://73485</t>
+          <t>maa://27395, maa://22755, maa://63521, maa://73485</t>
         </is>
       </c>
       <c r="U10" s="15" t="n"/>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="AF10" s="18" t="inlineStr">
         <is>
-          <t>*maa://74007</t>
+          <t>maa://74007</t>
         </is>
       </c>
       <c r="AG10" s="12" t="n"/>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="P17" s="18" t="inlineStr">
         <is>
-          <t>*maa://23890, maa://56238</t>
+          <t>maa://23890, maa://56238</t>
         </is>
       </c>
       <c r="Q17" s="15" t="n"/>
@@ -2879,12 +2879,12 @@
       </c>
       <c r="AE18" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF18" s="18" t="inlineStr">
         <is>
-          <t>maa://47854, **maa://68715</t>
+          <t>maa://47854, **maa://68715, *maa://74015</t>
         </is>
       </c>
       <c r="AG18" s="12" t="n"/>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="G20" s="15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H20" s="18" t="inlineStr">
         <is>
-          <t>maa://22864</t>
+          <t>maa://22864, *maa://53361</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="AF21" s="18" t="inlineStr">
         <is>
-          <t>maa://22432, maa://22524, maa://64221</t>
+          <t>maa://22432, maa://64221, maa://22524</t>
         </is>
       </c>
       <c r="AG21" s="12" t="n"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="AB33" s="18" t="inlineStr">
         <is>
-          <t>maa://73340, *maa://73523</t>
+          <t>maa://73340, maa://73523</t>
         </is>
       </c>
       <c r="AC33" s="15" t="n"/>
@@ -7279,7 +7279,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.11.06 13:22:37</t>
+          <t>更新日期：2025.11.10 13:23:00</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D72" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://20856</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://20856, **maa://71555</t>
         </is>
       </c>
     </row>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://64408, *maa://37300</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, maa://64408, *maa://37300</t>
         </is>
       </c>
     </row>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://47950, maa://20975, maa://30806</t>
+          <t>maa://47950, maa://20975, *maa://30806</t>
         </is>
       </c>
     </row>
@@ -16302,12 +16302,12 @@
       </c>
       <c r="C395" s="13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>*maa://42970, maa://44745, *maa://44896</t>
+          <t>*maa://42970, maa://44745</t>
         </is>
       </c>
     </row>
@@ -16434,12 +16434,12 @@
       </c>
       <c r="C401" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>maa://63890</t>
+          <t>maa://63890, *maa://64043</t>
         </is>
       </c>
     </row>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>maa://67388, *maa://71184</t>
+          <t>maa://67388, maa://71184</t>
         </is>
       </c>
     </row>
@@ -17072,12 +17072,12 @@
       </c>
       <c r="C430" s="13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>maa://73227, *maa://73422</t>
+          <t>maa://73227, maa://73422, *maa://73447</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="P6" s="18" t="inlineStr">
         <is>
-          <t>maa://31836, maa://30381</t>
+          <t>maa://31836, *maa://30381</t>
         </is>
       </c>
       <c r="Q6" s="15" t="n"/>
@@ -1457,7 +1457,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.11.10 13:23:00</t>
+          <t>更新日期：2025.11.13 13:22:25</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="T23" s="18" t="inlineStr">
         <is>
-          <t>maa://31212, maa://24387, *maa://67084</t>
+          <t>maa://31212, *maa://24387, *maa://67084</t>
         </is>
       </c>
       <c r="U23" s="15" t="n"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>maa://29063, *maa://25311, maa://45047</t>
+          <t>maa://29063, maa://25311, maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="L37" s="18" t="inlineStr">
         <is>
-          <t>maa://45718, maa://56336, *maa://47069, *maa://45789</t>
+          <t>maa://45718, maa://56336, maa://47069, *maa://45789</t>
         </is>
       </c>
       <c r="M37" s="15" t="n"/>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="P37" s="18" t="inlineStr">
         <is>
-          <t>maa://21280, **maa://21239</t>
+          <t>maa://21280, *maa://21239</t>
         </is>
       </c>
       <c r="Q37" s="15" t="n"/>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="P40" s="18" t="inlineStr">
         <is>
-          <t>maa://23278, maa://21386, maa://36664, *maa://45550</t>
+          <t>maa://23278, maa://21386, maa://36664, **maa://45550</t>
         </is>
       </c>
       <c r="Q40" s="15" t="n"/>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="T45" s="18" t="inlineStr">
         <is>
-          <t>maa://39364, maa://73997</t>
+          <t>*maa://39364, maa://73997</t>
         </is>
       </c>
       <c r="U45" s="15" t="n"/>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="H60" s="18" t="inlineStr">
         <is>
-          <t>maa://40438, **maa://73999</t>
+          <t>maa://40438, *maa://73999</t>
         </is>
       </c>
       <c r="I60" s="15" t="n"/>
@@ -7279,7 +7279,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.11.10 13:23:00</t>
+          <t>更新日期：2025.11.13 13:22:25</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8316,12 +8316,12 @@
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, maa://70680, *maa://20960, *maa://20843, *maa://20893, *maa://20862</t>
+          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, maa://70680, *maa://20960, *maa://20843, *maa://20893, *maa://20862, *maa://74314</t>
         </is>
       </c>
     </row>
@@ -8954,12 +8954,12 @@
       </c>
       <c r="C61" s="7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D61" s="19" t="inlineStr">
         <is>
-          <t>maa://20841, maa://31559, maa://24093, maa://20924, *maa://25777, *maa://20631</t>
+          <t>maa://20841, maa://31559, maa://24093, maa://20924, *maa://25777, *maa://20631, *maa://66633</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="D72" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://20856, **maa://71555</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://20856, *maa://71555</t>
         </is>
       </c>
     </row>
@@ -10983,7 +10983,7 @@
       </c>
       <c r="D153" s="19" t="inlineStr">
         <is>
-          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, maa://64408, *maa://37300</t>
+          <t>maa://40957, maa://36641, maa://36865, maa://44635, maa://44660, *maa://41128, maa://46108, maa://42918, maa://44119, *maa://64408, *maa://37300</t>
         </is>
       </c>
     </row>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, maa://63024, *maa://51066, *maa://70161</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, maa://63024, *maa://51066, maa://70161</t>
         </is>
       </c>
     </row>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="D246" s="19" t="inlineStr">
         <is>
-          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726, *maa://68226</t>
+          <t>maa://30667, maa://30666, *maa://30723, maa://39588, *maa://64079, *maa://65726, maa://68226</t>
         </is>
       </c>
     </row>
@@ -16923,7 +16923,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>maa://67087, maa://67268, *maa://67269, *maa://67648</t>
+          <t>maa://67087, maa://67268, *maa://67269, maa://67648</t>
         </is>
       </c>
     </row>

--- a/Excel/悖论&模组作业用户版.xlsx
+++ b/Excel/悖论&模组作业用户版.xlsx
@@ -1006,7 +1006,7 @@
       </c>
       <c r="T4" s="18" t="inlineStr">
         <is>
-          <t>maa://27295, maa://32509, maa://31008, maa://70489, maa://22754</t>
+          <t>maa://27295, maa://32509, maa://70489, maa://31008, maa://22754</t>
         </is>
       </c>
       <c r="U4" s="15" t="n"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="AF4" s="18" t="inlineStr">
         <is>
-          <t>maa://39394, maa://30062</t>
+          <t>*maa://39394, maa://30062</t>
         </is>
       </c>
       <c r="AG4" s="12" t="n"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="P6" s="18" t="inlineStr">
         <is>
-          <t>maa://31836, *maa://30381</t>
+          <t>maa://31836, maa://30381</t>
         </is>
       </c>
       <c r="Q6" s="15" t="n"/>
@@ -1457,7 +1457,7 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>更新日期：2025.11.13 13:22:25</t>
+          <t>更新日期：2025.11.22 13:20:50</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="O8" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P8" s="18" t="inlineStr">
         <is>
-          <t>maa://32931, maa://23252, maa://37496</t>
+          <t>maa://32931, *maa://21916, maa://23252, maa://37496</t>
         </is>
       </c>
       <c r="Q8" s="15" t="n"/>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="L15" s="18" t="inlineStr">
         <is>
-          <t>maa://21334, maa://73742</t>
+          <t>*maa://21334, maa://73742</t>
         </is>
       </c>
       <c r="M15" s="15" t="n"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="AF15" s="18" t="inlineStr">
         <is>
-          <t>maa://36666, maa://21364, *maa://22766, maa://68306</t>
+          <t>maa://36666, maa://21364, maa://68306, *maa://22766</t>
         </is>
       </c>
       <c r="AG15" s="12" t="n"/>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="AF18" s="18" t="inlineStr">
         <is>
-          <t>maa://47854, **maa://68715, *maa://74015</t>
+          <t>maa://47854, **maa://68715, maa://74015</t>
         </is>
       </c>
       <c r="AG18" s="12" t="n"/>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="D20" s="18" t="inlineStr">
         <is>
-          <t>maa://25198, maa://36680, maa://21432</t>
+          <t>maa://36680, maa://25198, maa://21432</t>
         </is>
       </c>
       <c r="E20" s="15" t="n"/>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="AB21" s="18" t="inlineStr">
         <is>
-          <t>maa://21443, maa://52223</t>
+          <t>maa://52223, maa://21443</t>
         </is>
       </c>
       <c r="AC21" s="15" t="n"/>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="H25" s="18" t="inlineStr">
         <is>
-          <t>maa://29063, maa://25311, maa://45047</t>
+          <t>maa://29063, *maa://25311, maa://45047</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -3741,12 +3741,12 @@
       </c>
       <c r="S25" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T25" s="18" t="inlineStr">
         <is>
-          <t>maa://20109, maa://22545</t>
+          <t>maa://20109, maa://22545, **maa://42915</t>
         </is>
       </c>
       <c r="U25" s="15" t="n"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="T32" s="18" t="inlineStr">
         <is>
-          <t>maa://42859, *maa://41108, maa://41238, maa://45523</t>
+          <t>maa://42859, maa://41108, maa://41238, maa://45523</t>
         </is>
       </c>
       <c r="U32" s="15" t="n"/>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="L37" s="18" t="inlineStr">
         <is>
-          <t>maa://45718, maa://56336, maa://47069, *maa://45789</t>
+          <t>maa://45718, maa://56336, maa://47069, maa://45789</t>
         </is>
       </c>
       <c r="M37" s="15" t="n"/>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="P37" s="18" t="inlineStr">
         <is>
-          <t>maa://21280, *maa://21239</t>
+          <t>maa://21280, **maa://21239</t>
         </is>
       </c>
       <c r="Q37" s="15" t="n"/>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="T43" s="18" t="inlineStr">
         <is>
-          <t>maa://43198, *maa://46286</t>
+          <t>maa://43198, maa://46286</t>
         </is>
       </c>
       <c r="U43" s="15" t="n"/>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="H44" s="18" t="inlineStr">
         <is>
-          <t>maa://29768, maa://56386, maa://27728</t>
+          <t>maa://56386, maa://29768, maa://27728</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -7279,7 +7279,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="inlineStr">
         <is>
-          <t>更新日期：2025.11.13 13:22:25</t>
+          <t>更新日期：2025.11.22 13:20:50</t>
         </is>
       </c>
       <c r="E1" s="16" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="D32" s="19" t="inlineStr">
         <is>
-          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, maa://70680, *maa://20960, *maa://20843, *maa://20893, *maa://20862, *maa://74314</t>
+          <t>maa://36644, maa://36866, maa://62759, *maa://45572, *maa://27794, maa://70680, maa://74314, *maa://20960, *maa://20843, *maa://20893, *maa://20862</t>
         </is>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="D53" s="19" t="inlineStr">
         <is>
-          <t>maa://20953, maa://31173</t>
+          <t>maa://31173, maa://20953</t>
         </is>
       </c>
     </row>
@@ -9064,12 +9064,12 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D66" s="19" t="inlineStr">
         <is>
-          <t>maa://28567, maa://30525, maa://38735</t>
+          <t>maa://28567, maa://30525, maa://38735, *maa://70681</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="D72" s="19" t="inlineStr">
         <is>
-          <t>maa://20943, *maa://30673, *maa://30672, maa://20856, *maa://71555</t>
+          <t>maa://20943, *maa://30673, *maa://30672, maa://71555, maa://20856</t>
         </is>
       </c>
     </row>
@@ -10032,12 +10032,12 @@
       </c>
       <c r="C110" s="7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D110" s="19" t="inlineStr">
         <is>
-          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://32653, *maa://25161, *maa://61839, *maa://61275</t>
+          <t>maa://51881, maa://25018, maa://25776, maa://28361, maa://25772, maa://56588, *maa://45194, *maa://32653, *maa://25161, *maa://61839, *maa://61275, **maa://73473</t>
         </is>
       </c>
     </row>
@@ -11198,12 +11198,12 @@
       </c>
       <c r="C163" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D163" s="19" t="inlineStr">
         <is>
-          <t>maa://44232, *maa://45603</t>
+          <t>maa://44232, *maa://45603, *maa://71762</t>
         </is>
       </c>
     </row>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="D170" s="19" t="inlineStr">
         <is>
-          <t>maa://47950, maa://20975, *maa://30806</t>
+          <t>maa://47950, *maa://20975, *maa://30806</t>
         </is>
       </c>
     </row>
@@ -12034,12 +12034,12 @@
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D201" s="19" t="inlineStr">
         <is>
-          <t>maa://44224, maa://35854, maa://50388, maa://25760, maa://63024, *maa://51066, maa://70161</t>
+          <t>maa://44224, maa://35854, maa://50388, maa://25760, maa://63024, *maa://51066, maa://70161, *maa://74410</t>
         </is>
       </c>
     </row>
@@ -14481,7 +14481,7 @@
       </c>
       <c r="D312" s="19" t="inlineStr">
         <is>
-          <t>maa://50280, maa://49642, maa://49660, maa://70004, *maa://50517</t>
+          <t>maa://50280, maa://49642, maa://70004, maa://49660, *maa://50517</t>
         </is>
       </c>
     </row>
@@ -14916,12 +14916,12 @@
       </c>
       <c r="C332" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D332" s="8" t="inlineStr">
         <is>
-          <t>maa://39692, *maa://39810</t>
+          <t>maa://39692, *maa://39810, *maa://74041</t>
         </is>
       </c>
     </row>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="D371" s="5" t="inlineStr">
         <is>
-          <t>maa://36646, maa://36845, maa://51007, *maa://70752, *maa://71932</t>
+          <t>maa://36646, maa://36845, maa://51007, *maa://70752, maa://71932</t>
         </is>
       </c>
     </row>
@@ -16808,12 +16808,12 @@
       </c>
       <c r="C418" s="13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>maa://73193</t>
+          <t>maa://73193, *maa://74820</t>
         </is>
       </c>
     </row>
@@ -16923,7 +16923,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>maa://67087, maa://67268, *maa://67269, maa://67648</t>
+          <t>maa://67087, maa://67268, *maa://67269, *maa://67648</t>
         </is>
       </c>
     </row>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>maa://73227, maa://73422, *maa://73447</t>
+          <t>maa://73227, maa://73422, maa://73447</t>
         </is>
       </c>
     </row>
